--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="798">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -215,6 +215,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Messages are available for download only on the </t>
     </r>
@@ -224,6 +225,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">receiver</t>
     </r>
@@ -233,6 +235,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> node or on the sending node if message was not sent (status = WAITING_FOR_RETRY or SEND_FAILURE)
 Message must still have it's payload (the payload has not been deleted from the message)
@@ -244,6 +247,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">containing</t>
     </r>
@@ -253,6 +257,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:
 - the message payload
@@ -419,6 +424,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Modal with form allowing the user to create a filter opens
 User can choose only plugins configured for his </t>
@@ -429,6 +435,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">select</t>
     </r>
@@ -438,6 +445,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> domain
 After user enters required data and presses OK the Save and Cancel buttons become active</t>
@@ -550,6 +558,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">User is prompted if he wishes to Cancel the changes. If user presses Yes he is taken to the </t>
     </r>
@@ -559,6 +568,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">corresponding</t>
     </r>
@@ -568,6 +578,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> domains Message filters page.
 If user chooses Not then the domain doesn't change allowing the user to save his changes.</t>
@@ -830,6 +841,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Modal with </t>
     </r>
@@ -839,6 +851,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">possible</t>
     </r>
@@ -848,6 +861,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> destinations opens allowing the user to cancel or confirm the action
 If the user confirms the message is moved to the selected destination queue. Else the message is not moved</t>
@@ -860,6 +874,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">List of messages is refreshed
 Only messages </t>
@@ -870,6 +885,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">corresponding</t>
     </r>
@@ -879,6 +895,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> to the new domain are shown
 List is at page 1</t>
@@ -1114,6 +1131,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Confirmation modal appears.
 List </t>
@@ -1124,6 +1142,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">is</t>
     </r>
@@ -1133,6 +1152,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> refreshed and user reappears.
 Save and Cancel buttons become disabled again
@@ -1149,6 +1169,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Confirmation modal appears.
 List </t>
@@ -1159,6 +1180,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">is</t>
     </r>
@@ -1168,6 +1190,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> refreshed and user is deleted permanently
 Save and Cancel buttons become disabled again
@@ -1345,6 +1368,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Filter area has the following filters:
 - </t>
@@ -1355,6 +1379,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Authentication</t>
     </r>
@@ -1364,6 +1389,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> type
 - User role
@@ -1377,6 +1403,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Authentication</t>
     </r>
@@ -1386,6 +1413,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> type dropdown has preselected the BASIC value.
 All other filters are empty.
@@ -1400,6 +1428,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1410,6 +1439,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Grid shows only columns:
 - Username
@@ -1424,6 +1454,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">disabled</t>
     </r>
@@ -1433,6 +1464,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> except New button.
 </t>
@@ -1453,6 +1485,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Confirmation modal appears.
 List </t>
@@ -1463,6 +1496,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">is</t>
     </r>
@@ -1472,6 +1506,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> refreshed and user is deleted </t>
     </r>
@@ -1481,6 +1516,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">permanently.
 </t>
@@ -1491,6 +1527,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Save and Cancel buttons become disabled again
 </t>
@@ -1852,6 +1889,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">User is presented with dropdown allowing him to pick the party ID
 Test and Update buttons are present and disabled.
@@ -1865,6 +1903,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">initially</t>
     </r>
@@ -1874,6 +1913,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> don't contain any information and are not editable</t>
     </r>
@@ -1909,6 +1949,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The submit test message form now contains 3 fields:
 Final recipient
@@ -1925,6 +1966,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">initially</t>
     </r>
@@ -1934,6 +1976,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> don't contain any information and are not editable</t>
     </r>
@@ -1966,6 +2009,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">File is visible in the PMode - Current page
 Changes take effect </t>
@@ -1976,6 +2020,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">immediately.
 </t>
@@ -1986,6 +2031,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">New row is added to the Archive table with link to the current file</t>
     </r>
@@ -2093,6 +2139,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Modal opens allowing the user to enter the </t>
     </r>
@@ -2102,6 +2149,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">necessary</t>
     </r>
@@ -2111,6 +2159,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> data to define a new party.
 Required information is clearly defined.
@@ -2122,6 +2171,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">effect</t>
     </r>
@@ -2131,6 +2181,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2140,6 +2191,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">immediately.</t>
     </r>
@@ -2154,6 +2206,7 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Modal opens allowing the user to enter the </t>
     </r>
@@ -2163,6 +2216,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">necessary</t>
     </r>
@@ -2172,6 +2226,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> data to edit the party.
 Required information is clearly defined.
@@ -2183,6 +2238,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">effect</t>
     </r>
@@ -2192,6 +2248,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2201,6 +2258,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">immediately.</t>
     </r>
@@ -3296,6 +3354,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3313,29 +3372,64 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="24"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -3343,6 +3437,81 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3350,133 +3519,49 @@
       <color rgb="FF0000EE"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3484,18 +3569,21 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3503,18 +3591,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3523,30 +3614,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3564,6 +3631,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -3648,128 +3739,128 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
@@ -3781,27 +3872,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="50" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="10" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3813,7 +3904,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3825,7 +3916,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3877,7 +3968,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3893,41 +3984,41 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
-    <cellStyle name="Accent 1 5" xfId="37"/>
-    <cellStyle name="Accent 2 6" xfId="38"/>
-    <cellStyle name="Accent 3 7" xfId="39"/>
-    <cellStyle name="Accent 4" xfId="40"/>
-    <cellStyle name="Bad 2" xfId="41"/>
-    <cellStyle name="Error 8" xfId="42"/>
-    <cellStyle name="Footnote 9" xfId="43"/>
-    <cellStyle name="Good 2" xfId="44"/>
-    <cellStyle name="Heading 1 2" xfId="45"/>
-    <cellStyle name="Heading 10" xfId="46"/>
-    <cellStyle name="Heading 2 2" xfId="47"/>
-    <cellStyle name="Hyperlink 11" xfId="48"/>
-    <cellStyle name="Neutral 2" xfId="49"/>
-    <cellStyle name="Normal 2" xfId="50"/>
-    <cellStyle name="Note 2" xfId="51"/>
-    <cellStyle name="Status 12" xfId="52"/>
-    <cellStyle name="Text 13" xfId="53"/>
-    <cellStyle name="Warning 14" xfId="54"/>
+    <cellStyle name="Accent 1 18" xfId="20"/>
+    <cellStyle name="Accent 1 5" xfId="21"/>
+    <cellStyle name="Accent 17" xfId="22"/>
+    <cellStyle name="Accent 2 19" xfId="23"/>
+    <cellStyle name="Accent 2 6" xfId="24"/>
+    <cellStyle name="Accent 3 20" xfId="25"/>
+    <cellStyle name="Accent 3 7" xfId="26"/>
+    <cellStyle name="Accent 4" xfId="27"/>
+    <cellStyle name="Bad 13" xfId="28"/>
+    <cellStyle name="Bad 2" xfId="29"/>
+    <cellStyle name="Error 16" xfId="30"/>
+    <cellStyle name="Error 8" xfId="31"/>
+    <cellStyle name="Footnote 8" xfId="32"/>
+    <cellStyle name="Footnote 9" xfId="33"/>
+    <cellStyle name="Good 11" xfId="34"/>
+    <cellStyle name="Good 2" xfId="35"/>
+    <cellStyle name="Heading 1 2" xfId="36"/>
+    <cellStyle name="Heading 1 4" xfId="37"/>
+    <cellStyle name="Heading 10" xfId="38"/>
+    <cellStyle name="Heading 2 2" xfId="39"/>
+    <cellStyle name="Heading 2 5" xfId="40"/>
+    <cellStyle name="Heading 3" xfId="41"/>
+    <cellStyle name="Hyperlink 11" xfId="42"/>
+    <cellStyle name="Hyperlink 9" xfId="43"/>
+    <cellStyle name="Neutral 12" xfId="44"/>
+    <cellStyle name="Neutral 2" xfId="45"/>
+    <cellStyle name="Normal 2" xfId="46"/>
+    <cellStyle name="Note 2" xfId="47"/>
+    <cellStyle name="Note 7" xfId="48"/>
+    <cellStyle name="Status 10" xfId="49"/>
+    <cellStyle name="Status 12" xfId="50"/>
+    <cellStyle name="Text 13" xfId="51"/>
+    <cellStyle name="Text 6" xfId="52"/>
+    <cellStyle name="Warning 14" xfId="53"/>
+    <cellStyle name="Warning 15" xfId="54"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3999,8 +4090,8 @@
   </sheetPr>
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4011,7 +4102,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4114,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4122,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4043,7 +4134,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4055,7 +4146,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -4067,7 +4158,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4079,7 +4170,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4091,7 +4182,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="n">
@@ -4099,7 +4190,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4107,7 +4198,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4119,7 +4210,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -4131,7 +4222,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -4143,7 +4234,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4155,7 +4246,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -4167,7 +4258,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="n">
@@ -4175,7 +4266,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -4183,7 +4274,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="181.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -4195,7 +4286,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -4207,7 +4298,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -4233,7 +4324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -4245,7 +4336,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -4257,74 +4348,88 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="76.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="75.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,7 +4439,9 @@
       <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,17 +4451,21 @@
       <c r="B31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4518,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -4417,7 +4528,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
@@ -4427,7 +4538,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
@@ -4437,7 +4548,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>70</v>
       </c>
@@ -4447,7 +4558,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
@@ -4457,7 +4568,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>74</v>
       </c>
@@ -4467,7 +4578,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>76</v>
       </c>
@@ -4477,7 +4588,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>78</v>
       </c>
@@ -4497,7 +4608,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>82</v>
       </c>
@@ -4507,7 +4618,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>84</v>
       </c>
@@ -4515,7 +4626,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>85</v>
       </c>
@@ -4527,7 +4638,7 @@
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>87</v>
       </c>
@@ -4539,7 +4650,7 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>89</v>
       </c>
@@ -4551,7 +4662,7 @@
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>91</v>
       </c>
@@ -4563,7 +4674,7 @@
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>93</v>
       </c>
@@ -4575,7 +4686,7 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>89</v>
       </c>
@@ -4587,7 +4698,7 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
         <v>96</v>
       </c>
@@ -4599,7 +4710,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
         <v>98</v>
       </c>
@@ -4611,7 +4722,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
         <v>100</v>
       </c>
@@ -4623,7 +4734,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>102</v>
       </c>
@@ -4635,7 +4746,7 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
         <v>104</v>
       </c>
@@ -4647,7 +4758,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>106</v>
       </c>
@@ -4657,7 +4768,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
         <v>89</v>
       </c>
@@ -4667,7 +4778,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>108</v>
       </c>
@@ -4677,7 +4788,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>109</v>
       </c>
@@ -4687,7 +4798,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>89</v>
       </c>
@@ -4697,7 +4808,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>112</v>
       </c>
@@ -4707,7 +4818,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
         <v>114</v>
       </c>
@@ -4717,7 +4828,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>116</v>
       </c>
@@ -4727,7 +4838,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>118</v>
       </c>
@@ -4737,7 +4848,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
         <v>120</v>
       </c>
@@ -4747,7 +4858,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>122</v>
       </c>
@@ -4757,7 +4868,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>124</v>
       </c>
@@ -4767,7 +4878,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>126</v>
       </c>
@@ -4777,7 +4888,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>128</v>
       </c>
@@ -4787,7 +4898,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>130</v>
       </c>
@@ -4797,7 +4908,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>132</v>
       </c>
@@ -4807,7 +4918,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>133</v>
       </c>
@@ -4817,7 +4928,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>135</v>
       </c>
@@ -4827,7 +4938,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>137</v>
       </c>
@@ -4837,7 +4948,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
@@ -4847,7 +4958,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>82</v>
       </c>
@@ -4857,7 +4968,7 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>139</v>
       </c>
@@ -4865,7 +4976,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>140</v>
       </c>
@@ -4877,7 +4988,7 @@
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>142</v>
       </c>
@@ -4887,7 +4998,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>144</v>
       </c>
@@ -4899,7 +5010,7 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>38</v>
       </c>
@@ -4909,7 +5020,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
         <v>147</v>
       </c>
@@ -4919,7 +5030,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>148</v>
       </c>
@@ -4929,7 +5040,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
         <v>149</v>
       </c>
@@ -4939,7 +5050,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>151</v>
       </c>
@@ -4949,7 +5060,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
         <v>153</v>
       </c>
@@ -4959,7 +5070,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>62</v>
       </c>
@@ -4969,7 +5080,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>64</v>
       </c>
@@ -4979,7 +5090,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>66</v>
       </c>
@@ -4989,7 +5100,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
         <v>68</v>
       </c>
@@ -4999,7 +5110,7 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>70</v>
       </c>
@@ -5009,7 +5120,7 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>72</v>
       </c>
@@ -5019,7 +5130,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>74</v>
       </c>
@@ -5029,7 +5140,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
         <v>159</v>
       </c>
@@ -5039,7 +5150,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>161</v>
       </c>
@@ -5049,7 +5160,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
         <v>162</v>
       </c>
@@ -5059,7 +5170,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>164</v>
       </c>
@@ -5069,7 +5180,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
         <v>166</v>
       </c>
@@ -5077,7 +5188,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>168</v>
       </c>
@@ -5085,7 +5196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>170</v>
       </c>
@@ -5093,7 +5204,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>80</v>
       </c>
@@ -5101,7 +5212,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>82</v>
       </c>
@@ -5109,13 +5220,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="236.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>173</v>
       </c>
@@ -5123,7 +5234,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>34</v>
       </c>
@@ -5131,7 +5242,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>176</v>
       </c>
@@ -5139,7 +5250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>41</v>
       </c>
@@ -5147,7 +5258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>149</v>
       </c>
@@ -5155,7 +5266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>45</v>
       </c>
@@ -5163,7 +5274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>177</v>
       </c>
@@ -5171,7 +5282,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>179</v>
       </c>
@@ -5179,7 +5290,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
@@ -5191,7 +5302,7 @@
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>53</v>
       </c>
@@ -5199,7 +5310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>55</v>
       </c>
@@ -5207,7 +5318,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>182</v>
       </c>
@@ -5215,7 +5326,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>45</v>
       </c>
@@ -5223,7 +5334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>62</v>
       </c>
@@ -5231,7 +5342,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>64</v>
       </c>
@@ -5239,7 +5350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>66</v>
       </c>
@@ -5247,7 +5358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>68</v>
       </c>
@@ -5255,7 +5366,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>186</v>
       </c>
@@ -5263,7 +5374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>72</v>
       </c>
@@ -5271,7 +5382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>74</v>
       </c>
@@ -5279,7 +5390,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>159</v>
       </c>
@@ -5287,7 +5398,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>189</v>
       </c>
@@ -5295,7 +5406,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>190</v>
       </c>
@@ -5303,7 +5414,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>192</v>
       </c>
@@ -5311,7 +5422,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>194</v>
       </c>
@@ -5319,7 +5430,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>196</v>
       </c>
@@ -5327,7 +5438,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>198</v>
       </c>
@@ -5335,7 +5446,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>199</v>
       </c>
@@ -5343,7 +5454,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>80</v>
       </c>
@@ -5351,7 +5462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>82</v>
       </c>
@@ -5363,13 +5474,13 @@
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>202</v>
       </c>
@@ -5377,7 +5488,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
         <v>204</v>
       </c>
@@ -5385,7 +5496,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>206</v>
       </c>
@@ -5393,7 +5504,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
         <v>208</v>
       </c>
@@ -5401,7 +5512,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
         <v>210</v>
       </c>
@@ -5409,7 +5520,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
         <v>62</v>
       </c>
@@ -5417,7 +5528,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
         <v>64</v>
       </c>
@@ -5425,7 +5536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
         <v>66</v>
       </c>
@@ -5433,7 +5544,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
         <v>68</v>
       </c>
@@ -5441,7 +5552,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
         <v>72</v>
       </c>
@@ -5449,7 +5560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
         <v>74</v>
       </c>
@@ -5457,7 +5568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
         <v>214</v>
       </c>
@@ -5465,7 +5576,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
         <v>216</v>
       </c>
@@ -5473,7 +5584,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
         <v>218</v>
       </c>
@@ -5481,7 +5592,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
         <v>220</v>
       </c>
@@ -5489,7 +5600,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
         <v>80</v>
       </c>
@@ -5497,7 +5608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
         <v>82</v>
       </c>
@@ -5505,13 +5616,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
         <v>224</v>
       </c>
@@ -5522,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
         <v>226</v>
       </c>
@@ -5533,7 +5644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
         <v>228</v>
       </c>
@@ -5544,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
         <v>230</v>
       </c>
@@ -5555,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
         <v>232</v>
       </c>
@@ -5566,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
         <v>234</v>
       </c>
@@ -5577,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
         <v>236</v>
       </c>
@@ -5588,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
         <v>238</v>
       </c>
@@ -5599,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
         <v>240</v>
       </c>
@@ -5610,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
         <v>242</v>
       </c>
@@ -5621,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
         <v>244</v>
       </c>
@@ -5632,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
         <v>246</v>
       </c>
@@ -5643,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
         <v>248</v>
       </c>
@@ -5654,7 +5765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
         <v>250</v>
       </c>
@@ -5665,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
         <v>252</v>
       </c>
@@ -5676,7 +5787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
         <v>254</v>
       </c>
@@ -5687,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
         <v>256</v>
       </c>
@@ -5698,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
         <v>258</v>
       </c>
@@ -5709,7 +5820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
         <v>260</v>
       </c>
@@ -5720,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
         <v>262</v>
       </c>
@@ -5731,7 +5842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
         <v>264</v>
       </c>
@@ -5742,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
         <v>266</v>
       </c>
@@ -5753,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
         <v>267</v>
       </c>
@@ -5764,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
         <v>268</v>
       </c>
@@ -5775,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
         <v>269</v>
       </c>
@@ -5786,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
         <v>271</v>
       </c>
@@ -5797,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
         <v>273</v>
       </c>
@@ -5808,7 +5919,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
         <v>276</v>
       </c>
@@ -5819,7 +5930,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
         <v>62</v>
       </c>
@@ -5830,7 +5941,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
         <v>64</v>
       </c>
@@ -5841,7 +5952,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
         <v>66</v>
       </c>
@@ -5852,7 +5963,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
         <v>68</v>
       </c>
@@ -5863,7 +5974,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
         <v>72</v>
       </c>
@@ -5874,7 +5985,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
         <v>280</v>
       </c>
@@ -5885,7 +5996,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
         <v>74</v>
       </c>
@@ -5896,7 +6007,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
         <v>283</v>
       </c>
@@ -5904,7 +6015,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
         <v>285</v>
       </c>
@@ -5912,7 +6023,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
         <v>287</v>
       </c>
@@ -5920,7 +6031,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
         <v>289</v>
       </c>
@@ -5928,7 +6039,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
         <v>290</v>
       </c>
@@ -5936,7 +6047,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
         <v>291</v>
       </c>
@@ -5944,7 +6055,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
         <v>80</v>
       </c>
@@ -5952,7 +6063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
         <v>82</v>
       </c>
@@ -5960,13 +6071,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="189.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
         <v>294</v>
       </c>
@@ -5977,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
         <v>296</v>
       </c>
@@ -5988,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
         <v>232</v>
       </c>
@@ -5999,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
         <v>234</v>
       </c>
@@ -6010,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
         <v>236</v>
       </c>
@@ -6021,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
         <v>238</v>
       </c>
@@ -6032,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
         <v>240</v>
       </c>
@@ -6043,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
         <v>242</v>
       </c>
@@ -6054,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
         <v>244</v>
       </c>
@@ -6065,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="s">
         <v>246</v>
       </c>
@@ -6076,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
         <v>299</v>
       </c>
@@ -6095,7 +6206,7 @@
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
     </row>
-    <row r="216" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
         <v>254</v>
       </c>
@@ -6106,7 +6217,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
         <v>258</v>
       </c>
@@ -6117,7 +6228,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
         <v>260</v>
       </c>
@@ -6128,7 +6239,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
         <v>262</v>
       </c>
@@ -6139,7 +6250,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
         <v>303</v>
       </c>
@@ -6150,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
         <v>305</v>
       </c>
@@ -6161,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
         <v>306</v>
       </c>
@@ -6172,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
         <v>307</v>
       </c>
@@ -6183,7 +6294,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
         <v>309</v>
       </c>
@@ -6194,7 +6305,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
         <v>64</v>
       </c>
@@ -6205,7 +6316,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
         <v>66</v>
       </c>
@@ -6216,7 +6327,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
         <v>68</v>
       </c>
@@ -6227,7 +6338,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
         <v>72</v>
       </c>
@@ -6238,7 +6349,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
         <v>280</v>
       </c>
@@ -6249,7 +6360,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
         <v>74</v>
       </c>
@@ -6260,7 +6371,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
         <v>80</v>
       </c>
@@ -6271,7 +6382,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
         <v>82</v>
       </c>
@@ -6282,7 +6393,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
         <v>313</v>
       </c>
@@ -6293,7 +6404,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
         <v>315</v>
       </c>
@@ -6316,13 +6427,13 @@
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
         <v>317</v>
       </c>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
         <v>318</v>
       </c>
@@ -6330,7 +6441,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
         <v>320</v>
       </c>
@@ -6338,7 +6449,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
         <v>36</v>
       </c>
@@ -6346,7 +6457,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
         <v>38</v>
       </c>
@@ -6354,7 +6465,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="s">
         <v>324</v>
       </c>
@@ -6362,7 +6473,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="s">
         <v>325</v>
       </c>
@@ -6370,7 +6481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="s">
         <v>149</v>
       </c>
@@ -6378,7 +6489,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="s">
         <v>151</v>
       </c>
@@ -6386,7 +6497,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="s">
         <v>328</v>
       </c>
@@ -6394,7 +6505,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="s">
         <v>330</v>
       </c>
@@ -6402,7 +6513,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="s">
         <v>332</v>
       </c>
@@ -6410,7 +6521,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="s">
         <v>334</v>
       </c>
@@ -6418,7 +6529,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="s">
         <v>336</v>
       </c>
@@ -6426,7 +6537,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="s">
         <v>338</v>
       </c>
@@ -6434,7 +6545,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="s">
         <v>339</v>
       </c>
@@ -6442,7 +6553,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="s">
         <v>341</v>
       </c>
@@ -6450,7 +6561,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="s">
         <v>343</v>
       </c>
@@ -6458,7 +6569,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="s">
         <v>344</v>
       </c>
@@ -6466,7 +6577,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="s">
         <v>346</v>
       </c>
@@ -6474,7 +6585,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="s">
         <v>348</v>
       </c>
@@ -6482,7 +6593,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="s">
         <v>350</v>
       </c>
@@ -6490,7 +6601,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="s">
         <v>352</v>
       </c>
@@ -6498,7 +6609,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="s">
         <v>353</v>
       </c>
@@ -6506,7 +6617,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="s">
         <v>355</v>
       </c>
@@ -6514,7 +6625,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="s">
         <v>356</v>
       </c>
@@ -6522,7 +6633,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="s">
         <v>358</v>
       </c>
@@ -6530,7 +6641,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="s">
         <v>359</v>
       </c>
@@ -6538,7 +6649,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="s">
         <v>360</v>
       </c>
@@ -6546,7 +6657,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="s">
         <v>361</v>
       </c>
@@ -6554,7 +6665,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="s">
         <v>363</v>
       </c>
@@ -6562,7 +6673,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="s">
         <v>364</v>
       </c>
@@ -6570,7 +6681,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="s">
         <v>62</v>
       </c>
@@ -6578,7 +6689,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="s">
         <v>64</v>
       </c>
@@ -6586,7 +6697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="s">
         <v>66</v>
       </c>
@@ -6594,7 +6705,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
         <v>68</v>
       </c>
@@ -6602,7 +6713,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="s">
         <v>72</v>
       </c>
@@ -6610,7 +6721,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="s">
         <v>366</v>
       </c>
@@ -6618,7 +6729,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="s">
         <v>74</v>
       </c>
@@ -6626,7 +6737,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="s">
         <v>80</v>
       </c>
@@ -6634,7 +6745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="s">
         <v>82</v>
       </c>
@@ -6642,13 +6753,13 @@
         <v>312</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
         <v>368</v>
       </c>
       <c r="B279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="s">
         <v>140</v>
       </c>
@@ -6656,7 +6767,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="s">
         <v>370</v>
       </c>
@@ -6664,7 +6775,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="s">
         <v>372</v>
       </c>
@@ -6672,7 +6783,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="s">
         <v>373</v>
       </c>
@@ -6680,7 +6791,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="s">
         <v>374</v>
       </c>
@@ -6688,7 +6799,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="s">
         <v>376</v>
       </c>
@@ -6696,7 +6807,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="s">
         <v>377</v>
       </c>
@@ -6704,7 +6815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="s">
         <v>149</v>
       </c>
@@ -6712,7 +6823,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
         <v>151</v>
       </c>
@@ -6720,7 +6831,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="s">
         <v>380</v>
       </c>
@@ -6728,7 +6839,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="s">
         <v>382</v>
       </c>
@@ -6736,7 +6847,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="s">
         <v>384</v>
       </c>
@@ -6744,7 +6855,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="s">
         <v>386</v>
       </c>
@@ -6752,7 +6863,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="s">
         <v>388</v>
       </c>
@@ -6760,7 +6871,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="s">
         <v>390</v>
       </c>
@@ -6768,7 +6879,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="s">
         <v>392</v>
       </c>
@@ -6776,7 +6887,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="s">
         <v>393</v>
       </c>
@@ -6784,7 +6895,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="s">
         <v>395</v>
       </c>
@@ -6792,7 +6903,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="s">
         <v>80</v>
       </c>
@@ -6800,7 +6911,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="s">
         <v>82</v>
       </c>
@@ -6808,13 +6919,13 @@
         <v>312</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
         <v>397</v>
       </c>
       <c r="B300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="s">
         <v>398</v>
       </c>
@@ -6825,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="s">
         <v>400</v>
       </c>
@@ -6836,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="s">
         <v>402</v>
       </c>
@@ -6847,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="s">
         <v>404</v>
       </c>
@@ -6858,7 +6969,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="92.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="s">
         <v>406</v>
       </c>
@@ -6869,7 +6980,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="s">
         <v>408</v>
       </c>
@@ -6880,7 +6991,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="s">
         <v>404</v>
       </c>
@@ -6891,13 +7002,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
         <v>410</v>
       </c>
       <c r="B308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="s">
         <v>411</v>
       </c>
@@ -6905,7 +7016,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="s">
         <v>413</v>
       </c>
@@ -6913,7 +7024,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="s">
         <v>415</v>
       </c>
@@ -6921,7 +7032,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="s">
         <v>417</v>
       </c>
@@ -6929,7 +7040,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="s">
         <v>419</v>
       </c>
@@ -6937,7 +7048,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="s">
         <v>420</v>
       </c>
@@ -6945,7 +7056,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="s">
         <v>422</v>
       </c>
@@ -6953,7 +7064,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="s">
         <v>424</v>
       </c>
@@ -6961,7 +7072,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="s">
         <v>426</v>
       </c>
@@ -6969,7 +7080,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="s">
         <v>428</v>
       </c>
@@ -6977,7 +7088,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="s">
         <v>430</v>
       </c>
@@ -6985,7 +7096,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="s">
         <v>432</v>
       </c>
@@ -6993,7 +7104,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="s">
         <v>434</v>
       </c>
@@ -7001,7 +7112,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="s">
         <v>436</v>
       </c>
@@ -7009,7 +7120,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="s">
         <v>438</v>
       </c>
@@ -7017,7 +7128,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="s">
         <v>440</v>
       </c>
@@ -7025,7 +7136,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="s">
         <v>442</v>
       </c>
@@ -7033,7 +7144,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="s">
         <v>444</v>
       </c>
@@ -7041,7 +7152,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="s">
         <v>446</v>
       </c>
@@ -7049,7 +7160,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="s">
         <v>448</v>
       </c>
@@ -7057,7 +7168,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
         <v>450</v>
       </c>
@@ -7065,7 +7176,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="s">
         <v>452</v>
       </c>
@@ -7073,7 +7184,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
         <v>454</v>
       </c>
@@ -7081,7 +7192,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
         <v>64</v>
       </c>
@@ -7089,7 +7200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
         <v>66</v>
       </c>
@@ -7097,7 +7208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="s">
         <v>68</v>
       </c>
@@ -7105,7 +7216,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
         <v>72</v>
       </c>
@@ -7113,7 +7224,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="s">
         <v>366</v>
       </c>
@@ -7121,7 +7232,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
         <v>74</v>
       </c>
@@ -7129,7 +7240,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="s">
         <v>456</v>
       </c>
@@ -7137,7 +7248,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
         <v>458</v>
       </c>
@@ -7145,7 +7256,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="s">
         <v>460</v>
       </c>
@@ -7157,13 +7268,13 @@
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
     </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B342" s="3"/>
     </row>
-    <row r="343" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
         <v>463</v>
       </c>
@@ -7171,7 +7282,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
         <v>465</v>
       </c>
@@ -7179,7 +7290,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="s">
         <v>467</v>
       </c>
@@ -7187,7 +7298,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
         <v>469</v>
       </c>
@@ -7195,7 +7306,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
         <v>471</v>
       </c>
@@ -7203,7 +7314,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
         <v>473</v>
       </c>
@@ -7211,7 +7322,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
         <v>475</v>
       </c>
@@ -7219,7 +7330,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
         <v>477</v>
       </c>

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="800">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -993,6 +993,9 @@
     <t xml:space="preserve">List is downloaded and corresponds to the active domain</t>
   </si>
   <si>
+    <t xml:space="preserve">lp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Upload random file</t>
   </si>
   <si>
@@ -1024,6 +1027,9 @@
   </si>
   <si>
     <t xml:space="preserve">File gets uploaded and Old records are replaced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rest</t>
   </si>
   <si>
     <t xml:space="preserve">Upload  jks files with password with password protected aliases</t>
@@ -2005,7 +2011,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
@@ -2023,17 +2029,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">immediately.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">New row is added to the Archive table with link to the current file</t>
+New row is added to the Archive table with link to the current file</t>
     </r>
   </si>
   <si>
@@ -3348,7 +3344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3557,7 +3553,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -3565,6 +3561,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -3590,6 +3593,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3863,7 +3874,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3892,6 +3903,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3900,7 +3915,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3908,7 +3923,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3916,7 +3931,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="9" borderId="0" xfId="46" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3928,15 +3943,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3944,7 +3959,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3956,7 +3971,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3964,7 +3979,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4090,19 +4105,19 @@
   </sheetPr>
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B348" activeCellId="0" sqref="B348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="86.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="90.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="123.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +4137,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4134,7 +4149,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -4146,7 +4161,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -4158,7 +4173,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4170,7 +4185,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4182,7 +4197,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="n">
@@ -4198,7 +4213,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4210,7 +4225,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -4222,7 +4237,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -4234,7 +4249,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4246,7 +4261,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -4258,7 +4273,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="n">
@@ -4274,7 +4289,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="181.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -4286,7 +4301,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -4298,7 +4313,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -4312,7 +4327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -4324,7 +4339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -4336,7 +4351,7 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -4348,7 +4363,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -4360,7 +4375,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -4372,7 +4387,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -4384,7 +4399,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
@@ -4396,7 +4411,7 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -4408,7 +4423,7 @@
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -4420,11 +4435,11 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="75.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="n">
@@ -4432,7 +4447,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -4444,7 +4459,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -4456,7 +4471,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -4468,7 +4483,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
@@ -4478,7 +4493,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>57</v>
       </c>
@@ -4488,7 +4503,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
@@ -4498,7 +4513,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
@@ -4508,7 +4523,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
@@ -4518,7 +4533,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -4528,7 +4543,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
@@ -4538,7 +4553,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
@@ -4548,7 +4563,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>70</v>
       </c>
@@ -4558,7 +4573,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
@@ -4568,7 +4583,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>74</v>
       </c>
@@ -4578,7 +4593,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>76</v>
       </c>
@@ -4588,7 +4603,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>78</v>
       </c>
@@ -4598,7 +4613,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>80</v>
       </c>
@@ -4608,7 +4623,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>82</v>
       </c>
@@ -4626,7 +4641,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>85</v>
       </c>
@@ -4638,11 +4653,11 @@
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C50" s="5" t="n">
@@ -4650,8 +4665,8 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+    <row r="51" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -4662,8 +4677,8 @@
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+    <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -4674,8 +4689,8 @@
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -4686,8 +4701,8 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -4698,8 +4713,8 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+    <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4710,8 +4725,8 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+    <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -4722,8 +4737,8 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -4734,8 +4749,8 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+    <row r="58" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -4746,8 +4761,8 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -4758,7 +4773,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>106</v>
       </c>
@@ -4768,8 +4783,8 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -4778,7 +4793,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>108</v>
       </c>
@@ -4788,7 +4803,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>109</v>
       </c>
@@ -4798,7 +4813,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>89</v>
       </c>
@@ -4808,7 +4823,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>112</v>
       </c>
@@ -4818,7 +4833,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
         <v>114</v>
       </c>
@@ -4828,17 +4843,17 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>118</v>
       </c>
@@ -4848,7 +4863,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
         <v>120</v>
       </c>
@@ -4858,7 +4873,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>122</v>
       </c>
@@ -4868,7 +4883,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>124</v>
       </c>
@@ -4878,7 +4893,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>126</v>
       </c>
@@ -4888,7 +4903,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>128</v>
       </c>
@@ -4898,7 +4913,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>130</v>
       </c>
@@ -4908,7 +4923,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>132</v>
       </c>
@@ -4918,7 +4933,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>133</v>
       </c>
@@ -4928,7 +4943,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>135</v>
       </c>
@@ -4938,7 +4953,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>137</v>
       </c>
@@ -4948,7 +4963,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
@@ -4958,7 +4973,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>82</v>
       </c>
@@ -4976,7 +4991,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>140</v>
       </c>
@@ -4988,7 +5003,7 @@
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>142</v>
       </c>
@@ -4998,7 +5013,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>144</v>
       </c>
@@ -5010,7 +5025,7 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>38</v>
       </c>
@@ -5020,7 +5035,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
         <v>147</v>
       </c>
@@ -5030,7 +5045,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>148</v>
       </c>
@@ -5040,7 +5055,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
         <v>149</v>
       </c>
@@ -5050,7 +5065,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>151</v>
       </c>
@@ -5060,7 +5075,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
         <v>153</v>
       </c>
@@ -5070,7 +5085,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>62</v>
       </c>
@@ -5080,7 +5095,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>64</v>
       </c>
@@ -5090,7 +5105,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>66</v>
       </c>
@@ -5100,7 +5115,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
         <v>68</v>
       </c>
@@ -5110,7 +5125,7 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>70</v>
       </c>
@@ -5120,7 +5135,7 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>72</v>
       </c>
@@ -5130,7 +5145,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>74</v>
       </c>
@@ -5140,7 +5155,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
         <v>159</v>
       </c>
@@ -5150,7 +5165,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>161</v>
       </c>
@@ -5160,7 +5175,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
         <v>162</v>
       </c>
@@ -5170,7 +5185,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>164</v>
       </c>
@@ -5180,7 +5195,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
         <v>166</v>
       </c>
@@ -5188,7 +5203,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>168</v>
       </c>
@@ -5196,7 +5211,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>170</v>
       </c>
@@ -5204,7 +5219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>80</v>
       </c>
@@ -5212,7 +5227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>82</v>
       </c>
@@ -5226,7 +5241,7 @@
       </c>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="236.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>173</v>
       </c>
@@ -5234,7 +5249,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>34</v>
       </c>
@@ -5242,7 +5257,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>176</v>
       </c>
@@ -5250,7 +5265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>41</v>
       </c>
@@ -5258,7 +5273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>149</v>
       </c>
@@ -5266,7 +5281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>45</v>
       </c>
@@ -5274,7 +5289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>177</v>
       </c>
@@ -5282,15 +5297,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
@@ -5298,11 +5313,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>53</v>
       </c>
@@ -5310,15 +5325,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>182</v>
       </c>
@@ -5326,7 +5341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>45</v>
       </c>
@@ -5334,7 +5349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>62</v>
       </c>
@@ -5342,7 +5357,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>64</v>
       </c>
@@ -5350,7 +5365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>66</v>
       </c>
@@ -5358,7 +5373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>68</v>
       </c>
@@ -5366,7 +5381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>186</v>
       </c>
@@ -5374,7 +5389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>72</v>
       </c>
@@ -5382,7 +5397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>74</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>159</v>
       </c>
@@ -5398,7 +5413,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>189</v>
       </c>
@@ -5406,7 +5421,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>190</v>
       </c>
@@ -5414,7 +5429,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>192</v>
       </c>
@@ -5422,7 +5437,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>194</v>
       </c>
@@ -5430,7 +5445,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>196</v>
       </c>
@@ -5438,7 +5453,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>198</v>
       </c>
@@ -5446,7 +5461,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>199</v>
       </c>
@@ -5454,7 +5469,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>80</v>
       </c>
@@ -5462,7 +5477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>82</v>
       </c>
@@ -5470,7 +5485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
     </row>
@@ -5480,468 +5495,519 @@
       </c>
       <c r="B140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="s">
+      <c r="C141" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D149" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="s">
-        <v>228</v>
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="s">
-        <v>230</v>
+    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="s">
-        <v>232</v>
+    <row r="163" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7" t="s">
-        <v>234</v>
+    <row r="164" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7" t="s">
-        <v>236</v>
+    <row r="165" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="s">
-        <v>238</v>
+    <row r="166" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="s">
-        <v>240</v>
+    <row r="167" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>243</v>
+    <row r="168" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="s">
-        <v>246</v>
+    <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="s">
-        <v>248</v>
+    <row r="171" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="C186" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B187" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="188" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
         <v>64</v>
       </c>
@@ -5949,10 +6015,10 @@
         <v>65</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
         <v>66</v>
       </c>
@@ -5960,102 +6026,102 @@
         <v>67</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
         <v>80</v>
       </c>
@@ -6063,249 +6129,249 @@
         <v>81</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="189.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="C203" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="7" t="s">
-        <v>296</v>
+    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C204" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="7" t="s">
-        <v>232</v>
+    <row r="205" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C205" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="7" t="s">
-        <v>234</v>
+    <row r="206" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C206" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="7" t="s">
-        <v>236</v>
+    <row r="207" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C207" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="7" t="s">
-        <v>238</v>
+    <row r="208" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="7" t="s">
-        <v>240</v>
+    <row r="209" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C209" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>243</v>
+    <row r="210" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>298</v>
+        <v>246</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="C211" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="7" t="s">
-        <v>246</v>
+    <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="7" t="s">
-        <v>299</v>
+    <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
     </row>
-    <row r="216" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C220" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C221" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
         <v>64</v>
       </c>
@@ -6313,10 +6379,10 @@
         <v>65</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
         <v>66</v>
       </c>
@@ -6324,54 +6390,54 @@
         <v>67</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C228" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="B229" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
         <v>80</v>
       </c>
@@ -6379,317 +6445,317 @@
         <v>81</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
     </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B243" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B250" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B258" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="5" t="s">
+    <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B269" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="270" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="s">
         <v>64</v>
       </c>
@@ -6697,7 +6763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="s">
         <v>66</v>
       </c>
@@ -6705,39 +6771,39 @@
         <v>67</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="s">
         <v>80</v>
       </c>
@@ -6745,165 +6811,165 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="s">
         <v>80</v>
       </c>
@@ -6911,434 +6977,527 @@
         <v>81</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="C301" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C302" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C303" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="92.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="B307" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="C307" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+      <c r="C309" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>416</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+      <c r="C313" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>423</v>
+      </c>
+      <c r="C314" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>425</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>429</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>431</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>433</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>435</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>437</v>
+      </c>
+      <c r="C321" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+      <c r="C322" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>443</v>
+      </c>
+      <c r="C324" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>445</v>
+      </c>
+      <c r="C325" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C326" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C327" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>451</v>
+      </c>
+      <c r="C328" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+      <c r="C329" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>455</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="333" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D332" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="334" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D333" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>461</v>
+      </c>
+      <c r="C339" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+      <c r="C340" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
     </row>
-    <row r="342" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B342" s="3"/>
     </row>
-    <row r="343" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
     </row>
@@ -7388,122 +7547,122 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>482</v>
+      <c r="A6" s="9" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>501</v>
+      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
-        <v>504</v>
+      <c r="A77" s="11" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
-        <v>505</v>
+      <c r="A78" s="11" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7538,34 +7697,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>508</v>
       </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>509</v>
+      <c r="C2" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>510</v>
+      <c r="A3" s="10" t="s">
+        <v>512</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>9080</v>
@@ -7575,735 +7734,735 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>511</v>
+      <c r="A5" s="10" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>514</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>519</v>
+      <c r="A10" s="9" t="s">
+        <v>521</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>521</v>
+      <c r="A11" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>523</v>
+      <c r="A12" s="9" t="s">
+        <v>525</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>525</v>
+      <c r="A13" s="9" t="s">
+        <v>527</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>531</v>
+      <c r="A17" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>537</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="C24" s="8" t="s">
         <v>535</v>
       </c>
+      <c r="C24" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="D24" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>549</v>
+      <c r="A38" s="10" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>551</v>
+      <c r="A39" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>553</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>553</v>
+      <c r="A40" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>554</v>
+      <c r="A41" s="15" t="s">
+        <v>556</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>556</v>
+      <c r="A42" s="15" t="s">
+        <v>558</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>562</v>
+      <c r="A47" s="9" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>565</v>
+      <c r="A50" s="10" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>567</v>
-      </c>
       <c r="C53" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>570</v>
+      <c r="A55" s="10" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>572</v>
+      <c r="A56" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>574</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B57" s="15"/>
+      <c r="A57" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B57" s="16"/>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B59" s="16"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="0" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="B59" s="15"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>572</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="15"/>
+      <c r="B63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="B64" s="15"/>
+      <c r="A64" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B64" s="16"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15"/>
+      <c r="B65" s="16"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
-        <v>578</v>
+      <c r="A70" s="10" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="s">
-        <v>579</v>
+      <c r="A71" s="10" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
-        <v>511</v>
+      <c r="A72" s="10" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>580</v>
+      <c r="A77" s="9" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>521</v>
+      <c r="A78" s="9" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
-        <v>531</v>
+      <c r="A82" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="s">
-        <v>549</v>
+      <c r="A99" s="10" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
-        <v>581</v>
+      <c r="A104" s="9" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="s">
-        <v>565</v>
+      <c r="A107" s="10" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>567</v>
-      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
-        <v>570</v>
+      <c r="A112" s="10" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
-        <v>571</v>
+      <c r="A113" s="9" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
-        <v>573</v>
+      <c r="A114" s="9" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
-        <v>574</v>
+      <c r="A115" s="9" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
-        <v>575</v>
+      <c r="A116" s="9" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16" t="s">
-        <v>576</v>
+      <c r="A118" s="17" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
-        <v>577</v>
+      <c r="A121" s="10" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -8342,293 +8501,293 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="A2" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="A3" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>588</v>
+      <c r="A6" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>590</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>590</v>
+      <c r="A8" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>592</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="B10" s="14"/>
+      <c r="A10" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>593</v>
+      <c r="A12" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>595</v>
+      <c r="A14" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="B16" s="14"/>
+      <c r="A16" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="B18" s="14"/>
+      <c r="A18" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>599</v>
+      <c r="A20" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="B21" s="14"/>
+      <c r="A21" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="B22" s="14"/>
+      <c r="A22" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="B24" s="14"/>
+      <c r="A24" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="B24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="B25" s="14"/>
+      <c r="A25" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="B25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="B26" s="14"/>
+      <c r="A26" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="B27" s="14"/>
+      <c r="A27" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="B28" s="14"/>
+      <c r="A28" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="B29" s="14"/>
+      <c r="A29" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="B30" s="14"/>
+      <c r="A30" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="B31" s="14"/>
+      <c r="A31" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="B32" s="14"/>
+      <c r="A32" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B33" s="14"/>
+      <c r="A33" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="B34" s="14"/>
+      <c r="A34" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8639,367 +8798,367 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -9026,325 +9185,325 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="124.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="49.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="19" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="124.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="49.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="20" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>691</v>
+      <c r="A1" s="21" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>692</v>
+      <c r="A3" s="20" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>693</v>
+      <c r="A4" s="20" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>694</v>
+      <c r="A5" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>693</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>702</v>
+      <c r="A12" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>703</v>
+      <c r="A13" s="20" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>704</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>710</v>
+      <c r="A24" s="20" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>693</v>
+      <c r="A25" s="20" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>693</v>
+      <c r="A26" s="20" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>693</v>
+      <c r="A27" s="20" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>711</v>
+      <c r="A28" s="20" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>693</v>
+      <c r="A29" s="20" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>712</v>
+      <c r="A30" s="20" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
-        <v>693</v>
+      <c r="A31" s="20" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
-        <v>713</v>
+      <c r="A32" s="20" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>714</v>
+      <c r="A33" s="20" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
-        <v>715</v>
+      <c r="A34" s="20" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
-        <v>716</v>
+      <c r="A35" s="20" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
-        <v>717</v>
+      <c r="A36" s="20" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
-        <v>718</v>
+      <c r="A37" s="20" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>719</v>
+      <c r="A38" s="20" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>720</v>
+      <c r="A40" s="20" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
-        <v>721</v>
+      <c r="A41" s="20" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>722</v>
+      <c r="A42" s="20" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>723</v>
+      <c r="A43" s="20" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
-        <v>724</v>
+      <c r="A44" s="20" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
-        <v>725</v>
+      <c r="A45" s="20" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
-        <v>726</v>
+      <c r="A47" s="20" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
-        <v>727</v>
+      <c r="A48" s="20" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
-        <v>728</v>
+      <c r="A49" s="20" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
-        <v>729</v>
+      <c r="A51" s="20" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
-        <v>730</v>
+      <c r="A52" s="20" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
-        <v>731</v>
+      <c r="A53" s="20" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>732</v>
+      <c r="A54" s="20" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
-        <v>731</v>
-      </c>
-    </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>735</v>
+      <c r="A60" s="20" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="s">
-        <v>736</v>
+      <c r="A62" s="20" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19" t="s">
-        <v>737</v>
+      <c r="A63" s="20" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19" t="s">
-        <v>738</v>
+      <c r="A64" s="20" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19" t="s">
-        <v>739</v>
+      <c r="A67" s="20" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19" t="s">
-        <v>740</v>
+      <c r="A68" s="20" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -9372,499 +9531,499 @@
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="90.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="98.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="90.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="98.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
-        <v>741</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>742</v>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
+      <c r="A2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
+      <c r="A4" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>744</v>
+      <c r="B4" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21" t="s">
-        <v>745</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>746</v>
+      <c r="A6" s="25"/>
+      <c r="B6" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24"/>
-      <c r="B7" s="21" t="s">
-        <v>747</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>748</v>
+      <c r="A7" s="25"/>
+      <c r="B7" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21" t="s">
-        <v>749</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>750</v>
+      <c r="A9" s="25"/>
+      <c r="B9" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>752</v>
+      <c r="B11" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>754</v>
+      <c r="A13" s="25"/>
+      <c r="B13" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24"/>
-      <c r="B15" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>756</v>
+      <c r="A15" s="25"/>
+      <c r="B15" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>757</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>758</v>
+      <c r="B17" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21" t="s">
-        <v>759</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>760</v>
+      <c r="A19" s="25"/>
+      <c r="B19" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21" t="s">
-        <v>761</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>761</v>
+      <c r="A20" s="25"/>
+      <c r="B20" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
-      <c r="B21" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>762</v>
+      <c r="A21" s="25"/>
+      <c r="B21" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
-      <c r="B22" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>764</v>
+      <c r="A22" s="25"/>
+      <c r="B22" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="n">
+      <c r="A24" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>765</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>765</v>
+      <c r="B24" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24"/>
-      <c r="B26" s="21" t="s">
-        <v>766</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>767</v>
+      <c r="A26" s="25"/>
+      <c r="B26" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21" t="s">
-        <v>634</v>
+      <c r="A27" s="25"/>
+      <c r="B27" s="22" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24"/>
-      <c r="B28" s="21" t="s">
-        <v>768</v>
+      <c r="A28" s="25"/>
+      <c r="B28" s="22" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
-      <c r="B29" s="21" t="s">
-        <v>769</v>
+      <c r="A29" s="25"/>
+      <c r="B29" s="22" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="n">
+      <c r="A31" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>770</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>770</v>
+      <c r="B31" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24"/>
-      <c r="B33" s="21" t="s">
-        <v>771</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>772</v>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24"/>
+      <c r="A34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="n">
+      <c r="A35" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>773</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>773</v>
+      <c r="B35" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24"/>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24"/>
-      <c r="B37" s="21" t="s">
-        <v>774</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>775</v>
+      <c r="A37" s="25"/>
+      <c r="B37" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24"/>
-      <c r="B39" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>777</v>
+      <c r="A39" s="25"/>
+      <c r="B39" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24"/>
-      <c r="B40" s="21" t="s">
-        <v>778</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>779</v>
+      <c r="A40" s="25"/>
+      <c r="B40" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24"/>
+      <c r="A41" s="25"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="n">
+      <c r="A42" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>780</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>781</v>
+      <c r="B42" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24"/>
+      <c r="A43" s="25"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24"/>
-      <c r="B44" s="21" t="s">
-        <v>782</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>782</v>
+      <c r="A44" s="25"/>
+      <c r="B44" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24"/>
+      <c r="A45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="n">
+      <c r="A46" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="C46" s="25"/>
+      <c r="B46" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26" t="s">
-        <v>784</v>
+      <c r="A47" s="25"/>
+      <c r="B47" s="27" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="25"/>
+      <c r="B48" s="22" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="25"/>
+      <c r="B49" s="22" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="25"/>
+      <c r="B50" s="22" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="25"/>
+      <c r="B51" s="22" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="25"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B53" s="26" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="B49" s="21" t="s">
+      <c r="C53" s="26"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="25"/>
+      <c r="B54" s="22" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24"/>
-      <c r="B50" s="21" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="25"/>
+      <c r="B55" s="22" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24"/>
-      <c r="B51" s="21" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="C53" s="25"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="B54" s="21" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24"/>
-      <c r="B55" s="21" t="s">
-        <v>661</v>
-      </c>
-    </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="21" t="s">
-        <v>662</v>
+      <c r="A56" s="25"/>
+      <c r="B56" s="22" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24"/>
-      <c r="B57" s="21" t="s">
-        <v>666</v>
+      <c r="A57" s="25"/>
+      <c r="B57" s="22" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24"/>
-      <c r="B58" s="21" t="s">
-        <v>667</v>
+      <c r="A58" s="25"/>
+      <c r="B58" s="22" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
-      <c r="B59" s="21" t="s">
-        <v>668</v>
+      <c r="A59" s="25"/>
+      <c r="B59" s="22" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24"/>
-      <c r="B60" s="21" t="s">
-        <v>669</v>
+      <c r="A60" s="25"/>
+      <c r="B60" s="22" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24"/>
-      <c r="B61" s="21" t="s">
-        <v>670</v>
+      <c r="A61" s="25"/>
+      <c r="B61" s="22" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24"/>
-      <c r="B62" s="21" t="s">
-        <v>788</v>
+      <c r="A62" s="25"/>
+      <c r="B62" s="22" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24"/>
+      <c r="A63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24" t="n">
+      <c r="A64" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>789</v>
+      <c r="B64" s="22" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24"/>
-      <c r="B65" s="21" t="s">
-        <v>676</v>
+      <c r="A65" s="25"/>
+      <c r="B65" s="22" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24"/>
-      <c r="B66" s="21" t="s">
-        <v>677</v>
+      <c r="A66" s="25"/>
+      <c r="B66" s="22" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24"/>
+      <c r="A67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24"/>
-      <c r="B68" s="21" t="s">
-        <v>790</v>
+      <c r="A68" s="25"/>
+      <c r="B68" s="22" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24"/>
+      <c r="A69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24" t="n">
+      <c r="A70" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="B70" s="25" t="s">
-        <v>791</v>
+      <c r="B70" s="26" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24"/>
+      <c r="A71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24"/>
-      <c r="B72" s="21" t="s">
-        <v>792</v>
+      <c r="A72" s="25"/>
+      <c r="B72" s="22" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24"/>
-      <c r="B73" s="21" t="s">
-        <v>793</v>
+      <c r="A73" s="25"/>
+      <c r="B73" s="22" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24"/>
-      <c r="B74" s="21" t="s">
-        <v>794</v>
+      <c r="A74" s="25"/>
+      <c r="B74" s="22" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24"/>
-      <c r="B75" s="21" t="s">
-        <v>795</v>
+      <c r="A75" s="25"/>
+      <c r="B75" s="22" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24"/>
-      <c r="B76" s="21" t="s">
-        <v>796</v>
+      <c r="A76" s="25"/>
+      <c r="B76" s="22" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24"/>
+      <c r="A77" s="25"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24"/>
-      <c r="B78" s="21" t="s">
-        <v>797</v>
+      <c r="A78" s="25"/>
+      <c r="B78" s="22" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="27"/>
+      <c r="A79" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="800">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -823,6 +823,9 @@
 (repeat for each filter and for multiple combinations of filters)</t>
   </si>
   <si>
+    <t xml:space="preserve">lp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delete message</t>
   </si>
   <si>
@@ -835,37 +838,8 @@
     <t xml:space="preserve">Move message</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Modal with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">possible</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> destinations opens allowing the user to cancel or confirm the action
+    <t xml:space="preserve">Modal with possible destinations opens allowing the user to cancel or confirm the action
 If the user confirms the message is moved to the selected destination queue. Else the message is not moved</t>
-    </r>
   </si>
   <si>
     <r>
@@ -991,9 +965,6 @@
   </si>
   <si>
     <t xml:space="preserve">List is downloaded and corresponds to the active domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lp</t>
   </si>
   <si>
     <t xml:space="preserve">Upload random file</t>
@@ -4105,8 +4076,8 @@
   </sheetPr>
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B348" activeCellId="0" sqref="B348"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4173,7 +4144,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4213,7 +4184,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4289,7 +4260,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="216.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -4313,7 +4284,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -4327,7 +4298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -4363,7 +4334,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -4435,7 +4406,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="75.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -4459,7 +4430,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -4471,7 +4442,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -4523,7 +4494,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="324.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
@@ -4533,7 +4504,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -4553,7 +4524,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
@@ -4573,7 +4544,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
@@ -4603,7 +4574,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>78</v>
       </c>
@@ -4653,7 +4624,7 @@
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
         <v>87</v>
       </c>
@@ -4665,7 +4636,7 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
         <v>89</v>
       </c>
@@ -4737,7 +4708,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>100</v>
       </c>
@@ -4749,7 +4720,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="82.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>102</v>
       </c>
@@ -4843,7 +4814,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>116</v>
       </c>
@@ -4883,7 +4854,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>124</v>
       </c>
@@ -4913,7 +4884,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>130</v>
       </c>
@@ -4923,7 +4894,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>132</v>
       </c>
@@ -4933,7 +4904,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>133</v>
       </c>
@@ -4991,7 +4962,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="136.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>140</v>
       </c>
@@ -5013,7 +4984,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>144</v>
       </c>
@@ -5085,7 +5056,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="136.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>62</v>
       </c>
@@ -5095,7 +5066,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>64</v>
       </c>
@@ -5115,7 +5086,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
         <v>68</v>
       </c>
@@ -5135,7 +5106,7 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>72</v>
       </c>
@@ -5185,7 +5156,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>164</v>
       </c>
@@ -5211,7 +5182,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>170</v>
       </c>
@@ -5248,6 +5219,9 @@
       <c r="B108" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="C108" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
@@ -5256,13 +5230,19 @@
       <c r="B109" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>37</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5272,6 +5252,9 @@
       <c r="B111" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C111" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
@@ -5280,6 +5263,9 @@
       <c r="B112" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="C112" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
@@ -5288,24 +5274,30 @@
       <c r="B113" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="82.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
@@ -5317,7 +5309,7 @@
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>53</v>
       </c>
@@ -5325,20 +5317,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,15 +5341,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="136.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>64</v>
       </c>
@@ -5373,23 +5365,23 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>72</v>
       </c>
@@ -5402,7 +5394,7 @@
         <v>74</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,63 +5402,63 @@
         <v>159</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,16 +5483,16 @@
     </row>
     <row r="140" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>1</v>
@@ -5508,10 +5500,10 @@
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>1</v>
@@ -5519,13 +5511,13 @@
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,7 +5528,7 @@
         <v>210</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,10 +5539,10 @@
         <v>212</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
         <v>62</v>
       </c>
@@ -5558,10 +5550,10 @@
         <v>213</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
         <v>64</v>
       </c>
@@ -5569,7 +5561,7 @@
         <v>65</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,21 +5572,21 @@
         <v>67</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
         <v>72</v>
       </c>
@@ -5602,7 +5594,7 @@
         <v>73</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,7 +5605,7 @@
         <v>214</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5638,7 +5630,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
         <v>220</v>
       </c>
@@ -5668,7 +5660,7 @@
         <v>81</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,7 +5671,7 @@
         <v>224</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5732,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
         <v>234</v>
       </c>
@@ -5743,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
         <v>236</v>
       </c>
@@ -5765,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
         <v>240</v>
       </c>
@@ -5776,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
         <v>242</v>
       </c>
@@ -5787,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
         <v>244</v>
       </c>
@@ -5798,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
         <v>246</v>
       </c>
@@ -5820,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
         <v>250</v>
       </c>
@@ -5875,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
         <v>260</v>
       </c>
@@ -5908,7 +5900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
         <v>266</v>
       </c>
@@ -5941,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
         <v>270</v>
       </c>
@@ -5952,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
         <v>271</v>
       </c>
@@ -5974,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
         <v>275</v>
       </c>
@@ -5985,7 +5977,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
         <v>278</v>
       </c>
@@ -6007,7 +5999,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
         <v>64</v>
       </c>
@@ -6029,7 +6021,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
         <v>68</v>
       </c>
@@ -6040,7 +6032,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
         <v>72</v>
       </c>
@@ -6105,7 +6097,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
         <v>292</v>
       </c>
@@ -6143,7 +6135,7 @@
       </c>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="189.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
         <v>296</v>
       </c>
@@ -6165,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8" t="s">
         <v>234</v>
       </c>
@@ -6176,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="8" t="s">
         <v>236</v>
       </c>
@@ -6198,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="8" t="s">
         <v>240</v>
       </c>
@@ -6209,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="8" t="s">
         <v>242</v>
       </c>
@@ -6220,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="8" t="s">
         <v>244</v>
       </c>
@@ -6231,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
         <v>246</v>
       </c>
@@ -6283,7 +6275,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
         <v>260</v>
       </c>
@@ -6327,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
         <v>307</v>
       </c>
@@ -6338,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
         <v>308</v>
       </c>
@@ -6349,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
         <v>309</v>
       </c>
@@ -6371,7 +6363,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
         <v>64</v>
       </c>
@@ -6393,7 +6385,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
         <v>68</v>
       </c>
@@ -6404,7 +6396,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
         <v>72</v>
       </c>
@@ -6448,7 +6440,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
         <v>82</v>
       </c>
@@ -6515,7 +6507,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
         <v>36</v>
       </c>
@@ -6523,7 +6515,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="82.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
         <v>38</v>
       </c>
@@ -6587,7 +6579,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="s">
         <v>336</v>
       </c>
@@ -6595,7 +6587,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="s">
         <v>338</v>
       </c>
@@ -6611,7 +6603,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="s">
         <v>341</v>
       </c>
@@ -6619,7 +6611,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="s">
         <v>343</v>
       </c>
@@ -6627,7 +6619,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="s">
         <v>345</v>
       </c>
@@ -6747,7 +6739,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="s">
         <v>62</v>
       </c>
@@ -6755,7 +6747,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="s">
         <v>64</v>
       </c>
@@ -6771,7 +6763,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
         <v>68</v>
       </c>
@@ -6779,7 +6771,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="s">
         <v>72</v>
       </c>
@@ -6811,7 +6803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="s">
         <v>82</v>
       </c>
@@ -6857,7 +6849,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="s">
         <v>376</v>
       </c>
@@ -6905,7 +6897,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="s">
         <v>384</v>
       </c>
@@ -6921,7 +6913,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="s">
         <v>388</v>
       </c>
@@ -6961,7 +6953,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="s">
         <v>397</v>
       </c>
@@ -6977,7 +6969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="s">
         <v>82</v>
       </c>
@@ -6991,7 +6983,7 @@
       </c>
       <c r="B300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="s">
         <v>400</v>
       </c>
@@ -7002,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="s">
         <v>402</v>
       </c>
@@ -7035,7 +7027,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="92.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="93.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="s">
         <v>408</v>
       </c>
@@ -7074,7 +7066,7 @@
       </c>
       <c r="B308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="s">
         <v>413</v>
       </c>
@@ -7085,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="s">
         <v>415</v>
       </c>
@@ -7093,7 +7085,7 @@
         <v>416</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,7 +7096,7 @@
         <v>418</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,7 +7107,7 @@
         <v>420</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7129,7 +7121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="s">
         <v>422</v>
       </c>
@@ -7148,7 +7140,7 @@
         <v>425</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,7 +7151,7 @@
         <v>427</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7170,7 +7162,7 @@
         <v>429</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,7 +7173,7 @@
         <v>431</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,7 +7184,7 @@
         <v>433</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,10 +7195,10 @@
         <v>435</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="s">
         <v>436</v>
       </c>
@@ -7236,7 +7228,7 @@
         <v>441</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7261,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="s">
         <v>446</v>
       </c>
@@ -7272,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="s">
         <v>448</v>
       </c>
@@ -7316,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="190" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
         <v>456</v>
       </c>
@@ -7324,10 +7316,10 @@
         <v>457</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
         <v>64</v>
       </c>
@@ -7335,7 +7327,7 @@
         <v>65</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7346,10 +7338,10 @@
         <v>67</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="s">
         <v>68</v>
       </c>
@@ -7357,10 +7349,10 @@
         <v>280</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
         <v>72</v>
       </c>
@@ -7368,7 +7360,7 @@
         <v>281</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,7 +7371,7 @@
         <v>369</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,7 +7393,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
         <v>460</v>
       </c>
@@ -7433,7 +7425,7 @@
       </c>
       <c r="B342" s="3"/>
     </row>
-    <row r="343" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
         <v>465</v>
       </c>
@@ -7465,7 +7457,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
         <v>473</v>
       </c>
@@ -7481,7 +7473,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
         <v>477</v>
       </c>
@@ -7489,7 +7481,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
         <v>479</v>
       </c>

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" state="visible" r:id="rId2"/>
@@ -2992,7 +2992,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3182,8 +3182,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3360,8 +3360,8 @@
   </sheetPr>
   <dimension ref="A1:D354"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D355" activeCellId="0" sqref="D355"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7572,6 +7572,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="511">
   <si>
     <t xml:space="preserve">TEST AUTOMATION STATUS REPORT</t>
   </si>
@@ -3276,11 +3276,11 @@
       </c>
       <c r="B8" s="6" t="n">
         <f aca="false">COUNTIF('RegressionScenarios-4.1'!D1:D500,"="&amp;A8)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8" t="n">
         <f aca="false">B8/B$6</f>
-        <v>0.172727272727273</v>
+        <v>0.16969696969697</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,7 +3361,7 @@
   <dimension ref="A1:D354"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
+      <selection pane="topLeft" activeCell="C108" activeCellId="0" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4621,10 +4621,10 @@
       <c r="B107" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="C107" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="12" t="s">

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\REPOS\domibus\Domibus-MSH-selenium-ui-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F163E848-1082-4D61-9561-E2F5DD107C0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB52DEC8-AAA3-4481-A2AC-A4450E7FC44D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="RegressionScenarios-4.1" sheetId="2" r:id="rId2"/>
     <sheet name="MyValues" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="509">
   <si>
     <t>TEST AUTOMATION STATUS REPORT</t>
   </si>
@@ -2859,15 +2864,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2923,6 +2919,15 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -3341,165 +3346,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="4"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <f>COUNTA('RegressionScenarios-4.1'!C:C)-1</f>
         <v>330</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <f>SUM('RegressionScenarios-4.1'!D:D)</f>
-        <v>124</v>
-      </c>
-      <c r="C7" s="10">
+        <v>141</v>
+      </c>
+      <c r="C7" s="7">
         <f t="shared" ref="C7:C12" si="0">B7/B$6</f>
-        <v>0.37575757575757573</v>
+        <v>0.42727272727272725</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="4" t="str">
         <f>MyValues!A2</f>
         <v>Not implemented yet</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <f>COUNTIF('RegressionScenarios-4.1'!E1:E494,"="&amp;A8)</f>
         <v>32</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>9.696969696969697E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="4" t="str">
         <f>MyValues!A3</f>
         <v>Need more info</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <f>COUNTIF('RegressionScenarios-4.1'!E2:E495,"="&amp;A9)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>2.4242424242424242E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="4" t="str">
         <f>MyValues!A4</f>
         <v>Low priority</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <f>COUNTIF('RegressionScenarios-4.1'!E2:E496,"="&amp;A10)</f>
-        <v>148</v>
-      </c>
-      <c r="C10" s="10">
+        <v>129</v>
+      </c>
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>0.44848484848484849</v>
+        <v>0.39090909090909093</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="4" t="str">
         <f>MyValues!A5</f>
         <v>Technical impediment</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <f>COUNTIF('RegressionScenarios-4.1'!E3:E497,"="&amp;A11)</f>
         <v>10</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="4" t="str">
         <f>MyValues!A6</f>
         <v>Too complicated to automate</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <f>COUNTIF('RegressionScenarios-4.1'!E4:E498,"="&amp;A12)</f>
         <v>10</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>3.0303030303030304E-2</v>
       </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3518,4294 +3538,4291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="11"/>
-    <col min="2" max="2" width="90.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="73.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="26" style="13" customWidth="1"/>
-    <col min="8" max="1025" width="8.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="8"/>
+    <col min="2" max="2" width="90.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26" style="10" customWidth="1"/>
+    <col min="8" max="1025" width="8.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16"/>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16"/>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16"/>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16"/>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16"/>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16"/>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16"/>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16"/>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16"/>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16"/>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16"/>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16"/>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16"/>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16"/>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="16">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16"/>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16"/>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16"/>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="114" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="16">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16"/>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="16">
-        <v>1</v>
-      </c>
-      <c r="E25" s="16"/>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="16">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16"/>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16"/>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="306.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="16">
-        <v>1</v>
-      </c>
-      <c r="E40" s="16"/>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="16">
-        <v>1</v>
-      </c>
-      <c r="E41" s="16"/>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="16">
-        <v>1</v>
-      </c>
-      <c r="E42" s="16"/>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="16">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16"/>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="16">
-        <v>1</v>
-      </c>
-      <c r="E44" s="16"/>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="16">
-        <v>1</v>
-      </c>
-      <c r="E45" s="16"/>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="16">
-        <v>1</v>
-      </c>
-      <c r="E46" s="16"/>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="16">
-        <v>1</v>
-      </c>
-      <c r="E47" s="16"/>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="16">
-        <v>1</v>
-      </c>
-      <c r="E48" s="16"/>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="16">
-        <v>1</v>
-      </c>
-      <c r="E49" s="16"/>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="16">
-        <v>1</v>
-      </c>
-      <c r="E50" s="16"/>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="16" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="16">
-        <v>1</v>
-      </c>
-      <c r="E51" s="16"/>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="20" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="16">
-        <v>1</v>
-      </c>
-      <c r="E52" s="16"/>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="16">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16"/>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="16" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="16">
-        <v>1</v>
-      </c>
-      <c r="E54" s="16"/>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="16" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="16">
-        <v>1</v>
-      </c>
-      <c r="E55" s="16"/>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="16" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="16">
-        <v>1</v>
-      </c>
-      <c r="E56" s="16"/>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="16" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="16">
-        <v>1</v>
-      </c>
-      <c r="E57" s="16"/>
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="16" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="16">
-        <v>1</v>
-      </c>
-      <c r="E58" s="16"/>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="16" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="16" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="16" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16" t="s">
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="16" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16" t="s">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="16" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="16">
-        <v>1</v>
-      </c>
-      <c r="E63" s="16"/>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="16" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="16">
-        <v>1</v>
-      </c>
-      <c r="E64" s="16"/>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="16" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="16">
-        <v>1</v>
-      </c>
-      <c r="E65" s="16"/>
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="16" t="s">
+      <c r="A66" s="26"/>
+      <c r="B66" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="16">
-        <v>1</v>
-      </c>
-      <c r="E66" s="16"/>
+      <c r="D66" s="13">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="16" t="s">
+      <c r="A67" s="26"/>
+      <c r="B67" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="16">
-        <v>1</v>
-      </c>
-      <c r="E67" s="16"/>
+      <c r="D67" s="13">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="16" t="s">
+      <c r="A68" s="26"/>
+      <c r="B68" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="16">
-        <v>1</v>
-      </c>
-      <c r="E68" s="16"/>
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="16" t="s">
+      <c r="A69" s="26"/>
+      <c r="B69" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="16" t="s">
+      <c r="A70" s="26"/>
+      <c r="B70" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D70" s="13">
+        <v>1</v>
+      </c>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="141" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="16">
-        <v>1</v>
-      </c>
-      <c r="E72" s="16"/>
+      <c r="D72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="16" t="s">
+      <c r="A73" s="26"/>
+      <c r="B73" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="16" t="s">
+      <c r="A74" s="26"/>
+      <c r="B74" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="16">
-        <v>1</v>
-      </c>
-      <c r="E74" s="16"/>
+      <c r="D74" s="13">
+        <v>1</v>
+      </c>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" ht="141" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="16" t="s">
+      <c r="A75" s="26"/>
+      <c r="B75" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16" t="s">
+      <c r="D75" s="13"/>
+      <c r="E75" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="26"/>
+      <c r="B76" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16" t="s">
+      <c r="D76" s="13"/>
+      <c r="E76" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="16" t="s">
+      <c r="A77" s="26"/>
+      <c r="B77" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16" t="s">
+      <c r="D77" s="13"/>
+      <c r="E77" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="16" t="s">
+      <c r="A78" s="26"/>
+      <c r="B78" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16" t="s">
+      <c r="D78" s="13"/>
+      <c r="E78" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="16" t="s">
+      <c r="A79" s="26"/>
+      <c r="B79" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16" t="s">
+      <c r="D79" s="13"/>
+      <c r="E79" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="16" t="s">
+      <c r="A80" s="26"/>
+      <c r="B80" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D80" s="13">
+        <v>1</v>
+      </c>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="16" t="s">
+      <c r="A81" s="26"/>
+      <c r="B81" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D81" s="13">
+        <v>1</v>
+      </c>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="16" t="s">
+      <c r="A82" s="26"/>
+      <c r="B82" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D82" s="13">
+        <v>1</v>
+      </c>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="16" t="s">
+      <c r="A83" s="26"/>
+      <c r="B83" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D83" s="13">
+        <v>1</v>
+      </c>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="16" t="s">
+      <c r="A84" s="26"/>
+      <c r="B84" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D84" s="13">
+        <v>1</v>
+      </c>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="16" t="s">
+      <c r="A85" s="26"/>
+      <c r="B85" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D85" s="13">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="16" t="s">
+      <c r="A86" s="26"/>
+      <c r="B86" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D86" s="13">
+        <v>1</v>
+      </c>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="16" t="s">
+      <c r="A87" s="26"/>
+      <c r="B87" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D87" s="13">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="16" t="s">
+      <c r="A88" s="26"/>
+      <c r="B88" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16" t="s">
+      <c r="D88" s="13"/>
+      <c r="E88" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="16" t="s">
+      <c r="A89" s="26"/>
+      <c r="B89" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16" t="s">
+      <c r="D89" s="13"/>
+      <c r="E89" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="16" t="s">
+      <c r="A90" s="26"/>
+      <c r="B90" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16" t="s">
+      <c r="D90" s="13"/>
+      <c r="E90" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="16" t="s">
+      <c r="A91" s="26"/>
+      <c r="B91" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="16" t="s">
+      <c r="A92" s="26"/>
+      <c r="B92" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="16" t="s">
+      <c r="A93" s="26"/>
+      <c r="B93" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="16" t="s">
+      <c r="A94" s="26"/>
+      <c r="B94" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="D94" s="9">
+        <v>1</v>
+      </c>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="E95" s="16"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" spans="1:5" ht="281.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D96" s="12">
-        <v>1</v>
-      </c>
-      <c r="E96" s="16"/>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="16" t="s">
+      <c r="A97" s="26"/>
+      <c r="B97" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="12">
-        <v>1</v>
-      </c>
-      <c r="E97" s="16"/>
+      <c r="D97" s="9">
+        <v>1</v>
+      </c>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="16" t="s">
+      <c r="A98" s="26"/>
+      <c r="B98" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="12">
-        <v>1</v>
-      </c>
-      <c r="E98" s="16"/>
+      <c r="D98" s="9">
+        <v>1</v>
+      </c>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="16" t="s">
+      <c r="A99" s="26"/>
+      <c r="B99" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D99" s="12">
-        <v>1</v>
-      </c>
-      <c r="E99" s="16"/>
+      <c r="D99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="16" t="s">
+      <c r="A100" s="26"/>
+      <c r="B100" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="12">
-        <v>1</v>
-      </c>
-      <c r="E100" s="16"/>
+      <c r="D100" s="9">
+        <v>1</v>
+      </c>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="16" t="s">
+      <c r="A101" s="26"/>
+      <c r="B101" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E101" s="16"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="16" t="s">
+      <c r="A102" s="26"/>
+      <c r="B102" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D102" s="12">
-        <v>1</v>
-      </c>
-      <c r="E102" s="16"/>
+      <c r="D102" s="9">
+        <v>1</v>
+      </c>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="16" t="s">
+      <c r="A103" s="26"/>
+      <c r="B103" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D103" s="12">
-        <v>1</v>
-      </c>
-      <c r="E103" s="16"/>
+      <c r="D103" s="9">
+        <v>1</v>
+      </c>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="16" t="s">
+      <c r="A104" s="26"/>
+      <c r="B104" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="16" t="s">
+      <c r="A105" s="26"/>
+      <c r="B105" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="16" t="s">
+      <c r="A106" s="26"/>
+      <c r="B106" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="16" t="s">
+      <c r="A107" s="26"/>
+      <c r="B107" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="16" t="s">
+      <c r="A108" s="26"/>
+      <c r="B108" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="16" t="s">
+      <c r="A109" s="26"/>
+      <c r="B109" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="16" t="s">
+      <c r="A110" s="26"/>
+      <c r="B110" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="16" t="s">
+      <c r="A111" s="26"/>
+      <c r="B111" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="16" t="s">
+      <c r="A112" s="26"/>
+      <c r="B112" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="26"/>
+      <c r="B113" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="16" t="s">
+      <c r="A114" s="26"/>
+      <c r="B114" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="16" t="s">
+      <c r="A115" s="26"/>
+      <c r="B115" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="16" t="s">
+      <c r="A116" s="26"/>
+      <c r="B116" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="16" t="s">
+      <c r="A117" s="26"/>
+      <c r="B117" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D117" s="12">
-        <v>1</v>
-      </c>
-      <c r="E117" s="16"/>
+      <c r="D117" s="9">
+        <v>1</v>
+      </c>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="16" t="s">
+      <c r="A118" s="26"/>
+      <c r="B118" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="16" t="s">
+      <c r="A119" s="26"/>
+      <c r="B119" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="16" t="s">
+      <c r="A120" s="26"/>
+      <c r="B120" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="16" t="s">
+      <c r="A121" s="26"/>
+      <c r="B121" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="16" t="s">
+      <c r="A122" s="26"/>
+      <c r="B122" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D122" s="12">
-        <v>1</v>
-      </c>
-      <c r="E122" s="16"/>
+      <c r="D122" s="9">
+        <v>1</v>
+      </c>
+      <c r="E122" s="13"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="16" t="s">
+      <c r="A123" s="26"/>
+      <c r="B123" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="16" t="s">
+      <c r="A124" s="26"/>
+      <c r="B124" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="E125" s="16"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="E126" s="16"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D127" s="12">
-        <v>1</v>
-      </c>
-      <c r="E127" s="16"/>
+      <c r="D127" s="9">
+        <v>1</v>
+      </c>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="20" t="s">
+      <c r="A128" s="26"/>
+      <c r="B128" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D128" s="12">
-        <v>1</v>
-      </c>
-      <c r="E128" s="16"/>
+      <c r="D128" s="9">
+        <v>1</v>
+      </c>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="16" t="s">
+      <c r="A129" s="26"/>
+      <c r="B129" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="16" t="s">
+      <c r="A130" s="26"/>
+      <c r="B130" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="16" t="s">
+      <c r="A131" s="26"/>
+      <c r="B131" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="16" t="s">
+      <c r="A132" s="26"/>
+      <c r="B132" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="16" t="s">
+      <c r="A133" s="26"/>
+      <c r="B133" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="16" t="s">
+      <c r="A134" s="26"/>
+      <c r="B134" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="16" t="s">
+      <c r="A135" s="26"/>
+      <c r="B135" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="16" t="s">
+      <c r="A136" s="26"/>
+      <c r="B136" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="16" t="s">
+      <c r="A137" s="26"/>
+      <c r="B137" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C137" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="16" t="s">
+      <c r="A138" s="26"/>
+      <c r="B138" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="16" t="s">
+      <c r="A139" s="26"/>
+      <c r="B139" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C139" s="16" t="s">
+      <c r="C139" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="16" t="s">
+      <c r="A140" s="26"/>
+      <c r="B140" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C140" s="16" t="s">
+      <c r="C140" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="16" t="s">
+      <c r="A141" s="26"/>
+      <c r="B141" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="16" t="s">
+      <c r="A142" s="26"/>
+      <c r="B142" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C142" s="16" t="s">
+      <c r="C142" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="16" t="s">
+      <c r="A143" s="26"/>
+      <c r="B143" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="C143" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="E144" s="16"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="E144" s="13"/>
     </row>
     <row r="145" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C145" s="16" t="s">
+      <c r="C145" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D145" s="12">
-        <v>1</v>
-      </c>
-      <c r="E145" s="16"/>
+      <c r="D145" s="9">
+        <v>1</v>
+      </c>
+      <c r="E145" s="13"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="20" t="s">
+      <c r="A146" s="26"/>
+      <c r="B146" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C146" s="16" t="s">
+      <c r="C146" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D146" s="12">
-        <v>1</v>
-      </c>
-      <c r="E146" s="16"/>
+      <c r="D146" s="9">
+        <v>1</v>
+      </c>
+      <c r="E146" s="13"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="20" t="s">
+      <c r="A147" s="26"/>
+      <c r="B147" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C147" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D147" s="12">
-        <v>1</v>
-      </c>
-      <c r="E147" s="16"/>
+      <c r="D147" s="9">
+        <v>1</v>
+      </c>
+      <c r="E147" s="13"/>
     </row>
     <row r="148" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="20" t="s">
+      <c r="A148" s="26"/>
+      <c r="B148" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C148" s="16" t="s">
+      <c r="C148" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D148" s="12">
-        <v>1</v>
-      </c>
-      <c r="E148" s="16"/>
+      <c r="D148" s="9">
+        <v>1</v>
+      </c>
+      <c r="E148" s="13"/>
     </row>
     <row r="149" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="20" t="s">
+      <c r="A149" s="26"/>
+      <c r="B149" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C149" s="16" t="s">
+      <c r="C149" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D149" s="12">
-        <v>1</v>
-      </c>
-      <c r="E149" s="16"/>
+      <c r="D149" s="9">
+        <v>1</v>
+      </c>
+      <c r="E149" s="13"/>
     </row>
     <row r="150" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="20" t="s">
+      <c r="A150" s="26"/>
+      <c r="B150" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C150" s="16" t="s">
+      <c r="C150" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D150" s="12">
-        <v>1</v>
-      </c>
-      <c r="E150" s="16"/>
+      <c r="D150" s="9">
+        <v>1</v>
+      </c>
+      <c r="E150" s="13"/>
     </row>
     <row r="151" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="20" t="s">
+      <c r="A151" s="26"/>
+      <c r="B151" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C151" s="16" t="s">
+      <c r="C151" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D151" s="12">
-        <v>1</v>
-      </c>
-      <c r="E151" s="16"/>
+      <c r="D151" s="9">
+        <v>1</v>
+      </c>
+      <c r="E151" s="13"/>
     </row>
     <row r="152" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="20" t="s">
+      <c r="A152" s="26"/>
+      <c r="B152" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C152" s="16" t="s">
+      <c r="C152" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D152" s="12">
-        <v>1</v>
-      </c>
-      <c r="E152" s="16"/>
+      <c r="D152" s="9">
+        <v>1</v>
+      </c>
+      <c r="E152" s="13"/>
     </row>
     <row r="153" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="20" t="s">
+      <c r="A153" s="26"/>
+      <c r="B153" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D153" s="12">
-        <v>1</v>
-      </c>
-      <c r="E153" s="16"/>
+      <c r="D153" s="9">
+        <v>1</v>
+      </c>
+      <c r="E153" s="13"/>
     </row>
     <row r="154" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="16" t="s">
+      <c r="A154" s="26"/>
+      <c r="B154" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C154" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D154" s="12">
-        <v>1</v>
-      </c>
-      <c r="E154" s="16"/>
+      <c r="D154" s="9">
+        <v>1</v>
+      </c>
+      <c r="E154" s="13"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="20" t="s">
+      <c r="A155" s="26"/>
+      <c r="B155" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C155" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="12">
-        <v>1</v>
-      </c>
-      <c r="E155" s="16"/>
+      <c r="D155" s="9">
+        <v>1</v>
+      </c>
+      <c r="E155" s="13"/>
     </row>
     <row r="156" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="20" t="s">
+      <c r="A156" s="26"/>
+      <c r="B156" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="C156" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D156" s="12">
-        <v>1</v>
-      </c>
-      <c r="E156" s="16"/>
+      <c r="D156" s="9">
+        <v>1</v>
+      </c>
+      <c r="E156" s="13"/>
     </row>
     <row r="157" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="16" t="s">
+      <c r="A157" s="26"/>
+      <c r="B157" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="C157" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D157" s="12">
-        <v>1</v>
-      </c>
-      <c r="E157" s="16"/>
+      <c r="D157" s="9">
+        <v>1</v>
+      </c>
+      <c r="E157" s="13"/>
     </row>
     <row r="158" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="16" t="s">
+      <c r="A158" s="26"/>
+      <c r="B158" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D158" s="12">
-        <v>1</v>
-      </c>
-      <c r="E158" s="16"/>
+      <c r="D158" s="9">
+        <v>1</v>
+      </c>
+      <c r="E158" s="13"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="16" t="s">
+      <c r="A159" s="26"/>
+      <c r="B159" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C159" s="16" t="s">
+      <c r="C159" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D159" s="12">
-        <v>1</v>
-      </c>
-      <c r="E159" s="16"/>
+      <c r="D159" s="9">
+        <v>1</v>
+      </c>
+      <c r="E159" s="13"/>
     </row>
     <row r="160" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="16" t="s">
+      <c r="A160" s="26"/>
+      <c r="B160" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="C160" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D160" s="12">
-        <v>1</v>
-      </c>
-      <c r="E160" s="16"/>
+      <c r="D160" s="9">
+        <v>1</v>
+      </c>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="16" t="s">
+      <c r="A161" s="26"/>
+      <c r="B161" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C161" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D161" s="12">
-        <v>1</v>
-      </c>
-      <c r="E161" s="16"/>
+      <c r="D161" s="9">
+        <v>1</v>
+      </c>
+      <c r="E161" s="13"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="16" t="s">
+      <c r="A162" s="26"/>
+      <c r="B162" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="16" t="s">
+      <c r="A163" s="26"/>
+      <c r="B163" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C163" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D163" s="12">
-        <v>1</v>
-      </c>
-      <c r="E163" s="16"/>
+      <c r="D163" s="9">
+        <v>1</v>
+      </c>
+      <c r="E163" s="13"/>
     </row>
     <row r="164" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="16" t="s">
+      <c r="A164" s="26"/>
+      <c r="B164" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D164" s="12">
-        <v>1</v>
-      </c>
-      <c r="E164" s="16"/>
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="E164" s="13"/>
     </row>
     <row r="165" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="16" t="s">
+      <c r="A165" s="26"/>
+      <c r="B165" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D165" s="12">
-        <v>1</v>
-      </c>
-      <c r="E165" s="16"/>
+      <c r="D165" s="9">
+        <v>1</v>
+      </c>
+      <c r="E165" s="13"/>
     </row>
     <row r="166" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="16" t="s">
+      <c r="A166" s="26"/>
+      <c r="B166" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D166" s="12">
-        <v>1</v>
-      </c>
-      <c r="E166" s="16"/>
+      <c r="D166" s="9">
+        <v>1</v>
+      </c>
+      <c r="E166" s="13"/>
     </row>
     <row r="167" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="16" t="s">
+      <c r="A167" s="26"/>
+      <c r="B167" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C167" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D167" s="12">
-        <v>1</v>
-      </c>
-      <c r="E167" s="16"/>
+      <c r="D167" s="9">
+        <v>1</v>
+      </c>
+      <c r="E167" s="13"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="16" t="s">
+      <c r="A168" s="26"/>
+      <c r="B168" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="C168" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D168" s="12">
-        <v>1</v>
-      </c>
-      <c r="E168" s="16"/>
+      <c r="D168" s="9">
+        <v>1</v>
+      </c>
+      <c r="E168" s="13"/>
     </row>
     <row r="169" spans="1:5" ht="141" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="16" t="s">
+      <c r="A169" s="26"/>
+      <c r="B169" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C169" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="16" t="s">
+      <c r="A170" s="26"/>
+      <c r="B170" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C170" s="16" t="s">
+      <c r="C170" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="16" t="s">
+      <c r="A171" s="26"/>
+      <c r="B171" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C171" s="16" t="s">
+      <c r="C171" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="16" t="s">
+      <c r="A172" s="26"/>
+      <c r="B172" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C172" s="16" t="s">
+      <c r="C172" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="16" t="s">
+      <c r="A173" s="26"/>
+      <c r="B173" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C173" s="16" t="s">
+      <c r="C173" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="16" t="s">
+      <c r="A174" s="26"/>
+      <c r="B174" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C174" s="16" t="s">
+      <c r="C174" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="16" t="s">
+      <c r="A175" s="26"/>
+      <c r="B175" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C175" s="16" t="s">
+      <c r="C175" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="16" t="s">
+      <c r="A176" s="26"/>
+      <c r="B176" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C176" s="16" t="s">
+      <c r="C176" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D176" s="12">
-        <v>1</v>
-      </c>
-      <c r="E176" s="16"/>
+      <c r="D176" s="9">
+        <v>1</v>
+      </c>
+      <c r="E176" s="13"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="16" t="s">
+      <c r="A177" s="26"/>
+      <c r="B177" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C177" s="16" t="s">
+      <c r="C177" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="16" t="s">
+      <c r="A178" s="26"/>
+      <c r="B178" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C178" s="16" t="s">
+      <c r="C178" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="16" t="s">
+      <c r="A179" s="26"/>
+      <c r="B179" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C179" s="16" t="s">
+      <c r="C179" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="16" t="s">
+      <c r="A180" s="26"/>
+      <c r="B180" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C180" s="16" t="s">
+      <c r="C180" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="16" t="s">
+      <c r="A181" s="26"/>
+      <c r="B181" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C181" s="16" t="s">
+      <c r="C181" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="E182" s="16"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="E182" s="13"/>
     </row>
     <row r="183" spans="1:5" ht="255.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C183" s="16" t="s">
+      <c r="C183" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D183" s="12">
-        <v>1</v>
-      </c>
-      <c r="E183" s="16"/>
+      <c r="D183" s="9">
+        <v>1</v>
+      </c>
+      <c r="E183" s="13"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="20" t="s">
+      <c r="A184" s="26"/>
+      <c r="B184" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C184" s="16" t="s">
+      <c r="C184" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D184" s="12">
-        <v>1</v>
-      </c>
-      <c r="E184" s="16"/>
+      <c r="D184" s="9">
+        <v>1</v>
+      </c>
+      <c r="E184" s="13"/>
     </row>
     <row r="185" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="20" t="s">
+      <c r="A185" s="26"/>
+      <c r="B185" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C185" s="16" t="s">
+      <c r="C185" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D185" s="12">
-        <v>1</v>
-      </c>
-      <c r="E185" s="16"/>
+      <c r="D185" s="9">
+        <v>1</v>
+      </c>
+      <c r="E185" s="13"/>
     </row>
     <row r="186" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="20" t="s">
+      <c r="A186" s="26"/>
+      <c r="B186" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C186" s="16" t="s">
+      <c r="C186" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D186" s="12">
-        <v>1</v>
-      </c>
-      <c r="E186" s="16"/>
+      <c r="D186" s="9">
+        <v>1</v>
+      </c>
+      <c r="E186" s="13"/>
     </row>
     <row r="187" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="20" t="s">
+      <c r="A187" s="26"/>
+      <c r="B187" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C187" s="16" t="s">
+      <c r="C187" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D187" s="12">
-        <v>1</v>
-      </c>
-      <c r="E187" s="16"/>
+      <c r="D187" s="9">
+        <v>1</v>
+      </c>
+      <c r="E187" s="13"/>
     </row>
     <row r="188" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="20" t="s">
+      <c r="A188" s="26"/>
+      <c r="B188" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C188" s="16" t="s">
+      <c r="C188" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D188" s="12">
-        <v>1</v>
-      </c>
-      <c r="E188" s="16"/>
+      <c r="D188" s="9">
+        <v>1</v>
+      </c>
+      <c r="E188" s="13"/>
     </row>
     <row r="189" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="20" t="s">
+      <c r="A189" s="26"/>
+      <c r="B189" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C189" s="16" t="s">
+      <c r="C189" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D189" s="12">
-        <v>1</v>
-      </c>
-      <c r="E189" s="16"/>
+      <c r="D189" s="9">
+        <v>1</v>
+      </c>
+      <c r="E189" s="13"/>
     </row>
     <row r="190" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="20" t="s">
+      <c r="A190" s="26"/>
+      <c r="B190" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C190" s="19" t="s">
+      <c r="C190" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D190" s="12">
-        <v>1</v>
-      </c>
-      <c r="E190" s="16"/>
+      <c r="D190" s="9">
+        <v>1</v>
+      </c>
+      <c r="E190" s="13"/>
     </row>
     <row r="191" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="16" t="s">
+      <c r="A191" s="26"/>
+      <c r="B191" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D191" s="12">
-        <v>1</v>
-      </c>
-      <c r="E191" s="16"/>
+      <c r="D191" s="9">
+        <v>1</v>
+      </c>
+      <c r="E191" s="13"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="20" t="s">
+      <c r="A192" s="26"/>
+      <c r="B192" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C192" s="16" t="s">
+      <c r="C192" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D192" s="12">
-        <v>1</v>
-      </c>
-      <c r="E192" s="16"/>
+      <c r="D192" s="9">
+        <v>1</v>
+      </c>
+      <c r="E192" s="13"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="20" t="s">
+      <c r="A193" s="26"/>
+      <c r="B193" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C193" s="16" t="s">
+      <c r="C193" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D193" s="12">
-        <v>1</v>
-      </c>
-      <c r="E193" s="16"/>
+      <c r="D193" s="9">
+        <v>1</v>
+      </c>
+      <c r="E193" s="13"/>
     </row>
     <row r="194" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="16" t="s">
+      <c r="A194" s="26"/>
+      <c r="B194" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C194" s="16" t="s">
+      <c r="C194" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D194" s="12">
-        <v>1</v>
-      </c>
-      <c r="E194" s="16"/>
+      <c r="D194" s="9">
+        <v>1</v>
+      </c>
+      <c r="E194" s="13"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="16" t="s">
+      <c r="A195" s="26"/>
+      <c r="B195" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C195" s="16" t="s">
+      <c r="C195" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D195" s="12">
-        <v>1</v>
-      </c>
-      <c r="E195" s="16"/>
+      <c r="D195" s="9">
+        <v>1</v>
+      </c>
+      <c r="E195" s="13"/>
     </row>
     <row r="196" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="16" t="s">
+      <c r="A196" s="26"/>
+      <c r="B196" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C196" s="16" t="s">
+      <c r="C196" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D196" s="12">
-        <v>1</v>
-      </c>
-      <c r="E196" s="16"/>
+      <c r="D196" s="9">
+        <v>1</v>
+      </c>
+      <c r="E196" s="13"/>
     </row>
     <row r="197" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="16" t="s">
+      <c r="A197" s="26"/>
+      <c r="B197" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C197" s="16" t="s">
+      <c r="C197" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D197" s="12">
-        <v>1</v>
-      </c>
-      <c r="E197" s="16"/>
+      <c r="D197" s="9">
+        <v>1</v>
+      </c>
+      <c r="E197" s="13"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="16" t="s">
+      <c r="A198" s="26"/>
+      <c r="B198" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C198" s="16" t="s">
+      <c r="C198" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D198" s="12">
-        <v>1</v>
-      </c>
-      <c r="E198" s="16"/>
+      <c r="D198" s="9">
+        <v>1</v>
+      </c>
+      <c r="E198" s="13"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="16" t="s">
+      <c r="A199" s="26"/>
+      <c r="B199" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C199" s="16" t="s">
+      <c r="C199" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="16" t="s">
+      <c r="A200" s="26"/>
+      <c r="B200" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C200" s="16" t="s">
+      <c r="C200" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D200" s="12">
-        <v>1</v>
-      </c>
-      <c r="E200" s="16"/>
+      <c r="D200" s="9">
+        <v>1</v>
+      </c>
+      <c r="E200" s="13"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="16" t="s">
+      <c r="A201" s="26"/>
+      <c r="B201" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C201" s="16" t="s">
+      <c r="C201" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="12">
-        <v>1</v>
-      </c>
-      <c r="E201" s="16"/>
+      <c r="D201" s="9">
+        <v>1</v>
+      </c>
+      <c r="E201" s="13"/>
     </row>
     <row r="202" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="16" t="s">
+      <c r="A202" s="26"/>
+      <c r="B202" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C202" s="16" t="s">
+      <c r="C202" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D202" s="12">
-        <v>1</v>
-      </c>
-      <c r="E202" s="16"/>
+      <c r="D202" s="9">
+        <v>1</v>
+      </c>
+      <c r="E202" s="13"/>
     </row>
     <row r="203" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="16" t="s">
+      <c r="A203" s="26"/>
+      <c r="B203" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C203" s="16" t="s">
+      <c r="C203" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="16" t="s">
+      <c r="A204" s="26"/>
+      <c r="B204" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C204" s="16" t="s">
+      <c r="C204" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E204" s="16" t="s">
+      <c r="E204" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="16" t="s">
+      <c r="A205" s="26"/>
+      <c r="B205" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C205" s="16" t="s">
+      <c r="C205" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="16" t="s">
+      <c r="A206" s="26"/>
+      <c r="B206" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C206" s="16" t="s">
+      <c r="C206" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="16" t="s">
+      <c r="A207" s="26"/>
+      <c r="B207" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C207" s="16" t="s">
+      <c r="C207" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E207" s="16" t="s">
+      <c r="E207" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="16" t="s">
+      <c r="A208" s="26"/>
+      <c r="B208" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C208" s="16" t="s">
+      <c r="C208" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E208" s="16" t="s">
+      <c r="E208" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="16" t="s">
+      <c r="A209" s="26"/>
+      <c r="B209" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C209" s="16" t="s">
+      <c r="C209" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="16" t="s">
+      <c r="A210" s="26"/>
+      <c r="B210" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C210" s="16" t="s">
+      <c r="C210" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E210" s="16" t="s">
+      <c r="E210" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="16" t="s">
+      <c r="A211" s="26"/>
+      <c r="B211" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C211" s="16" t="s">
+      <c r="C211" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E211" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-      <c r="B212" s="16" t="s">
+      <c r="A212" s="26"/>
+      <c r="B212" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C212" s="16" t="s">
+      <c r="C212" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="16" t="s">
+      <c r="A213" s="26"/>
+      <c r="B213" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C213" s="16" t="s">
+      <c r="C213" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D213" s="12">
-        <v>1</v>
-      </c>
-      <c r="E213" s="16"/>
+      <c r="D213" s="9">
+        <v>1</v>
+      </c>
+      <c r="E213" s="13"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
-      <c r="E214" s="16"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="E214" s="13"/>
     </row>
     <row r="215" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="B215" s="16" t="s">
+      <c r="B215" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="16" t="s">
+      <c r="C215" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="16" t="s">
+      <c r="A216" s="26"/>
+      <c r="B216" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C216" s="16" t="s">
+      <c r="C216" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="16" t="s">
+      <c r="A217" s="26"/>
+      <c r="B217" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="16" t="s">
+      <c r="C217" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
-      <c r="B218" s="16" t="s">
+      <c r="A218" s="26"/>
+      <c r="B218" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C218" s="16" t="s">
+      <c r="C218" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E218" s="16" t="s">
+      <c r="E218" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="B219" s="16" t="s">
+      <c r="A219" s="26"/>
+      <c r="B219" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C219" s="16" t="s">
+      <c r="C219" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="E219" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="16" t="s">
+      <c r="A220" s="26"/>
+      <c r="B220" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C220" s="16" t="s">
+      <c r="C220" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="B221" s="16" t="s">
+      <c r="A221" s="26"/>
+      <c r="B221" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C221" s="16" t="s">
+      <c r="C221" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="E221" s="16" t="s">
+      <c r="E221" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="16" t="s">
+      <c r="A222" s="26"/>
+      <c r="B222" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C222" s="16" t="s">
+      <c r="C222" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="E222" s="16" t="s">
+      <c r="E222" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="16" t="s">
+      <c r="A223" s="26"/>
+      <c r="B223" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C223" s="16" t="s">
+      <c r="C223" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="E223" s="16" t="s">
+      <c r="E223" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="B224" s="16" t="s">
+      <c r="A224" s="26"/>
+      <c r="B224" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C224" s="16" t="s">
+      <c r="C224" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="E224" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="16" t="s">
+      <c r="A225" s="26"/>
+      <c r="B225" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C225" s="16" t="s">
+      <c r="C225" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="E225" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="16" t="s">
+      <c r="A226" s="26"/>
+      <c r="B226" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C226" s="16" t="s">
+      <c r="C226" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="B227" s="16" t="s">
+      <c r="A227" s="26"/>
+      <c r="B227" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C227" s="16" t="s">
+      <c r="C227" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="16" t="s">
+      <c r="A228" s="26"/>
+      <c r="B228" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C228" s="16" t="s">
+      <c r="C228" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="E228" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="16" t="s">
+      <c r="A229" s="26"/>
+      <c r="B229" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C229" s="16" t="s">
+      <c r="C229" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="E229" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="16" t="s">
+      <c r="A230" s="26"/>
+      <c r="B230" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C230" s="16" t="s">
+      <c r="C230" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="E230" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="16" t="s">
+      <c r="A231" s="26"/>
+      <c r="B231" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C231" s="16" t="s">
+      <c r="C231" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="16" t="s">
+      <c r="A232" s="26"/>
+      <c r="B232" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C232" s="16" t="s">
+      <c r="C232" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="16" t="s">
+      <c r="A233" s="26"/>
+      <c r="B233" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C233" s="16" t="s">
+      <c r="C233" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E233" s="16" t="s">
+      <c r="E233" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="16" t="s">
+      <c r="A234" s="26"/>
+      <c r="B234" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C234" s="16" t="s">
+      <c r="C234" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="E234" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="16" t="s">
+      <c r="A235" s="26"/>
+      <c r="B235" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C235" s="16" t="s">
+      <c r="C235" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="E235" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="B236" s="16" t="s">
+      <c r="A236" s="26"/>
+      <c r="B236" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C236" s="16" t="s">
+      <c r="C236" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="E236" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="16" t="s">
+      <c r="A237" s="26"/>
+      <c r="B237" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C237" s="16" t="s">
+      <c r="C237" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="E237" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="16" t="s">
+      <c r="A238" s="26"/>
+      <c r="B238" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C238" s="16" t="s">
+      <c r="C238" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="E238" s="16" t="s">
+      <c r="E238" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="B239" s="16" t="s">
+      <c r="A239" s="26"/>
+      <c r="B239" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C239" s="16" t="s">
+      <c r="C239" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="E239" s="16" t="s">
+      <c r="E239" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-      <c r="B240" s="16" t="s">
+      <c r="A240" s="26"/>
+      <c r="B240" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C240" s="16" t="s">
+      <c r="C240" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E240" s="16" t="s">
+      <c r="E240" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="B241" s="16" t="s">
+      <c r="A241" s="26"/>
+      <c r="B241" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C241" s="16" t="s">
+      <c r="C241" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E241" s="16" t="s">
+      <c r="E241" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-      <c r="B242" s="16" t="s">
+      <c r="A242" s="26"/>
+      <c r="B242" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="C242" s="16" t="s">
+      <c r="C242" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E242" s="16" t="s">
+      <c r="E242" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
-      <c r="B243" s="16" t="s">
+      <c r="A243" s="26"/>
+      <c r="B243" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C243" s="16" t="s">
+      <c r="C243" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="E243" s="16" t="s">
+      <c r="E243" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
-      <c r="B244" s="16" t="s">
+      <c r="A244" s="26"/>
+      <c r="B244" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C244" s="16" t="s">
+      <c r="C244" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
-      <c r="B245" s="16" t="s">
+      <c r="A245" s="26"/>
+      <c r="B245" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C245" s="16" t="s">
+      <c r="C245" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="E245" s="16" t="s">
+      <c r="E245" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
-      <c r="B246" s="16" t="s">
+      <c r="A246" s="26"/>
+      <c r="B246" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C246" s="16" t="s">
+      <c r="C246" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="E246" s="16" t="s">
+      <c r="E246" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
-      <c r="B247" s="16" t="s">
+      <c r="A247" s="26"/>
+      <c r="B247" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C247" s="16" t="s">
+      <c r="C247" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E247" s="16" t="s">
+      <c r="E247" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
-      <c r="B248" s="16" t="s">
+      <c r="A248" s="26"/>
+      <c r="B248" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C248" s="16" t="s">
+      <c r="C248" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E248" s="16" t="s">
+      <c r="E248" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
-      <c r="B249" s="16" t="s">
+      <c r="A249" s="26"/>
+      <c r="B249" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C249" s="16" t="s">
+      <c r="C249" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="E249" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
-      <c r="B250" s="16" t="s">
+      <c r="A250" s="26"/>
+      <c r="B250" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C250" s="16" t="s">
+      <c r="C250" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E250" s="16" t="s">
+      <c r="E250" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-      <c r="B251" s="16" t="s">
+      <c r="A251" s="26"/>
+      <c r="B251" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C251" s="16" t="s">
+      <c r="C251" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E251" s="16" t="s">
+      <c r="E251" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-      <c r="B252" s="16" t="s">
+      <c r="A252" s="26"/>
+      <c r="B252" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C252" s="16" t="s">
+      <c r="C252" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E252" s="16" t="s">
+      <c r="E252" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-      <c r="B253" s="16" t="s">
+      <c r="A253" s="26"/>
+      <c r="B253" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C253" s="16" t="s">
+      <c r="C253" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E253" s="16" t="s">
+      <c r="E253" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B254" s="17"/>
-      <c r="C254" s="17"/>
-      <c r="E254" s="16"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="E254" s="13"/>
     </row>
     <row r="255" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="B255" s="16" t="s">
+      <c r="B255" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C255" s="16" t="s">
+      <c r="C255" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E255" s="16" t="s">
+      <c r="E255" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-      <c r="B256" s="16" t="s">
+      <c r="A256" s="26"/>
+      <c r="B256" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C256" s="16" t="s">
+      <c r="C256" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="E256" s="16" t="s">
+      <c r="E256" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-      <c r="B257" s="16" t="s">
+      <c r="A257" s="26"/>
+      <c r="B257" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C257" s="16" t="s">
+      <c r="C257" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="E257" s="16" t="s">
+      <c r="E257" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-      <c r="B258" s="16" t="s">
+      <c r="A258" s="26"/>
+      <c r="B258" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C258" s="16" t="s">
+      <c r="C258" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E258" s="16" t="s">
+      <c r="E258" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-      <c r="B259" s="16" t="s">
+      <c r="A259" s="26"/>
+      <c r="B259" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C259" s="16" t="s">
+      <c r="C259" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E259" s="16" t="s">
+      <c r="E259" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-      <c r="B260" s="16" t="s">
+      <c r="A260" s="26"/>
+      <c r="B260" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C260" s="16" t="s">
+      <c r="C260" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E260" s="16" t="s">
+      <c r="E260" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
-      <c r="B261" s="16" t="s">
+      <c r="A261" s="26"/>
+      <c r="B261" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C261" s="16" t="s">
+      <c r="C261" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E261" s="16" t="s">
+      <c r="E261" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
-      <c r="B262" s="16" t="s">
+      <c r="A262" s="26"/>
+      <c r="B262" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C262" s="16" t="s">
+      <c r="C262" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="E262" s="16" t="s">
+      <c r="E262" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
-      <c r="B263" s="16" t="s">
+      <c r="A263" s="26"/>
+      <c r="B263" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C263" s="16" t="s">
+      <c r="C263" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="E263" s="16" t="s">
+      <c r="E263" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
-      <c r="B264" s="16" t="s">
+      <c r="A264" s="26"/>
+      <c r="B264" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C264" s="16" t="s">
+      <c r="C264" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="E264" s="16" t="s">
+      <c r="E264" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
-      <c r="B265" s="16" t="s">
+      <c r="A265" s="26"/>
+      <c r="B265" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C265" s="16" t="s">
+      <c r="C265" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="E265" s="16" t="s">
+      <c r="E265" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
-      <c r="B266" s="16" t="s">
+      <c r="A266" s="26"/>
+      <c r="B266" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C266" s="16" t="s">
+      <c r="C266" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="E266" s="16" t="s">
+      <c r="E266" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
-      <c r="B267" s="16" t="s">
+      <c r="A267" s="26"/>
+      <c r="B267" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C267" s="16" t="s">
+      <c r="C267" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="E267" s="16" t="s">
+      <c r="E267" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-      <c r="B268" s="16" t="s">
+      <c r="A268" s="26"/>
+      <c r="B268" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C268" s="16" t="s">
+      <c r="C268" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="E268" s="16" t="s">
+      <c r="E268" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-      <c r="B269" s="16" t="s">
+      <c r="A269" s="26"/>
+      <c r="B269" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C269" s="16" t="s">
+      <c r="C269" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="E269" s="16" t="s">
+      <c r="E269" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-      <c r="B270" s="16" t="s">
+      <c r="A270" s="26"/>
+      <c r="B270" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C270" s="16" t="s">
+      <c r="C270" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="E270" s="16" t="s">
+      <c r="E270" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-      <c r="B271" s="16" t="s">
+      <c r="A271" s="26"/>
+      <c r="B271" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="C271" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E271" s="16" t="s">
+      <c r="E271" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-      <c r="B272" s="16" t="s">
+      <c r="A272" s="26"/>
+      <c r="B272" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C272" s="16" t="s">
+      <c r="C272" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="E272" s="16" t="s">
+      <c r="E272" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
-      <c r="B273" s="16" t="s">
+      <c r="A273" s="26"/>
+      <c r="B273" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C273" s="16" t="s">
+      <c r="C273" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E273" s="16" t="s">
+      <c r="E273" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="B274" s="16" t="s">
+      <c r="A274" s="26"/>
+      <c r="B274" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C274" s="16" t="s">
+      <c r="C274" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E274" s="16" t="s">
+      <c r="E274" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
-      <c r="E275" s="16"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="E275" s="13"/>
     </row>
     <row r="276" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="B276" s="16" t="s">
+      <c r="B276" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C276" s="19" t="s">
+      <c r="C276" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="D276" s="12">
-        <v>1</v>
-      </c>
-      <c r="E276" s="16"/>
+      <c r="D276" s="9">
+        <v>1</v>
+      </c>
+      <c r="E276" s="13"/>
     </row>
     <row r="277" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="16" t="s">
+      <c r="A277" s="26"/>
+      <c r="B277" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C277" s="16" t="s">
+      <c r="C277" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="D277" s="12">
-        <v>1</v>
-      </c>
-      <c r="E277" s="16"/>
+      <c r="D277" s="9">
+        <v>1</v>
+      </c>
+      <c r="E277" s="13"/>
     </row>
     <row r="278" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="16" t="s">
+      <c r="A278" s="26"/>
+      <c r="B278" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C278" s="16" t="s">
+      <c r="C278" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="D278" s="12">
-        <v>1</v>
-      </c>
-      <c r="E278" s="16"/>
+      <c r="D278" s="9">
+        <v>1</v>
+      </c>
+      <c r="E278" s="13"/>
     </row>
     <row r="279" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="16" t="s">
+      <c r="A279" s="26"/>
+      <c r="B279" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C279" s="16" t="s">
+      <c r="C279" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E279" s="16" t="s">
+      <c r="E279" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="B280" s="16" t="s">
+      <c r="A280" s="26"/>
+      <c r="B280" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C280" s="19" t="s">
+      <c r="C280" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="E280" s="16" t="s">
+      <c r="E280" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-      <c r="B281" s="16" t="s">
+      <c r="A281" s="26"/>
+      <c r="B281" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C281" s="16" t="s">
+      <c r="C281" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="E281" s="16" t="s">
+      <c r="E281" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="16" t="s">
+      <c r="A282" s="26"/>
+      <c r="B282" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C282" s="16" t="s">
+      <c r="C282" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E282" s="16" t="s">
+      <c r="E282" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B283" s="17"/>
-      <c r="C283" s="17"/>
-      <c r="E283" s="16"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="E283" s="13"/>
     </row>
     <row r="284" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
+      <c r="A284" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="B284" s="16" t="s">
+      <c r="B284" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C284" s="16" t="s">
+      <c r="C284" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="D284" s="12">
-        <v>1</v>
-      </c>
-      <c r="E284" s="16"/>
+      <c r="D284" s="9">
+        <v>1</v>
+      </c>
+      <c r="E284" s="13"/>
     </row>
     <row r="285" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-      <c r="B285" s="16" t="s">
+      <c r="A285" s="26"/>
+      <c r="B285" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C285" s="21" t="s">
+      <c r="C285" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="E285" s="16" t="s">
+      <c r="E285" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
-      <c r="B286" s="16" t="s">
+      <c r="A286" s="26"/>
+      <c r="B286" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C286" s="16" t="s">
+      <c r="C286" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="E286" s="16" t="s">
+      <c r="E286" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
-      <c r="B287" s="16" t="s">
+      <c r="A287" s="26"/>
+      <c r="B287" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="C287" s="16" t="s">
+      <c r="C287" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="E287" s="16" t="s">
+      <c r="E287" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
-      <c r="B288" s="16" t="s">
+      <c r="A288" s="26"/>
+      <c r="B288" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C288" s="16" t="s">
+      <c r="C288" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="D288" s="12">
-        <v>1</v>
-      </c>
-      <c r="E288" s="16"/>
+      <c r="D288" s="9">
+        <v>1</v>
+      </c>
+      <c r="E288" s="13"/>
     </row>
     <row r="289" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-      <c r="B289" s="16" t="s">
+      <c r="A289" s="26"/>
+      <c r="B289" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="C289" s="16" t="s">
+      <c r="C289" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D289" s="12">
-        <v>1</v>
-      </c>
-      <c r="E289" s="16"/>
+      <c r="D289" s="9">
+        <v>1</v>
+      </c>
+      <c r="E289" s="13"/>
     </row>
     <row r="290" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-      <c r="B290" s="16" t="s">
+      <c r="A290" s="26"/>
+      <c r="B290" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C290" s="16" t="s">
+      <c r="C290" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="E290" s="16" t="s">
+      <c r="E290" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
-      <c r="B291" s="16" t="s">
+      <c r="A291" s="26"/>
+      <c r="B291" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C291" s="16" t="s">
+      <c r="C291" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="E291" s="16" t="s">
+      <c r="E291" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
-      <c r="B292" s="16" t="s">
+      <c r="A292" s="26"/>
+      <c r="B292" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="C292" s="16" t="s">
+      <c r="C292" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="E292" s="16" t="s">
+      <c r="E292" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
-      <c r="B293" s="16" t="s">
+      <c r="A293" s="26"/>
+      <c r="B293" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C293" s="16" t="s">
+      <c r="C293" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="E293" s="16" t="s">
+      <c r="E293" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
-      <c r="B294" s="16" t="s">
+      <c r="A294" s="26"/>
+      <c r="B294" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C294" s="16" t="s">
+      <c r="C294" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E294" s="16" t="s">
+      <c r="E294" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
-      <c r="B295" s="16" t="s">
+      <c r="A295" s="26"/>
+      <c r="B295" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C295" s="16" t="s">
+      <c r="C295" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="E295" s="16" t="s">
+      <c r="E295" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
-      <c r="B296" s="16" t="s">
+      <c r="A296" s="26"/>
+      <c r="B296" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C296" s="16" t="s">
+      <c r="C296" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D296" s="12">
-        <v>1</v>
-      </c>
-      <c r="E296" s="16"/>
+      <c r="D296" s="9">
+        <v>1</v>
+      </c>
+      <c r="E296" s="13"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
-      <c r="B297" s="16" t="s">
+      <c r="A297" s="26"/>
+      <c r="B297" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="C297" s="16" t="s">
+      <c r="C297" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="D297" s="12">
-        <v>1</v>
-      </c>
-      <c r="E297" s="16"/>
+      <c r="D297" s="9">
+        <v>1</v>
+      </c>
+      <c r="E297" s="13"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
-      <c r="B298" s="16" t="s">
+      <c r="A298" s="26"/>
+      <c r="B298" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="C298" s="16" t="s">
+      <c r="C298" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="E298" s="16"/>
+      <c r="E298" s="13"/>
     </row>
     <row r="299" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
-      <c r="B299" s="16" t="s">
+      <c r="A299" s="26"/>
+      <c r="B299" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C299" s="16" t="s">
+      <c r="C299" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D299" s="12">
-        <v>1</v>
-      </c>
-      <c r="E299" s="16"/>
+      <c r="D299" s="9">
+        <v>1</v>
+      </c>
+      <c r="E299" s="13"/>
     </row>
     <row r="300" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
-      <c r="B300" s="16" t="s">
+      <c r="A300" s="26"/>
+      <c r="B300" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C300" s="16" t="s">
+      <c r="C300" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D300" s="12">
-        <v>1</v>
-      </c>
-      <c r="E300" s="16"/>
+      <c r="D300" s="9">
+        <v>1</v>
+      </c>
+      <c r="E300" s="13"/>
     </row>
     <row r="301" spans="1:5" ht="54.75" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
-      <c r="B301" s="16" t="s">
+      <c r="A301" s="26"/>
+      <c r="B301" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C301" s="19" t="s">
+      <c r="C301" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="D301" s="12">
-        <v>1</v>
-      </c>
-      <c r="E301" s="16"/>
+      <c r="D301" s="9">
+        <v>1</v>
+      </c>
+      <c r="E301" s="13"/>
     </row>
     <row r="302" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
-      <c r="B302" s="16" t="s">
+      <c r="A302" s="26"/>
+      <c r="B302" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="C302" s="19" t="s">
+      <c r="C302" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="D302" s="12">
-        <v>1</v>
-      </c>
-      <c r="E302" s="16"/>
+      <c r="D302" s="9">
+        <v>1</v>
+      </c>
+      <c r="E302" s="13"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
-      <c r="B303" s="16" t="s">
+      <c r="A303" s="26"/>
+      <c r="B303" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C303" s="16" t="s">
+      <c r="C303" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D303" s="12">
-        <v>1</v>
-      </c>
-      <c r="E303" s="16"/>
+      <c r="D303" s="9">
+        <v>1</v>
+      </c>
+      <c r="E303" s="13"/>
     </row>
     <row r="304" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
-      <c r="B304" s="16" t="s">
+      <c r="A304" s="26"/>
+      <c r="B304" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C304" s="16" t="s">
+      <c r="C304" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="D304" s="12">
-        <v>1</v>
-      </c>
-      <c r="E304" s="16"/>
+      <c r="D304" s="9">
+        <v>1</v>
+      </c>
+      <c r="E304" s="13"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
-      <c r="B305" s="16" t="s">
+      <c r="A305" s="26"/>
+      <c r="B305" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C305" s="16" t="s">
+      <c r="C305" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D305" s="12">
-        <v>1</v>
-      </c>
-      <c r="E305" s="16"/>
+      <c r="D305" s="9">
+        <v>1</v>
+      </c>
+      <c r="E305" s="13"/>
     </row>
     <row r="306" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
-      <c r="B306" s="16" t="s">
+      <c r="A306" s="26"/>
+      <c r="B306" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="C306" s="16" t="s">
+      <c r="C306" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E306" s="16" t="s">
+      <c r="E306" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
-      <c r="B307" s="16" t="s">
+      <c r="A307" s="26"/>
+      <c r="B307" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C307" s="16" t="s">
+      <c r="C307" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E307" s="16" t="s">
+      <c r="E307" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
-      <c r="B308" s="16" t="s">
+      <c r="A308" s="26"/>
+      <c r="B308" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C308" s="16" t="s">
+      <c r="C308" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E308" s="16" t="s">
+      <c r="E308" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
-      <c r="B309" s="16" t="s">
+      <c r="A309" s="26"/>
+      <c r="B309" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C309" s="16" t="s">
+      <c r="C309" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E309" s="16" t="s">
+      <c r="E309" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
-      <c r="B310" s="16" t="s">
+      <c r="A310" s="26"/>
+      <c r="B310" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C310" s="16" t="s">
+      <c r="C310" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E310" s="16" t="s">
+      <c r="E310" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
-      <c r="B311" s="16" t="s">
+      <c r="A311" s="26"/>
+      <c r="B311" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C311" s="16" t="s">
+      <c r="C311" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="E311" s="16" t="s">
+      <c r="E311" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
-      <c r="B312" s="16" t="s">
+      <c r="A312" s="26"/>
+      <c r="B312" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C312" s="16" t="s">
+      <c r="C312" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E312" s="16" t="s">
+      <c r="E312" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
-      <c r="B313" s="16" t="s">
+      <c r="A313" s="26"/>
+      <c r="B313" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C313" s="16" t="s">
+      <c r="C313" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="E313" s="16" t="s">
+      <c r="E313" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
-      <c r="B314" s="16" t="s">
+      <c r="A314" s="26"/>
+      <c r="B314" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="C314" s="16" t="s">
+      <c r="C314" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D314" s="12">
-        <v>1</v>
-      </c>
-      <c r="E314" s="16"/>
+      <c r="D314" s="9">
+        <v>1</v>
+      </c>
+      <c r="E314" s="13"/>
     </row>
     <row r="315" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
-      <c r="B315" s="16" t="s">
+      <c r="A315" s="26"/>
+      <c r="B315" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C315" s="16" t="s">
+      <c r="C315" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D315" s="12">
-        <v>1</v>
-      </c>
-      <c r="E315" s="16"/>
-    </row>
-    <row r="316" spans="1:5" s="27" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A316" s="2"/>
-      <c r="B316" s="25" t="s">
+      <c r="D315" s="9">
+        <v>1</v>
+      </c>
+      <c r="E315" s="13"/>
+    </row>
+    <row r="316" spans="1:5" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A316" s="26"/>
+      <c r="B316" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C316" s="25" t="s">
+      <c r="C316" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="D316" s="26"/>
-      <c r="E316" s="25" t="s">
+      <c r="D316" s="23"/>
+      <c r="E316" s="22" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
-      <c r="B317" s="16" t="s">
+      <c r="A317" s="26"/>
+      <c r="B317" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="C317" s="16" t="s">
+      <c r="C317" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="E317" s="16" t="s">
+      <c r="E317" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
-      <c r="B318" s="16" t="s">
+      <c r="A318" s="26"/>
+      <c r="B318" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="C318" s="16" t="s">
+      <c r="C318" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="E318" s="16" t="s">
+      <c r="E318" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
-      <c r="B319" s="16" t="s">
+      <c r="A319" s="26"/>
+      <c r="B319" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C319" s="16" t="s">
+      <c r="C319" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E319" s="16" t="s">
+      <c r="E319" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
-      <c r="B320" s="16" t="s">
+      <c r="A320" s="26"/>
+      <c r="B320" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C320" s="16" t="s">
+      <c r="C320" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="E320" s="16" t="s">
+      <c r="E320" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="B322" s="12" t="s">
+      <c r="B322" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C322" s="12" t="s">
+      <c r="C322" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E322" s="16" t="s">
+      <c r="E322" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
-      <c r="B323" s="12" t="s">
+      <c r="A323" s="26"/>
+      <c r="B323" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C323" s="12" t="s">
+      <c r="C323" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="E323" s="16" t="s">
+      <c r="E323" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
-      <c r="B324" s="12" t="s">
+      <c r="A324" s="26"/>
+      <c r="B324" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C324" s="12" t="s">
+      <c r="C324" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E324" s="16" t="s">
+      <c r="E324" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
-      <c r="B325" s="12" t="s">
+      <c r="A325" s="26"/>
+      <c r="B325" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E325" s="16" t="s">
+      <c r="E325" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
-      <c r="B326" s="12" t="s">
+      <c r="A326" s="26"/>
+      <c r="B326" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C326" s="12" t="s">
+      <c r="C326" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="E326" s="16" t="s">
+      <c r="E326" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
-      <c r="B327" s="12" t="s">
+      <c r="A327" s="26"/>
+      <c r="B327" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C327" s="12" t="s">
+      <c r="C327" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="E327" s="16" t="s">
+      <c r="E327" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
-      <c r="B328" s="12" t="s">
+      <c r="A328" s="26"/>
+      <c r="B328" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C328" s="12" t="s">
+      <c r="C328" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E328" s="16" t="s">
+      <c r="E328" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
-      <c r="B329" s="12" t="s">
+      <c r="A329" s="26"/>
+      <c r="B329" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="E329" s="16" t="s">
+      <c r="E329" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
-      <c r="B330" s="12" t="s">
+      <c r="A330" s="26"/>
+      <c r="B330" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C330" s="12" t="s">
+      <c r="C330" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E330" s="16" t="s">
+      <c r="E330" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
-      <c r="B331" s="12" t="s">
+      <c r="A331" s="26"/>
+      <c r="B331" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C331" s="12" t="s">
+      <c r="C331" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="E331" s="16" t="s">
+      <c r="E331" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E332" s="16"/>
+      <c r="E332" s="13"/>
     </row>
     <row r="333" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="B333" s="22" t="s">
+      <c r="B333" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="C333" s="22" t="s">
+      <c r="C333" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="E333" s="16" t="s">
+      <c r="E333" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
-      <c r="B334" s="22" t="s">
+      <c r="A334" s="26"/>
+      <c r="B334" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="C334" s="22" t="s">
+      <c r="C334" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="E334" s="16" t="s">
+      <c r="E334" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
-      <c r="B335" s="22" t="s">
+      <c r="A335" s="26"/>
+      <c r="B335" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="C335" s="22" t="s">
+      <c r="C335" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="E335" s="16" t="s">
+      <c r="E335" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
-      <c r="B336" s="22" t="s">
+      <c r="A336" s="26"/>
+      <c r="B336" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C336" s="22" t="s">
+      <c r="C336" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="E336" s="16" t="s">
+      <c r="E336" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
-      <c r="B337" s="22" t="s">
+      <c r="A337" s="26"/>
+      <c r="B337" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="C337" s="22" t="s">
+      <c r="C337" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="E337" s="16" t="s">
+      <c r="E337" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
-      <c r="B338" s="22" t="s">
+      <c r="A338" s="26"/>
+      <c r="B338" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C338" s="22" t="s">
+      <c r="C338" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="E338" s="16" t="s">
+      <c r="E338" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
-      <c r="B339" s="22" t="s">
+      <c r="A339" s="26"/>
+      <c r="B339" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="C339" s="22" t="s">
+      <c r="C339" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="E339" s="16" t="s">
+      <c r="E339" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
-      <c r="B340" s="22" t="s">
+      <c r="A340" s="26"/>
+      <c r="B340" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="C340" s="22" t="s">
+      <c r="C340" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="E340" s="16" t="s">
+      <c r="E340" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
-      <c r="B341" s="22" t="s">
+      <c r="A341" s="26"/>
+      <c r="B341" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="C341" s="22" t="s">
+      <c r="C341" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="E341" s="16" t="s">
+      <c r="E341" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
-      <c r="B342" s="22" t="s">
+      <c r="A342" s="26"/>
+      <c r="B342" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="C342" s="22" t="s">
+      <c r="C342" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="E342" s="16" t="s">
+      <c r="E342" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
-      <c r="B343" s="22" t="s">
+      <c r="A343" s="26"/>
+      <c r="B343" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="C343" s="22" t="s">
+      <c r="C343" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="E343" s="16" t="s">
+      <c r="E343" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
-      <c r="B344" s="22" t="s">
+      <c r="A344" s="26"/>
+      <c r="B344" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="C344" s="22" t="s">
+      <c r="C344" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="E344" s="16" t="s">
+      <c r="E344" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
-      <c r="B345" s="22" t="s">
+      <c r="A345" s="26"/>
+      <c r="B345" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="C345" s="22" t="s">
+      <c r="C345" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="E345" s="16" t="s">
+      <c r="E345" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
-      <c r="B346" s="22" t="s">
+      <c r="A346" s="26"/>
+      <c r="B346" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="C346" s="22" t="s">
+      <c r="C346" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="E346" s="16" t="s">
+      <c r="E346" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
-      <c r="B347" s="22" t="s">
+      <c r="A347" s="26"/>
+      <c r="B347" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="C347" s="22" t="s">
+      <c r="C347" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="E347" s="16" t="s">
+      <c r="E347" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
-      <c r="B348" s="22" t="s">
+      <c r="A348" s="26"/>
+      <c r="B348" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="C348" s="22" t="s">
+      <c r="C348" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="E348" s="16" t="s">
+      <c r="E348" s="13" t="s">
         <v>350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A38"/>
+    <mergeCell ref="A40:A70"/>
+    <mergeCell ref="A72:A94"/>
+    <mergeCell ref="A96:A125"/>
+    <mergeCell ref="A127:A143"/>
+    <mergeCell ref="A145:A181"/>
+    <mergeCell ref="A183:A213"/>
     <mergeCell ref="A333:A348"/>
     <mergeCell ref="A215:A253"/>
     <mergeCell ref="A255:A274"/>
     <mergeCell ref="A276:A282"/>
     <mergeCell ref="A284:A320"/>
     <mergeCell ref="A322:A331"/>
-    <mergeCell ref="A72:A94"/>
-    <mergeCell ref="A96:A125"/>
-    <mergeCell ref="A127:A143"/>
-    <mergeCell ref="A145:A181"/>
-    <mergeCell ref="A183:A213"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A38"/>
-    <mergeCell ref="A40:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7842,12 +7859,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>350</v>
       </c>
     </row>

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\REPOS\domibus\Domibus-MSH-selenium-ui-tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB52DEC8-AAA3-4481-A2AC-A4450E7FC44D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63FB9B-9DEA-49B8-85C5-A0CB2EC75C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="522">
   <si>
     <t>TEST AUTOMATION STATUS REPORT</t>
   </si>
@@ -2406,6 +2406,47 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Login with super/admin/user and change password</t>
+  </si>
+  <si>
+    <t>Password changed, Login with new password succeeds</t>
+  </si>
+  <si>
+    <t>Login with super/admin/user and change password and navigate away from the page</t>
+  </si>
+  <si>
+    <t>Password not changed, Login with old password succeeds</t>
+  </si>
+  <si>
+    <t>Fill change password with valid data but make sure the "Current password" doesn't match the actual password</t>
+  </si>
+  <si>
+    <t>Update button is enabled and after is pushed there is an error message stating the pass is not changed because the current password is invalid</t>
+  </si>
+  <si>
+    <t>New password doesn't respect password policy</t>
+  </si>
+  <si>
+    <t>Password policy is clearly stated, update button is disabled until valid password is provided</t>
+  </si>
+  <si>
+    <t>New password doesn't match the confirmation</t>
+  </si>
+  <si>
+    <t>Error message that passwords don't match is listed, update button is disabled</t>
+  </si>
+  <si>
+    <t>Open change password page</t>
+  </si>
+  <si>
+    <t>Page has title Change Password
+Has 3 input fields: Current password, New password and Confirmation
+Update button is disabled by default and while the inputs contain invalid values</t>
   </si>
 </sst>
 </file>
@@ -2761,7 +2802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2823,6 +2864,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2862,7 +2923,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2928,6 +2989,12 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
@@ -3419,7 +3486,7 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTA('RegressionScenarios-4.1'!C:C)-1</f>
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -3429,11 +3496,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('RegressionScenarios-4.1'!D:D)</f>
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" ref="C7:C12" si="0">B7/B$6</f>
-        <v>0.42727272727272725</v>
+        <v>0.5178571428571429</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3442,12 +3509,12 @@
         <v>Not implemented yet</v>
       </c>
       <c r="B8" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E1:E494,"="&amp;A8)</f>
-        <v>32</v>
+        <f>COUNTIF('RegressionScenarios-4.1'!E1:E503,"="&amp;A8)</f>
+        <v>38</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>9.696969696969697E-2</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3456,12 +3523,12 @@
         <v>Need more info</v>
       </c>
       <c r="B9" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E2:E495,"="&amp;A9)</f>
-        <v>8</v>
+        <f>COUNTIF('RegressionScenarios-4.1'!E2:E504,"="&amp;A9)</f>
+        <v>7</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>2.4242424242424242E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3470,12 +3537,12 @@
         <v>Low priority</v>
       </c>
       <c r="B10" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E2:E496,"="&amp;A10)</f>
-        <v>129</v>
+        <f>COUNTIF('RegressionScenarios-4.1'!E2:E505,"="&amp;A10)</f>
+        <v>97</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>0.39090909090909093</v>
+        <v>0.28869047619047616</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,12 +3551,12 @@
         <v>Technical impediment</v>
       </c>
       <c r="B11" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E3:E497,"="&amp;A11)</f>
+        <f>COUNTIF('RegressionScenarios-4.1'!E3:E506,"="&amp;A11)</f>
         <v>10</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>3.0303030303030304E-2</v>
+        <v>2.976190476190476E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3498,12 +3565,12 @@
         <v>Too complicated to automate</v>
       </c>
       <c r="B12" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E4:E498,"="&amp;A12)</f>
+        <f>COUNTIF('RegressionScenarios-4.1'!E4:E507,"="&amp;A12)</f>
         <v>10</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>3.0303030303030304E-2</v>
+        <v>2.976190476190476E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3536,15 +3603,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK348"/>
+  <dimension ref="A1:AMK357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8"/>
+    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="90.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="73.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="9" customWidth="1"/>
@@ -3637,158 +3704,144 @@
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" s="13">
         <v>1</v>
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
       </c>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -3798,23 +3851,23 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="13" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
       </c>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -3822,38 +3875,33 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+    <row r="23" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
       </c>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" ht="114" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>49</v>
+      <c r="B24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -3862,11 +3910,11 @@
     </row>
     <row r="25" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>51</v>
+      <c r="B25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -3875,11 +3923,11 @@
     </row>
     <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
-      <c r="B26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>53</v>
+      <c r="B26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -3889,62 +3937,62 @@
     <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="13" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
       </c>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="306.75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="13" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
       </c>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="13" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -3954,23 +4002,23 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="13" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
       </c>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -3980,23 +4028,23 @@
     <row r="34" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="13" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
       </c>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="13" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -4006,213 +4054,213 @@
     <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="13" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="13" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="306.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="13">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="D49" s="13">
         <v>1</v>
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
       </c>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
-      <c r="B51" s="13" t="s">
-        <v>100</v>
+      <c r="B51" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
       </c>
       <c r="E51" s="13"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -4221,141 +4269,141 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
-      <c r="B53" s="13" t="s">
-        <v>102</v>
+      <c r="B53" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="D59" s="13">
         <v>1</v>
       </c>
       <c r="E59" s="13"/>
     </row>
-    <row r="60" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="13" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
-      <c r="B61" s="13" t="s">
-        <v>116</v>
+      <c r="B61" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
       <c r="B62" s="13" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="13" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D63" s="13">
         <v>1</v>
@@ -4365,109 +4413,114 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="13" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D64" s="13">
         <v>1</v>
       </c>
       <c r="E64" s="13"/>
     </row>
-    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="13" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D65" s="13">
         <v>1</v>
       </c>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D66" s="13">
         <v>1</v>
       </c>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="13" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D67" s="13">
         <v>1</v>
       </c>
       <c r="E67" s="13"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="13" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D68" s="13">
         <v>1</v>
       </c>
       <c r="E68" s="13"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="13" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="13" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="13">
-        <v>1</v>
-      </c>
-      <c r="E70" s="13"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+        <v>117</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="1:5" ht="141" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>133</v>
-      </c>
+      <c r="E71" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
       <c r="B72" s="13" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D72" s="13">
         <v>1</v>
@@ -4477,302 +4530,306 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D73" s="13">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D74" s="13">
         <v>1</v>
       </c>
       <c r="E74" s="13"/>
     </row>
-    <row r="75" spans="1:5" ht="141" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="13" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D75" s="13">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D76" s="13">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="13" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="13" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="13">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D79" s="13">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="13"/>
     </row>
-    <row r="81" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+    <row r="81" spans="1:5" ht="141" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="B81" s="13" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D81" s="13">
         <v>1</v>
       </c>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="13" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="13">
-        <v>1</v>
-      </c>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="13" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="D83" s="13">
         <v>1</v>
       </c>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="13" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="13">
-        <v>1</v>
-      </c>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="13" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="13">
-        <v>1</v>
-      </c>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="13" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="13">
-        <v>1</v>
-      </c>
-      <c r="E86" s="13"/>
-    </row>
-    <row r="87" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="13">
-        <v>1</v>
-      </c>
-      <c r="E87" s="13"/>
+        <v>144</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D89" s="13">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="13" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D90" s="13">
+        <v>1</v>
+      </c>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="13" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D91" s="13">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="13" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D93" s="13">
+        <v>1</v>
+      </c>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="9">
+        <v>151</v>
+      </c>
+      <c r="D94" s="13">
         <v>1</v>
       </c>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
+    <row r="95" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A95" s="26"/>
+      <c r="B95" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" s="13">
+        <v>1</v>
+      </c>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="1:5" ht="281.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
-        <v>164</v>
-      </c>
+    <row r="96" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="26"/>
       <c r="B96" s="13" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D96" s="9">
+        <v>154</v>
+      </c>
+      <c r="D96" s="13">
         <v>1</v>
       </c>
       <c r="E96" s="13"/>
@@ -4780,591 +4837,610 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="13" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="9">
-        <v>1</v>
-      </c>
-      <c r="E97" s="13"/>
-    </row>
-    <row r="98" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="9">
-        <v>1</v>
-      </c>
-      <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="13" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" s="9">
-        <v>1</v>
-      </c>
-      <c r="E99" s="13"/>
+        <v>159</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="13" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D100" s="9">
-        <v>1</v>
-      </c>
-      <c r="E100" s="13"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="13" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="13" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1</v>
-      </c>
-      <c r="E102" s="13"/>
-    </row>
-    <row r="103" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="13" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="D103" s="9">
         <v>1</v>
       </c>
       <c r="E103" s="13"/>
     </row>
-    <row r="104" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" spans="1:5" ht="281.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>164</v>
+      </c>
       <c r="B105" s="13" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="9">
+        <v>1</v>
+      </c>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D107" s="9">
+        <v>1</v>
+      </c>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1</v>
+      </c>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="13" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D109" s="9">
+        <v>1</v>
+      </c>
+      <c r="E109" s="13"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E110" s="13"/>
+    </row>
+    <row r="111" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="13" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D111" s="9">
+        <v>1</v>
+      </c>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="13" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="D112" s="9">
+        <v>1</v>
+      </c>
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>180</v>
+        <v>56</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="13" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="D117" s="9">
         <v>1</v>
       </c>
       <c r="E117" s="13"/>
     </row>
-    <row r="118" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="13" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D118" s="9">
+        <v>1</v>
+      </c>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="13" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
+      <c r="E119" s="13"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="13" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D120" s="9">
+        <v>1</v>
+      </c>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="13" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D121" s="9">
+        <v>1</v>
+      </c>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="13" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="D122" s="9">
         <v>1</v>
       </c>
       <c r="E122" s="13"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="D123" s="9">
+        <v>1</v>
+      </c>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="13" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D124" s="9">
+        <v>1</v>
+      </c>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="E125" s="13"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
+      <c r="B125" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A126" s="26"/>
+      <c r="B126" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D126" s="9">
+        <v>1</v>
+      </c>
       <c r="E126" s="13"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="s">
-        <v>193</v>
-      </c>
+    <row r="127" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="26"/>
       <c r="B127" s="13" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D127" s="9">
-        <v>1</v>
-      </c>
-      <c r="E127" s="13"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
-      <c r="B128" s="17" t="s">
-        <v>196</v>
+      <c r="B128" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D128" s="9">
-        <v>1</v>
-      </c>
-      <c r="E128" s="13"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="D131" s="9">
+        <v>1</v>
+      </c>
+      <c r="E131" s="13"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D133" s="9">
+        <v>1</v>
+      </c>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
-      <c r="B134" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
-      <c r="B135" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="26"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="E134" s="13"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="E135" s="13"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="26" t="s">
+        <v>193</v>
+      </c>
       <c r="B136" s="13" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="D136" s="9">
+        <v>1</v>
+      </c>
+      <c r="E136" s="13"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
-      <c r="B137" s="13" t="s">
-        <v>69</v>
+      <c r="B137" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D137" s="9">
+        <v>1</v>
+      </c>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>132</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D138" s="9">
+        <v>1</v>
+      </c>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="13" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="26"/>
       <c r="B140" s="13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A141" s="26"/>
       <c r="B141" s="13" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1</v>
+      </c>
+      <c r="E141" s="13"/>
+    </row>
+    <row r="142" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="13" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D142" s="9">
+        <v>1</v>
+      </c>
+      <c r="E142" s="13"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="13" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="D143" s="9">
+        <v>1</v>
+      </c>
+      <c r="E143" s="13"/>
+    </row>
+    <row r="144" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="26"/>
+      <c r="B144" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" s="9">
+        <v>1</v>
+      </c>
       <c r="E144" s="13"/>
     </row>
-    <row r="145" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A145" s="26" t="s">
-        <v>215</v>
-      </c>
+    <row r="145" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="26"/>
       <c r="B145" s="13" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="D145" s="9">
         <v>1</v>
       </c>
       <c r="E145" s="13"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A146" s="26"/>
-      <c r="B146" s="17" t="s">
-        <v>218</v>
+      <c r="B146" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D146" s="9">
         <v>1</v>
@@ -5373,102 +5449,91 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
-      <c r="B147" s="17" t="s">
-        <v>220</v>
+      <c r="B147" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D147" s="9">
-        <v>1</v>
-      </c>
-      <c r="E147" s="13"/>
-    </row>
-    <row r="148" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="26"/>
-      <c r="B148" s="17" t="s">
-        <v>222</v>
+      <c r="B148" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D148" s="9">
-        <v>1</v>
-      </c>
-      <c r="E148" s="13"/>
-    </row>
-    <row r="149" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="26"/>
-      <c r="B149" s="17" t="s">
-        <v>224</v>
+      <c r="B149" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D149" s="9">
-        <v>1</v>
-      </c>
-      <c r="E149" s="13"/>
-    </row>
-    <row r="150" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="26"/>
-      <c r="B150" s="17" t="s">
-        <v>226</v>
+      <c r="B150" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D150" s="9">
-        <v>1</v>
-      </c>
-      <c r="E150" s="13"/>
-    </row>
-    <row r="151" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="26"/>
-      <c r="B151" s="17" t="s">
-        <v>228</v>
+      <c r="B151" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D151" s="9">
-        <v>1</v>
-      </c>
-      <c r="E151" s="13"/>
-    </row>
-    <row r="152" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A152" s="26"/>
-      <c r="B152" s="17" t="s">
-        <v>230</v>
+      <c r="B152" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D152" s="9">
         <v>1</v>
       </c>
       <c r="E152" s="13"/>
     </row>
-    <row r="153" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A153" s="26"/>
-      <c r="B153" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D153" s="9">
-        <v>1</v>
-      </c>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
       <c r="E153" s="13"/>
     </row>
-    <row r="154" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A154" s="26"/>
+    <row r="154" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>215</v>
+      </c>
       <c r="B154" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>235</v>
+        <v>216</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D154" s="9">
         <v>1</v>
@@ -5478,126 +5543,127 @@
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
       <c r="B155" s="17" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D155" s="9">
         <v>1</v>
       </c>
       <c r="E155" s="13"/>
     </row>
-    <row r="156" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
       <c r="B156" s="17" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D156" s="9">
         <v>1</v>
       </c>
       <c r="E156" s="13"/>
     </row>
-    <row r="157" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="26"/>
-      <c r="B157" s="13" t="s">
-        <v>240</v>
+      <c r="B157" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D157" s="9">
         <v>1</v>
       </c>
       <c r="E157" s="13"/>
     </row>
-    <row r="158" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
-      <c r="B158" s="13" t="s">
-        <v>242</v>
+      <c r="B158" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D158" s="9">
         <v>1</v>
       </c>
       <c r="E158" s="13"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
-      <c r="B159" s="13" t="s">
-        <v>244</v>
+      <c r="B159" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D159" s="9">
         <v>1</v>
       </c>
       <c r="E159" s="13"/>
     </row>
-    <row r="160" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
-      <c r="B160" s="13" t="s">
-        <v>246</v>
+      <c r="B160" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D160" s="9">
         <v>1</v>
       </c>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A161" s="26"/>
-      <c r="B161" s="13" t="s">
-        <v>248</v>
+      <c r="B161" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D161" s="9">
         <v>1</v>
       </c>
       <c r="E161" s="13"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
-      <c r="B162" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E162" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B162" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D162" s="9">
+        <v>1</v>
+      </c>
+      <c r="E162" s="13"/>
+    </row>
+    <row r="163" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>253</v>
+        <v>234</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="D163" s="9">
         <v>1</v>
       </c>
       <c r="E163" s="13"/>
     </row>
-    <row r="164" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="26"/>
-      <c r="B164" s="13" t="s">
-        <v>254</v>
+      <c r="B164" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D164" s="9">
         <v>1</v>
@@ -5606,11 +5672,11 @@
     </row>
     <row r="165" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A165" s="26"/>
-      <c r="B165" s="13" t="s">
-        <v>255</v>
+      <c r="B165" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D165" s="9">
         <v>1</v>
@@ -5620,23 +5686,23 @@
     <row r="166" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A166" s="26"/>
       <c r="B166" s="13" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D166" s="9">
         <v>1</v>
       </c>
       <c r="E166" s="13"/>
     </row>
-    <row r="167" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A167" s="26"/>
       <c r="B167" s="13" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D167" s="9">
         <v>1</v>
@@ -5646,107 +5712,114 @@
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="26"/>
       <c r="B168" s="13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D168" s="9">
         <v>1</v>
       </c>
       <c r="E168" s="13"/>
     </row>
-    <row r="169" spans="1:5" ht="141" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A169" s="26"/>
       <c r="B169" s="13" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D169" s="9">
+        <v>1</v>
+      </c>
+      <c r="E169" s="13"/>
     </row>
     <row r="170" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A170" s="26"/>
       <c r="B170" s="13" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D170" s="9">
+        <v>1</v>
+      </c>
+      <c r="E170" s="13"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="26"/>
       <c r="B171" s="13" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D171" s="9">
+        <v>1</v>
+      </c>
+      <c r="E171" s="13"/>
     </row>
     <row r="172" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A172" s="26"/>
       <c r="B172" s="13" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="D172" s="9">
+        <v>1</v>
+      </c>
+      <c r="E172" s="13"/>
+    </row>
+    <row r="173" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A173" s="26"/>
       <c r="B173" s="13" t="s">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D173" s="9">
+        <v>1</v>
+      </c>
+      <c r="E173" s="13"/>
     </row>
     <row r="174" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A174" s="26"/>
       <c r="B174" s="13" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="D174" s="9">
+        <v>1</v>
+      </c>
+      <c r="E174" s="13"/>
+    </row>
+    <row r="175" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A175" s="26"/>
       <c r="B175" s="13" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="D175" s="9">
+        <v>1</v>
+      </c>
+      <c r="E175" s="13"/>
+    </row>
+    <row r="176" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A176" s="26"/>
       <c r="B176" s="13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D176" s="9">
         <v>1</v>
@@ -5756,194 +5829,195 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="26"/>
       <c r="B177" s="13" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="D177" s="9">
+        <v>1</v>
+      </c>
+      <c r="E177" s="13"/>
+    </row>
+    <row r="178" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A178" s="26"/>
       <c r="B178" s="13" t="s">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D178" s="9">
+        <v>1</v>
+      </c>
+      <c r="E178" s="13"/>
     </row>
     <row r="179" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A179" s="26"/>
       <c r="B179" s="13" t="s">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D179" s="9">
+        <v>1</v>
+      </c>
+      <c r="E179" s="13"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="26"/>
       <c r="B180" s="13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D180" s="9">
+        <v>1</v>
+      </c>
+      <c r="E180" s="13"/>
     </row>
     <row r="181" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A181" s="26"/>
       <c r="B181" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D181" s="9">
+        <v>1</v>
+      </c>
+      <c r="E181" s="13"/>
+    </row>
+    <row r="182" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="26"/>
+      <c r="B182" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D182" s="9">
+        <v>1</v>
+      </c>
+      <c r="E182" s="13"/>
+    </row>
+    <row r="183" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A183" s="26"/>
+      <c r="B183" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D183" s="9">
+        <v>1</v>
+      </c>
+      <c r="E183" s="13"/>
+    </row>
+    <row r="184" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A184" s="26"/>
+      <c r="B184" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D184" s="9">
+        <v>1</v>
+      </c>
+      <c r="E184" s="13"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="26"/>
+      <c r="B185" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D185" s="9">
+        <v>1</v>
+      </c>
+      <c r="E185" s="13"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="26"/>
+      <c r="B186" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="26"/>
+      <c r="B187" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="26"/>
+      <c r="B188" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="26"/>
+      <c r="B189" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A190" s="26"/>
+      <c r="B190" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C190" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E181" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="E182" s="13"/>
-    </row>
-    <row r="183" spans="1:5" ht="255.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="26" t="s">
+      <c r="D190" s="9">
+        <v>1</v>
+      </c>
+      <c r="E190" s="13"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="E191" s="13"/>
+    </row>
+    <row r="192" spans="1:5" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B192" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C192" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="D183" s="9">
-        <v>1</v>
-      </c>
-      <c r="E183" s="13"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="26"/>
-      <c r="B184" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D184" s="9">
-        <v>1</v>
-      </c>
-      <c r="E184" s="13"/>
-    </row>
-    <row r="185" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="26"/>
-      <c r="B185" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D185" s="9">
-        <v>1</v>
-      </c>
-      <c r="E185" s="13"/>
-    </row>
-    <row r="186" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="26"/>
-      <c r="B186" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D186" s="9">
-        <v>1</v>
-      </c>
-      <c r="E186" s="13"/>
-    </row>
-    <row r="187" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A187" s="26"/>
-      <c r="B187" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D187" s="9">
-        <v>1</v>
-      </c>
-      <c r="E187" s="13"/>
-    </row>
-    <row r="188" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="26"/>
-      <c r="B188" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D188" s="9">
-        <v>1</v>
-      </c>
-      <c r="E188" s="13"/>
-    </row>
-    <row r="189" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="26"/>
-      <c r="B189" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D189" s="9">
-        <v>1</v>
-      </c>
-      <c r="E189" s="13"/>
-    </row>
-    <row r="190" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A190" s="26"/>
-      <c r="B190" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D190" s="9">
-        <v>1</v>
-      </c>
-      <c r="E190" s="13"/>
-    </row>
-    <row r="191" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A191" s="26"/>
-      <c r="B191" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D191" s="9">
-        <v>1</v>
-      </c>
-      <c r="E191" s="13"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="26"/>
-      <c r="B192" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="D192" s="9">
         <v>1</v>
@@ -5953,10 +6027,10 @@
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="26"/>
       <c r="B193" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="D193" s="9">
         <v>1</v>
@@ -5965,88 +6039,89 @@
     </row>
     <row r="194" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A194" s="26"/>
-      <c r="B194" s="13" t="s">
-        <v>242</v>
+      <c r="B194" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="D194" s="9">
         <v>1</v>
       </c>
       <c r="E194" s="13"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A195" s="26"/>
-      <c r="B195" s="13" t="s">
-        <v>280</v>
+      <c r="B195" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D195" s="9">
         <v>1</v>
       </c>
       <c r="E195" s="13"/>
     </row>
-    <row r="196" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A196" s="26"/>
-      <c r="B196" s="13" t="s">
-        <v>282</v>
+      <c r="B196" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="D196" s="9">
         <v>1</v>
       </c>
       <c r="E196" s="13"/>
     </row>
-    <row r="197" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A197" s="26"/>
-      <c r="B197" s="13" t="s">
-        <v>246</v>
+      <c r="B197" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D197" s="9">
         <v>1</v>
       </c>
       <c r="E197" s="13"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A198" s="26"/>
-      <c r="B198" s="13" t="s">
-        <v>248</v>
+      <c r="B198" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="D198" s="9">
         <v>1</v>
       </c>
       <c r="E198" s="13"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A199" s="26"/>
-      <c r="B199" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C199" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D199" s="9">
+        <v>1</v>
+      </c>
+      <c r="E199" s="13"/>
+    </row>
+    <row r="200" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A200" s="26"/>
       <c r="B200" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>287</v>
+        <v>234</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="D200" s="9">
         <v>1</v>
@@ -6055,249 +6130,268 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="26"/>
-      <c r="B201" s="13" t="s">
-        <v>288</v>
+      <c r="B201" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="D201" s="9">
         <v>1</v>
       </c>
       <c r="E201" s="13"/>
     </row>
-    <row r="202" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="26"/>
-      <c r="B202" s="13" t="s">
-        <v>289</v>
+      <c r="B202" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D202" s="9">
         <v>1</v>
       </c>
       <c r="E202" s="13"/>
     </row>
-    <row r="203" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A203" s="26"/>
       <c r="B203" s="13" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="D203" s="9">
+        <v>1</v>
+      </c>
+      <c r="E203" s="13"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="26"/>
       <c r="B204" s="13" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D204" s="9">
+        <v>1</v>
+      </c>
+      <c r="E204" s="13"/>
     </row>
     <row r="205" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A205" s="26"/>
       <c r="B205" s="13" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E205" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="D205" s="9">
+        <v>1</v>
+      </c>
+      <c r="E205" s="13"/>
+    </row>
+    <row r="206" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A206" s="26"/>
       <c r="B206" s="13" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="D206" s="9">
+        <v>1</v>
+      </c>
+      <c r="E206" s="13"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="26"/>
       <c r="B207" s="13" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E207" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="D207" s="9">
+        <v>1</v>
+      </c>
+      <c r="E207" s="13"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="26"/>
       <c r="B208" s="13" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="26"/>
       <c r="B209" s="13" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="D209" s="9">
+        <v>1</v>
+      </c>
+      <c r="E209" s="13"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="26"/>
       <c r="B210" s="13" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="D210" s="9">
+        <v>1</v>
+      </c>
+      <c r="E210" s="13"/>
+    </row>
+    <row r="211" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A211" s="26"/>
       <c r="B211" s="13" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E211" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="D211" s="9">
+        <v>1</v>
+      </c>
+      <c r="E211" s="13"/>
+    </row>
+    <row r="212" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A212" s="26"/>
       <c r="B212" s="13" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E212" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="D212" s="9">
+        <v>1</v>
+      </c>
+      <c r="E212" s="13"/>
+    </row>
+    <row r="213" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A213" s="26"/>
       <c r="B213" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D213" s="9">
         <v>1</v>
       </c>
       <c r="E213" s="13"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="14"/>
-      <c r="C214" s="14"/>
+    <row r="214" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="26"/>
+      <c r="B214" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D214" s="9">
+        <v>1</v>
+      </c>
       <c r="E214" s="13"/>
     </row>
-    <row r="215" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A215" s="26" t="s">
-        <v>298</v>
-      </c>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="26"/>
       <c r="B215" s="13" t="s">
-        <v>299</v>
+        <v>63</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E215" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D215" s="9">
+        <v>1</v>
+      </c>
+      <c r="E215" s="13"/>
+    </row>
+    <row r="216" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="13" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E216" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="D216" s="9">
+        <v>1</v>
+      </c>
+      <c r="E216" s="13"/>
+    </row>
+    <row r="217" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A217" s="26"/>
       <c r="B217" s="13" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E217" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="D217" s="9">
+        <v>1</v>
+      </c>
+      <c r="E217" s="13"/>
+    </row>
+    <row r="218" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A218" s="26"/>
       <c r="B218" s="13" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E218" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
       <c r="B219" s="13" t="s">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E219" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D219" s="9">
+        <v>1</v>
+      </c>
+      <c r="E219" s="13"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="26"/>
       <c r="B220" s="13" t="s">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E220" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A221" s="26"/>
       <c r="B221" s="13" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E221" s="13" t="s">
         <v>47</v>
@@ -6306,34 +6400,30 @@
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="13" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E222" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="26"/>
-      <c r="B223" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="26"/>
+        <v>297</v>
+      </c>
+      <c r="D222" s="9">
+        <v>1</v>
+      </c>
+      <c r="E222" s="13"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="E223" s="13"/>
+    </row>
+    <row r="224" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A224" s="26" t="s">
+        <v>298</v>
+      </c>
       <c r="B224" s="13" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E224" s="13" t="s">
         <v>47</v>
@@ -6342,10 +6432,10 @@
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="26"/>
       <c r="B225" s="13" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E225" s="13" t="s">
         <v>47</v>
@@ -6354,22 +6444,22 @@
     <row r="226" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="13" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E226" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="13" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E227" s="13" t="s">
         <v>47</v>
@@ -6378,70 +6468,70 @@
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="13" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E228" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="26"/>
       <c r="B229" s="13" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="E229" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="26"/>
       <c r="B230" s="13" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E230" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="26"/>
       <c r="B231" s="13" t="s">
-        <v>324</v>
+        <v>145</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E231" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A232" s="26"/>
       <c r="B232" s="13" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E232" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A233" s="26"/>
       <c r="B233" s="13" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E233" s="13" t="s">
         <v>47</v>
@@ -6450,34 +6540,34 @@
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="26"/>
       <c r="B234" s="13" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E234" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A235" s="26"/>
       <c r="B235" s="13" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="E235" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A236" s="26"/>
       <c r="B236" s="13" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E236" s="13" t="s">
         <v>47</v>
@@ -6486,43 +6576,43 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="26"/>
       <c r="B237" s="13" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="E237" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A238" s="26"/>
       <c r="B238" s="13" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E238" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="13" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E239" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A240" s="26"/>
       <c r="B240" s="13" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>314</v>
@@ -6534,10 +6624,10 @@
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="26"/>
       <c r="B241" s="13" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E241" s="13" t="s">
         <v>47</v>
@@ -6546,10 +6636,10 @@
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="26"/>
       <c r="B242" s="13" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E242" s="13" t="s">
         <v>47</v>
@@ -6558,10 +6648,10 @@
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="26"/>
       <c r="B243" s="13" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E243" s="13" t="s">
         <v>47</v>
@@ -6570,10 +6660,10 @@
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="26"/>
       <c r="B244" s="13" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E244" s="13" t="s">
         <v>47</v>
@@ -6582,34 +6672,34 @@
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="26"/>
       <c r="B245" s="13" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E245" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="26"/>
       <c r="B246" s="13" t="s">
-        <v>59</v>
+        <v>334</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E246" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="26"/>
       <c r="B247" s="13" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="E247" s="13" t="s">
         <v>47</v>
@@ -6618,46 +6708,46 @@
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="26"/>
       <c r="B248" s="13" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="E248" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="13" t="s">
-        <v>65</v>
+        <v>339</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="E249" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="13" t="s">
-        <v>67</v>
+        <v>340</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="E250" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="13" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="E251" s="13" t="s">
         <v>47</v>
@@ -6666,197 +6756,197 @@
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="13" t="s">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="E252" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="13" t="s">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="E253" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B254" s="14"/>
-      <c r="C254" s="14"/>
-      <c r="E254" s="13"/>
-    </row>
-    <row r="255" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="26" t="s">
-        <v>347</v>
-      </c>
+      <c r="A254" s="26"/>
+      <c r="B254" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="26"/>
       <c r="B255" s="13" t="s">
-        <v>348</v>
+        <v>59</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="13" t="s">
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="26"/>
       <c r="B257" s="13" t="s">
-        <v>353</v>
+        <v>63</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>352</v>
+        <v>64</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A258" s="26"/>
       <c r="B258" s="13" t="s">
-        <v>354</v>
+        <v>65</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="E258" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A259" s="26"/>
       <c r="B259" s="13" t="s">
-        <v>355</v>
+        <v>67</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A260" s="26"/>
       <c r="B260" s="13" t="s">
-        <v>357</v>
+        <v>69</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="26"/>
       <c r="B261" s="13" t="s">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A262" s="26"/>
       <c r="B262" s="13" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="E262" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="E263" s="13"/>
+    </row>
+    <row r="264" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
+      <c r="A264" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E264" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="26"/>
-      <c r="B263" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E263" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A264" s="26"/>
-      <c r="B264" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="E264" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="26"/>
       <c r="B265" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E265" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="26"/>
       <c r="B266" s="13" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E266" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="26"/>
       <c r="B267" s="13" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A268" s="26"/>
       <c r="B268" s="13" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E268" s="13" t="s">
         <v>350</v>
@@ -6865,10 +6955,10 @@
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="26"/>
       <c r="B269" s="13" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E269" s="13" t="s">
         <v>350</v>
@@ -6877,10 +6967,10 @@
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="26"/>
       <c r="B270" s="13" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="E270" s="13" t="s">
         <v>350</v>
@@ -6889,34 +6979,34 @@
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="26"/>
       <c r="B271" s="13" t="s">
-        <v>374</v>
+        <v>143</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E271" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="26"/>
       <c r="B272" s="13" t="s">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E272" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A273" s="26"/>
       <c r="B273" s="13" t="s">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="C273" s="13" t="s">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="E273" s="13" t="s">
         <v>47</v>
@@ -6925,833 +7015,833 @@
     <row r="274" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A274" s="26"/>
       <c r="B274" s="13" t="s">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B275" s="14"/>
-      <c r="C275" s="14"/>
-      <c r="E275" s="13"/>
-    </row>
-    <row r="276" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A276" s="26" t="s">
-        <v>378</v>
-      </c>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A275" s="26"/>
+      <c r="B275" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A276" s="26"/>
       <c r="B276" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C276" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="D276" s="9">
-        <v>1</v>
-      </c>
-      <c r="E276" s="13"/>
+        <v>367</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="277" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A277" s="26"/>
       <c r="B277" s="13" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D277" s="9">
-        <v>1</v>
-      </c>
-      <c r="E277" s="13"/>
-    </row>
-    <row r="278" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="26"/>
       <c r="B278" s="13" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="D278" s="9">
-        <v>1</v>
-      </c>
-      <c r="E278" s="13"/>
-    </row>
-    <row r="279" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="26"/>
       <c r="B279" s="13" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="26"/>
       <c r="B280" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="C280" s="16" t="s">
-        <v>388</v>
+        <v>374</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A281" s="26"/>
       <c r="B281" s="13" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="26"/>
       <c r="B282" s="13" t="s">
-        <v>385</v>
+        <v>74</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B283" s="14"/>
-      <c r="C283" s="14"/>
-      <c r="E283" s="13"/>
-    </row>
-    <row r="284" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A284" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B284" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D284" s="9">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A283" s="26"/>
+      <c r="B283" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
       <c r="E284" s="13"/>
     </row>
-    <row r="285" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A285" s="26"/>
+    <row r="285" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A285" s="26" t="s">
+        <v>378</v>
+      </c>
       <c r="B285" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C285" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="E285" s="13" t="s">
-        <v>132</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D285" s="9">
+        <v>1</v>
+      </c>
+      <c r="E285" s="13"/>
     </row>
     <row r="286" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A286" s="26"/>
       <c r="B286" s="13" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="E286" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="D286" s="9">
+        <v>1</v>
+      </c>
+      <c r="E286" s="13"/>
+    </row>
+    <row r="287" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A287" s="26"/>
       <c r="B287" s="13" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="E287" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="D287" s="9">
+        <v>1</v>
+      </c>
+      <c r="E287" s="13"/>
+    </row>
+    <row r="288" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A288" s="26"/>
       <c r="B288" s="13" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="D288" s="9">
-        <v>1</v>
-      </c>
-      <c r="E288" s="13"/>
-    </row>
-    <row r="289" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="E288" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A289" s="26"/>
       <c r="B289" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C289" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="D289" s="9">
-        <v>1</v>
-      </c>
-      <c r="E289" s="13"/>
-    </row>
-    <row r="290" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A290" s="26"/>
       <c r="B290" s="13" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E290" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A291" s="26"/>
       <c r="B291" s="13" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E291" s="13" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="26"/>
-      <c r="B292" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C292" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="E292" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="E292" s="13"/>
     </row>
     <row r="293" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A293" s="26"/>
+      <c r="A293" s="26" t="s">
+        <v>391</v>
+      </c>
       <c r="B293" s="13" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E293" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="D293" s="9">
+        <v>1</v>
+      </c>
+      <c r="E293" s="13"/>
+    </row>
+    <row r="294" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A294" s="26"/>
       <c r="B294" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="C294" s="13" t="s">
-        <v>412</v>
+        <v>394</v>
+      </c>
+      <c r="C294" s="18" t="s">
+        <v>395</v>
       </c>
       <c r="E294" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A295" s="26"/>
       <c r="B295" s="13" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="E295" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A296" s="26"/>
       <c r="B296" s="13" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D296" s="9">
-        <v>1</v>
-      </c>
-      <c r="E296" s="13"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="E296" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A297" s="26"/>
       <c r="B297" s="13" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D297" s="9">
         <v>1</v>
       </c>
       <c r="E297" s="13"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A298" s="26"/>
       <c r="B298" s="13" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>420</v>
+        <v>402</v>
+      </c>
+      <c r="D298" s="9">
+        <v>1</v>
       </c>
       <c r="E298" s="13"/>
     </row>
-    <row r="299" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A299" s="26"/>
       <c r="B299" s="13" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D299" s="9">
-        <v>1</v>
-      </c>
-      <c r="E299" s="13"/>
-    </row>
-    <row r="300" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="E299" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="26"/>
       <c r="B300" s="13" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="D300" s="9">
-        <v>1</v>
-      </c>
-      <c r="E300" s="13"/>
-    </row>
-    <row r="301" spans="1:5" ht="54.75" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="E300" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="26"/>
       <c r="B301" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C301" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="D301" s="9">
-        <v>1</v>
-      </c>
-      <c r="E301" s="13"/>
-    </row>
-    <row r="302" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A302" s="26"/>
       <c r="B302" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="C302" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="D302" s="9">
-        <v>1</v>
-      </c>
-      <c r="E302" s="13"/>
+        <v>409</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="26"/>
       <c r="B303" s="13" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="D303" s="9">
-        <v>1</v>
-      </c>
-      <c r="E303" s="13"/>
-    </row>
-    <row r="304" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="26"/>
       <c r="B304" s="13" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="D304" s="9">
-        <v>1</v>
-      </c>
-      <c r="E304" s="13"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A305" s="26"/>
       <c r="B305" s="13" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D305" s="9">
         <v>1</v>
       </c>
       <c r="E305" s="13"/>
     </row>
-    <row r="306" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="26"/>
       <c r="B306" s="13" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D306" s="9">
+        <v>1</v>
+      </c>
+      <c r="E306" s="13"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="26"/>
       <c r="B307" s="13" t="s">
-        <v>61</v>
+        <v>419</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E307" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="E307" s="13"/>
+    </row>
+    <row r="308" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A308" s="26"/>
       <c r="B308" s="13" t="s">
-        <v>63</v>
+        <v>421</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E308" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="D308" s="9">
+        <v>1</v>
+      </c>
+      <c r="E308" s="13"/>
     </row>
     <row r="309" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A309" s="26"/>
       <c r="B309" s="13" t="s">
-        <v>65</v>
+        <v>423</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="D309" s="9">
+        <v>1</v>
+      </c>
+      <c r="E309" s="13"/>
+    </row>
+    <row r="310" spans="1:5" ht="54.75" x14ac:dyDescent="0.25">
       <c r="A310" s="26"/>
       <c r="B310" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C310" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="C310" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D310" s="9">
+        <v>1</v>
+      </c>
+      <c r="E310" s="13"/>
+    </row>
+    <row r="311" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A311" s="26"/>
       <c r="B311" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="C311" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="E311" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="C311" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D311" s="9">
+        <v>1</v>
+      </c>
+      <c r="E311" s="13"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="26"/>
       <c r="B312" s="13" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E312" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="D312" s="9">
+        <v>1</v>
+      </c>
+      <c r="E312" s="13"/>
+    </row>
+    <row r="313" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A313" s="26"/>
       <c r="B313" s="13" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="D313" s="9">
+        <v>1</v>
+      </c>
+      <c r="E313" s="13"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="26"/>
       <c r="B314" s="13" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D314" s="9">
         <v>1</v>
       </c>
       <c r="E314" s="13"/>
     </row>
-    <row r="315" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A315" s="26"/>
       <c r="B315" s="13" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="D315" s="9">
-        <v>1</v>
-      </c>
-      <c r="E315" s="13"/>
-    </row>
-    <row r="316" spans="1:5" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="E315" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A316" s="26"/>
-      <c r="B316" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C316" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="D316" s="23"/>
-      <c r="E316" s="22" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B316" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E316" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="26"/>
       <c r="B317" s="13" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>448</v>
+        <v>64</v>
       </c>
       <c r="E317" s="13" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A318" s="26"/>
       <c r="B318" s="13" t="s">
-        <v>449</v>
+        <v>65</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="E318" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A319" s="26"/>
       <c r="B319" s="13" t="s">
-        <v>451</v>
+        <v>67</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>452</v>
+        <v>263</v>
       </c>
       <c r="E319" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="26"/>
       <c r="B320" s="13" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E320" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A321" s="26"/>
+      <c r="B321" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C321" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E321" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A322" s="26"/>
+      <c r="B322" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C322" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E322" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A323" s="26"/>
+      <c r="B323" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C323" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D323" s="9">
+        <v>1</v>
+      </c>
+      <c r="E323" s="13"/>
+    </row>
+    <row r="324" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A324" s="26"/>
+      <c r="B324" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C324" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="D324" s="9">
+        <v>1</v>
+      </c>
+      <c r="E324" s="13"/>
+    </row>
+    <row r="325" spans="1:5" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A325" s="26"/>
+      <c r="B325" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C325" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D325" s="23"/>
+      <c r="E325" s="22" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="E322" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A323" s="26"/>
-      <c r="B323" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="E323" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="26"/>
-      <c r="B324" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C324" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="26"/>
-      <c r="B325" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A326" s="26"/>
-      <c r="B326" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>464</v>
+      <c r="B326" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C326" s="13" t="s">
+        <v>448</v>
       </c>
       <c r="E326" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A327" s="26"/>
-      <c r="B327" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C327" s="9" t="s">
-        <v>466</v>
+      <c r="B327" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C327" s="13" t="s">
+        <v>450</v>
       </c>
       <c r="E327" s="13" t="s">
-        <v>47</v>
+        <v>350</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="26"/>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E328" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A329" s="26"/>
+      <c r="B329" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C329" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E329" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E331" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A332" s="26"/>
+      <c r="B332" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E332" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="26"/>
+      <c r="B333" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E333" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="26"/>
+      <c r="B334" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E334" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A335" s="26"/>
+      <c r="B335" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E335" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="26"/>
+      <c r="B336" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E336" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="26"/>
+      <c r="B337" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C337" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E328" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="26"/>
-      <c r="B329" s="9" t="s">
+      <c r="E337" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="26"/>
+      <c r="B338" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="E329" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A330" s="26"/>
-      <c r="B330" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C330" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="E330" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="26"/>
-      <c r="B331" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="E331" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E332" s="13"/>
-    </row>
-    <row r="333" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="B333" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C333" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="E333" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A334" s="26"/>
-      <c r="B334" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="C334" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="E334" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="26"/>
-      <c r="B335" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C335" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="E335" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A336" s="26"/>
-      <c r="B336" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="C336" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="E336" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A337" s="26"/>
-      <c r="B337" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="E337" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A338" s="26"/>
-      <c r="B338" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="C338" s="19" t="s">
-        <v>486</v>
-      </c>
       <c r="E338" s="13" t="s">
-        <v>350</v>
+        <v>47</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A339" s="26"/>
-      <c r="B339" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="C339" s="19" t="s">
-        <v>488</v>
+      <c r="B339" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>471</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="26"/>
-      <c r="B340" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="C340" s="19" t="s">
-        <v>490</v>
+      <c r="B340" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>473</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A341" s="26"/>
-      <c r="B341" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="C341" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="E341" s="13" t="s">
-        <v>350</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E341" s="13"/>
     </row>
     <row r="342" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A342" s="26"/>
+      <c r="A342" s="26" t="s">
+        <v>474</v>
+      </c>
       <c r="B342" s="19" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E342" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A343" s="26"/>
       <c r="B343" s="19" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A344" s="26"/>
       <c r="B344" s="19" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="C344" s="19" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E344" s="13" t="s">
         <v>350</v>
@@ -7760,69 +7850,178 @@
     <row r="345" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A345" s="26"/>
       <c r="B345" s="19" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C345" s="19" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A346" s="26"/>
       <c r="B346" s="19" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C346" s="19" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>73</v>
+        <v>350</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A347" s="26"/>
       <c r="B347" s="19" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>73</v>
+        <v>350</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A348" s="26"/>
       <c r="B348" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C348" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="E348" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A349" s="26"/>
+      <c r="B349" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="C349" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="E349" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A350" s="26"/>
+      <c r="B350" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="C350" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="E350" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A351" s="26"/>
+      <c r="B351" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C351" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="E351" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A352" s="26"/>
+      <c r="B352" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C352" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="E352" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="26"/>
+      <c r="B353" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="C353" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="E353" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A354" s="26"/>
+      <c r="B354" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C354" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E354" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A355" s="26"/>
+      <c r="B355" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C355" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="E355" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A356" s="26"/>
+      <c r="B356" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C356" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="E356" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A357" s="26"/>
+      <c r="B357" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="C348" s="19" t="s">
+      <c r="C357" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="E348" s="13" t="s">
+      <c r="E357" s="13" t="s">
         <v>350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A342:A357"/>
+    <mergeCell ref="A224:A262"/>
+    <mergeCell ref="A264:A283"/>
+    <mergeCell ref="A285:A291"/>
+    <mergeCell ref="A293:A329"/>
+    <mergeCell ref="A331:A340"/>
+    <mergeCell ref="A81:A103"/>
+    <mergeCell ref="A105:A134"/>
+    <mergeCell ref="A136:A152"/>
+    <mergeCell ref="A154:A190"/>
+    <mergeCell ref="A192:A222"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A38"/>
-    <mergeCell ref="A40:A70"/>
-    <mergeCell ref="A72:A94"/>
-    <mergeCell ref="A96:A125"/>
-    <mergeCell ref="A127:A143"/>
-    <mergeCell ref="A145:A181"/>
-    <mergeCell ref="A183:A213"/>
-    <mergeCell ref="A333:A348"/>
-    <mergeCell ref="A215:A253"/>
-    <mergeCell ref="A255:A274"/>
-    <mergeCell ref="A276:A282"/>
-    <mergeCell ref="A284:A320"/>
-    <mergeCell ref="A322:A331"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A23:A47"/>
+    <mergeCell ref="A49:A79"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7836,7 +8035,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E320 E322:E348</xm:sqref>
+          <xm:sqref>E331:E357 E16:E329 E2:E14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rupam_selenium-tests\domibus\Domibus-MSH-selenium-ui-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63FB9B-9DEA-49B8-85C5-A0CB2EC75C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F6C44-7FB2-4132-A64C-8A0BE0B8D46C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="RegressionScenarios-4.1" sheetId="2" r:id="rId2"/>
     <sheet name="MyValues" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="530">
   <si>
     <t>TEST AUTOMATION STATUS REPORT</t>
   </si>
@@ -2417,9 +2418,6 @@
     <t>Password changed, Login with new password succeeds</t>
   </si>
   <si>
-    <t>Login with super/admin/user and change password and navigate away from the page</t>
-  </si>
-  <si>
     <t>Password not changed, Login with old password succeeds</t>
   </si>
   <si>
@@ -2433,20 +2431,48 @@
   </si>
   <si>
     <t>Password policy is clearly stated, update button is disabled until valid password is provided</t>
-  </si>
-  <si>
-    <t>New password doesn't match the confirmation</t>
-  </si>
-  <si>
-    <t>Error message that passwords don't match is listed, update button is disabled</t>
-  </si>
-  <si>
-    <t>Open change password page</t>
   </si>
   <si>
     <t>Page has title Change Password
 Has 3 input fields: Current password, New password and Confirmation
 Update button is disabled by default and while the inputs contain invalid values</t>
+  </si>
+  <si>
+    <t>Check availability of change password link and navigate to page</t>
+  </si>
+  <si>
+    <t>Open change password page and verify all its elements</t>
+  </si>
+  <si>
+    <t>Login with super/admin/user and change password and navigate away from the page after entering data on fields</t>
+  </si>
+  <si>
+    <t>Login with super/admin/user and change password and navigate away from the page after
+ entering data on fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New password doesn't match the confirmation and both are invalid </t>
+  </si>
+  <si>
+    <t>Try to change password with new password among previous 5.</t>
+  </si>
+  <si>
+    <t>Link Change Password should be available in Sandwich menu and on click, user is navigated to page.</t>
+  </si>
+  <si>
+    <t>On simple navigation, password is not chnaged and login with old password is successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New password doesn't match the confirmation and both are valid </t>
+  </si>
+  <si>
+    <t>Error message that passwords don't match is listed along password policy under , update button is disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User wil get only password mismatch validation message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User will get error for already used password </t>
   </si>
 </sst>
 </file>
@@ -2728,7 +2754,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2799,6 +2825,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2923,7 +2955,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2981,6 +3013,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3419,59 +3456,59 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="31.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -3480,110 +3517,110 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
         <f>COUNTA('RegressionScenarios-4.1'!C:C)-1</f>
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
         <f>SUM('RegressionScenarios-4.1'!D:D)</f>
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" ref="C7:C12" si="0">B7/B$6</f>
-        <v>0.5178571428571429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.54117647058823526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="str">
         <f>MyValues!A2</f>
         <v>Not implemented yet</v>
       </c>
       <c r="B8" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E1:E503,"="&amp;A8)</f>
-        <v>38</v>
+        <f>COUNTIF('RegressionScenarios-4.1'!E1:E505,"="&amp;A8)</f>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>0.1130952380952381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.4117647058823528E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="str">
         <f>MyValues!A3</f>
         <v>Need more info</v>
       </c>
       <c r="B9" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E2:E504,"="&amp;A9)</f>
+        <f>COUNTIF('RegressionScenarios-4.1'!E2:E506,"="&amp;A9)</f>
         <v>7</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.0588235294117647E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="str">
         <f>MyValues!A4</f>
         <v>Low priority</v>
       </c>
       <c r="B10" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E2:E505,"="&amp;A10)</f>
+        <f>COUNTIF('RegressionScenarios-4.1'!E2:E507,"="&amp;A10)</f>
         <v>97</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>0.28869047619047616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.28529411764705881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="str">
         <f>MyValues!A5</f>
         <v>Technical impediment</v>
       </c>
       <c r="B11" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E3:E506,"="&amp;A11)</f>
+        <f>COUNTIF('RegressionScenarios-4.1'!E3:E508,"="&amp;A11)</f>
         <v>10</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>2.976190476190476E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="str">
         <f>MyValues!A6</f>
         <v>Too complicated to automate</v>
       </c>
       <c r="B12" s="5">
-        <f>COUNTIF('RegressionScenarios-4.1'!E4:E507,"="&amp;A12)</f>
+        <f>COUNTIF('RegressionScenarios-4.1'!E4:E509,"="&amp;A12)</f>
         <v>10</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>2.976190476190476E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
@@ -3603,25 +3640,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK357"/>
+  <dimension ref="A1:AMK359"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="90.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="73.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.26953125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="73.81640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="9" customWidth="1"/>
     <col min="5" max="5" width="25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="10" customWidth="1"/>
     <col min="7" max="7" width="26" style="10" customWidth="1"/>
-    <col min="8" max="1025" width="8.7109375" style="10" customWidth="1"/>
+    <col min="8" max="1025" width="8.7265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="11" t="s">
         <v>5</v>
@@ -3636,8 +3673,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -3651,8 +3688,8 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
@@ -3664,8 +3701,8 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
       <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
@@ -3677,8 +3714,8 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
@@ -3690,8 +3727,8 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
       <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
@@ -3703,155 +3740,169 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="13"/>
+    <row r="15" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
+      <c r="B17" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="13" t="s">
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
+      <c r="B20" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>22</v>
@@ -3861,109 +3912,109 @@
       </c>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="29"/>
       <c r="B21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
+      <c r="B22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="29"/>
+      <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="230" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="15" t="s">
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
+      <c r="B26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="15" t="s">
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
+      <c r="B27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="15" t="s">
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
+      <c r="B28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="13" t="s">
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="29"/>
+      <c r="B29" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>37</v>
@@ -3973,603 +4024,603 @@
       </c>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+    <row r="30" spans="1:5" ht="230" x14ac:dyDescent="0.35">
+      <c r="A30" s="29"/>
       <c r="B30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="29"/>
+      <c r="B31" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
+      <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="13" t="s">
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="29"/>
+      <c r="B33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="13" t="s">
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
+      <c r="B34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="13">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" ht="114" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="13" t="s">
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" ht="79.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="29"/>
+      <c r="B35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="13" t="s">
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="29"/>
+      <c r="B36" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="13">
-        <v>1</v>
-      </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="13" t="s">
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
+      <c r="B37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="13" t="s">
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="29"/>
+      <c r="B38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="13" t="s">
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
+      <c r="B39" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="13" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="29"/>
+      <c r="B40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="306.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="13" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="324.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="29"/>
+      <c r="B41" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="13">
-        <v>1</v>
-      </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="13" t="s">
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
+      <c r="B42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="13" t="s">
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
+      <c r="B43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="13" t="s">
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="29"/>
+      <c r="B44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="13" t="s">
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A45" s="29"/>
+      <c r="B45" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="13" t="s">
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A46" s="29"/>
+      <c r="B46" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="13" t="s">
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="29"/>
+      <c r="B47" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="13" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="29"/>
+      <c r="B48" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="13" t="s">
+      <c r="D48" s="13"/>
+      <c r="E48" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="29"/>
+      <c r="B49" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" ht="68" x14ac:dyDescent="0.35">
+      <c r="A51" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B51" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="17" t="s">
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5" ht="37" x14ac:dyDescent="0.35">
+      <c r="A52" s="29"/>
+      <c r="B52" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="17" t="s">
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="29"/>
+      <c r="B53" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="17" t="s">
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A54" s="29"/>
+      <c r="B54" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="17" t="s">
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="29"/>
+      <c r="B55" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="17" t="s">
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="29"/>
+      <c r="B56" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="17" t="s">
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A57" s="29"/>
+      <c r="B57" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="17" t="s">
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A58" s="29"/>
+      <c r="B58" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="17" t="s">
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="29"/>
+      <c r="B59" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="17" t="s">
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" ht="95" x14ac:dyDescent="0.35">
+      <c r="A60" s="29"/>
+      <c r="B60" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="17" t="s">
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="29"/>
+      <c r="B61" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="13">
-        <v>1</v>
-      </c>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="13" t="s">
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="29"/>
+      <c r="B62" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="13">
-        <v>1</v>
-      </c>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="17" t="s">
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="29"/>
+      <c r="B63" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="13">
-        <v>1</v>
-      </c>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="13" t="s">
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="29"/>
+      <c r="B64" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="13">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="13" t="s">
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="29"/>
+      <c r="B65" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="13">
-        <v>1</v>
-      </c>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="13" t="s">
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="29"/>
+      <c r="B66" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="13">
-        <v>1</v>
-      </c>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="13" t="s">
+      <c r="D66" s="13">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="29"/>
+      <c r="B67" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="13">
-        <v>1</v>
-      </c>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="13" t="s">
+      <c r="D67" s="13">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="29"/>
+      <c r="B68" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="13">
-        <v>1</v>
-      </c>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="13" t="s">
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" ht="68" x14ac:dyDescent="0.35">
+      <c r="A69" s="29"/>
+      <c r="B69" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="13">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="13" t="s">
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="29"/>
+      <c r="B70" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="13">
-        <v>1</v>
-      </c>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="13" t="s">
+      <c r="D70" s="13">
+        <v>1</v>
+      </c>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A71" s="29"/>
+      <c r="B71" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+    <row r="72" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A72" s="29"/>
       <c r="B72" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A73" s="29"/>
+      <c r="B73" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="29"/>
+      <c r="B74" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="13">
-        <v>1</v>
-      </c>
-      <c r="E72" s="13"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="13" t="s">
+      <c r="D74" s="13">
+        <v>1</v>
+      </c>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="29"/>
+      <c r="B75" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D73" s="13">
-        <v>1</v>
-      </c>
-      <c r="E73" s="13"/>
-    </row>
-    <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="13" t="s">
+      <c r="D75" s="13">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="29"/>
+      <c r="B76" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" s="13">
-        <v>1</v>
-      </c>
-      <c r="E74" s="13"/>
-    </row>
-    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="13"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>125</v>
@@ -4579,1218 +4630,1218 @@
       </c>
       <c r="E76" s="13"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+    <row r="77" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="29"/>
       <c r="B77" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="29"/>
+      <c r="B78" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="13">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="29"/>
+      <c r="B79" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="13">
-        <v>1</v>
-      </c>
-      <c r="E77" s="13"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="13" t="s">
+      <c r="D79" s="13">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="29"/>
+      <c r="B80" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13" t="s">
+      <c r="D80" s="13"/>
+      <c r="E80" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="13" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="29"/>
+      <c r="B81" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="13">
-        <v>1</v>
-      </c>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-    </row>
-    <row r="81" spans="1:5" ht="141" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="D81" s="13">
+        <v>1</v>
+      </c>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5" ht="149" x14ac:dyDescent="0.35">
+      <c r="A83" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B83" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D81" s="13">
-        <v>1</v>
-      </c>
-      <c r="E81" s="13"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="13" t="s">
+      <c r="D83" s="13">
+        <v>1</v>
+      </c>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="29"/>
+      <c r="B84" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="13">
-        <v>1</v>
-      </c>
-      <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="1:5" ht="141" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+    <row r="85" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="29"/>
       <c r="B85" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
+      <c r="D85" s="13">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="1:5" ht="149" x14ac:dyDescent="0.35">
+      <c r="A86" s="29"/>
       <c r="B86" s="13" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="29"/>
       <c r="B87" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="29"/>
       <c r="B88" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="29"/>
       <c r="B89" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="29"/>
+      <c r="B90" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="29"/>
+      <c r="B91" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D89" s="13">
-        <v>1</v>
-      </c>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="13" t="s">
+      <c r="D91" s="13">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:5" ht="135.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="29"/>
+      <c r="B92" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="13">
-        <v>1</v>
-      </c>
-      <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="13" t="s">
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="29"/>
+      <c r="B93" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D91" s="13">
-        <v>1</v>
-      </c>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="13" t="s">
+      <c r="D93" s="13">
+        <v>1</v>
+      </c>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="29"/>
+      <c r="B94" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C94" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D92" s="13">
-        <v>1</v>
-      </c>
-      <c r="E92" s="13"/>
-    </row>
-    <row r="93" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="13" t="s">
+      <c r="D94" s="13">
+        <v>1</v>
+      </c>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="95" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="29"/>
+      <c r="B95" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="13">
-        <v>1</v>
-      </c>
-      <c r="E93" s="13"/>
-    </row>
-    <row r="94" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="13" t="s">
+      <c r="D95" s="13">
+        <v>1</v>
+      </c>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="29"/>
+      <c r="B96" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D94" s="13">
-        <v>1</v>
-      </c>
-      <c r="E94" s="13"/>
-    </row>
-    <row r="95" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="13" t="s">
+      <c r="D96" s="13">
+        <v>1</v>
+      </c>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A97" s="29"/>
+      <c r="B97" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C97" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D95" s="13">
-        <v>1</v>
-      </c>
-      <c r="E95" s="13"/>
-    </row>
-    <row r="96" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="13" t="s">
+      <c r="D97" s="13">
+        <v>1</v>
+      </c>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="29"/>
+      <c r="B98" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C98" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D96" s="13">
-        <v>1</v>
-      </c>
-      <c r="E96" s="13"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="13" t="s">
+      <c r="D98" s="13">
+        <v>1</v>
+      </c>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="29"/>
+      <c r="B99" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C99" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
-      <c r="B99" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
+    <row r="100" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A100" s="29"/>
       <c r="B100" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A101" s="29"/>
+      <c r="B101" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="29"/>
+      <c r="B102" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C102" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E100" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="13" t="s">
+      <c r="E102" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="29"/>
+      <c r="B103" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C103" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E101" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="13" t="s">
+      <c r="E103" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="29"/>
+      <c r="B104" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C104" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E102" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="13" t="s">
+      <c r="E104" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="29"/>
+      <c r="B105" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C105" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="9">
-        <v>1</v>
-      </c>
-      <c r="E103" s="13"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="E104" s="13"/>
-    </row>
-    <row r="105" spans="1:5" ht="281.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107" spans="1:5" ht="297.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B107" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D105" s="9">
-        <v>1</v>
-      </c>
-      <c r="E105" s="13"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
-      <c r="B106" s="13" t="s">
+      <c r="D107" s="9">
+        <v>1</v>
+      </c>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="29"/>
+      <c r="B108" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C108" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D106" s="9">
-        <v>1</v>
-      </c>
-      <c r="E106" s="13"/>
-    </row>
-    <row r="107" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="13" t="s">
+      <c r="D108" s="9">
+        <v>1</v>
+      </c>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="29"/>
+      <c r="B109" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C109" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="9">
-        <v>1</v>
-      </c>
-      <c r="E107" s="13"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
-      <c r="B108" s="13" t="s">
+      <c r="D109" s="9">
+        <v>1</v>
+      </c>
+      <c r="E109" s="13"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="29"/>
+      <c r="B110" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D108" s="9">
-        <v>1</v>
-      </c>
-      <c r="E108" s="13"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="13" t="s">
+      <c r="D110" s="9">
+        <v>1</v>
+      </c>
+      <c r="E110" s="13"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="29"/>
+      <c r="B111" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C111" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D109" s="9">
-        <v>1</v>
-      </c>
-      <c r="E109" s="13"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
-      <c r="B110" s="13" t="s">
+      <c r="D111" s="9">
+        <v>1</v>
+      </c>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="29"/>
+      <c r="B112" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C112" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E110" s="13"/>
-    </row>
-    <row r="111" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
-      <c r="B111" s="13" t="s">
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="29"/>
+      <c r="B113" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C113" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D111" s="9">
-        <v>1</v>
-      </c>
-      <c r="E111" s="13"/>
-    </row>
-    <row r="112" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
-      <c r="B112" s="13" t="s">
+      <c r="D113" s="9">
+        <v>1</v>
+      </c>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="29"/>
+      <c r="B114" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C114" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="9">
-        <v>1</v>
-      </c>
-      <c r="E112" s="13"/>
-    </row>
-    <row r="113" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="13" t="s">
+      <c r="D114" s="9">
+        <v>1</v>
+      </c>
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="29"/>
+      <c r="B115" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C115" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
-      <c r="B114" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
-      <c r="B115" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="E115" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
+    <row r="116" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="29"/>
       <c r="B116" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="37" x14ac:dyDescent="0.35">
+      <c r="A117" s="29"/>
+      <c r="B117" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="29"/>
+      <c r="B118" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C118" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="E118" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="13" t="s">
+    <row r="119" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="29"/>
+      <c r="B119" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D117" s="9">
-        <v>1</v>
-      </c>
-      <c r="E117" s="13"/>
-    </row>
-    <row r="118" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
-      <c r="B118" s="13" t="s">
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
+      <c r="E119" s="13"/>
+    </row>
+    <row r="120" spans="1:5" ht="135.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="29"/>
+      <c r="B120" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C120" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D118" s="9">
-        <v>1</v>
-      </c>
-      <c r="E118" s="13"/>
-    </row>
-    <row r="119" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
-      <c r="B119" s="13" t="s">
+      <c r="D120" s="9">
+        <v>1</v>
+      </c>
+      <c r="E120" s="13"/>
+    </row>
+    <row r="121" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="29"/>
+      <c r="B121" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C121" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D119" s="9">
-        <v>1</v>
-      </c>
-      <c r="E119" s="13"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
-      <c r="B120" s="13" t="s">
+      <c r="D121" s="9">
+        <v>1</v>
+      </c>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="29"/>
+      <c r="B122" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D120" s="9">
-        <v>1</v>
-      </c>
-      <c r="E120" s="13"/>
-    </row>
-    <row r="121" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="13" t="s">
+      <c r="D122" s="9">
+        <v>1</v>
+      </c>
+      <c r="E122" s="13"/>
+    </row>
+    <row r="123" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="29"/>
+      <c r="B123" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C123" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D121" s="9">
-        <v>1</v>
-      </c>
-      <c r="E121" s="13"/>
-    </row>
-    <row r="122" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
-      <c r="B122" s="13" t="s">
+      <c r="D123" s="9">
+        <v>1</v>
+      </c>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A124" s="29"/>
+      <c r="B124" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C124" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D122" s="9">
-        <v>1</v>
-      </c>
-      <c r="E122" s="13"/>
-    </row>
-    <row r="123" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
-      <c r="B123" s="13" t="s">
+      <c r="D124" s="9">
+        <v>1</v>
+      </c>
+      <c r="E124" s="13"/>
+    </row>
+    <row r="125" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A125" s="29"/>
+      <c r="B125" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C125" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D123" s="9">
-        <v>1</v>
-      </c>
-      <c r="E123" s="13"/>
-    </row>
-    <row r="124" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
-      <c r="B124" s="13" t="s">
+      <c r="D125" s="9">
+        <v>1</v>
+      </c>
+      <c r="E125" s="13"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="29"/>
+      <c r="B126" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C126" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D124" s="9">
-        <v>1</v>
-      </c>
-      <c r="E124" s="13"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="13" t="s">
+      <c r="D126" s="9">
+        <v>1</v>
+      </c>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="29"/>
+      <c r="B127" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C127" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E125" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="13" t="s">
+      <c r="E127" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="29"/>
+      <c r="B128" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C128" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D126" s="9">
-        <v>1</v>
-      </c>
-      <c r="E126" s="13"/>
-    </row>
-    <row r="127" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
-      <c r="B127" s="13" t="s">
+      <c r="D128" s="9">
+        <v>1</v>
+      </c>
+      <c r="E128" s="13"/>
+    </row>
+    <row r="129" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="29"/>
+      <c r="B129" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C129" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
-      <c r="B128" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="E129" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
+    <row r="130" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="29"/>
       <c r="B130" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E130" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
+    <row r="131" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="29"/>
       <c r="B131" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="29"/>
+      <c r="B132" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="29"/>
+      <c r="B133" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C133" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D131" s="9">
-        <v>1</v>
-      </c>
-      <c r="E131" s="13"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="13" t="s">
+      <c r="D133" s="9">
+        <v>1</v>
+      </c>
+      <c r="E133" s="13"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="29"/>
+      <c r="B134" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C134" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E132" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="13" t="s">
+      <c r="E134" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="29"/>
+      <c r="B135" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C135" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D133" s="9">
-        <v>1</v>
-      </c>
-      <c r="E133" s="13"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="E134" s="13"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
+      <c r="D135" s="9">
+        <v>1</v>
+      </c>
       <c r="E135" s="13"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="26" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="29"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="E136" s="13"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="E137" s="13"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B138" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C138" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D136" s="9">
-        <v>1</v>
-      </c>
-      <c r="E136" s="13"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
-      <c r="B137" s="17" t="s">
+      <c r="D138" s="9">
+        <v>1</v>
+      </c>
+      <c r="E138" s="13"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="29"/>
+      <c r="B139" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C139" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D137" s="9">
-        <v>1</v>
-      </c>
-      <c r="E137" s="13"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="26"/>
-      <c r="B138" s="13" t="s">
+      <c r="D139" s="9">
+        <v>1</v>
+      </c>
+      <c r="E139" s="13"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="29"/>
+      <c r="B140" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C140" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D138" s="9">
-        <v>1</v>
-      </c>
-      <c r="E138" s="13"/>
-    </row>
-    <row r="139" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
-      <c r="B139" s="13" t="s">
+      <c r="D140" s="9">
+        <v>1</v>
+      </c>
+      <c r="E140" s="13"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="29"/>
+      <c r="B141" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C141" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E139" s="13" t="s">
+      <c r="E141" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
-      <c r="B140" s="13" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="29"/>
+      <c r="B142" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C142" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="E142" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="13" t="s">
+    <row r="143" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="29"/>
+      <c r="B143" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C143" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D141" s="9">
-        <v>1</v>
-      </c>
-      <c r="E141" s="13"/>
-    </row>
-    <row r="142" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="26"/>
-      <c r="B142" s="13" t="s">
+      <c r="D143" s="9">
+        <v>1</v>
+      </c>
+      <c r="E143" s="13"/>
+    </row>
+    <row r="144" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="29"/>
+      <c r="B144" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C144" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D142" s="9">
-        <v>1</v>
-      </c>
-      <c r="E142" s="13"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
-      <c r="B143" s="13" t="s">
+      <c r="D144" s="9">
+        <v>1</v>
+      </c>
+      <c r="E144" s="13"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="29"/>
+      <c r="B145" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C145" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D143" s="9">
-        <v>1</v>
-      </c>
-      <c r="E143" s="13"/>
-    </row>
-    <row r="144" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="26"/>
-      <c r="B144" s="13" t="s">
+      <c r="D145" s="9">
+        <v>1</v>
+      </c>
+      <c r="E145" s="13"/>
+    </row>
+    <row r="146" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="29"/>
+      <c r="B146" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C146" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D144" s="9">
-        <v>1</v>
-      </c>
-      <c r="E144" s="13"/>
-    </row>
-    <row r="145" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
-      <c r="B145" s="13" t="s">
+      <c r="D146" s="9">
+        <v>1</v>
+      </c>
+      <c r="E146" s="13"/>
+    </row>
+    <row r="147" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A147" s="29"/>
+      <c r="B147" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C147" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D145" s="9">
-        <v>1</v>
-      </c>
-      <c r="E145" s="13"/>
-    </row>
-    <row r="146" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A146" s="26"/>
-      <c r="B146" s="13" t="s">
+      <c r="D147" s="9">
+        <v>1</v>
+      </c>
+      <c r="E147" s="13"/>
+    </row>
+    <row r="148" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A148" s="29"/>
+      <c r="B148" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C148" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D146" s="9">
-        <v>1</v>
-      </c>
-      <c r="E146" s="13"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="26"/>
-      <c r="B147" s="13" t="s">
+      <c r="D148" s="9">
+        <v>1</v>
+      </c>
+      <c r="E148" s="13"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="29"/>
+      <c r="B149" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C149" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="26"/>
-      <c r="B148" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="26"/>
+    <row r="150" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="29"/>
       <c r="B150" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E150" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="26"/>
+    <row r="151" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="29"/>
       <c r="B151" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="29"/>
+      <c r="B152" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="29"/>
+      <c r="B153" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C153" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E151" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="26"/>
-      <c r="B152" s="13" t="s">
+      <c r="E153" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="29"/>
+      <c r="B154" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C154" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D152" s="9">
-        <v>1</v>
-      </c>
-      <c r="E152" s="13"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="E153" s="13"/>
-    </row>
-    <row r="154" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A154" s="26" t="s">
+      <c r="D154" s="9">
+        <v>1</v>
+      </c>
+      <c r="E154" s="13"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="E155" s="13"/>
+    </row>
+    <row r="156" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A156" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B156" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C156" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D154" s="9">
-        <v>1</v>
-      </c>
-      <c r="E154" s="13"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="26"/>
-      <c r="B155" s="17" t="s">
+      <c r="D156" s="9">
+        <v>1</v>
+      </c>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="29"/>
+      <c r="B157" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C157" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D155" s="9">
-        <v>1</v>
-      </c>
-      <c r="E155" s="13"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="26"/>
-      <c r="B156" s="17" t="s">
+      <c r="D157" s="9">
+        <v>1</v>
+      </c>
+      <c r="E157" s="13"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="29"/>
+      <c r="B158" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C158" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D156" s="9">
-        <v>1</v>
-      </c>
-      <c r="E156" s="13"/>
-    </row>
-    <row r="157" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
-      <c r="B157" s="17" t="s">
+      <c r="D158" s="9">
+        <v>1</v>
+      </c>
+      <c r="E158" s="13"/>
+    </row>
+    <row r="159" spans="1:5" ht="95" x14ac:dyDescent="0.35">
+      <c r="A159" s="29"/>
+      <c r="B159" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C159" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D157" s="9">
-        <v>1</v>
-      </c>
-      <c r="E157" s="13"/>
-    </row>
-    <row r="158" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
-      <c r="B158" s="17" t="s">
+      <c r="D159" s="9">
+        <v>1</v>
+      </c>
+      <c r="E159" s="13"/>
+    </row>
+    <row r="160" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="29"/>
+      <c r="B160" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C160" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D158" s="9">
-        <v>1</v>
-      </c>
-      <c r="E158" s="13"/>
-    </row>
-    <row r="159" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
-      <c r="B159" s="17" t="s">
+      <c r="D160" s="9">
+        <v>1</v>
+      </c>
+      <c r="E160" s="13"/>
+    </row>
+    <row r="161" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A161" s="29"/>
+      <c r="B161" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C161" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D159" s="9">
-        <v>1</v>
-      </c>
-      <c r="E159" s="13"/>
-    </row>
-    <row r="160" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
-      <c r="B160" s="17" t="s">
+      <c r="D161" s="9">
+        <v>1</v>
+      </c>
+      <c r="E161" s="13"/>
+    </row>
+    <row r="162" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="29"/>
+      <c r="B162" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C162" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D160" s="9">
-        <v>1</v>
-      </c>
-      <c r="E160" s="13"/>
-    </row>
-    <row r="161" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
-      <c r="B161" s="17" t="s">
+      <c r="D162" s="9">
+        <v>1</v>
+      </c>
+      <c r="E162" s="13"/>
+    </row>
+    <row r="163" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="29"/>
+      <c r="B163" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C163" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D161" s="9">
-        <v>1</v>
-      </c>
-      <c r="E161" s="13"/>
-    </row>
-    <row r="162" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
-      <c r="B162" s="17" t="s">
+      <c r="D163" s="9">
+        <v>1</v>
+      </c>
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164" spans="1:5" ht="47" x14ac:dyDescent="0.35">
+      <c r="A164" s="29"/>
+      <c r="B164" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C164" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D162" s="9">
-        <v>1</v>
-      </c>
-      <c r="E162" s="13"/>
-    </row>
-    <row r="163" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
-      <c r="B163" s="13" t="s">
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="E164" s="13"/>
+    </row>
+    <row r="165" spans="1:5" ht="47" x14ac:dyDescent="0.35">
+      <c r="A165" s="29"/>
+      <c r="B165" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C165" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D163" s="9">
-        <v>1</v>
-      </c>
-      <c r="E163" s="13"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
-      <c r="B164" s="17" t="s">
+      <c r="D165" s="9">
+        <v>1</v>
+      </c>
+      <c r="E165" s="13"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="29"/>
+      <c r="B166" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C166" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D164" s="9">
-        <v>1</v>
-      </c>
-      <c r="E164" s="13"/>
-    </row>
-    <row r="165" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
-      <c r="B165" s="17" t="s">
+      <c r="D166" s="9">
+        <v>1</v>
+      </c>
+      <c r="E166" s="13"/>
+    </row>
+    <row r="167" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="29"/>
+      <c r="B167" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C167" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D165" s="9">
-        <v>1</v>
-      </c>
-      <c r="E165" s="13"/>
-    </row>
-    <row r="166" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
-      <c r="B166" s="13" t="s">
+      <c r="D167" s="9">
+        <v>1</v>
+      </c>
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="29"/>
+      <c r="B168" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C168" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D166" s="9">
-        <v>1</v>
-      </c>
-      <c r="E166" s="13"/>
-    </row>
-    <row r="167" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="26"/>
-      <c r="B167" s="13" t="s">
+      <c r="D168" s="9">
+        <v>1</v>
+      </c>
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169" spans="1:5" ht="68" x14ac:dyDescent="0.35">
+      <c r="A169" s="29"/>
+      <c r="B169" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C169" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D167" s="9">
-        <v>1</v>
-      </c>
-      <c r="E167" s="13"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="26"/>
-      <c r="B168" s="13" t="s">
+      <c r="D169" s="9">
+        <v>1</v>
+      </c>
+      <c r="E169" s="13"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="29"/>
+      <c r="B170" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C170" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D168" s="9">
-        <v>1</v>
-      </c>
-      <c r="E168" s="13"/>
-    </row>
-    <row r="169" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="26"/>
-      <c r="B169" s="13" t="s">
+      <c r="D170" s="9">
+        <v>1</v>
+      </c>
+      <c r="E170" s="13"/>
+    </row>
+    <row r="171" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="29"/>
+      <c r="B171" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C171" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D169" s="9">
-        <v>1</v>
-      </c>
-      <c r="E169" s="13"/>
-    </row>
-    <row r="170" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="26"/>
-      <c r="B170" s="13" t="s">
+      <c r="D171" s="9">
+        <v>1</v>
+      </c>
+      <c r="E171" s="13"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="29"/>
+      <c r="B172" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C172" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D170" s="9">
-        <v>1</v>
-      </c>
-      <c r="E170" s="13"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="26"/>
-      <c r="B171" s="13" t="s">
+      <c r="D172" s="9">
+        <v>1</v>
+      </c>
+      <c r="E172" s="13"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="29"/>
+      <c r="B173" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C173" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D171" s="9">
-        <v>1</v>
-      </c>
-      <c r="E171" s="13"/>
-    </row>
-    <row r="172" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="26"/>
-      <c r="B172" s="13" t="s">
+      <c r="D173" s="9">
+        <v>1</v>
+      </c>
+      <c r="E173" s="13"/>
+    </row>
+    <row r="174" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="29"/>
+      <c r="B174" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D172" s="9">
-        <v>1</v>
-      </c>
-      <c r="E172" s="13"/>
-    </row>
-    <row r="173" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A173" s="26"/>
-      <c r="B173" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D173" s="9">
-        <v>1</v>
-      </c>
-      <c r="E173" s="13"/>
-    </row>
-    <row r="174" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="26"/>
-      <c r="B174" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>253</v>
@@ -5800,10 +5851,10 @@
       </c>
       <c r="E174" s="13"/>
     </row>
-    <row r="175" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
+    <row r="175" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="29"/>
       <c r="B175" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>253</v>
@@ -5813,164 +5864,166 @@
       </c>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A176" s="26"/>
+    <row r="176" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="29"/>
       <c r="B176" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D176" s="9">
+        <v>1</v>
+      </c>
+      <c r="E176" s="13"/>
+    </row>
+    <row r="177" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="29"/>
+      <c r="B177" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D177" s="9">
+        <v>1</v>
+      </c>
+      <c r="E177" s="13"/>
+    </row>
+    <row r="178" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="29"/>
+      <c r="B178" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C178" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D176" s="9">
-        <v>1</v>
-      </c>
-      <c r="E176" s="13"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="26"/>
-      <c r="B177" s="13" t="s">
+      <c r="D178" s="9">
+        <v>1</v>
+      </c>
+      <c r="E178" s="13"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="29"/>
+      <c r="B179" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C179" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D177" s="9">
-        <v>1</v>
-      </c>
-      <c r="E177" s="13"/>
-    </row>
-    <row r="178" spans="1:5" ht="141" x14ac:dyDescent="0.25">
-      <c r="A178" s="26"/>
-      <c r="B178" s="13" t="s">
+      <c r="D179" s="9">
+        <v>1</v>
+      </c>
+      <c r="E179" s="13"/>
+    </row>
+    <row r="180" spans="1:5" ht="149" x14ac:dyDescent="0.35">
+      <c r="A180" s="29"/>
+      <c r="B180" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C180" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="D178" s="9">
-        <v>1</v>
-      </c>
-      <c r="E178" s="13"/>
-    </row>
-    <row r="179" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="26"/>
-      <c r="B179" s="13" t="s">
+      <c r="D180" s="9">
+        <v>1</v>
+      </c>
+      <c r="E180" s="13"/>
+    </row>
+    <row r="181" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A181" s="29"/>
+      <c r="B181" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C181" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D179" s="9">
-        <v>1</v>
-      </c>
-      <c r="E179" s="13"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="26"/>
-      <c r="B180" s="13" t="s">
+      <c r="D181" s="9">
+        <v>1</v>
+      </c>
+      <c r="E181" s="13"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="29"/>
+      <c r="B182" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C182" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D180" s="9">
-        <v>1</v>
-      </c>
-      <c r="E180" s="13"/>
-    </row>
-    <row r="181" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="26"/>
-      <c r="B181" s="13" t="s">
+      <c r="D182" s="9">
+        <v>1</v>
+      </c>
+      <c r="E182" s="13"/>
+    </row>
+    <row r="183" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="29"/>
+      <c r="B183" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C183" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D181" s="9">
-        <v>1</v>
-      </c>
-      <c r="E181" s="13"/>
-    </row>
-    <row r="182" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="26"/>
-      <c r="B182" s="13" t="s">
+      <c r="D183" s="9">
+        <v>1</v>
+      </c>
+      <c r="E183" s="13"/>
+    </row>
+    <row r="184" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A184" s="29"/>
+      <c r="B184" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C184" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D182" s="9">
-        <v>1</v>
-      </c>
-      <c r="E182" s="13"/>
-    </row>
-    <row r="183" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="26"/>
-      <c r="B183" s="13" t="s">
+      <c r="D184" s="9">
+        <v>1</v>
+      </c>
+      <c r="E184" s="13"/>
+    </row>
+    <row r="185" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="29"/>
+      <c r="B185" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C185" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D183" s="9">
-        <v>1</v>
-      </c>
-      <c r="E183" s="13"/>
-    </row>
-    <row r="184" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A184" s="26"/>
-      <c r="B184" s="13" t="s">
+      <c r="D185" s="9">
+        <v>1</v>
+      </c>
+      <c r="E185" s="13"/>
+    </row>
+    <row r="186" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A186" s="29"/>
+      <c r="B186" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C186" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D184" s="9">
-        <v>1</v>
-      </c>
-      <c r="E184" s="13"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="26"/>
-      <c r="B185" s="13" t="s">
+      <c r="D186" s="9">
+        <v>1</v>
+      </c>
+      <c r="E186" s="13"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="29"/>
+      <c r="B187" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C187" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D185" s="9">
-        <v>1</v>
-      </c>
-      <c r="E185" s="13"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="26"/>
-      <c r="B186" s="13" t="s">
+      <c r="D187" s="9">
+        <v>1</v>
+      </c>
+      <c r="E187" s="13"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="29"/>
+      <c r="B188" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="26"/>
-      <c r="B187" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="26"/>
-      <c r="B188" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>269</v>
@@ -5979,288 +6032,286 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="26"/>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="29"/>
       <c r="B189" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A190" s="29"/>
+      <c r="B190" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="29"/>
+      <c r="B191" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C191" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E189" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A190" s="26"/>
-      <c r="B190" s="13" t="s">
+      <c r="E191" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="29"/>
+      <c r="B192" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="C192" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D190" s="9">
-        <v>1</v>
-      </c>
-      <c r="E190" s="13"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="14"/>
-      <c r="C191" s="14"/>
-      <c r="E191" s="13"/>
-    </row>
-    <row r="192" spans="1:5" ht="255.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="26" t="s">
+      <c r="D192" s="9">
+        <v>1</v>
+      </c>
+      <c r="E192" s="13"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="E193" s="13"/>
+    </row>
+    <row r="194" spans="1:5" ht="270.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B194" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C194" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D192" s="9">
-        <v>1</v>
-      </c>
-      <c r="E192" s="13"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="26"/>
-      <c r="B193" s="17" t="s">
+      <c r="D194" s="9">
+        <v>1</v>
+      </c>
+      <c r="E194" s="13"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="29"/>
+      <c r="B195" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C195" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D193" s="9">
-        <v>1</v>
-      </c>
-      <c r="E193" s="13"/>
-    </row>
-    <row r="194" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="26"/>
-      <c r="B194" s="17" t="s">
+      <c r="D195" s="9">
+        <v>1</v>
+      </c>
+      <c r="E195" s="13"/>
+    </row>
+    <row r="196" spans="1:5" ht="68" x14ac:dyDescent="0.35">
+      <c r="A196" s="29"/>
+      <c r="B196" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C196" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D194" s="9">
-        <v>1</v>
-      </c>
-      <c r="E194" s="13"/>
-    </row>
-    <row r="195" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="26"/>
-      <c r="B195" s="17" t="s">
+      <c r="D196" s="9">
+        <v>1</v>
+      </c>
+      <c r="E196" s="13"/>
+    </row>
+    <row r="197" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="29"/>
+      <c r="B197" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C197" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D195" s="9">
-        <v>1</v>
-      </c>
-      <c r="E195" s="13"/>
-    </row>
-    <row r="196" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A196" s="26"/>
-      <c r="B196" s="17" t="s">
+      <c r="D197" s="9">
+        <v>1</v>
+      </c>
+      <c r="E197" s="13"/>
+    </row>
+    <row r="198" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A198" s="29"/>
+      <c r="B198" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C198" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D196" s="9">
-        <v>1</v>
-      </c>
-      <c r="E196" s="13"/>
-    </row>
-    <row r="197" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="26"/>
-      <c r="B197" s="17" t="s">
+      <c r="D198" s="9">
+        <v>1</v>
+      </c>
+      <c r="E198" s="13"/>
+    </row>
+    <row r="199" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A199" s="29"/>
+      <c r="B199" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C199" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D197" s="9">
-        <v>1</v>
-      </c>
-      <c r="E197" s="13"/>
-    </row>
-    <row r="198" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="26"/>
-      <c r="B198" s="17" t="s">
+      <c r="D199" s="9">
+        <v>1</v>
+      </c>
+      <c r="E199" s="13"/>
+    </row>
+    <row r="200" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="29"/>
+      <c r="B200" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C200" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D198" s="9">
-        <v>1</v>
-      </c>
-      <c r="E198" s="13"/>
-    </row>
-    <row r="199" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A199" s="26"/>
-      <c r="B199" s="17" t="s">
+      <c r="D200" s="9">
+        <v>1</v>
+      </c>
+      <c r="E200" s="13"/>
+    </row>
+    <row r="201" spans="1:5" ht="47" x14ac:dyDescent="0.35">
+      <c r="A201" s="29"/>
+      <c r="B201" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C199" s="16" t="s">
+      <c r="C201" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D199" s="9">
-        <v>1</v>
-      </c>
-      <c r="E199" s="13"/>
-    </row>
-    <row r="200" spans="1:5" ht="48" x14ac:dyDescent="0.25">
-      <c r="A200" s="26"/>
-      <c r="B200" s="13" t="s">
+      <c r="D201" s="9">
+        <v>1</v>
+      </c>
+      <c r="E201" s="13"/>
+    </row>
+    <row r="202" spans="1:5" ht="47" x14ac:dyDescent="0.35">
+      <c r="A202" s="29"/>
+      <c r="B202" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C200" s="16" t="s">
+      <c r="C202" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D200" s="9">
-        <v>1</v>
-      </c>
-      <c r="E200" s="13"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="26"/>
-      <c r="B201" s="17" t="s">
+      <c r="D202" s="9">
+        <v>1</v>
+      </c>
+      <c r="E202" s="13"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="29"/>
+      <c r="B203" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C203" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D201" s="9">
-        <v>1</v>
-      </c>
-      <c r="E201" s="13"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="26"/>
-      <c r="B202" s="17" t="s">
+      <c r="D203" s="9">
+        <v>1</v>
+      </c>
+      <c r="E203" s="13"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="29"/>
+      <c r="B204" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="C204" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D202" s="9">
-        <v>1</v>
-      </c>
-      <c r="E202" s="13"/>
-    </row>
-    <row r="203" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="26"/>
-      <c r="B203" s="13" t="s">
+      <c r="D204" s="9">
+        <v>1</v>
+      </c>
+      <c r="E204" s="13"/>
+    </row>
+    <row r="205" spans="1:5" ht="68" x14ac:dyDescent="0.35">
+      <c r="A205" s="29"/>
+      <c r="B205" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C203" s="13" t="s">
+      <c r="C205" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D203" s="9">
-        <v>1</v>
-      </c>
-      <c r="E203" s="13"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="26"/>
-      <c r="B204" s="13" t="s">
+      <c r="D205" s="9">
+        <v>1</v>
+      </c>
+      <c r="E205" s="13"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="29"/>
+      <c r="B206" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C206" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D204" s="9">
-        <v>1</v>
-      </c>
-      <c r="E204" s="13"/>
-    </row>
-    <row r="205" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A205" s="26"/>
-      <c r="B205" s="13" t="s">
+      <c r="D206" s="9">
+        <v>1</v>
+      </c>
+      <c r="E206" s="13"/>
+    </row>
+    <row r="207" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="29"/>
+      <c r="B207" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C205" s="13" t="s">
+      <c r="C207" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D205" s="9">
-        <v>1</v>
-      </c>
-      <c r="E205" s="13"/>
-    </row>
-    <row r="206" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="26"/>
-      <c r="B206" s="13" t="s">
+      <c r="D207" s="9">
+        <v>1</v>
+      </c>
+      <c r="E207" s="13"/>
+    </row>
+    <row r="208" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="29"/>
+      <c r="B208" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C206" s="13" t="s">
+      <c r="C208" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D206" s="9">
-        <v>1</v>
-      </c>
-      <c r="E206" s="13"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="26"/>
-      <c r="B207" s="13" t="s">
+      <c r="D208" s="9">
+        <v>1</v>
+      </c>
+      <c r="E208" s="13"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" s="29"/>
+      <c r="B209" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C209" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D207" s="9">
-        <v>1</v>
-      </c>
-      <c r="E207" s="13"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="26"/>
-      <c r="B208" s="13" t="s">
+      <c r="D209" s="9">
+        <v>1</v>
+      </c>
+      <c r="E209" s="13"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" s="29"/>
+      <c r="B210" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="C210" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="E208" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="26"/>
-      <c r="B209" s="13" t="s">
+      <c r="E210" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="29"/>
+      <c r="B211" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D209" s="9">
-        <v>1</v>
-      </c>
-      <c r="E209" s="13"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="26"/>
-      <c r="B210" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D210" s="9">
-        <v>1</v>
-      </c>
-      <c r="E210" s="13"/>
-    </row>
-    <row r="211" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A211" s="26"/>
-      <c r="B211" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>287</v>
@@ -6270,205 +6321,207 @@
       </c>
       <c r="E211" s="13"/>
     </row>
-    <row r="212" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="26"/>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" s="29"/>
       <c r="B212" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D212" s="9">
+        <v>1</v>
+      </c>
+      <c r="E212" s="13"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" s="29"/>
+      <c r="B213" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D213" s="9">
+        <v>1</v>
+      </c>
+      <c r="E213" s="13"/>
+    </row>
+    <row r="214" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A214" s="29"/>
+      <c r="B214" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="C214" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D212" s="9">
-        <v>1</v>
-      </c>
-      <c r="E212" s="13"/>
-    </row>
-    <row r="213" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A213" s="26"/>
-      <c r="B213" s="13" t="s">
+      <c r="D214" s="9">
+        <v>1</v>
+      </c>
+      <c r="E214" s="13"/>
+    </row>
+    <row r="215" spans="1:5" ht="95" x14ac:dyDescent="0.35">
+      <c r="A215" s="29"/>
+      <c r="B215" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C213" s="13" t="s">
+      <c r="C215" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D213" s="9">
-        <v>1</v>
-      </c>
-      <c r="E213" s="13"/>
-    </row>
-    <row r="214" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A214" s="26"/>
-      <c r="B214" s="13" t="s">
+      <c r="D215" s="9">
+        <v>1</v>
+      </c>
+      <c r="E215" s="13"/>
+    </row>
+    <row r="216" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A216" s="29"/>
+      <c r="B216" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C216" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D214" s="9">
-        <v>1</v>
-      </c>
-      <c r="E214" s="13"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="26"/>
-      <c r="B215" s="13" t="s">
+      <c r="D216" s="9">
+        <v>1</v>
+      </c>
+      <c r="E216" s="13"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" s="29"/>
+      <c r="B217" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="C217" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D215" s="9">
-        <v>1</v>
-      </c>
-      <c r="E215" s="13"/>
-    </row>
-    <row r="216" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="26"/>
-      <c r="B216" s="13" t="s">
+      <c r="D217" s="9">
+        <v>1</v>
+      </c>
+      <c r="E217" s="13"/>
+    </row>
+    <row r="218" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="29"/>
+      <c r="B218" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="C218" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D216" s="9">
-        <v>1</v>
-      </c>
-      <c r="E216" s="13"/>
-    </row>
-    <row r="217" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="26"/>
-      <c r="B217" s="13" t="s">
+      <c r="D218" s="9">
+        <v>1</v>
+      </c>
+      <c r="E218" s="13"/>
+    </row>
+    <row r="219" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A219" s="29"/>
+      <c r="B219" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C217" s="13" t="s">
+      <c r="C219" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D217" s="9">
-        <v>1</v>
-      </c>
-      <c r="E217" s="13"/>
-    </row>
-    <row r="218" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="26"/>
-      <c r="B218" s="13" t="s">
+      <c r="D219" s="9">
+        <v>1</v>
+      </c>
+      <c r="E219" s="13"/>
+    </row>
+    <row r="220" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A220" s="29"/>
+      <c r="B220" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C218" s="13" t="s">
+      <c r="C220" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E218" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A219" s="26"/>
-      <c r="B219" s="13" t="s">
+      <c r="E220" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A221" s="29"/>
+      <c r="B221" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C219" s="13" t="s">
+      <c r="C221" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D219" s="9">
-        <v>1</v>
-      </c>
-      <c r="E219" s="13"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="26"/>
-      <c r="B220" s="13" t="s">
+      <c r="D221" s="9">
+        <v>1</v>
+      </c>
+      <c r="E221" s="13"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="29"/>
+      <c r="B222" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C222" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E220" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="26"/>
-      <c r="B221" s="13" t="s">
+      <c r="E222" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A223" s="29"/>
+      <c r="B223" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C221" s="13" t="s">
+      <c r="C223" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E221" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="26"/>
-      <c r="B222" s="13" t="s">
+      <c r="E223" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="29"/>
+      <c r="B224" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C222" s="13" t="s">
+      <c r="C224" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D222" s="9">
-        <v>1</v>
-      </c>
-      <c r="E222" s="13"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="14"/>
-      <c r="C223" s="14"/>
-      <c r="E223" s="13"/>
-    </row>
-    <row r="224" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A224" s="26" t="s">
+      <c r="D224" s="9">
+        <v>1</v>
+      </c>
+      <c r="E224" s="13"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="E225" s="13"/>
+    </row>
+    <row r="226" spans="1:5" ht="95" x14ac:dyDescent="0.35">
+      <c r="A226" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B226" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="C226" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E224" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="26"/>
-      <c r="B225" s="13" t="s">
+      <c r="E226" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" s="29"/>
+      <c r="B227" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C225" s="13" t="s">
+      <c r="C227" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E225" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A226" s="26"/>
-      <c r="B226" s="13" t="s">
+      <c r="E227" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="29"/>
+      <c r="B228" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E226" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A227" s="26"/>
-      <c r="B227" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="E227" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="26"/>
-      <c r="B228" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>303</v>
@@ -6477,274 +6530,274 @@
         <v>47</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="26"/>
+    <row r="229" spans="1:5" ht="81.5" x14ac:dyDescent="0.35">
+      <c r="A229" s="29"/>
       <c r="B229" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" s="29"/>
+      <c r="B230" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" s="29"/>
+      <c r="B231" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C229" s="13" t="s">
+      <c r="C231" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E229" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="26"/>
-      <c r="B230" s="13" t="s">
+      <c r="E231" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="29"/>
+      <c r="B232" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="C232" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="E230" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="26"/>
-      <c r="B231" s="13" t="s">
+      <c r="E232" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" s="29"/>
+      <c r="B233" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="C233" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="E231" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A232" s="26"/>
-      <c r="B232" s="13" t="s">
+      <c r="E233" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A234" s="29"/>
+      <c r="B234" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C232" s="13" t="s">
+      <c r="C234" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="E232" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A233" s="26"/>
-      <c r="B233" s="13" t="s">
+      <c r="E234" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="29"/>
+      <c r="B235" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C233" s="13" t="s">
+      <c r="C235" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="E233" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="26"/>
-      <c r="B234" s="13" t="s">
+      <c r="E235" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" s="29"/>
+      <c r="B236" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C234" s="13" t="s">
+      <c r="C236" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E234" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A235" s="26"/>
-      <c r="B235" s="13" t="s">
+      <c r="E236" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="29"/>
+      <c r="B237" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="C237" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="E235" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A236" s="26"/>
-      <c r="B236" s="13" t="s">
+      <c r="E237" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="29"/>
+      <c r="B238" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C238" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E236" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="26"/>
-      <c r="B237" s="13" t="s">
+      <c r="E238" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" s="29"/>
+      <c r="B239" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C237" s="13" t="s">
+      <c r="C239" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E237" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="26"/>
-      <c r="B238" s="13" t="s">
+      <c r="E239" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" s="29"/>
+      <c r="B240" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C238" s="13" t="s">
+      <c r="C240" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="E238" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="26"/>
-      <c r="B239" s="13" t="s">
+      <c r="E240" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" s="29"/>
+      <c r="B241" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C239" s="13" t="s">
+      <c r="C241" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="E239" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="26"/>
-      <c r="B240" s="13" t="s">
+      <c r="E241" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="29"/>
+      <c r="B242" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="C242" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E240" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="26"/>
-      <c r="B241" s="13" t="s">
+      <c r="E242" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" s="29"/>
+      <c r="B243" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C241" s="13" t="s">
+      <c r="C243" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E241" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="26"/>
-      <c r="B242" s="13" t="s">
+      <c r="E243" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="29"/>
+      <c r="B244" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C242" s="13" t="s">
+      <c r="C244" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E242" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="26"/>
-      <c r="B243" s="13" t="s">
+      <c r="E244" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" s="29"/>
+      <c r="B245" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C243" s="13" t="s">
+      <c r="C245" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="E243" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="26"/>
-      <c r="B244" s="13" t="s">
+      <c r="E245" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="29"/>
+      <c r="B246" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C244" s="13" t="s">
+      <c r="C246" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="E244" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="26"/>
-      <c r="B245" s="13" t="s">
+      <c r="E246" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="29"/>
+      <c r="B247" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C245" s="13" t="s">
+      <c r="C247" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E245" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="26"/>
-      <c r="B246" s="13" t="s">
+      <c r="E247" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" s="29"/>
+      <c r="B248" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C246" s="13" t="s">
+      <c r="C248" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="E246" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="26"/>
-      <c r="B247" s="13" t="s">
+      <c r="E248" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" s="29"/>
+      <c r="B249" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C247" s="13" t="s">
+      <c r="C249" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="E247" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="26"/>
-      <c r="B248" s="13" t="s">
+      <c r="E249" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="29"/>
+      <c r="B250" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C248" s="13" t="s">
+      <c r="C250" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="E248" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="26"/>
-      <c r="B249" s="13" t="s">
+      <c r="E250" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="29"/>
+      <c r="B251" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E249" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="26"/>
-      <c r="B250" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E250" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="26"/>
-      <c r="B251" s="13" t="s">
-        <v>341</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>314</v>
@@ -6753,1275 +6806,1299 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="26"/>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="29"/>
       <c r="B252" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="29"/>
+      <c r="B253" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="29"/>
+      <c r="B254" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C252" s="13" t="s">
+      <c r="C254" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="E252" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="26"/>
-      <c r="B253" s="13" t="s">
+      <c r="E254" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" s="29"/>
+      <c r="B255" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="C255" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E253" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="26"/>
-      <c r="B254" s="13" t="s">
+      <c r="E255" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" s="29"/>
+      <c r="B256" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C254" s="13" t="s">
+      <c r="C256" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="E254" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="26"/>
-      <c r="B255" s="13" t="s">
+      <c r="E256" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A257" s="29"/>
+      <c r="B257" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C257" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="E255" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A256" s="26"/>
-      <c r="B256" s="13" t="s">
+      <c r="E257" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A258" s="29"/>
+      <c r="B258" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C256" s="13" t="s">
+      <c r="C258" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E256" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="26"/>
-      <c r="B257" s="13" t="s">
+      <c r="E258" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="29"/>
+      <c r="B259" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="C259" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E257" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A258" s="26"/>
-      <c r="B258" s="13" t="s">
+      <c r="E259" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A260" s="29"/>
+      <c r="B260" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="C260" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E258" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="26"/>
-      <c r="B259" s="13" t="s">
+      <c r="E260" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A261" s="29"/>
+      <c r="B261" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="C261" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A260" s="26"/>
-      <c r="B260" s="13" t="s">
+      <c r="E261" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A262" s="29"/>
+      <c r="B262" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="C262" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E260" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="26"/>
-      <c r="B261" s="13" t="s">
+      <c r="E262" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="29"/>
+      <c r="B263" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="C263" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E261" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="26"/>
-      <c r="B262" s="13" t="s">
+      <c r="E263" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A264" s="29"/>
+      <c r="B264" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="C264" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E262" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B263" s="14"/>
-      <c r="C263" s="14"/>
-      <c r="E263" s="13"/>
-    </row>
-    <row r="264" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="26" t="s">
+      <c r="E264" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="E265" s="13"/>
+    </row>
+    <row r="266" spans="1:5" ht="230" x14ac:dyDescent="0.35">
+      <c r="A266" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B264" s="13" t="s">
+      <c r="B266" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="C266" s="13" t="s">
         <v>349</v>
-      </c>
-      <c r="E264" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="26"/>
-      <c r="B265" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="E265" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="26"/>
-      <c r="B266" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="E266" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="26"/>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" s="29"/>
       <c r="B267" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A268" s="26"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" s="29"/>
       <c r="B268" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E268" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="26"/>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" s="29"/>
       <c r="B269" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C269" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A270" s="29"/>
+      <c r="B270" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C270" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="E269" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="26"/>
-      <c r="B270" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C270" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E270" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="26"/>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" s="29"/>
       <c r="B271" s="13" t="s">
-        <v>143</v>
+        <v>357</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E271" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="26"/>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="29"/>
       <c r="B272" s="13" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="E272" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A273" s="26"/>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="29"/>
       <c r="B273" s="13" t="s">
-        <v>361</v>
+        <v>143</v>
       </c>
       <c r="C273" s="13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="26"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="29"/>
       <c r="B274" s="13" t="s">
-        <v>363</v>
+        <v>145</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E274" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A275" s="26"/>
+    <row r="275" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A275" s="29"/>
       <c r="B275" s="13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A276" s="26"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A276" s="29"/>
       <c r="B276" s="13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E276" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A277" s="26"/>
+    <row r="277" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A277" s="29"/>
       <c r="B277" s="13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E277" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="26"/>
+    <row r="278" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A278" s="29"/>
       <c r="B278" s="13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E278" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="26"/>
+    <row r="279" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A279" s="29"/>
       <c r="B279" s="13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E279" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="26"/>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="29"/>
       <c r="B280" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E280" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A281" s="26"/>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" s="29"/>
       <c r="B281" s="13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E281" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="26"/>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" s="29"/>
       <c r="B282" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="29"/>
+      <c r="B283" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" s="29"/>
+      <c r="B284" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C282" s="13" t="s">
+      <c r="C284" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E282" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A283" s="26"/>
-      <c r="B283" s="13" t="s">
+      <c r="E284" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A285" s="29"/>
+      <c r="B285" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C283" s="13" t="s">
+      <c r="C285" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E283" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="14"/>
-      <c r="C284" s="14"/>
-      <c r="E284" s="13"/>
-    </row>
-    <row r="285" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A285" s="26" t="s">
+      <c r="E285" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="E286" s="13"/>
+    </row>
+    <row r="287" spans="1:5" ht="71.5" x14ac:dyDescent="0.35">
+      <c r="A287" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="B285" s="13" t="s">
+      <c r="B287" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C285" s="16" t="s">
+      <c r="C287" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="D285" s="9">
-        <v>1</v>
-      </c>
-      <c r="E285" s="13"/>
-    </row>
-    <row r="286" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A286" s="26"/>
-      <c r="B286" s="13" t="s">
+      <c r="D287" s="9">
+        <v>1</v>
+      </c>
+      <c r="E287" s="13"/>
+    </row>
+    <row r="288" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A288" s="29"/>
+      <c r="B288" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C286" s="13" t="s">
+      <c r="C288" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="D286" s="9">
-        <v>1</v>
-      </c>
-      <c r="E286" s="13"/>
-    </row>
-    <row r="287" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="26"/>
-      <c r="B287" s="13" t="s">
+      <c r="D288" s="9">
+        <v>1</v>
+      </c>
+      <c r="E288" s="13"/>
+    </row>
+    <row r="289" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A289" s="29"/>
+      <c r="B289" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C287" s="13" t="s">
+      <c r="C289" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="D287" s="9">
-        <v>1</v>
-      </c>
-      <c r="E287" s="13"/>
-    </row>
-    <row r="288" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="26"/>
-      <c r="B288" s="13" t="s">
+      <c r="D289" s="9">
+        <v>1</v>
+      </c>
+      <c r="E289" s="13"/>
+    </row>
+    <row r="290" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A290" s="29"/>
+      <c r="B290" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C288" s="13" t="s">
+      <c r="C290" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E288" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A289" s="26"/>
-      <c r="B289" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="C289" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E289" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A290" s="26"/>
-      <c r="B290" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C290" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="E290" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A291" s="26"/>
+    <row r="291" spans="1:5" ht="106" x14ac:dyDescent="0.35">
+      <c r="A291" s="29"/>
       <c r="B291" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C291" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>388</v>
       </c>
       <c r="E291" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B292" s="14"/>
-      <c r="C292" s="14"/>
-      <c r="E292" s="13"/>
-    </row>
-    <row r="293" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A293" s="26" t="s">
+    <row r="292" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="29"/>
+      <c r="B292" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E292" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A293" s="29"/>
+      <c r="B293" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C293" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E293" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="E294" s="13"/>
+    </row>
+    <row r="295" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A295" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="B293" s="13" t="s">
+      <c r="B295" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C293" s="13" t="s">
+      <c r="C295" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="D293" s="9">
-        <v>1</v>
-      </c>
-      <c r="E293" s="13"/>
-    </row>
-    <row r="294" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A294" s="26"/>
-      <c r="B294" s="13" t="s">
+      <c r="D295" s="9">
+        <v>1</v>
+      </c>
+      <c r="E295" s="13"/>
+    </row>
+    <row r="296" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A296" s="29"/>
+      <c r="B296" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="C296" s="18" t="s">
         <v>395</v>
-      </c>
-      <c r="E294" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A295" s="26"/>
-      <c r="B295" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="E295" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A296" s="26"/>
-      <c r="B296" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C296" s="13" t="s">
-        <v>399</v>
       </c>
       <c r="E296" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A297" s="26"/>
+    <row r="297" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A297" s="29"/>
       <c r="B297" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C297" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E297" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A298" s="29"/>
+      <c r="B298" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A299" s="29"/>
+      <c r="B299" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C297" s="13" t="s">
+      <c r="C299" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="D297" s="9">
-        <v>1</v>
-      </c>
-      <c r="E297" s="13"/>
-    </row>
-    <row r="298" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A298" s="26"/>
-      <c r="B298" s="13" t="s">
+      <c r="D299" s="9">
+        <v>1</v>
+      </c>
+      <c r="E299" s="13"/>
+    </row>
+    <row r="300" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A300" s="29"/>
+      <c r="B300" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="C298" s="13" t="s">
+      <c r="C300" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D298" s="9">
-        <v>1</v>
-      </c>
-      <c r="E298" s="13"/>
-    </row>
-    <row r="299" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A299" s="26"/>
-      <c r="B299" s="13" t="s">
+      <c r="D300" s="9">
+        <v>1</v>
+      </c>
+      <c r="E300" s="13"/>
+    </row>
+    <row r="301" spans="1:5" ht="68" x14ac:dyDescent="0.35">
+      <c r="A301" s="29"/>
+      <c r="B301" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C299" s="13" t="s">
+      <c r="C301" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="E299" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="26"/>
-      <c r="B300" s="13" t="s">
+      <c r="E301" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="29"/>
+      <c r="B302" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C300" s="13" t="s">
+      <c r="C302" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="E300" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="26"/>
-      <c r="B301" s="13" t="s">
+      <c r="E302" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" s="29"/>
+      <c r="B303" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="C301" s="13" t="s">
+      <c r="C303" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="E301" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A302" s="26"/>
-      <c r="B302" s="13" t="s">
+      <c r="E303" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A304" s="29"/>
+      <c r="B304" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C302" s="13" t="s">
+      <c r="C304" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="E302" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="26"/>
-      <c r="B303" s="13" t="s">
+      <c r="E304" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="29"/>
+      <c r="B305" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C303" s="13" t="s">
+      <c r="C305" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E303" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="26"/>
-      <c r="B304" s="13" t="s">
+      <c r="E305" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="29"/>
+      <c r="B306" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C304" s="13" t="s">
+      <c r="C306" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="E304" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A305" s="26"/>
-      <c r="B305" s="13" t="s">
+      <c r="E306" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="68" x14ac:dyDescent="0.35">
+      <c r="A307" s="29"/>
+      <c r="B307" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C305" s="13" t="s">
+      <c r="C307" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D305" s="9">
-        <v>1</v>
-      </c>
-      <c r="E305" s="13"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="26"/>
-      <c r="B306" s="13" t="s">
+      <c r="D307" s="9">
+        <v>1</v>
+      </c>
+      <c r="E307" s="13"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="29"/>
+      <c r="B308" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="C306" s="13" t="s">
+      <c r="C308" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="D306" s="9">
-        <v>1</v>
-      </c>
-      <c r="E306" s="13"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="26"/>
-      <c r="B307" s="13" t="s">
+      <c r="D308" s="9">
+        <v>1</v>
+      </c>
+      <c r="E308" s="13"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="29"/>
+      <c r="B309" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="C307" s="13" t="s">
+      <c r="C309" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="E307" s="13"/>
-    </row>
-    <row r="308" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A308" s="26"/>
-      <c r="B308" s="13" t="s">
+      <c r="E309" s="13"/>
+    </row>
+    <row r="310" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A310" s="29"/>
+      <c r="B310" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C308" s="13" t="s">
+      <c r="C310" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D308" s="9">
-        <v>1</v>
-      </c>
-      <c r="E308" s="13"/>
-    </row>
-    <row r="309" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A309" s="26"/>
-      <c r="B309" s="13" t="s">
+      <c r="D310" s="9">
+        <v>1</v>
+      </c>
+      <c r="E310" s="13"/>
+    </row>
+    <row r="311" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A311" s="29"/>
+      <c r="B311" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C309" s="13" t="s">
+      <c r="C311" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D309" s="9">
-        <v>1</v>
-      </c>
-      <c r="E309" s="13"/>
-    </row>
-    <row r="310" spans="1:5" ht="54.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="26"/>
-      <c r="B310" s="13" t="s">
+      <c r="D311" s="9">
+        <v>1</v>
+      </c>
+      <c r="E311" s="13"/>
+    </row>
+    <row r="312" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A312" s="29"/>
+      <c r="B312" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C310" s="16" t="s">
+      <c r="C312" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="D310" s="9">
-        <v>1</v>
-      </c>
-      <c r="E310" s="13"/>
-    </row>
-    <row r="311" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A311" s="26"/>
-      <c r="B311" s="13" t="s">
+      <c r="D312" s="9">
+        <v>1</v>
+      </c>
+      <c r="E312" s="13"/>
+    </row>
+    <row r="313" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A313" s="29"/>
+      <c r="B313" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="C311" s="16" t="s">
+      <c r="C313" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="D311" s="9">
-        <v>1</v>
-      </c>
-      <c r="E311" s="13"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="26"/>
-      <c r="B312" s="13" t="s">
+      <c r="D313" s="9">
+        <v>1</v>
+      </c>
+      <c r="E313" s="13"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="29"/>
+      <c r="B314" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C312" s="13" t="s">
+      <c r="C314" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D312" s="9">
-        <v>1</v>
-      </c>
-      <c r="E312" s="13"/>
-    </row>
-    <row r="313" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A313" s="26"/>
-      <c r="B313" s="13" t="s">
+      <c r="D314" s="9">
+        <v>1</v>
+      </c>
+      <c r="E314" s="13"/>
+    </row>
+    <row r="315" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A315" s="29"/>
+      <c r="B315" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C313" s="13" t="s">
+      <c r="C315" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="D313" s="9">
-        <v>1</v>
-      </c>
-      <c r="E313" s="13"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="26"/>
-      <c r="B314" s="13" t="s">
+      <c r="D315" s="9">
+        <v>1</v>
+      </c>
+      <c r="E315" s="13"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="29"/>
+      <c r="B316" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C314" s="13" t="s">
+      <c r="C316" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D314" s="9">
-        <v>1</v>
-      </c>
-      <c r="E314" s="13"/>
-    </row>
-    <row r="315" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
-      <c r="A315" s="26"/>
-      <c r="B315" s="13" t="s">
+      <c r="D316" s="9">
+        <v>1</v>
+      </c>
+      <c r="E316" s="13"/>
+    </row>
+    <row r="317" spans="1:5" ht="189.5" x14ac:dyDescent="0.35">
+      <c r="A317" s="29"/>
+      <c r="B317" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="C315" s="13" t="s">
+      <c r="C317" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E315" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A316" s="26"/>
-      <c r="B316" s="13" t="s">
+      <c r="E317" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A318" s="29"/>
+      <c r="B318" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C316" s="13" t="s">
+      <c r="C318" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E316" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="26"/>
-      <c r="B317" s="13" t="s">
+      <c r="E318" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="29"/>
+      <c r="B319" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C317" s="13" t="s">
+      <c r="C319" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E317" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A318" s="26"/>
-      <c r="B318" s="13" t="s">
+      <c r="E319" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A320" s="29"/>
+      <c r="B320" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C318" s="13" t="s">
+      <c r="C320" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E318" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="26"/>
-      <c r="B319" s="13" t="s">
+      <c r="E320" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A321" s="29"/>
+      <c r="B321" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C319" s="13" t="s">
+      <c r="C321" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E319" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="26"/>
-      <c r="B320" s="13" t="s">
+      <c r="E321" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" s="29"/>
+      <c r="B322" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C320" s="13" t="s">
+      <c r="C322" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="E320" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A321" s="26"/>
-      <c r="B321" s="13" t="s">
+      <c r="E322" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A323" s="29"/>
+      <c r="B323" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C321" s="13" t="s">
+      <c r="C323" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E321" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A322" s="26"/>
-      <c r="B322" s="13" t="s">
+      <c r="E323" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A324" s="29"/>
+      <c r="B324" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C322" s="13" t="s">
+      <c r="C324" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="E322" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A323" s="26"/>
-      <c r="B323" s="13" t="s">
+      <c r="E324" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A325" s="29"/>
+      <c r="B325" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="C323" s="13" t="s">
+      <c r="C325" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D323" s="9">
-        <v>1</v>
-      </c>
-      <c r="E323" s="13"/>
-    </row>
-    <row r="324" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A324" s="26"/>
-      <c r="B324" s="13" t="s">
+      <c r="D325" s="9">
+        <v>1</v>
+      </c>
+      <c r="E325" s="13"/>
+    </row>
+    <row r="326" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A326" s="29"/>
+      <c r="B326" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C324" s="13" t="s">
+      <c r="C326" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D324" s="9">
-        <v>1</v>
-      </c>
-      <c r="E324" s="13"/>
-    </row>
-    <row r="325" spans="1:5" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A325" s="26"/>
-      <c r="B325" s="22" t="s">
+      <c r="D326" s="9">
+        <v>1</v>
+      </c>
+      <c r="E326" s="13"/>
+    </row>
+    <row r="327" spans="1:5" s="24" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A327" s="29"/>
+      <c r="B327" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C325" s="22" t="s">
+      <c r="C327" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="D325" s="23"/>
-      <c r="E325" s="22" t="s">
+      <c r="D327" s="23"/>
+      <c r="E327" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A326" s="26"/>
-      <c r="B326" s="13" t="s">
+    <row r="328" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A328" s="29"/>
+      <c r="B328" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="C326" s="13" t="s">
+      <c r="C328" s="13" t="s">
         <v>448</v>
-      </c>
-      <c r="E326" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A327" s="26"/>
-      <c r="B327" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C327" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="E327" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="26"/>
-      <c r="B328" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="C328" s="13" t="s">
-        <v>452</v>
       </c>
       <c r="E328" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A329" s="26"/>
+    <row r="329" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A329" s="29"/>
       <c r="B329" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E329" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="26" t="s">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" s="29"/>
+      <c r="B330" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A331" s="29"/>
+      <c r="B331" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C331" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E331" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B333" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C331" s="9" t="s">
+      <c r="C333" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E331" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A332" s="26"/>
-      <c r="B332" s="9" t="s">
+      <c r="E333" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A334" s="29"/>
+      <c r="B334" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C332" s="9" t="s">
+      <c r="C334" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="E332" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="26"/>
-      <c r="B333" s="9" t="s">
+      <c r="E334" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" s="29"/>
+      <c r="B335" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C333" s="9" t="s">
+      <c r="C335" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E333" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="26"/>
-      <c r="B334" s="9" t="s">
+      <c r="E335" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="29"/>
+      <c r="B336" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E334" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A335" s="26"/>
-      <c r="B335" s="9" t="s">
+      <c r="E336" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A337" s="29"/>
+      <c r="B337" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C335" s="9" t="s">
+      <c r="C337" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="E335" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="26"/>
-      <c r="B336" s="9" t="s">
+      <c r="E337" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" s="29"/>
+      <c r="B338" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C336" s="9" t="s">
+      <c r="C338" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="E336" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="26"/>
-      <c r="B337" s="9" t="s">
+      <c r="E338" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" s="29"/>
+      <c r="B339" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C337" s="9" t="s">
+      <c r="C339" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E337" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="26"/>
-      <c r="B338" s="9" t="s">
+      <c r="E339" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" s="29"/>
+      <c r="B340" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="E338" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A339" s="26"/>
-      <c r="B339" s="9" t="s">
+      <c r="E340" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A341" s="29"/>
+      <c r="B341" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C339" s="9" t="s">
+      <c r="C341" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E339" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="26"/>
-      <c r="B340" s="9" t="s">
+      <c r="E341" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" s="29"/>
+      <c r="B342" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C342" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="E340" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E341" s="13"/>
-    </row>
-    <row r="342" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A342" s="26" t="s">
+      <c r="E342" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E343" s="13"/>
+    </row>
+    <row r="344" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A344" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="B342" s="19" t="s">
+      <c r="B344" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="C342" s="19" t="s">
+      <c r="C344" s="19" t="s">
         <v>476</v>
-      </c>
-      <c r="E342" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A343" s="26"/>
-      <c r="B343" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="C343" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="E343" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A344" s="26"/>
-      <c r="B344" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C344" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="E344" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A345" s="26"/>
+    <row r="345" spans="1:5" ht="68" x14ac:dyDescent="0.35">
+      <c r="A345" s="29"/>
       <c r="B345" s="19" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C345" s="19" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E345" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A346" s="26"/>
+    <row r="346" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A346" s="29"/>
       <c r="B346" s="19" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C346" s="19" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E346" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A347" s="26"/>
+    <row r="347" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A347" s="29"/>
       <c r="B347" s="19" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E347" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A348" s="26"/>
+    <row r="348" spans="1:5" ht="41" x14ac:dyDescent="0.35">
+      <c r="A348" s="29"/>
       <c r="B348" s="19" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C348" s="19" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A349" s="26"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A349" s="29"/>
       <c r="B349" s="19" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E349" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A350" s="26"/>
+    <row r="350" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A350" s="29"/>
       <c r="B350" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A351" s="26"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A351" s="29"/>
       <c r="B351" s="19" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E351" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A352" s="26"/>
+    <row r="352" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A352" s="29"/>
       <c r="B352" s="19" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C352" s="19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="26"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A353" s="29"/>
       <c r="B353" s="19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C353" s="19" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E353" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A354" s="26"/>
+    <row r="354" spans="1:5" ht="122" x14ac:dyDescent="0.35">
+      <c r="A354" s="29"/>
       <c r="B354" s="19" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C354" s="19" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E354" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A355" s="26"/>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" s="29"/>
       <c r="B355" s="19" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E355" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A356" s="26"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A356" s="29"/>
       <c r="B356" s="19" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E356" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A357" s="26"/>
+    <row r="357" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A357" s="29"/>
       <c r="B357" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C357" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="E357" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A358" s="29"/>
+      <c r="B358" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C358" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="E358" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A359" s="29"/>
+      <c r="B359" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="C357" s="19" t="s">
+      <c r="C359" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="E357" s="13" t="s">
+      <c r="E359" s="13" t="s">
         <v>350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A342:A357"/>
-    <mergeCell ref="A224:A262"/>
-    <mergeCell ref="A264:A283"/>
-    <mergeCell ref="A285:A291"/>
-    <mergeCell ref="A293:A329"/>
-    <mergeCell ref="A331:A340"/>
-    <mergeCell ref="A81:A103"/>
-    <mergeCell ref="A105:A134"/>
-    <mergeCell ref="A136:A152"/>
-    <mergeCell ref="A154:A190"/>
-    <mergeCell ref="A192:A222"/>
+    <mergeCell ref="A344:A359"/>
+    <mergeCell ref="A226:A264"/>
+    <mergeCell ref="A266:A285"/>
+    <mergeCell ref="A287:A293"/>
+    <mergeCell ref="A295:A331"/>
+    <mergeCell ref="A333:A342"/>
+    <mergeCell ref="A83:A105"/>
+    <mergeCell ref="A107:A136"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A156:A192"/>
+    <mergeCell ref="A194:A224"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A47"/>
-    <mergeCell ref="A49:A79"/>
-    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A25:A49"/>
+    <mergeCell ref="A51:A81"/>
+    <mergeCell ref="A8:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8035,7 +8112,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E331:E357 E16:E329 E2:E14</xm:sqref>
+          <xm:sqref>E333:E359 E18:E331 E2:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8047,62 +8124,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>508</v>
       </c>

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\REPOS\domibus\Domibus-MSH-selenium-ui-tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A23CC91-B57C-4632-BCBA-009BD0FA4B5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="RegressionScenarios-4,1U" sheetId="4" r:id="rId2"/>
     <sheet name="MyValues" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RegressionScenarios-4,1U'!$E$1:$F$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RegressionScenarios-4,1U'!$E$1:$F$347</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="895">
   <si>
     <t>Raw numbers</t>
   </si>
@@ -3050,12 +3045,60 @@
   <si>
     <t>CP-10</t>
   </si>
+  <si>
+    <t>PMA-7</t>
+  </si>
+  <si>
+    <t>User Doubleclick on grid row</t>
+  </si>
+  <si>
+    <t>Pop up will open with Pmode file respective to selected row</t>
+  </si>
+  <si>
+    <t>Ui REPLICATION</t>
+  </si>
+  <si>
+    <t>UR-1</t>
+  </si>
+  <si>
+    <t>UR-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify presence of Unsynchronized data in database for message table </t>
+  </si>
+  <si>
+    <t>If  unsync data exists then it will show count accordingly</t>
+  </si>
+  <si>
+    <t>Verify Manual Synchronization of data</t>
+  </si>
+  <si>
+    <t>Through rest call , data can be synchronized and column fields among tb_message_ui and tb_message_log should be same for single message id.</t>
+  </si>
+  <si>
+    <t>AU-40</t>
+  </si>
+  <si>
+    <t>AU-41</t>
+  </si>
+  <si>
+    <t>Check action on plugin user creation event</t>
+  </si>
+  <si>
+    <t>Action should be logged as Created</t>
+  </si>
+  <si>
+    <t>Chcek action on plugin user Delete event</t>
+  </si>
+  <si>
+    <t>Action should be logged as Deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3353,8 +3396,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3432,8 +3482,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -3758,6 +3814,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3801,7 +3909,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3874,12 +3982,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3937,6 +4039,27 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="3" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3958,71 +4081,75 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="2" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="3" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="40">
-    <cellStyle name="Accent 1 18" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Accent 17" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Accent 2 19" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Accent 2 6" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Accent 3 20" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Accent 3 7" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Accent 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Bad 13" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Bad 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Error 16" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Error 8" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Footnote 8" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Footnote 9" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Good 11" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Good 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Heading 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Heading 1 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Heading 10" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Heading 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Heading 2 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Heading 3" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Hyperlink 11" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Hyperlink 9" xfId="24" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Accent 1 18" xfId="1"/>
+    <cellStyle name="Accent 1 5" xfId="2"/>
+    <cellStyle name="Accent 17" xfId="3"/>
+    <cellStyle name="Accent 2 19" xfId="4"/>
+    <cellStyle name="Accent 2 6" xfId="5"/>
+    <cellStyle name="Accent 3 20" xfId="6"/>
+    <cellStyle name="Accent 3 7" xfId="7"/>
+    <cellStyle name="Accent 4" xfId="8"/>
+    <cellStyle name="Bad 13" xfId="9"/>
+    <cellStyle name="Bad 2" xfId="10"/>
+    <cellStyle name="Error 16" xfId="11"/>
+    <cellStyle name="Error 8" xfId="12"/>
+    <cellStyle name="Footnote 8" xfId="13"/>
+    <cellStyle name="Footnote 9" xfId="14"/>
+    <cellStyle name="Good 11" xfId="15"/>
+    <cellStyle name="Good 2" xfId="16"/>
+    <cellStyle name="Heading 1 2" xfId="17"/>
+    <cellStyle name="Heading 1 4" xfId="18"/>
+    <cellStyle name="Heading 10" xfId="19"/>
+    <cellStyle name="Heading 2 2" xfId="20"/>
+    <cellStyle name="Heading 2 5" xfId="21"/>
+    <cellStyle name="Heading 3" xfId="22"/>
+    <cellStyle name="Hyperlink 11" xfId="23"/>
+    <cellStyle name="Hyperlink 9" xfId="24"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28"/>
-    <cellStyle name="Neutral 12" xfId="25" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Neutral 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Neutral 12" xfId="25"/>
+    <cellStyle name="Neutral 2" xfId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Normal 2 2" xfId="39" xr:uid="{B9EA02F4-5E82-4F70-8C0E-9B304074C694}"/>
-    <cellStyle name="Normal 2 3" xfId="38" xr:uid="{4C5E9319-4F20-4DBD-8E55-C34DBDBA8337}"/>
-    <cellStyle name="Normal 3" xfId="37" xr:uid="{F448607F-67ED-4C62-8911-8CF6C9FCA1A9}"/>
-    <cellStyle name="Note 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Note 7" xfId="29" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Status 10" xfId="30" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Status 12" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Text 13" xfId="32" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Text 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Warning 14" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Warning 15" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 2" xfId="27"/>
+    <cellStyle name="Normal 2 2" xfId="39"/>
+    <cellStyle name="Normal 2 3" xfId="38"/>
+    <cellStyle name="Normal 3" xfId="37"/>
+    <cellStyle name="Note 2" xfId="28"/>
+    <cellStyle name="Note 7" xfId="29"/>
+    <cellStyle name="Status 10" xfId="30"/>
+    <cellStyle name="Status 12" xfId="31"/>
+    <cellStyle name="Text 13" xfId="32"/>
+    <cellStyle name="Text 6" xfId="33"/>
+    <cellStyle name="Warning 14" xfId="34"/>
+    <cellStyle name="Warning 15" xfId="35"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4044,6 +4171,360 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4417,18 +4898,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4440,48 +4921,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="66" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4498,7 +4979,7 @@
       </c>
       <c r="B6" s="5">
         <f>COUNTA('RegressionScenarios-4,1U'!D:D)-1</f>
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -4512,7 +4993,7 @@
       </c>
       <c r="C7" s="7">
         <f>B7/B$6</f>
-        <v>9.9706744868035185E-2</v>
+        <v>9.8265895953757232E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4524,8 +5005,8 @@
         <v>7</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" ref="C8:C12" si="0">B8/B$6</f>
-        <v>2.0527859237536656E-2</v>
+        <f t="shared" ref="C8:C11" si="0">B8/B$6</f>
+        <v>2.023121387283237E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4534,11 +5015,11 @@
       </c>
       <c r="B9" s="5">
         <f>COUNTIF('RegressionScenarios-4,1U'!F:F,A9)</f>
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>0.2756598240469208</v>
+        <v>0.22254335260115607</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4551,7 +5032,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>2.932551319648094E-2</v>
+        <v>2.8901734104046242E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4564,7 +5045,7 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>3.2258064516129031E-2</v>
+        <v>3.1791907514450865E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4573,11 +5054,11 @@
       </c>
       <c r="B12" s="5">
         <f>COUNTIF('RegressionScenarios-4,1U'!F:F,A12)</f>
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C12" s="7">
         <f>B12/B$6</f>
-        <v>0.54252199413489732</v>
+        <v>0.59826589595375723</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4609,11 +5090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0B7BB8-66A7-4375-B7AD-D0756D05839C}">
-  <dimension ref="A1:P342"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4622,7 +5103,7 @@
     <col min="2" max="2" width="11.85546875" style="18" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="18" customWidth="1"/>
     <col min="4" max="4" width="144.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="34"/>
+    <col min="5" max="5" width="16.140625" style="32"/>
     <col min="6" max="6" width="29.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" style="18" customWidth="1"/>
     <col min="8" max="12" width="16.140625" style="18"/>
@@ -4630,28 +5111,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>522</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -4660,16 +5141,16 @@
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="43" t="s">
         <v>523</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -4681,13 +5162,13 @@
       <c r="E3" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="43" t="s">
         <v>524</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -4699,13 +5180,13 @@
       <c r="E4" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="43" t="s">
         <v>525</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -4717,13 +5198,13 @@
       <c r="E5" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="52" t="s">
         <v>526</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -4732,200 +5213,200 @@
       <c r="D6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="58" t="s">
         <v>854</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="59" t="s">
         <v>861</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="60" t="s">
         <v>862</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="57" t="s">
         <v>855</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="55" t="s">
         <v>863</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="56" t="s">
         <v>864</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="57" t="s">
         <v>856</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="55" t="s">
         <v>481</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="56" t="s">
         <v>482</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="66" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="57" t="s">
         <v>857</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="55" t="s">
         <v>865</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="56" t="s">
         <v>866</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="55" t="s">
         <v>867</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="56" t="s">
         <v>483</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="57" t="s">
         <v>859</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="55" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="56" t="s">
         <v>485</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="55" t="s">
         <v>486</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="56" t="s">
         <v>868</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="141" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="55" t="s">
         <v>869</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="56" t="s">
         <v>870</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="66" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="57" t="s">
         <v>877</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="55" t="s">
         <v>871</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="56" t="s">
         <v>872</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="72" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="63" t="s">
         <v>878</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="64" t="s">
         <v>873</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="64" t="s">
         <v>874</v>
       </c>
-      <c r="E16" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="F16" s="74" t="s">
+      <c r="E16" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="49" t="s">
         <v>527</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -4934,16 +5415,16 @@
       <c r="D17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="F17" s="55" t="s">
+      <c r="E17" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="43" t="s">
         <v>528</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -4955,13 +5436,13 @@
       <c r="E18" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="45" t="s">
+      <c r="F18" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="43" t="s">
         <v>529</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -4973,13 +5454,13 @@
       <c r="E19" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F19" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="45" t="s">
+      <c r="F19" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="43" t="s">
         <v>530</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -4991,13 +5472,13 @@
       <c r="E20" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="52" t="s">
         <v>531</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -5006,18 +5487,18 @@
       <c r="D21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="F21" s="56" t="s">
+      <c r="E21" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F21" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="49" t="s">
         <v>532</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -5026,74 +5507,74 @@
       <c r="D22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F22" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="36"/>
+      <c r="F22" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="32" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F23" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="36"/>
+      <c r="F23" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F24" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="36"/>
+      <c r="F24" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="32" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="36"/>
+      <c r="F25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="43" t="s">
         <v>536</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -5105,14 +5586,14 @@
       <c r="E26" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="36"/>
+      <c r="F26" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="43" t="s">
         <v>537</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -5124,14 +5605,14 @@
       <c r="E27" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F27" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="36"/>
+      <c r="F27" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="43" t="s">
         <v>538</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -5143,14 +5624,14 @@
       <c r="E28" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="36"/>
+      <c r="F28" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="43" t="s">
         <v>539</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -5162,14 +5643,14 @@
       <c r="E29" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F29" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="36"/>
+      <c r="F29" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="43" t="s">
         <v>540</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -5181,14 +5662,14 @@
       <c r="E30" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F30" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="36"/>
+      <c r="F30" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="43" t="s">
         <v>541</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -5200,14 +5681,14 @@
       <c r="E31" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F31" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="36"/>
+      <c r="F31" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="43" t="s">
         <v>542</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -5219,14 +5700,14 @@
       <c r="E32" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F32" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="36"/>
+      <c r="F32" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="68"/>
+      <c r="B33" s="43" t="s">
         <v>543</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -5238,14 +5719,14 @@
       <c r="E33" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F33" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="36"/>
+      <c r="F33" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="68"/>
+      <c r="B34" s="43" t="s">
         <v>544</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -5257,14 +5738,14 @@
       <c r="E34" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F34" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="36"/>
+      <c r="F34" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="68"/>
+      <c r="B35" s="43" t="s">
         <v>545</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -5276,14 +5757,14 @@
       <c r="E35" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F35" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="36"/>
+      <c r="F35" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="43" t="s">
         <v>546</v>
       </c>
       <c r="C36" s="14" t="s">
@@ -5295,14 +5776,14 @@
       <c r="E36" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="68"/>
+      <c r="B37" s="43" t="s">
         <v>547</v>
       </c>
       <c r="C37" s="14" t="s">
@@ -5314,14 +5795,14 @@
       <c r="E37" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="36"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" ht="306.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="68"/>
+      <c r="B38" s="43" t="s">
         <v>548</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -5333,14 +5814,14 @@
       <c r="E38" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F38" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="36"/>
+      <c r="F38" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="68"/>
+      <c r="B39" s="43" t="s">
         <v>549</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -5352,14 +5833,14 @@
       <c r="E39" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F39" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="36"/>
+      <c r="F39" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="43" t="s">
         <v>550</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -5371,14 +5852,14 @@
       <c r="E40" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F40" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="36"/>
+      <c r="F40" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="68"/>
+      <c r="B41" s="43" t="s">
         <v>551</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -5390,14 +5871,14 @@
       <c r="E41" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F41" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="36"/>
+      <c r="F41" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="34"/>
     </row>
     <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="68"/>
+      <c r="B42" s="43" t="s">
         <v>552</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -5409,14 +5890,14 @@
       <c r="E42" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F42" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="36"/>
+      <c r="F42" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="34"/>
     </row>
     <row r="43" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="43" t="s">
         <v>553</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -5428,14 +5909,14 @@
       <c r="E43" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F43" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="36"/>
+      <c r="F43" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="68"/>
+      <c r="B44" s="43" t="s">
         <v>554</v>
       </c>
       <c r="C44" s="14" t="s">
@@ -5447,14 +5928,14 @@
       <c r="E44" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="36"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="68"/>
+      <c r="B45" s="43" t="s">
         <v>555</v>
       </c>
       <c r="C45" s="14" t="s">
@@ -5466,14 +5947,14 @@
       <c r="E45" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F45" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="36"/>
+      <c r="F45" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
-      <c r="B46" s="54" t="s">
+      <c r="A46" s="69"/>
+      <c r="B46" s="52" t="s">
         <v>556</v>
       </c>
       <c r="C46" s="16" t="s">
@@ -5482,19 +5963,19 @@
       <c r="D46" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="F46" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="36"/>
+      <c r="F46" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="49" t="s">
         <v>557</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -5503,17 +5984,17 @@
       <c r="D47" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F47" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="42"/>
+      <c r="F47" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="68"/>
+      <c r="B48" s="43" t="s">
         <v>558</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -5525,14 +6006,14 @@
       <c r="E48" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F48" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="42"/>
+      <c r="F48" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="68"/>
+      <c r="B49" s="43" t="s">
         <v>559</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -5544,14 +6025,14 @@
       <c r="E49" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F49" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="42"/>
+      <c r="F49" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="68"/>
+      <c r="B50" s="43" t="s">
         <v>560</v>
       </c>
       <c r="C50" s="19" t="s">
@@ -5563,14 +6044,14 @@
       <c r="E50" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F50" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="42"/>
+      <c r="F50" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="68"/>
+      <c r="B51" s="43" t="s">
         <v>561</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -5582,14 +6063,14 @@
       <c r="E51" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F51" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="42"/>
+      <c r="F51" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="40"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="68"/>
+      <c r="B52" s="43" t="s">
         <v>562</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5601,14 +6082,14 @@
       <c r="E52" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F52" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="42"/>
+      <c r="F52" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="45" t="s">
+      <c r="A53" s="68"/>
+      <c r="B53" s="43" t="s">
         <v>563</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -5620,14 +6101,14 @@
       <c r="E53" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F53" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="42"/>
+      <c r="F53" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="68"/>
+      <c r="B54" s="43" t="s">
         <v>564</v>
       </c>
       <c r="C54" s="19" t="s">
@@ -5639,14 +6120,14 @@
       <c r="E54" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F54" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="42"/>
+      <c r="F54" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="68"/>
+      <c r="B55" s="43" t="s">
         <v>565</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -5658,14 +6139,14 @@
       <c r="E55" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="42"/>
+      <c r="F55" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="45" t="s">
+      <c r="A56" s="68"/>
+      <c r="B56" s="43" t="s">
         <v>566</v>
       </c>
       <c r="C56" s="19" t="s">
@@ -5677,14 +6158,14 @@
       <c r="E56" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F56" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="42"/>
+      <c r="F56" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="45" t="s">
+      <c r="A57" s="68"/>
+      <c r="B57" s="43" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="19" t="s">
@@ -5696,14 +6177,14 @@
       <c r="E57" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F57" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="42"/>
+      <c r="F57" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="45" t="s">
+      <c r="A58" s="68"/>
+      <c r="B58" s="43" t="s">
         <v>568</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -5715,14 +6196,14 @@
       <c r="E58" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F58" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="42"/>
+      <c r="F58" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="40"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="45" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="43" t="s">
         <v>569</v>
       </c>
       <c r="C59" s="19" t="s">
@@ -5734,14 +6215,14 @@
       <c r="E59" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F59" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="42"/>
+      <c r="F59" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="40"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="68"/>
+      <c r="B60" s="43" t="s">
         <v>570</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -5753,14 +6234,14 @@
       <c r="E60" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F60" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="42"/>
+      <c r="F60" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="40"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="68"/>
+      <c r="B61" s="43" t="s">
         <v>571</v>
       </c>
       <c r="C61" s="14" t="s">
@@ -5772,14 +6253,14 @@
       <c r="E61" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F61" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="42"/>
+      <c r="F61" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="40"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="45" t="s">
+      <c r="A62" s="68"/>
+      <c r="B62" s="43" t="s">
         <v>572</v>
       </c>
       <c r="C62" s="14" t="s">
@@ -5791,14 +6272,14 @@
       <c r="E62" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F62" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="42"/>
+      <c r="F62" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="40"/>
     </row>
     <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="45" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="43" t="s">
         <v>573</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -5810,14 +6291,14 @@
       <c r="E63" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F63" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="42"/>
+      <c r="F63" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="40"/>
     </row>
     <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="43" t="s">
         <v>574</v>
       </c>
       <c r="C64" s="14" t="s">
@@ -5829,14 +6310,14 @@
       <c r="E64" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F64" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="42"/>
+      <c r="F64" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="45" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="43" t="s">
         <v>575</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -5848,14 +6329,14 @@
       <c r="E65" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F65" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="42"/>
+      <c r="F65" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="45" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="43" t="s">
         <v>576</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -5867,14 +6348,14 @@
       <c r="E66" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F66" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="42"/>
+      <c r="F66" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="40"/>
     </row>
     <row r="67" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="45" t="s">
+      <c r="A67" s="68"/>
+      <c r="B67" s="43" t="s">
         <v>577</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -5886,14 +6367,14 @@
       <c r="E67" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F67" s="46" t="s">
+      <c r="F67" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="42"/>
+      <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="68"/>
+      <c r="B68" s="43" t="s">
         <v>578</v>
       </c>
       <c r="C68" s="14" t="s">
@@ -5905,14 +6386,14 @@
       <c r="E68" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F68" s="46" t="s">
+      <c r="F68" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G68" s="42"/>
+      <c r="G68" s="40"/>
     </row>
     <row r="69" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="68"/>
+      <c r="B69" s="43" t="s">
         <v>579</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -5924,14 +6405,14 @@
       <c r="E69" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="42"/>
+      <c r="G69" s="40"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="68"/>
+      <c r="B70" s="43" t="s">
         <v>580</v>
       </c>
       <c r="C70" s="14" t="s">
@@ -5943,14 +6424,14 @@
       <c r="E70" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F70" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="42"/>
+      <c r="F70" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="40"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="68"/>
+      <c r="B71" s="43" t="s">
         <v>581</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -5962,14 +6443,14 @@
       <c r="E71" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F71" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="42"/>
+      <c r="F71" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="40"/>
     </row>
     <row r="72" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="68"/>
+      <c r="B72" s="43" t="s">
         <v>582</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -5981,14 +6462,14 @@
       <c r="E72" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F72" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="42"/>
+      <c r="F72" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="40"/>
     </row>
     <row r="73" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="68"/>
+      <c r="B73" s="43" t="s">
         <v>583</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -6000,14 +6481,14 @@
       <c r="E73" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F73" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="42"/>
+      <c r="F73" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="40"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="68"/>
+      <c r="B74" s="43" t="s">
         <v>584</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -6019,14 +6500,14 @@
       <c r="E74" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F74" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="42"/>
+      <c r="F74" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="40"/>
     </row>
     <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="68"/>
+      <c r="B75" s="43" t="s">
         <v>585</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -6038,14 +6519,14 @@
       <c r="E75" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F75" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="42"/>
+      <c r="F75" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="40"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="68"/>
+      <c r="B76" s="43" t="s">
         <v>586</v>
       </c>
       <c r="C76" s="14" t="s">
@@ -6057,14 +6538,14 @@
       <c r="E76" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F76" s="46" t="s">
+      <c r="F76" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G76" s="42"/>
+      <c r="G76" s="40"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="60"/>
-      <c r="B77" s="54" t="s">
+      <c r="A77" s="69"/>
+      <c r="B77" s="52" t="s">
         <v>587</v>
       </c>
       <c r="C77" s="16" t="s">
@@ -6073,19 +6554,19 @@
       <c r="D77" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E77" s="48" t="s">
+      <c r="E77" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="F77" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="42"/>
+      <c r="F77" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="40"/>
     </row>
     <row r="78" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="49" t="s">
         <v>588</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -6094,17 +6575,17 @@
       <c r="D78" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E78" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F78" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="42"/>
+      <c r="F78" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="40"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="45" t="s">
+      <c r="A79" s="68"/>
+      <c r="B79" s="43" t="s">
         <v>589</v>
       </c>
       <c r="C79" s="14" t="s">
@@ -6116,14 +6597,14 @@
       <c r="E79" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G79" s="42"/>
+      <c r="G79" s="40"/>
     </row>
     <row r="80" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="45" t="s">
+      <c r="A80" s="68"/>
+      <c r="B80" s="43" t="s">
         <v>590</v>
       </c>
       <c r="C80" s="14" t="s">
@@ -6135,14 +6616,14 @@
       <c r="E80" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F80" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="42"/>
+      <c r="F80" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="40"/>
     </row>
     <row r="81" spans="1:7" ht="141" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="68"/>
+      <c r="B81" s="43" t="s">
         <v>591</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -6154,14 +6635,14 @@
       <c r="E81" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F81" s="46" t="s">
+      <c r="F81" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G81" s="42"/>
+      <c r="G81" s="40"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
-      <c r="B82" s="45" t="s">
+      <c r="A82" s="68"/>
+      <c r="B82" s="43" t="s">
         <v>592</v>
       </c>
       <c r="C82" s="14" t="s">
@@ -6173,14 +6654,14 @@
       <c r="E82" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F82" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G82" s="42"/>
+      <c r="G82" s="40"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
-      <c r="B83" s="45" t="s">
+      <c r="A83" s="68"/>
+      <c r="B83" s="43" t="s">
         <v>593</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -6192,14 +6673,14 @@
       <c r="E83" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F83" s="46" t="s">
+      <c r="F83" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G83" s="42"/>
+      <c r="G83" s="40"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
-      <c r="B84" s="45" t="s">
+      <c r="A84" s="68"/>
+      <c r="B84" s="43" t="s">
         <v>594</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -6211,14 +6692,14 @@
       <c r="E84" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="F84" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G84" s="42"/>
+      <c r="G84" s="40"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="45" t="s">
+      <c r="A85" s="68"/>
+      <c r="B85" s="43" t="s">
         <v>595</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -6230,14 +6711,14 @@
       <c r="E85" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F85" s="46" t="s">
+      <c r="F85" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G85" s="42"/>
+      <c r="G85" s="40"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="45" t="s">
+      <c r="A86" s="68"/>
+      <c r="B86" s="43" t="s">
         <v>596</v>
       </c>
       <c r="C86" s="14" t="s">
@@ -6249,14 +6730,14 @@
       <c r="E86" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F86" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="42"/>
+      <c r="F86" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="40"/>
     </row>
     <row r="87" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
-      <c r="B87" s="45" t="s">
+      <c r="A87" s="68"/>
+      <c r="B87" s="43" t="s">
         <v>597</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -6268,14 +6749,14 @@
       <c r="E87" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F87" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="42"/>
+      <c r="F87" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="40"/>
     </row>
     <row r="88" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
-      <c r="B88" s="45" t="s">
+      <c r="A88" s="68"/>
+      <c r="B88" s="43" t="s">
         <v>598</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -6287,14 +6768,14 @@
       <c r="E88" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F88" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="42"/>
+      <c r="F88" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="40"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
-      <c r="B89" s="45" t="s">
+      <c r="A89" s="68"/>
+      <c r="B89" s="43" t="s">
         <v>599</v>
       </c>
       <c r="C89" s="14" t="s">
@@ -6306,14 +6787,14 @@
       <c r="E89" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F89" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="42"/>
+      <c r="F89" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="40"/>
     </row>
     <row r="90" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
-      <c r="B90" s="45" t="s">
+      <c r="A90" s="68"/>
+      <c r="B90" s="43" t="s">
         <v>600</v>
       </c>
       <c r="C90" s="14" t="s">
@@ -6325,14 +6806,14 @@
       <c r="E90" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F90" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="42"/>
+      <c r="F90" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="40"/>
     </row>
     <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
-      <c r="B91" s="45" t="s">
+      <c r="A91" s="68"/>
+      <c r="B91" s="43" t="s">
         <v>601</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -6344,14 +6825,14 @@
       <c r="E91" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F91" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="42"/>
+      <c r="F91" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="40"/>
     </row>
     <row r="92" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
-      <c r="B92" s="45" t="s">
+      <c r="A92" s="68"/>
+      <c r="B92" s="43" t="s">
         <v>602</v>
       </c>
       <c r="C92" s="14" t="s">
@@ -6363,14 +6844,14 @@
       <c r="E92" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F92" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="42"/>
+      <c r="F92" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="40"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
-      <c r="B93" s="45" t="s">
+      <c r="A93" s="68"/>
+      <c r="B93" s="43" t="s">
         <v>603</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -6382,14 +6863,14 @@
       <c r="E93" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F93" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="42"/>
+      <c r="F93" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="40"/>
     </row>
     <row r="94" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
-      <c r="B94" s="45" t="s">
+      <c r="A94" s="68"/>
+      <c r="B94" s="43" t="s">
         <v>604</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -6401,14 +6882,14 @@
       <c r="E94" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G94" s="42"/>
+      <c r="G94" s="40"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="45" t="s">
+      <c r="A95" s="68"/>
+      <c r="B95" s="43" t="s">
         <v>605</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -6420,14 +6901,14 @@
       <c r="E95" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F95" s="46" t="s">
+      <c r="F95" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G95" s="42"/>
+      <c r="G95" s="40"/>
     </row>
     <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="45" t="s">
+      <c r="A96" s="68"/>
+      <c r="B96" s="43" t="s">
         <v>606</v>
       </c>
       <c r="C96" s="14" t="s">
@@ -6439,14 +6920,14 @@
       <c r="E96" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F96" s="46" t="s">
+      <c r="F96" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G96" s="42"/>
+      <c r="G96" s="40"/>
     </row>
     <row r="97" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-      <c r="B97" s="45" t="s">
+      <c r="A97" s="68"/>
+      <c r="B97" s="43" t="s">
         <v>607</v>
       </c>
       <c r="C97" s="14" t="s">
@@ -6458,14 +6939,14 @@
       <c r="E97" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F97" s="46" t="s">
+      <c r="F97" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G97" s="43"/>
+      <c r="G97" s="41"/>
     </row>
     <row r="98" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
-      <c r="B98" s="45" t="s">
+      <c r="A98" s="68"/>
+      <c r="B98" s="43" t="s">
         <v>608</v>
       </c>
       <c r="C98" s="14" t="s">
@@ -6477,14 +6958,14 @@
       <c r="E98" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F98" s="46" t="s">
+      <c r="F98" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G98" s="43"/>
+      <c r="G98" s="41"/>
     </row>
     <row r="99" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="45" t="s">
+      <c r="A99" s="68"/>
+      <c r="B99" s="43" t="s">
         <v>609</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -6496,14 +6977,14 @@
       <c r="E99" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F99" s="46" t="s">
+      <c r="F99" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G99" s="43"/>
+      <c r="G99" s="41"/>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
-      <c r="B100" s="54" t="s">
+      <c r="A100" s="69"/>
+      <c r="B100" s="52" t="s">
         <v>610</v>
       </c>
       <c r="C100" s="16" t="s">
@@ -6512,19 +6993,19 @@
       <c r="D100" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E100" s="48" t="s">
+      <c r="E100" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="F100" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="43"/>
+      <c r="F100" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="41"/>
     </row>
     <row r="101" spans="1:7" ht="268.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="58" t="s">
+      <c r="A101" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="49" t="s">
         <v>611</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -6533,17 +7014,17 @@
       <c r="D101" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E101" s="52" t="s">
+      <c r="E101" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F101" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="43"/>
+      <c r="F101" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="41"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
-      <c r="B102" s="45" t="s">
+      <c r="A102" s="68"/>
+      <c r="B102" s="43" t="s">
         <v>612</v>
       </c>
       <c r="C102" s="14" t="s">
@@ -6555,14 +7036,14 @@
       <c r="E102" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F102" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="43"/>
+      <c r="F102" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="41"/>
     </row>
     <row r="103" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
-      <c r="B103" s="45" t="s">
+      <c r="A103" s="68"/>
+      <c r="B103" s="43" t="s">
         <v>613</v>
       </c>
       <c r="C103" s="14" t="s">
@@ -6574,14 +7055,14 @@
       <c r="E103" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F103" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="43"/>
+      <c r="F103" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="41"/>
     </row>
     <row r="104" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="59"/>
-      <c r="B104" s="45" t="s">
+      <c r="A104" s="68"/>
+      <c r="B104" s="43" t="s">
         <v>614</v>
       </c>
       <c r="C104" s="14" t="s">
@@ -6593,14 +7074,14 @@
       <c r="E104" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F104" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="43"/>
+      <c r="F104" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="41"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="59"/>
-      <c r="B105" s="45" t="s">
+      <c r="A105" s="68"/>
+      <c r="B105" s="43" t="s">
         <v>615</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -6612,14 +7093,14 @@
       <c r="E105" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F105" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="43"/>
+      <c r="F105" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="41"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="59"/>
-      <c r="B106" s="45" t="s">
+      <c r="A106" s="68"/>
+      <c r="B106" s="43" t="s">
         <v>616</v>
       </c>
       <c r="C106" s="14" t="s">
@@ -6631,14 +7112,14 @@
       <c r="E106" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F106" s="46" t="s">
+      <c r="F106" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G106" s="43"/>
+      <c r="G106" s="41"/>
     </row>
     <row r="107" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
-      <c r="B107" s="45" t="s">
+      <c r="A107" s="68"/>
+      <c r="B107" s="43" t="s">
         <v>617</v>
       </c>
       <c r="C107" s="14" t="s">
@@ -6650,14 +7131,14 @@
       <c r="E107" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F107" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="43"/>
+      <c r="F107" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="41"/>
     </row>
     <row r="108" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
-      <c r="B108" s="45" t="s">
+      <c r="A108" s="68"/>
+      <c r="B108" s="43" t="s">
         <v>618</v>
       </c>
       <c r="C108" s="14" t="s">
@@ -6669,14 +7150,14 @@
       <c r="E108" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F108" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" s="43"/>
+      <c r="F108" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="41"/>
     </row>
     <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
-      <c r="B109" s="45" t="s">
+      <c r="A109" s="68"/>
+      <c r="B109" s="43" t="s">
         <v>619</v>
       </c>
       <c r="C109" s="14" t="s">
@@ -6688,14 +7169,14 @@
       <c r="E109" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F109" s="46" t="s">
+      <c r="F109" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G109" s="43"/>
+      <c r="G109" s="41"/>
     </row>
     <row r="110" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
-      <c r="B110" s="45" t="s">
+      <c r="A110" s="68"/>
+      <c r="B110" s="43" t="s">
         <v>620</v>
       </c>
       <c r="C110" s="14" t="s">
@@ -6707,14 +7188,14 @@
       <c r="E110" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F110" s="46" t="s">
+      <c r="F110" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G110" s="43"/>
+      <c r="G110" s="41"/>
     </row>
     <row r="111" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
-      <c r="B111" s="45" t="s">
+      <c r="A111" s="68"/>
+      <c r="B111" s="43" t="s">
         <v>621</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -6726,14 +7207,14 @@
       <c r="E111" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F111" s="46" t="s">
+      <c r="F111" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G111" s="43"/>
+      <c r="G111" s="41"/>
     </row>
     <row r="112" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="59"/>
-      <c r="B112" s="45" t="s">
+      <c r="A112" s="68"/>
+      <c r="B112" s="43" t="s">
         <v>622</v>
       </c>
       <c r="C112" s="14" t="s">
@@ -6745,14 +7226,14 @@
       <c r="E112" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F112" s="46" t="s">
+      <c r="F112" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G112" s="43"/>
+      <c r="G112" s="41"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="59"/>
-      <c r="B113" s="45" t="s">
+      <c r="A113" s="68"/>
+      <c r="B113" s="43" t="s">
         <v>623</v>
       </c>
       <c r="C113" s="14" t="s">
@@ -6764,14 +7245,14 @@
       <c r="E113" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F113" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="43"/>
+      <c r="F113" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="41"/>
     </row>
     <row r="114" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="59"/>
-      <c r="B114" s="45" t="s">
+      <c r="A114" s="68"/>
+      <c r="B114" s="43" t="s">
         <v>624</v>
       </c>
       <c r="C114" s="14" t="s">
@@ -6783,14 +7264,14 @@
       <c r="E114" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F114" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="43"/>
+      <c r="F114" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="41"/>
     </row>
     <row r="115" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
-      <c r="B115" s="45" t="s">
+      <c r="A115" s="68"/>
+      <c r="B115" s="43" t="s">
         <v>625</v>
       </c>
       <c r="C115" s="14" t="s">
@@ -6802,14 +7283,14 @@
       <c r="E115" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F115" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="43"/>
+      <c r="F115" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="41"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="59"/>
-      <c r="B116" s="45" t="s">
+      <c r="A116" s="68"/>
+      <c r="B116" s="43" t="s">
         <v>626</v>
       </c>
       <c r="C116" s="14" t="s">
@@ -6821,14 +7302,14 @@
       <c r="E116" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F116" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="43"/>
+      <c r="F116" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="41"/>
     </row>
     <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="59"/>
-      <c r="B117" s="45" t="s">
+      <c r="A117" s="68"/>
+      <c r="B117" s="43" t="s">
         <v>627</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -6840,14 +7321,14 @@
       <c r="E117" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F117" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="43"/>
+      <c r="F117" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="41"/>
     </row>
     <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="59"/>
-      <c r="B118" s="45" t="s">
+      <c r="A118" s="68"/>
+      <c r="B118" s="43" t="s">
         <v>628</v>
       </c>
       <c r="C118" s="14" t="s">
@@ -6859,14 +7340,14 @@
       <c r="E118" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F118" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" s="43"/>
+      <c r="F118" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="41"/>
     </row>
     <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A119" s="59"/>
-      <c r="B119" s="45" t="s">
+      <c r="A119" s="68"/>
+      <c r="B119" s="43" t="s">
         <v>629</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -6878,14 +7359,14 @@
       <c r="E119" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F119" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="43"/>
+      <c r="F119" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="41"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="59"/>
-      <c r="B120" s="45" t="s">
+      <c r="A120" s="68"/>
+      <c r="B120" s="43" t="s">
         <v>630</v>
       </c>
       <c r="C120" s="14" t="s">
@@ -6897,14 +7378,14 @@
       <c r="E120" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F120" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" s="43"/>
+      <c r="F120" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="41"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="59"/>
-      <c r="B121" s="45" t="s">
+      <c r="A121" s="68"/>
+      <c r="B121" s="43" t="s">
         <v>631</v>
       </c>
       <c r="C121" s="14" t="s">
@@ -6916,14 +7397,14 @@
       <c r="E121" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F121" s="46" t="s">
+      <c r="F121" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G121" s="43"/>
+      <c r="G121" s="41"/>
     </row>
     <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
-      <c r="B122" s="45" t="s">
+      <c r="A122" s="68"/>
+      <c r="B122" s="43" t="s">
         <v>632</v>
       </c>
       <c r="C122" s="14" t="s">
@@ -6935,14 +7416,14 @@
       <c r="E122" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F122" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" s="43"/>
+      <c r="F122" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="41"/>
     </row>
     <row r="123" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
-      <c r="B123" s="45" t="s">
+      <c r="A123" s="68"/>
+      <c r="B123" s="43" t="s">
         <v>633</v>
       </c>
       <c r="C123" s="14" t="s">
@@ -6954,14 +7435,14 @@
       <c r="E123" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F123" s="46" t="s">
+      <c r="F123" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G123" s="43"/>
+      <c r="G123" s="41"/>
     </row>
     <row r="124" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A124" s="59"/>
-      <c r="B124" s="45" t="s">
+      <c r="A124" s="68"/>
+      <c r="B124" s="43" t="s">
         <v>634</v>
       </c>
       <c r="C124" s="14" t="s">
@@ -6973,14 +7454,14 @@
       <c r="E124" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F124" s="46" t="s">
+      <c r="F124" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G124" s="43"/>
+      <c r="G124" s="41"/>
     </row>
     <row r="125" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A125" s="59"/>
-      <c r="B125" s="45" t="s">
+      <c r="A125" s="68"/>
+      <c r="B125" s="43" t="s">
         <v>635</v>
       </c>
       <c r="C125" s="14" t="s">
@@ -6992,14 +7473,14 @@
       <c r="E125" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F125" s="46" t="s">
+      <c r="F125" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G125" s="43"/>
+      <c r="G125" s="41"/>
     </row>
     <row r="126" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A126" s="59"/>
-      <c r="B126" s="45" t="s">
+      <c r="A126" s="68"/>
+      <c r="B126" s="43" t="s">
         <v>636</v>
       </c>
       <c r="C126" s="14" t="s">
@@ -7011,14 +7492,14 @@
       <c r="E126" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F126" s="46" t="s">
+      <c r="F126" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G126" s="43"/>
+      <c r="G126" s="41"/>
     </row>
     <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="59"/>
-      <c r="B127" s="45" t="s">
+      <c r="A127" s="68"/>
+      <c r="B127" s="43" t="s">
         <v>637</v>
       </c>
       <c r="C127" s="14" t="s">
@@ -7030,14 +7511,14 @@
       <c r="E127" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F127" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" s="43"/>
+      <c r="F127" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="41"/>
     </row>
     <row r="128" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="59"/>
-      <c r="B128" s="45" t="s">
+      <c r="A128" s="68"/>
+      <c r="B128" s="43" t="s">
         <v>638</v>
       </c>
       <c r="C128" s="14" t="s">
@@ -7049,14 +7530,14 @@
       <c r="E128" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F128" s="46" t="s">
+      <c r="F128" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G128" s="43"/>
+      <c r="G128" s="41"/>
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="60"/>
-      <c r="B129" s="54" t="s">
+      <c r="A129" s="69"/>
+      <c r="B129" s="52" t="s">
         <v>639</v>
       </c>
       <c r="C129" s="16" t="s">
@@ -7065,19 +7546,19 @@
       <c r="D129" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E129" s="48" t="s">
+      <c r="E129" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="F129" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G129" s="43"/>
+      <c r="F129" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="41"/>
     </row>
     <row r="130" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="58" t="s">
+      <c r="A130" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="49" t="s">
         <v>640</v>
       </c>
       <c r="C130" s="11" t="s">
@@ -7086,17 +7567,17 @@
       <c r="D130" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E130" s="52" t="s">
+      <c r="E130" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F130" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="43"/>
+      <c r="F130" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="41"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="59"/>
-      <c r="B131" s="45" t="s">
+      <c r="A131" s="68"/>
+      <c r="B131" s="43" t="s">
         <v>641</v>
       </c>
       <c r="C131" s="19" t="s">
@@ -7108,14 +7589,14 @@
       <c r="E131" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F131" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G131" s="43"/>
+      <c r="F131" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="41"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="59"/>
-      <c r="B132" s="45" t="s">
+      <c r="A132" s="68"/>
+      <c r="B132" s="43" t="s">
         <v>642</v>
       </c>
       <c r="C132" s="14" t="s">
@@ -7127,14 +7608,14 @@
       <c r="E132" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F132" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="43"/>
+      <c r="F132" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="41"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="59"/>
-      <c r="B133" s="45" t="s">
+      <c r="A133" s="68"/>
+      <c r="B133" s="43" t="s">
         <v>643</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -7146,14 +7627,14 @@
       <c r="E133" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F133" s="46" t="s">
+      <c r="F133" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G133" s="43"/>
+      <c r="G133" s="41"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="59"/>
-      <c r="B134" s="45" t="s">
+      <c r="A134" s="68"/>
+      <c r="B134" s="43" t="s">
         <v>644</v>
       </c>
       <c r="C134" s="14" t="s">
@@ -7165,14 +7646,14 @@
       <c r="E134" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F134" s="46" t="s">
+      <c r="F134" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="43"/>
+      <c r="G134" s="41"/>
     </row>
     <row r="135" spans="1:7" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="59"/>
-      <c r="B135" s="45" t="s">
+      <c r="A135" s="68"/>
+      <c r="B135" s="43" t="s">
         <v>645</v>
       </c>
       <c r="C135" s="14" t="s">
@@ -7184,14 +7665,14 @@
       <c r="E135" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F135" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="43"/>
+      <c r="F135" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="41"/>
     </row>
     <row r="136" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="59"/>
-      <c r="B136" s="45" t="s">
+      <c r="A136" s="68"/>
+      <c r="B136" s="43" t="s">
         <v>646</v>
       </c>
       <c r="C136" s="14" t="s">
@@ -7203,14 +7684,14 @@
       <c r="E136" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F136" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="43"/>
+      <c r="F136" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="41"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="59"/>
-      <c r="B137" s="45" t="s">
+      <c r="A137" s="68"/>
+      <c r="B137" s="43" t="s">
         <v>647</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -7222,14 +7703,14 @@
       <c r="E137" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F137" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="43"/>
+      <c r="F137" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="41"/>
     </row>
     <row r="138" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="59"/>
-      <c r="B138" s="45" t="s">
+      <c r="A138" s="68"/>
+      <c r="B138" s="43" t="s">
         <v>648</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -7241,14 +7722,14 @@
       <c r="E138" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F138" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="43"/>
+      <c r="F138" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="41"/>
     </row>
     <row r="139" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="59"/>
-      <c r="B139" s="45" t="s">
+      <c r="A139" s="68"/>
+      <c r="B139" s="43" t="s">
         <v>649</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -7260,14 +7741,14 @@
       <c r="E139" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F139" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G139" s="43"/>
+      <c r="F139" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="41"/>
     </row>
     <row r="140" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A140" s="59"/>
-      <c r="B140" s="45" t="s">
+      <c r="A140" s="68"/>
+      <c r="B140" s="43" t="s">
         <v>650</v>
       </c>
       <c r="C140" s="14" t="s">
@@ -7279,14 +7760,14 @@
       <c r="E140" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F140" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="43"/>
+      <c r="F140" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="41"/>
     </row>
     <row r="141" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="59"/>
-      <c r="B141" s="45" t="s">
+      <c r="A141" s="68"/>
+      <c r="B141" s="43" t="s">
         <v>651</v>
       </c>
       <c r="C141" s="14" t="s">
@@ -7298,14 +7779,14 @@
       <c r="E141" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F141" s="46" t="s">
+      <c r="F141" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G141" s="43"/>
+      <c r="G141" s="41"/>
     </row>
     <row r="142" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="59"/>
-      <c r="B142" s="45" t="s">
+      <c r="A142" s="68"/>
+      <c r="B142" s="43" t="s">
         <v>652</v>
       </c>
       <c r="C142" s="14" t="s">
@@ -7317,14 +7798,14 @@
       <c r="E142" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F142" s="46" t="s">
+      <c r="F142" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G142" s="43"/>
+      <c r="G142" s="41"/>
     </row>
     <row r="143" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="59"/>
-      <c r="B143" s="45" t="s">
+      <c r="A143" s="68"/>
+      <c r="B143" s="43" t="s">
         <v>653</v>
       </c>
       <c r="C143" s="14" t="s">
@@ -7336,14 +7817,14 @@
       <c r="E143" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F143" s="46" t="s">
+      <c r="F143" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G143" s="43"/>
+      <c r="G143" s="41"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="59"/>
-      <c r="B144" s="45" t="s">
+      <c r="A144" s="68"/>
+      <c r="B144" s="43" t="s">
         <v>654</v>
       </c>
       <c r="C144" s="14" t="s">
@@ -7355,14 +7836,14 @@
       <c r="E144" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F144" s="46" t="s">
+      <c r="F144" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G144" s="43"/>
+      <c r="G144" s="41"/>
     </row>
     <row r="145" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="59"/>
-      <c r="B145" s="45" t="s">
+      <c r="A145" s="68"/>
+      <c r="B145" s="43" t="s">
         <v>655</v>
       </c>
       <c r="C145" s="14" t="s">
@@ -7374,14 +7855,14 @@
       <c r="E145" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F145" s="46" t="s">
+      <c r="F145" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G145" s="43"/>
+      <c r="G145" s="41"/>
     </row>
     <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="60"/>
-      <c r="B146" s="54" t="s">
+      <c r="A146" s="69"/>
+      <c r="B146" s="52" t="s">
         <v>656</v>
       </c>
       <c r="C146" s="16" t="s">
@@ -7390,19 +7871,19 @@
       <c r="D146" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E146" s="48" t="s">
+      <c r="E146" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="F146" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G146" s="43"/>
+      <c r="F146" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="41"/>
     </row>
     <row r="147" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="58" t="s">
+      <c r="A147" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="B147" s="51" t="s">
+      <c r="B147" s="49" t="s">
         <v>657</v>
       </c>
       <c r="C147" s="11" t="s">
@@ -7411,17 +7892,17 @@
       <c r="D147" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E147" s="52" t="s">
+      <c r="E147" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F147" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147" s="43"/>
+      <c r="F147" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="41"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="59"/>
-      <c r="B148" s="45" t="s">
+      <c r="A148" s="68"/>
+      <c r="B148" s="43" t="s">
         <v>658</v>
       </c>
       <c r="C148" s="19" t="s">
@@ -7433,14 +7914,14 @@
       <c r="E148" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F148" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G148" s="43"/>
+      <c r="F148" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="41"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="59"/>
-      <c r="B149" s="45" t="s">
+      <c r="A149" s="68"/>
+      <c r="B149" s="43" t="s">
         <v>659</v>
       </c>
       <c r="C149" s="19" t="s">
@@ -7452,14 +7933,14 @@
       <c r="E149" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F149" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" s="43"/>
+      <c r="F149" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="41"/>
     </row>
     <row r="150" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="59"/>
-      <c r="B150" s="45" t="s">
+      <c r="A150" s="68"/>
+      <c r="B150" s="43" t="s">
         <v>660</v>
       </c>
       <c r="C150" s="19" t="s">
@@ -7471,14 +7952,14 @@
       <c r="E150" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F150" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G150" s="43"/>
+      <c r="F150" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="41"/>
     </row>
     <row r="151" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="59"/>
-      <c r="B151" s="45" t="s">
+      <c r="A151" s="68"/>
+      <c r="B151" s="43" t="s">
         <v>661</v>
       </c>
       <c r="C151" s="19" t="s">
@@ -7490,14 +7971,14 @@
       <c r="E151" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F151" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G151" s="43"/>
+      <c r="F151" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="41"/>
     </row>
     <row r="152" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A152" s="59"/>
-      <c r="B152" s="45" t="s">
+      <c r="A152" s="68"/>
+      <c r="B152" s="43" t="s">
         <v>662</v>
       </c>
       <c r="C152" s="19" t="s">
@@ -7509,14 +7990,14 @@
       <c r="E152" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F152" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G152" s="43"/>
+      <c r="F152" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="41"/>
     </row>
     <row r="153" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="59"/>
-      <c r="B153" s="45" t="s">
+      <c r="A153" s="68"/>
+      <c r="B153" s="43" t="s">
         <v>663</v>
       </c>
       <c r="C153" s="19" t="s">
@@ -7528,14 +8009,14 @@
       <c r="E153" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F153" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G153" s="43"/>
+      <c r="F153" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" s="41"/>
     </row>
     <row r="154" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="59"/>
-      <c r="B154" s="45" t="s">
+      <c r="A154" s="68"/>
+      <c r="B154" s="43" t="s">
         <v>664</v>
       </c>
       <c r="C154" s="19" t="s">
@@ -7547,14 +8028,14 @@
       <c r="E154" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F154" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G154" s="43"/>
+      <c r="F154" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="41"/>
     </row>
     <row r="155" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="59"/>
-      <c r="B155" s="45" t="s">
+      <c r="A155" s="68"/>
+      <c r="B155" s="43" t="s">
         <v>665</v>
       </c>
       <c r="C155" s="19" t="s">
@@ -7566,14 +8047,14 @@
       <c r="E155" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F155" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G155" s="43"/>
+      <c r="F155" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" s="41"/>
     </row>
     <row r="156" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="59"/>
-      <c r="B156" s="45" t="s">
+      <c r="A156" s="68"/>
+      <c r="B156" s="43" t="s">
         <v>666</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -7585,14 +8066,14 @@
       <c r="E156" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F156" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G156" s="43"/>
+      <c r="F156" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="41"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="59"/>
-      <c r="B157" s="45" t="s">
+      <c r="A157" s="68"/>
+      <c r="B157" s="43" t="s">
         <v>667</v>
       </c>
       <c r="C157" s="19" t="s">
@@ -7604,14 +8085,14 @@
       <c r="E157" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F157" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G157" s="43"/>
+      <c r="F157" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="41"/>
     </row>
     <row r="158" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="59"/>
-      <c r="B158" s="45" t="s">
+      <c r="A158" s="68"/>
+      <c r="B158" s="43" t="s">
         <v>668</v>
       </c>
       <c r="C158" s="19" t="s">
@@ -7623,14 +8104,14 @@
       <c r="E158" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F158" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" s="43"/>
+      <c r="F158" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="41"/>
     </row>
     <row r="159" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="59"/>
-      <c r="B159" s="45" t="s">
+      <c r="A159" s="68"/>
+      <c r="B159" s="43" t="s">
         <v>669</v>
       </c>
       <c r="C159" s="14" t="s">
@@ -7642,14 +8123,14 @@
       <c r="E159" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F159" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159" s="43"/>
+      <c r="F159" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="41"/>
     </row>
     <row r="160" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A160" s="59"/>
-      <c r="B160" s="45" t="s">
+      <c r="A160" s="68"/>
+      <c r="B160" s="43" t="s">
         <v>670</v>
       </c>
       <c r="C160" s="14" t="s">
@@ -7661,14 +8142,14 @@
       <c r="E160" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F160" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G160" s="43"/>
+      <c r="F160" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="41"/>
     </row>
     <row r="161" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="59"/>
-      <c r="B161" s="45" t="s">
+      <c r="A161" s="68"/>
+      <c r="B161" s="43" t="s">
         <v>671</v>
       </c>
       <c r="C161" s="14" t="s">
@@ -7680,14 +8161,14 @@
       <c r="E161" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F161" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G161" s="43"/>
+      <c r="F161" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="41"/>
     </row>
     <row r="162" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="59"/>
-      <c r="B162" s="45" t="s">
+      <c r="A162" s="68"/>
+      <c r="B162" s="43" t="s">
         <v>672</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -7699,14 +8180,14 @@
       <c r="E162" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F162" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162" s="43"/>
+      <c r="F162" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" s="41"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="59"/>
-      <c r="B163" s="45" t="s">
+      <c r="A163" s="68"/>
+      <c r="B163" s="43" t="s">
         <v>673</v>
       </c>
       <c r="C163" s="14" t="s">
@@ -7718,14 +8199,14 @@
       <c r="E163" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F163" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G163" s="43"/>
+      <c r="F163" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="41"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="59"/>
-      <c r="B164" s="45" t="s">
+      <c r="A164" s="68"/>
+      <c r="B164" s="43" t="s">
         <v>674</v>
       </c>
       <c r="C164" s="14" t="s">
@@ -7737,14 +8218,14 @@
       <c r="E164" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F164" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164" s="43"/>
-    </row>
-    <row r="165" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A165" s="59"/>
-      <c r="B165" s="45" t="s">
+      <c r="F164" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="41"/>
+    </row>
+    <row r="165" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A165" s="68"/>
+      <c r="B165" s="43" t="s">
         <v>675</v>
       </c>
       <c r="C165" s="14" t="s">
@@ -7756,14 +8237,14 @@
       <c r="E165" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F165" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G165" s="43"/>
-    </row>
-    <row r="166" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A166" s="59"/>
-      <c r="B166" s="45" t="s">
+      <c r="F165" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="41"/>
+    </row>
+    <row r="166" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A166" s="68"/>
+      <c r="B166" s="43" t="s">
         <v>676</v>
       </c>
       <c r="C166" s="14" t="s">
@@ -7775,14 +8256,14 @@
       <c r="E166" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F166" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G166" s="43"/>
+      <c r="F166" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" s="41"/>
     </row>
     <row r="167" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A167" s="59"/>
-      <c r="B167" s="45" t="s">
+      <c r="A167" s="68"/>
+      <c r="B167" s="43" t="s">
         <v>677</v>
       </c>
       <c r="C167" s="14" t="s">
@@ -7794,14 +8275,14 @@
       <c r="E167" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F167" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G167" s="43"/>
+      <c r="F167" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" s="41"/>
     </row>
     <row r="168" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A168" s="59"/>
-      <c r="B168" s="45" t="s">
+      <c r="A168" s="68"/>
+      <c r="B168" s="43" t="s">
         <v>678</v>
       </c>
       <c r="C168" s="14" t="s">
@@ -7813,14 +8294,14 @@
       <c r="E168" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F168" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G168" s="43"/>
+      <c r="F168" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" s="41"/>
     </row>
     <row r="169" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="59"/>
-      <c r="B169" s="45" t="s">
+      <c r="A169" s="68"/>
+      <c r="B169" s="43" t="s">
         <v>679</v>
       </c>
       <c r="C169" s="14" t="s">
@@ -7832,14 +8313,14 @@
       <c r="E169" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F169" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G169" s="43"/>
+      <c r="F169" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="41"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="59"/>
-      <c r="B170" s="45" t="s">
+      <c r="A170" s="68"/>
+      <c r="B170" s="43" t="s">
         <v>680</v>
       </c>
       <c r="C170" s="14" t="s">
@@ -7851,14 +8332,14 @@
       <c r="E170" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F170" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G170" s="43"/>
+      <c r="F170" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="41"/>
     </row>
     <row r="171" spans="1:7" ht="141" x14ac:dyDescent="0.25">
-      <c r="A171" s="59"/>
-      <c r="B171" s="45" t="s">
+      <c r="A171" s="68"/>
+      <c r="B171" s="43" t="s">
         <v>681</v>
       </c>
       <c r="C171" s="14" t="s">
@@ -7870,14 +8351,14 @@
       <c r="E171" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F171" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G171" s="43"/>
+      <c r="F171" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" s="41"/>
     </row>
     <row r="172" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="59"/>
-      <c r="B172" s="45" t="s">
+      <c r="A172" s="68"/>
+      <c r="B172" s="43" t="s">
         <v>682</v>
       </c>
       <c r="C172" s="14" t="s">
@@ -7889,14 +8370,14 @@
       <c r="E172" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F172" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="43"/>
+      <c r="F172" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="41"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="59"/>
-      <c r="B173" s="45" t="s">
+      <c r="A173" s="68"/>
+      <c r="B173" s="43" t="s">
         <v>683</v>
       </c>
       <c r="C173" s="14" t="s">
@@ -7908,14 +8389,14 @@
       <c r="E173" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F173" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G173" s="43"/>
+      <c r="F173" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="41"/>
     </row>
     <row r="174" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="59"/>
-      <c r="B174" s="45" t="s">
+      <c r="A174" s="68"/>
+      <c r="B174" s="43" t="s">
         <v>684</v>
       </c>
       <c r="C174" s="14" t="s">
@@ -7927,14 +8408,14 @@
       <c r="E174" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F174" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G174" s="43"/>
+      <c r="F174" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="41"/>
     </row>
     <row r="175" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="59"/>
-      <c r="B175" s="45" t="s">
+      <c r="A175" s="68"/>
+      <c r="B175" s="43" t="s">
         <v>685</v>
       </c>
       <c r="C175" s="14" t="s">
@@ -7946,14 +8427,14 @@
       <c r="E175" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F175" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G175" s="43"/>
+      <c r="F175" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" s="41"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="59"/>
-      <c r="B176" s="45" t="s">
+      <c r="A176" s="68"/>
+      <c r="B176" s="43" t="s">
         <v>686</v>
       </c>
       <c r="C176" s="14" t="s">
@@ -7965,14 +8446,14 @@
       <c r="E176" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F176" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="43"/>
+      <c r="F176" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="41"/>
     </row>
     <row r="177" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A177" s="59"/>
-      <c r="B177" s="45" t="s">
+      <c r="A177" s="68"/>
+      <c r="B177" s="43" t="s">
         <v>687</v>
       </c>
       <c r="C177" s="14" t="s">
@@ -7984,14 +8465,14 @@
       <c r="E177" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F177" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G177" s="43"/>
+      <c r="F177" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="41"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="59"/>
-      <c r="B178" s="45" t="s">
+      <c r="A178" s="68"/>
+      <c r="B178" s="43" t="s">
         <v>688</v>
       </c>
       <c r="C178" s="14" t="s">
@@ -8003,14 +8484,14 @@
       <c r="E178" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F178" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G178" s="43"/>
+      <c r="F178" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="41"/>
     </row>
     <row r="179" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="59"/>
-      <c r="B179" s="45" t="s">
+      <c r="A179" s="68"/>
+      <c r="B179" s="43" t="s">
         <v>689</v>
       </c>
       <c r="C179" s="14" t="s">
@@ -8022,14 +8503,14 @@
       <c r="E179" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F179" s="46" t="s">
+      <c r="F179" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G179" s="43"/>
+      <c r="G179" s="41"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="59"/>
-      <c r="B180" s="45" t="s">
+      <c r="A180" s="68"/>
+      <c r="B180" s="43" t="s">
         <v>690</v>
       </c>
       <c r="C180" s="14" t="s">
@@ -8041,14 +8522,14 @@
       <c r="E180" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F180" s="46" t="s">
+      <c r="F180" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G180" s="43"/>
+      <c r="G180" s="41"/>
     </row>
     <row r="181" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A181" s="59"/>
-      <c r="B181" s="45" t="s">
+      <c r="A181" s="68"/>
+      <c r="B181" s="43" t="s">
         <v>691</v>
       </c>
       <c r="C181" s="14" t="s">
@@ -8060,14 +8541,14 @@
       <c r="E181" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F181" s="46" t="s">
+      <c r="F181" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G181" s="43"/>
+      <c r="G181" s="41"/>
     </row>
     <row r="182" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A182" s="59"/>
-      <c r="B182" s="45" t="s">
+      <c r="A182" s="68"/>
+      <c r="B182" s="43" t="s">
         <v>692</v>
       </c>
       <c r="C182" s="14" t="s">
@@ -8079,14 +8560,14 @@
       <c r="E182" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F182" s="46" t="s">
+      <c r="F182" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G182" s="43"/>
+      <c r="G182" s="41"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="60"/>
-      <c r="B183" s="54" t="s">
+      <c r="A183" s="69"/>
+      <c r="B183" s="52" t="s">
         <v>693</v>
       </c>
       <c r="C183" s="16" t="s">
@@ -8095,19 +8576,19 @@
       <c r="D183" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E183" s="48" t="s">
+      <c r="E183" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="F183" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G183" s="43"/>
+      <c r="F183" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="41"/>
     </row>
     <row r="184" spans="1:8" ht="230.25" x14ac:dyDescent="0.25">
-      <c r="A184" s="58" t="s">
+      <c r="A184" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="B184" s="51" t="s">
+      <c r="B184" s="49" t="s">
         <v>694</v>
       </c>
       <c r="C184" s="11" t="s">
@@ -8116,18 +8597,18 @@
       <c r="D184" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="E184" s="52" t="s">
+      <c r="E184" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F184" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G184" s="43"/>
+      <c r="F184" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" s="41"/>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="59"/>
-      <c r="B185" s="45" t="s">
+      <c r="A185" s="68"/>
+      <c r="B185" s="43" t="s">
         <v>695</v>
       </c>
       <c r="C185" s="19" t="s">
@@ -8139,15 +8620,15 @@
       <c r="E185" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F185" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G185" s="43"/>
+      <c r="F185" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="41"/>
       <c r="H185" s="8"/>
     </row>
     <row r="186" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A186" s="59"/>
-      <c r="B186" s="45" t="s">
+      <c r="A186" s="68"/>
+      <c r="B186" s="43" t="s">
         <v>696</v>
       </c>
       <c r="C186" s="19" t="s">
@@ -8159,15 +8640,15 @@
       <c r="E186" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F186" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G186" s="43"/>
+      <c r="F186" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G186" s="41"/>
       <c r="H186" s="8"/>
     </row>
     <row r="187" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="59"/>
-      <c r="B187" s="45" t="s">
+      <c r="A187" s="68"/>
+      <c r="B187" s="43" t="s">
         <v>697</v>
       </c>
       <c r="C187" s="19" t="s">
@@ -8179,15 +8660,15 @@
       <c r="E187" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F187" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G187" s="43"/>
+      <c r="F187" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="41"/>
       <c r="H187" s="8"/>
     </row>
     <row r="188" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A188" s="59"/>
-      <c r="B188" s="45" t="s">
+      <c r="A188" s="68"/>
+      <c r="B188" s="43" t="s">
         <v>698</v>
       </c>
       <c r="C188" s="19" t="s">
@@ -8199,15 +8680,15 @@
       <c r="E188" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F188" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G188" s="43"/>
+      <c r="F188" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G188" s="41"/>
       <c r="H188" s="8"/>
     </row>
     <row r="189" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="59"/>
-      <c r="B189" s="45" t="s">
+      <c r="A189" s="68"/>
+      <c r="B189" s="43" t="s">
         <v>699</v>
       </c>
       <c r="C189" s="19" t="s">
@@ -8219,15 +8700,15 @@
       <c r="E189" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F189" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G189" s="43"/>
+      <c r="F189" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G189" s="41"/>
       <c r="H189" s="8"/>
     </row>
     <row r="190" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="59"/>
-      <c r="B190" s="45" t="s">
+      <c r="A190" s="68"/>
+      <c r="B190" s="43" t="s">
         <v>700</v>
       </c>
       <c r="C190" s="19" t="s">
@@ -8239,15 +8720,15 @@
       <c r="E190" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F190" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G190" s="43"/>
+      <c r="F190" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G190" s="41"/>
       <c r="H190" s="8"/>
     </row>
     <row r="191" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="59"/>
-      <c r="B191" s="45" t="s">
+      <c r="A191" s="68"/>
+      <c r="B191" s="43" t="s">
         <v>701</v>
       </c>
       <c r="C191" s="19" t="s">
@@ -8259,15 +8740,15 @@
       <c r="E191" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F191" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G191" s="43"/>
+      <c r="F191" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="41"/>
       <c r="H191" s="8"/>
     </row>
     <row r="192" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="59"/>
-      <c r="B192" s="45" t="s">
+      <c r="A192" s="68"/>
+      <c r="B192" s="43" t="s">
         <v>702</v>
       </c>
       <c r="C192" s="14" t="s">
@@ -8279,15 +8760,15 @@
       <c r="E192" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F192" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G192" s="43"/>
+      <c r="F192" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G192" s="41"/>
       <c r="H192" s="8"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="59"/>
-      <c r="B193" s="45" t="s">
+      <c r="A193" s="68"/>
+      <c r="B193" s="43" t="s">
         <v>703</v>
       </c>
       <c r="C193" s="19" t="s">
@@ -8299,15 +8780,15 @@
       <c r="E193" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F193" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G193" s="43"/>
+      <c r="F193" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="41"/>
       <c r="H193" s="8"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="59"/>
-      <c r="B194" s="45" t="s">
+      <c r="A194" s="68"/>
+      <c r="B194" s="43" t="s">
         <v>704</v>
       </c>
       <c r="C194" s="19" t="s">
@@ -8319,15 +8800,15 @@
       <c r="E194" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F194" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G194" s="43"/>
+      <c r="F194" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="41"/>
       <c r="H194" s="8"/>
     </row>
     <row r="195" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A195" s="59"/>
-      <c r="B195" s="45" t="s">
+      <c r="A195" s="68"/>
+      <c r="B195" s="43" t="s">
         <v>705</v>
       </c>
       <c r="C195" s="14" t="s">
@@ -8339,15 +8820,15 @@
       <c r="E195" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F195" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G195" s="43"/>
+      <c r="F195" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="41"/>
       <c r="H195" s="8"/>
     </row>
     <row r="196" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="59"/>
-      <c r="B196" s="45" t="s">
+      <c r="A196" s="68"/>
+      <c r="B196" s="43" t="s">
         <v>706</v>
       </c>
       <c r="C196" s="14" t="s">
@@ -8359,15 +8840,15 @@
       <c r="E196" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F196" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G196" s="43"/>
+      <c r="F196" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G196" s="41"/>
       <c r="H196" s="8"/>
     </row>
     <row r="197" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="59"/>
-      <c r="B197" s="45" t="s">
+      <c r="A197" s="68"/>
+      <c r="B197" s="43" t="s">
         <v>707</v>
       </c>
       <c r="C197" s="14" t="s">
@@ -8379,15 +8860,15 @@
       <c r="E197" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F197" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G197" s="43"/>
+      <c r="F197" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G197" s="41"/>
       <c r="H197" s="8"/>
     </row>
     <row r="198" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="59"/>
-      <c r="B198" s="45" t="s">
+      <c r="A198" s="68"/>
+      <c r="B198" s="43" t="s">
         <v>708</v>
       </c>
       <c r="C198" s="14" t="s">
@@ -8399,15 +8880,15 @@
       <c r="E198" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F198" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G198" s="43"/>
+      <c r="F198" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G198" s="41"/>
       <c r="H198" s="8"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="59"/>
-      <c r="B199" s="45" t="s">
+      <c r="A199" s="68"/>
+      <c r="B199" s="43" t="s">
         <v>709</v>
       </c>
       <c r="C199" s="14" t="s">
@@ -8419,15 +8900,15 @@
       <c r="E199" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F199" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G199" s="43"/>
+      <c r="F199" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="41"/>
       <c r="H199" s="8"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="59"/>
-      <c r="B200" s="45" t="s">
+      <c r="A200" s="68"/>
+      <c r="B200" s="43" t="s">
         <v>710</v>
       </c>
       <c r="C200" s="14" t="s">
@@ -8439,15 +8920,15 @@
       <c r="E200" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F200" s="46" t="s">
+      <c r="F200" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G200" s="43"/>
+      <c r="G200" s="41"/>
       <c r="H200" s="8"/>
     </row>
     <row r="201" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="59"/>
-      <c r="B201" s="45" t="s">
+      <c r="A201" s="68"/>
+      <c r="B201" s="43" t="s">
         <v>711</v>
       </c>
       <c r="C201" s="14" t="s">
@@ -8459,15 +8940,15 @@
       <c r="E201" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F201" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G201" s="43"/>
+      <c r="F201" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" s="41"/>
       <c r="H201" s="8"/>
     </row>
     <row r="202" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A202" s="59"/>
-      <c r="B202" s="45" t="s">
+      <c r="A202" s="68"/>
+      <c r="B202" s="43" t="s">
         <v>712</v>
       </c>
       <c r="C202" s="14" t="s">
@@ -8479,15 +8960,15 @@
       <c r="E202" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F202" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G202" s="43"/>
+      <c r="F202" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" s="41"/>
       <c r="H202" s="8"/>
     </row>
     <row r="203" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A203" s="59"/>
-      <c r="B203" s="45" t="s">
+      <c r="A203" s="68"/>
+      <c r="B203" s="43" t="s">
         <v>713</v>
       </c>
       <c r="C203" s="14" t="s">
@@ -8499,15 +8980,15 @@
       <c r="E203" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F203" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G203" s="43"/>
+      <c r="F203" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="41"/>
       <c r="H203" s="8"/>
     </row>
     <row r="204" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="59"/>
-      <c r="B204" s="45" t="s">
+      <c r="A204" s="68"/>
+      <c r="B204" s="43" t="s">
         <v>714</v>
       </c>
       <c r="C204" s="14" t="s">
@@ -8519,15 +9000,15 @@
       <c r="E204" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F204" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G204" s="43"/>
+      <c r="F204" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G204" s="41"/>
       <c r="H204" s="8"/>
     </row>
     <row r="205" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A205" s="59"/>
-      <c r="B205" s="45" t="s">
+      <c r="A205" s="68"/>
+      <c r="B205" s="43" t="s">
         <v>715</v>
       </c>
       <c r="C205" s="14" t="s">
@@ -8539,15 +9020,15 @@
       <c r="E205" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F205" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G205" s="43"/>
+      <c r="F205" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" s="41"/>
       <c r="H205" s="8"/>
     </row>
     <row r="206" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="59"/>
-      <c r="B206" s="45" t="s">
+      <c r="A206" s="68"/>
+      <c r="B206" s="43" t="s">
         <v>716</v>
       </c>
       <c r="C206" s="14" t="s">
@@ -8559,15 +9040,15 @@
       <c r="E206" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F206" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G206" s="43"/>
+      <c r="F206" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" s="41"/>
       <c r="H206" s="8"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="59"/>
-      <c r="B207" s="45" t="s">
+      <c r="A207" s="68"/>
+      <c r="B207" s="43" t="s">
         <v>717</v>
       </c>
       <c r="C207" s="14" t="s">
@@ -8579,15 +9060,15 @@
       <c r="E207" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F207" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G207" s="43"/>
+      <c r="F207" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G207" s="41"/>
       <c r="H207" s="8"/>
     </row>
     <row r="208" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A208" s="59"/>
-      <c r="B208" s="45" t="s">
+      <c r="A208" s="68"/>
+      <c r="B208" s="43" t="s">
         <v>718</v>
       </c>
       <c r="C208" s="14" t="s">
@@ -8599,15 +9080,15 @@
       <c r="E208" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F208" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G208" s="43"/>
+      <c r="F208" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G208" s="41"/>
       <c r="H208" s="8"/>
     </row>
     <row r="209" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="59"/>
-      <c r="B209" s="45" t="s">
+      <c r="A209" s="68"/>
+      <c r="B209" s="43" t="s">
         <v>719</v>
       </c>
       <c r="C209" s="14" t="s">
@@ -8619,15 +9100,15 @@
       <c r="E209" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F209" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G209" s="43"/>
+      <c r="F209" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G209" s="41"/>
       <c r="H209" s="8"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="59"/>
-      <c r="B210" s="45" t="s">
+      <c r="A210" s="68"/>
+      <c r="B210" s="43" t="s">
         <v>720</v>
       </c>
       <c r="C210" s="14" t="s">
@@ -8639,15 +9120,15 @@
       <c r="E210" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F210" s="46" t="s">
+      <c r="F210" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G210" s="43"/>
+      <c r="G210" s="41"/>
       <c r="H210" s="8"/>
     </row>
     <row r="211" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A211" s="59"/>
-      <c r="B211" s="45" t="s">
+      <c r="A211" s="68"/>
+      <c r="B211" s="43" t="s">
         <v>721</v>
       </c>
       <c r="C211" s="14" t="s">
@@ -8659,15 +9140,15 @@
       <c r="E211" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F211" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G211" s="43"/>
+      <c r="F211" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G211" s="41"/>
       <c r="H211" s="8"/>
     </row>
     <row r="212" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="59"/>
-      <c r="B212" s="45" t="s">
+      <c r="A212" s="68"/>
+      <c r="B212" s="43" t="s">
         <v>722</v>
       </c>
       <c r="C212" s="14" t="s">
@@ -8679,15 +9160,15 @@
       <c r="E212" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F212" s="46" t="s">
+      <c r="F212" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G212" s="43"/>
+      <c r="G212" s="41"/>
       <c r="H212" s="8"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="59"/>
-      <c r="B213" s="45" t="s">
+      <c r="A213" s="68"/>
+      <c r="B213" s="43" t="s">
         <v>723</v>
       </c>
       <c r="C213" s="14" t="s">
@@ -8699,15 +9180,15 @@
       <c r="E213" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F213" s="46" t="s">
+      <c r="F213" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G213" s="43"/>
+      <c r="G213" s="41"/>
       <c r="H213" s="8"/>
     </row>
     <row r="214" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="60"/>
-      <c r="B214" s="54" t="s">
+      <c r="A214" s="69"/>
+      <c r="B214" s="52" t="s">
         <v>724</v>
       </c>
       <c r="C214" s="16" t="s">
@@ -8716,20 +9197,20 @@
       <c r="D214" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E214" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="F214" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G214" s="43"/>
+      <c r="E214" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F214" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G214" s="41"/>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="58" t="s">
+    <row r="215" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="B215" s="51" t="s">
+      <c r="B215" s="49" t="s">
         <v>725</v>
       </c>
       <c r="C215" s="11" t="s">
@@ -8738,16 +9219,16 @@
       <c r="D215" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="E215" s="52" t="s">
+      <c r="E215" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F215" s="53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="59"/>
-      <c r="B216" s="45" t="s">
+      <c r="F215" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="68"/>
+      <c r="B216" s="43" t="s">
         <v>726</v>
       </c>
       <c r="C216" s="14" t="s">
@@ -8759,13 +9240,13 @@
       <c r="E216" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F216" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A217" s="59"/>
-      <c r="B217" s="45" t="s">
+      <c r="F216" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="68"/>
+      <c r="B217" s="43" t="s">
         <v>727</v>
       </c>
       <c r="C217" s="14" t="s">
@@ -8777,13 +9258,13 @@
       <c r="E217" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F217" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="59"/>
-      <c r="B218" s="45" t="s">
+      <c r="F217" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="68"/>
+      <c r="B218" s="43" t="s">
         <v>728</v>
       </c>
       <c r="C218" s="14" t="s">
@@ -8795,13 +9276,13 @@
       <c r="E218" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F218" s="46" t="s">
-        <v>44</v>
+      <c r="F218" s="47" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="59"/>
-      <c r="B219" s="45" t="s">
+      <c r="A219" s="68"/>
+      <c r="B219" s="43" t="s">
         <v>729</v>
       </c>
       <c r="C219" s="14" t="s">
@@ -8813,13 +9294,13 @@
       <c r="E219" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F219" s="46" t="s">
+      <c r="F219" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="59"/>
-      <c r="B220" s="45" t="s">
+    <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="68"/>
+      <c r="B220" s="43" t="s">
         <v>730</v>
       </c>
       <c r="C220" s="14" t="s">
@@ -8831,13 +9312,13 @@
       <c r="E220" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F220" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="59"/>
-      <c r="B221" s="45" t="s">
+      <c r="F220" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="68"/>
+      <c r="B221" s="43" t="s">
         <v>731</v>
       </c>
       <c r="C221" s="14" t="s">
@@ -8849,13 +9330,13 @@
       <c r="E221" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F221" s="46" t="s">
-        <v>44</v>
+      <c r="F221" s="47" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="59"/>
-      <c r="B222" s="45" t="s">
+      <c r="A222" s="68"/>
+      <c r="B222" s="43" t="s">
         <v>732</v>
       </c>
       <c r="C222" s="14" t="s">
@@ -8867,13 +9348,13 @@
       <c r="E222" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F222" s="46" t="s">
+      <c r="F222" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="59"/>
-      <c r="B223" s="45" t="s">
+    <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="68"/>
+      <c r="B223" s="43" t="s">
         <v>733</v>
       </c>
       <c r="C223" s="14" t="s">
@@ -8885,13 +9366,13 @@
       <c r="E223" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F223" s="46" t="s">
-        <v>44</v>
+      <c r="F223" s="47" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="59"/>
-      <c r="B224" s="45" t="s">
+      <c r="A224" s="68"/>
+      <c r="B224" s="43" t="s">
         <v>734</v>
       </c>
       <c r="C224" s="14" t="s">
@@ -8903,13 +9384,13 @@
       <c r="E224" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F224" s="46" t="s">
+      <c r="F224" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="59"/>
-      <c r="B225" s="45" t="s">
+      <c r="A225" s="68"/>
+      <c r="B225" s="43" t="s">
         <v>735</v>
       </c>
       <c r="C225" s="14" t="s">
@@ -8921,13 +9402,13 @@
       <c r="E225" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F225" s="46" t="s">
+      <c r="F225" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A226" s="59"/>
-      <c r="B226" s="45" t="s">
+      <c r="A226" s="68"/>
+      <c r="B226" s="43" t="s">
         <v>736</v>
       </c>
       <c r="C226" s="14" t="s">
@@ -8939,13 +9420,13 @@
       <c r="E226" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F226" s="46" t="s">
+      <c r="F226" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A227" s="59"/>
-      <c r="B227" s="45" t="s">
+      <c r="A227" s="68"/>
+      <c r="B227" s="43" t="s">
         <v>737</v>
       </c>
       <c r="C227" s="14" t="s">
@@ -8957,13 +9438,13 @@
       <c r="E227" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F227" s="46" t="s">
+      <c r="F227" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A228" s="59"/>
-      <c r="B228" s="45" t="s">
+      <c r="A228" s="68"/>
+      <c r="B228" s="43" t="s">
         <v>738</v>
       </c>
       <c r="C228" s="14" t="s">
@@ -8975,13 +9456,13 @@
       <c r="E228" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F228" s="46" t="s">
+      <c r="F228" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A229" s="59"/>
-      <c r="B229" s="45" t="s">
+      <c r="A229" s="68"/>
+      <c r="B229" s="43" t="s">
         <v>739</v>
       </c>
       <c r="C229" s="14" t="s">
@@ -8993,13 +9474,13 @@
       <c r="E229" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F229" s="46" t="s">
+      <c r="F229" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A230" s="59"/>
-      <c r="B230" s="45" t="s">
+    <row r="230" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="68"/>
+      <c r="B230" s="43" t="s">
         <v>740</v>
       </c>
       <c r="C230" s="14" t="s">
@@ -9011,13 +9492,13 @@
       <c r="E230" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F230" s="46" t="s">
-        <v>44</v>
+      <c r="F230" s="47" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A231" s="59"/>
-      <c r="B231" s="45" t="s">
+      <c r="A231" s="68"/>
+      <c r="B231" s="43" t="s">
         <v>741</v>
       </c>
       <c r="C231" s="14" t="s">
@@ -9029,13 +9510,13 @@
       <c r="E231" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F231" s="46" t="s">
+      <c r="F231" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A232" s="59"/>
-      <c r="B232" s="45" t="s">
+      <c r="A232" s="68"/>
+      <c r="B232" s="43" t="s">
         <v>742</v>
       </c>
       <c r="C232" s="14" t="s">
@@ -9047,13 +9528,13 @@
       <c r="E232" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F232" s="46" t="s">
+      <c r="F232" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A233" s="59"/>
-      <c r="B233" s="45" t="s">
+      <c r="A233" s="68"/>
+      <c r="B233" s="43" t="s">
         <v>743</v>
       </c>
       <c r="C233" s="14" t="s">
@@ -9065,13 +9546,13 @@
       <c r="E233" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F233" s="46" t="s">
+      <c r="F233" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A234" s="59"/>
-      <c r="B234" s="45" t="s">
+      <c r="A234" s="68"/>
+      <c r="B234" s="43" t="s">
         <v>744</v>
       </c>
       <c r="C234" s="14" t="s">
@@ -9083,13 +9564,13 @@
       <c r="E234" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F234" s="46" t="s">
+      <c r="F234" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="59"/>
-      <c r="B235" s="45" t="s">
+      <c r="A235" s="68"/>
+      <c r="B235" s="43" t="s">
         <v>745</v>
       </c>
       <c r="C235" s="14" t="s">
@@ -9101,13 +9582,13 @@
       <c r="E235" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F235" s="46" t="s">
+      <c r="F235" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A236" s="59"/>
-      <c r="B236" s="45" t="s">
+      <c r="A236" s="68"/>
+      <c r="B236" s="43" t="s">
         <v>746</v>
       </c>
       <c r="C236" s="14" t="s">
@@ -9119,13 +9600,13 @@
       <c r="E236" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F236" s="46" t="s">
+      <c r="F236" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A237" s="59"/>
-      <c r="B237" s="45" t="s">
+      <c r="A237" s="68"/>
+      <c r="B237" s="43" t="s">
         <v>747</v>
       </c>
       <c r="C237" s="14" t="s">
@@ -9137,13 +9618,13 @@
       <c r="E237" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F237" s="46" t="s">
+      <c r="F237" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="59"/>
-      <c r="B238" s="45" t="s">
+      <c r="A238" s="68"/>
+      <c r="B238" s="43" t="s">
         <v>748</v>
       </c>
       <c r="C238" s="14" t="s">
@@ -9155,13 +9636,13 @@
       <c r="E238" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F238" s="46" t="s">
+      <c r="F238" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="59"/>
-      <c r="B239" s="45" t="s">
+      <c r="A239" s="68"/>
+      <c r="B239" s="43" t="s">
         <v>749</v>
       </c>
       <c r="C239" s="14" t="s">
@@ -9173,13 +9654,13 @@
       <c r="E239" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F239" s="46" t="s">
+      <c r="F239" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="59"/>
-      <c r="B240" s="45" t="s">
+      <c r="A240" s="68"/>
+      <c r="B240" s="43" t="s">
         <v>750</v>
       </c>
       <c r="C240" s="14" t="s">
@@ -9191,13 +9672,13 @@
       <c r="E240" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F240" s="46" t="s">
+      <c r="F240" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="59"/>
-      <c r="B241" s="45" t="s">
+      <c r="A241" s="68"/>
+      <c r="B241" s="43" t="s">
         <v>751</v>
       </c>
       <c r="C241" s="14" t="s">
@@ -9209,13 +9690,13 @@
       <c r="E241" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F241" s="46" t="s">
+      <c r="F241" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A242" s="59"/>
-      <c r="B242" s="45" t="s">
+      <c r="A242" s="68"/>
+      <c r="B242" s="43" t="s">
         <v>752</v>
       </c>
       <c r="C242" s="14" t="s">
@@ -9227,13 +9708,13 @@
       <c r="E242" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F242" s="46" t="s">
+      <c r="F242" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="59"/>
-      <c r="B243" s="45" t="s">
+    <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="68"/>
+      <c r="B243" s="43" t="s">
         <v>753</v>
       </c>
       <c r="C243" s="14" t="s">
@@ -9245,13 +9726,13 @@
       <c r="E243" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F243" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="59"/>
-      <c r="B244" s="45" t="s">
+      <c r="F243" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="68"/>
+      <c r="B244" s="43" t="s">
         <v>754</v>
       </c>
       <c r="C244" s="14" t="s">
@@ -9263,13 +9744,13 @@
       <c r="E244" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F244" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="59"/>
-      <c r="B245" s="45" t="s">
+      <c r="F244" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="68"/>
+      <c r="B245" s="43" t="s">
         <v>755</v>
       </c>
       <c r="C245" s="14" t="s">
@@ -9281,13 +9762,13 @@
       <c r="E245" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F245" s="46" t="s">
-        <v>44</v>
+      <c r="F245" s="47" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="59"/>
-      <c r="B246" s="45" t="s">
+      <c r="A246" s="68"/>
+      <c r="B246" s="43" t="s">
         <v>756</v>
       </c>
       <c r="C246" s="14" t="s">
@@ -9299,13 +9780,13 @@
       <c r="E246" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F246" s="46" t="s">
+      <c r="F246" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A247" s="59"/>
-      <c r="B247" s="45" t="s">
+      <c r="A247" s="68"/>
+      <c r="B247" s="43" t="s">
         <v>757</v>
       </c>
       <c r="C247" s="14" t="s">
@@ -9317,13 +9798,13 @@
       <c r="E247" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F247" s="46" t="s">
+      <c r="F247" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="59"/>
-      <c r="B248" s="45" t="s">
+      <c r="A248" s="68"/>
+      <c r="B248" s="43" t="s">
         <v>758</v>
       </c>
       <c r="C248" s="14" t="s">
@@ -9335,13 +9816,13 @@
       <c r="E248" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F248" s="46" t="s">
+      <c r="F248" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="59"/>
-      <c r="B249" s="45" t="s">
+      <c r="A249" s="68"/>
+      <c r="B249" s="43" t="s">
         <v>759</v>
       </c>
       <c r="C249" s="14" t="s">
@@ -9353,13 +9834,13 @@
       <c r="E249" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F249" s="46" t="s">
+      <c r="F249" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A250" s="59"/>
-      <c r="B250" s="45" t="s">
+      <c r="A250" s="68"/>
+      <c r="B250" s="43" t="s">
         <v>760</v>
       </c>
       <c r="C250" s="14" t="s">
@@ -9371,13 +9852,13 @@
       <c r="E250" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F250" s="46" t="s">
+      <c r="F250" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="59"/>
-      <c r="B251" s="45" t="s">
+      <c r="A251" s="68"/>
+      <c r="B251" s="43" t="s">
         <v>761</v>
       </c>
       <c r="C251" s="14" t="s">
@@ -9389,13 +9870,13 @@
       <c r="E251" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F251" s="46" t="s">
+      <c r="F251" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A252" s="59"/>
-      <c r="B252" s="45" t="s">
+      <c r="A252" s="68"/>
+      <c r="B252" s="43" t="s">
         <v>762</v>
       </c>
       <c r="C252" s="14" t="s">
@@ -9407,13 +9888,13 @@
       <c r="E252" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F252" s="46" t="s">
+      <c r="F252" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="60"/>
-      <c r="B253" s="54" t="s">
+      <c r="A253" s="73"/>
+      <c r="B253" s="52" t="s">
         <v>763</v>
       </c>
       <c r="C253" s="16" t="s">
@@ -9422,1775 +9903,1896 @@
       <c r="D253" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="E253" s="48" t="s">
+      <c r="E253" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="F253" s="49" t="s">
+      <c r="F253" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="58" t="s">
+    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="73"/>
+      <c r="B254" s="57" t="s">
+        <v>889</v>
+      </c>
+      <c r="C254" s="80" t="s">
+        <v>891</v>
+      </c>
+      <c r="D254" s="81" t="s">
+        <v>892</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F254" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="69"/>
+      <c r="B255" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C255" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="D255" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F255" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="B254" s="51" t="s">
+      <c r="B256" s="49" t="s">
         <v>764</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="C256" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D254" s="12" t="s">
+      <c r="D256" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="E254" s="52" t="s">
+      <c r="E256" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F254" s="53" t="s">
+      <c r="F256" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="G254" s="43"/>
-      <c r="H254" s="8"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="59"/>
-      <c r="B255" s="45" t="s">
+      <c r="G256" s="41"/>
+      <c r="H256" s="8"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="68"/>
+      <c r="B257" s="43" t="s">
         <v>765</v>
       </c>
-      <c r="C255" s="14" t="s">
+      <c r="C257" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D255" s="15" t="s">
+      <c r="D257" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E255" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F255" s="46" t="s">
+      <c r="E257" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F257" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G255" s="43"/>
-      <c r="H255" s="8"/>
-    </row>
-    <row r="256" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A256" s="59"/>
-      <c r="B256" s="45" t="s">
+      <c r="G257" s="41"/>
+      <c r="H257" s="8"/>
+    </row>
+    <row r="258" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A258" s="68"/>
+      <c r="B258" s="43" t="s">
         <v>766</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="C258" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="D256" s="15" t="s">
+      <c r="D258" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E256" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F256" s="46" t="s">
+      <c r="E258" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F258" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G256" s="43"/>
-      <c r="H256" s="8"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="59"/>
-      <c r="B257" s="45" t="s">
+      <c r="G258" s="41"/>
+      <c r="H258" s="8"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="68"/>
+      <c r="B259" s="43" t="s">
         <v>767</v>
       </c>
-      <c r="C257" s="14" t="s">
+      <c r="C259" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="D257" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E257" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F257" s="46" t="s">
+      <c r="E259" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F259" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G257" s="43"/>
-      <c r="H257" s="8"/>
-    </row>
-    <row r="258" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A258" s="59"/>
-      <c r="B258" s="45" t="s">
+      <c r="G259" s="41"/>
+      <c r="H259" s="8"/>
+    </row>
+    <row r="260" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A260" s="68"/>
+      <c r="B260" s="43" t="s">
         <v>768</v>
       </c>
-      <c r="C258" s="14" t="s">
+      <c r="C260" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="D258" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="E258" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F258" s="46" t="s">
+      <c r="E260" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F260" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G258" s="43"/>
-      <c r="H258" s="8"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="59"/>
-      <c r="B259" s="45" t="s">
+      <c r="G260" s="41"/>
+      <c r="H260" s="8"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="68"/>
+      <c r="B261" s="43" t="s">
         <v>769</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="C261" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="D261" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="E259" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F259" s="46" t="s">
+      <c r="E261" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F261" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G259" s="43"/>
-      <c r="H259" s="8"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="59"/>
-      <c r="B260" s="45" t="s">
+      <c r="G261" s="41"/>
+      <c r="H261" s="8"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="68"/>
+      <c r="B262" s="43" t="s">
         <v>770</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="C262" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="D262" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E260" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F260" s="46" t="s">
+      <c r="E262" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F262" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G260" s="43"/>
-      <c r="H260" s="8"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="59"/>
-      <c r="B261" s="45" t="s">
+      <c r="G262" s="41"/>
+      <c r="H262" s="8"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="68"/>
+      <c r="B263" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="C261" s="14" t="s">
+      <c r="C263" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="D263" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="E261" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F261" s="46" t="s">
+      <c r="E263" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F263" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G261" s="43"/>
-      <c r="H261" s="8"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="59"/>
-      <c r="B262" s="45" t="s">
+      <c r="G263" s="41"/>
+      <c r="H263" s="8"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="68"/>
+      <c r="B264" s="43" t="s">
         <v>772</v>
       </c>
-      <c r="C262" s="14" t="s">
+      <c r="C264" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D262" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="E262" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F262" s="46" t="s">
+      <c r="E264" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F264" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G262" s="43"/>
-      <c r="H262" s="8"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="59"/>
-      <c r="B263" s="45" t="s">
+      <c r="G264" s="41"/>
+      <c r="H264" s="8"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="68"/>
+      <c r="B265" s="43" t="s">
         <v>773</v>
       </c>
-      <c r="C263" s="14" t="s">
+      <c r="C265" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E263" s="13" t="s">
+      <c r="E265" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F263" s="46" t="s">
+      <c r="F265" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G263" s="43"/>
-      <c r="H263" s="8"/>
-    </row>
-    <row r="264" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A264" s="59"/>
-      <c r="B264" s="45" t="s">
+      <c r="G265" s="41"/>
+      <c r="H265" s="8"/>
+    </row>
+    <row r="266" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A266" s="68"/>
+      <c r="B266" s="43" t="s">
         <v>774</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="C266" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="D264" s="15" t="s">
+      <c r="D266" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="E264" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F264" s="46" t="s">
+      <c r="E266" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F266" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G264" s="43"/>
-      <c r="H264" s="8"/>
-    </row>
-    <row r="265" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="59"/>
-      <c r="B265" s="45" t="s">
+      <c r="G266" s="41"/>
+      <c r="H266" s="8"/>
+    </row>
+    <row r="267" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A267" s="68"/>
+      <c r="B267" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="C265" s="14" t="s">
+      <c r="C267" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="D267" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="E265" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F265" s="46" t="s">
+      <c r="E267" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F267" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G265" s="43"/>
-      <c r="H265" s="8"/>
-    </row>
-    <row r="266" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A266" s="59"/>
-      <c r="B266" s="45" t="s">
+      <c r="G267" s="41"/>
+      <c r="H267" s="8"/>
+    </row>
+    <row r="268" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A268" s="68"/>
+      <c r="B268" s="43" t="s">
         <v>776</v>
       </c>
-      <c r="C266" s="14" t="s">
+      <c r="C268" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="D268" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="E266" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F266" s="46" t="s">
+      <c r="E268" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F268" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G266" s="43"/>
-      <c r="H266" s="8"/>
-    </row>
-    <row r="267" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A267" s="59"/>
-      <c r="B267" s="45" t="s">
+      <c r="G268" s="41"/>
+      <c r="H268" s="8"/>
+    </row>
+    <row r="269" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A269" s="68"/>
+      <c r="B269" s="43" t="s">
         <v>777</v>
       </c>
-      <c r="C267" s="14" t="s">
+      <c r="C269" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D267" s="15" t="s">
+      <c r="D269" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="E267" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F267" s="46" t="s">
+      <c r="E269" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F269" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G267" s="43"/>
-      <c r="H267" s="8"/>
-    </row>
-    <row r="268" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A268" s="59"/>
-      <c r="B268" s="45" t="s">
+      <c r="G269" s="41"/>
+      <c r="H269" s="8"/>
+    </row>
+    <row r="270" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A270" s="68"/>
+      <c r="B270" s="43" t="s">
         <v>778</v>
       </c>
-      <c r="C268" s="14" t="s">
+      <c r="C270" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="D268" s="15" t="s">
+      <c r="D270" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="E268" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F268" s="46" t="s">
+      <c r="E270" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F270" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G268" s="43"/>
-      <c r="H268" s="8"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="59"/>
-      <c r="B269" s="45" t="s">
+      <c r="G270" s="41"/>
+      <c r="H270" s="8"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="68"/>
+      <c r="B271" s="43" t="s">
         <v>779</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="C271" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D269" s="15" t="s">
+      <c r="D271" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="E269" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F269" s="46" t="s">
+      <c r="E271" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F271" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G269" s="43"/>
-      <c r="H269" s="8"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="59"/>
-      <c r="B270" s="45" t="s">
+      <c r="G271" s="41"/>
+      <c r="H271" s="8"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="68"/>
+      <c r="B272" s="43" t="s">
         <v>780</v>
       </c>
-      <c r="C270" s="14" t="s">
+      <c r="C272" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="D270" s="15" t="s">
+      <c r="D272" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="E270" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F270" s="46" t="s">
+      <c r="E272" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F272" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G270" s="43"/>
-      <c r="H270" s="8"/>
-    </row>
-    <row r="271" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A271" s="59"/>
-      <c r="B271" s="45" t="s">
+      <c r="G272" s="41"/>
+      <c r="H272" s="8"/>
+    </row>
+    <row r="273" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A273" s="68"/>
+      <c r="B273" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="C273" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D271" s="15" t="s">
+      <c r="D273" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E271" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F271" s="46" t="s">
+      <c r="E273" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F273" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G271" s="43"/>
-      <c r="H271" s="8"/>
-    </row>
-    <row r="272" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A272" s="59"/>
-      <c r="B272" s="45" t="s">
+      <c r="G273" s="41"/>
+      <c r="H273" s="8"/>
+    </row>
+    <row r="274" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A274" s="68"/>
+      <c r="B274" s="43" t="s">
         <v>782</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C274" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D272" s="15" t="s">
+      <c r="D274" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E272" s="13" t="s">
+      <c r="E274" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F272" s="46" t="s">
+      <c r="F274" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G272" s="43"/>
-      <c r="H272" s="8"/>
-    </row>
-    <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="60"/>
-      <c r="B273" s="54" t="s">
+      <c r="G274" s="41"/>
+      <c r="H274" s="8"/>
+    </row>
+    <row r="275" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="69"/>
+      <c r="B275" s="52" t="s">
         <v>783</v>
       </c>
-      <c r="C273" s="16" t="s">
+      <c r="C275" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D273" s="17" t="s">
+      <c r="D275" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="E273" s="48" t="s">
+      <c r="E275" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="F273" s="49" t="s">
+      <c r="F275" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G273" s="43"/>
-      <c r="H273" s="8"/>
-    </row>
-    <row r="274" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="58" t="s">
+      <c r="G275" s="41"/>
+      <c r="H275" s="8"/>
+    </row>
+    <row r="276" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A276" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="B274" s="51" t="s">
+      <c r="B276" s="49" t="s">
         <v>784</v>
       </c>
-      <c r="C274" s="11" t="s">
+      <c r="C276" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D274" s="12" t="s">
+      <c r="D276" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="E274" s="52" t="s">
+      <c r="E276" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F274" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G274" s="43"/>
-      <c r="H274" s="8"/>
-    </row>
-    <row r="275" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A275" s="59"/>
-      <c r="B275" s="45" t="s">
+      <c r="F276" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G276" s="41"/>
+      <c r="H276" s="8"/>
+    </row>
+    <row r="277" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A277" s="68"/>
+      <c r="B277" s="43" t="s">
         <v>785</v>
       </c>
-      <c r="C275" s="14" t="s">
+      <c r="C277" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="D275" s="15" t="s">
+      <c r="D277" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="E275" s="13" t="s">
+      <c r="E277" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F275" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G275" s="43"/>
-      <c r="H275" s="8"/>
-    </row>
-    <row r="276" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A276" s="59"/>
-      <c r="B276" s="45" t="s">
+      <c r="F277" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G277" s="41"/>
+      <c r="H277" s="8"/>
+    </row>
+    <row r="278" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A278" s="68"/>
+      <c r="B278" s="43" t="s">
         <v>786</v>
       </c>
-      <c r="C276" s="14" t="s">
+      <c r="C278" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="D276" s="15" t="s">
+      <c r="D278" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E276" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F276" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G276" s="43"/>
-      <c r="H276" s="8"/>
-    </row>
-    <row r="277" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A277" s="59"/>
-      <c r="B277" s="45" t="s">
+      <c r="E278" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F278" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G278" s="41"/>
+      <c r="H278" s="8"/>
+    </row>
+    <row r="279" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A279" s="68"/>
+      <c r="B279" s="43" t="s">
         <v>787</v>
       </c>
-      <c r="C277" s="14" t="s">
+      <c r="C279" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="D277" s="15" t="s">
+      <c r="D279" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E277" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F277" s="46" t="s">
+      <c r="E279" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F279" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G277" s="43"/>
-      <c r="H277" s="8"/>
-    </row>
-    <row r="278" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="59"/>
-      <c r="B278" s="45" t="s">
+      <c r="G279" s="41"/>
+      <c r="H279" s="8"/>
+    </row>
+    <row r="280" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="68"/>
+      <c r="B280" s="43" t="s">
         <v>788</v>
       </c>
-      <c r="C278" s="14" t="s">
+      <c r="C280" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="D278" s="15" t="s">
+      <c r="D280" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="E278" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F278" s="46" t="s">
+      <c r="E280" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F280" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G278" s="43"/>
-      <c r="H278" s="8"/>
-    </row>
-    <row r="279" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A279" s="59"/>
-      <c r="B279" s="45" t="s">
+      <c r="G280" s="41"/>
+      <c r="H280" s="8"/>
+    </row>
+    <row r="281" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A281" s="68"/>
+      <c r="B281" s="43" t="s">
         <v>789</v>
       </c>
-      <c r="C279" s="14" t="s">
+      <c r="C281" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D279" s="15" t="s">
+      <c r="D281" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="E279" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F279" s="46" t="s">
+      <c r="E281" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F281" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G279" s="43"/>
-      <c r="H279" s="8"/>
-    </row>
-    <row r="280" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="60"/>
-      <c r="B280" s="54" t="s">
+      <c r="G281" s="41"/>
+      <c r="H281" s="8"/>
+    </row>
+    <row r="282" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="69"/>
+      <c r="B282" s="52" t="s">
         <v>790</v>
       </c>
-      <c r="C280" s="16" t="s">
+      <c r="C282" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D280" s="17" t="s">
+      <c r="D282" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="E280" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="F280" s="49" t="s">
+      <c r="E282" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F282" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G280" s="43"/>
-      <c r="H280" s="8"/>
-    </row>
-    <row r="281" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A281" s="58" t="s">
+      <c r="G282" s="41"/>
+      <c r="H282" s="8"/>
+    </row>
+    <row r="283" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A283" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="B281" s="51" t="s">
+      <c r="B283" s="49" t="s">
         <v>791</v>
       </c>
-      <c r="C281" s="11" t="s">
+      <c r="C283" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D281" s="12" t="s">
+      <c r="D283" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="E281" s="52" t="s">
+      <c r="E283" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="F281" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G281" s="43"/>
-      <c r="H281" s="8"/>
-    </row>
-    <row r="282" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A282" s="59"/>
-      <c r="B282" s="45" t="s">
+      <c r="F283" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G283" s="41"/>
+      <c r="H283" s="8"/>
+    </row>
+    <row r="284" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A284" s="68"/>
+      <c r="B284" s="43" t="s">
         <v>794</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="C284" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="D282" s="15" t="s">
+      <c r="D284" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="E282" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F282" s="46" t="s">
+      <c r="E284" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F284" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G282" s="43"/>
-      <c r="H282" s="8"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="59"/>
-      <c r="B283" s="45" t="s">
+      <c r="G284" s="41"/>
+      <c r="H284" s="8"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="68"/>
+      <c r="B285" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="C283" s="14" t="s">
+      <c r="C285" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="D283" s="15" t="s">
+      <c r="D285" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="E283" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F283" s="46" t="s">
+      <c r="E285" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F285" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G283" s="43"/>
-      <c r="H283" s="8"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="59"/>
-      <c r="B284" s="45" t="s">
+      <c r="G285" s="41"/>
+      <c r="H285" s="8"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="68"/>
+      <c r="B286" s="43" t="s">
         <v>796</v>
       </c>
-      <c r="C284" s="14" t="s">
+      <c r="C286" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="D284" s="15" t="s">
+      <c r="D286" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E284" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F284" s="46" t="s">
+      <c r="E286" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F286" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G284" s="43"/>
-      <c r="H284" s="8"/>
-    </row>
-    <row r="285" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A285" s="59"/>
-      <c r="B285" s="45" t="s">
+      <c r="G286" s="41"/>
+      <c r="H286" s="8"/>
+    </row>
+    <row r="287" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A287" s="68"/>
+      <c r="B287" s="43" t="s">
         <v>797</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C287" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D285" s="15" t="s">
+      <c r="D287" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E285" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F285" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G285" s="43"/>
-      <c r="H285" s="8"/>
-    </row>
-    <row r="286" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A286" s="59"/>
-      <c r="B286" s="45" t="s">
+      <c r="E287" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F287" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G287" s="41"/>
+      <c r="H287" s="8"/>
+    </row>
+    <row r="288" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A288" s="68"/>
+      <c r="B288" s="43" t="s">
         <v>798</v>
       </c>
-      <c r="C286" s="14" t="s">
+      <c r="C288" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="D286" s="15" t="s">
+      <c r="D288" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="E286" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F286" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G286" s="43"/>
-      <c r="H286" s="8"/>
-    </row>
-    <row r="287" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="59"/>
-      <c r="B287" s="45" t="s">
+      <c r="E288" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F288" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G288" s="41"/>
+      <c r="H288" s="8"/>
+    </row>
+    <row r="289" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="68"/>
+      <c r="B289" s="43" t="s">
         <v>793</v>
       </c>
-      <c r="C287" s="14" t="s">
+      <c r="C289" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="D287" s="15" t="s">
+      <c r="D289" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="E287" s="13" t="s">
+      <c r="E289" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F287" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G287" s="43"/>
-      <c r="H287" s="8"/>
-    </row>
-    <row r="288" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A288" s="59"/>
-      <c r="B288" s="45" t="s">
+      <c r="F289" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G289" s="41"/>
+      <c r="H289" s="8"/>
+    </row>
+    <row r="290" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A290" s="68"/>
+      <c r="B290" s="43" t="s">
         <v>799</v>
       </c>
-      <c r="C288" s="14" t="s">
+      <c r="C290" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D290" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="E288" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F288" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G288" s="43"/>
-      <c r="H288" s="8"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="59"/>
-      <c r="B289" s="45" t="s">
+      <c r="E290" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F290" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G290" s="41"/>
+      <c r="H290" s="8"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="68"/>
+      <c r="B291" s="43" t="s">
         <v>800</v>
       </c>
-      <c r="C289" s="14" t="s">
+      <c r="C291" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="D289" s="15" t="s">
+      <c r="D291" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="E289" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F289" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G289" s="43"/>
-      <c r="H289" s="8"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="59"/>
-      <c r="B290" s="45" t="s">
+      <c r="E291" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F291" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G291" s="41"/>
+      <c r="H291" s="8"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="68"/>
+      <c r="B292" s="43" t="s">
         <v>801</v>
       </c>
-      <c r="C290" s="14" t="s">
+      <c r="C292" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="D290" s="15" t="s">
+      <c r="D292" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="E290" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F290" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G290" s="43"/>
-      <c r="H290" s="8"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="59"/>
-      <c r="B291" s="45" t="s">
+      <c r="E292" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F292" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G292" s="41"/>
+      <c r="H292" s="8"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="68"/>
+      <c r="B293" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="C291" s="14" t="s">
+      <c r="C293" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D291" s="15" t="s">
+      <c r="D293" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="E291" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F291" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G291" s="43"/>
-      <c r="H291" s="8"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="59"/>
-      <c r="B292" s="45" t="s">
+      <c r="E293" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F293" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G293" s="41"/>
+      <c r="H293" s="8"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="68"/>
+      <c r="B294" s="43" t="s">
         <v>803</v>
       </c>
-      <c r="C292" s="14" t="s">
+      <c r="C294" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D292" s="15" t="s">
+      <c r="D294" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="E292" s="13" t="s">
+      <c r="E294" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F292" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G292" s="43"/>
-      <c r="H292" s="8"/>
-    </row>
-    <row r="293" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="59"/>
-      <c r="B293" s="45" t="s">
-        <v>792</v>
-      </c>
-      <c r="C293" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="D293" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="E293" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="F293" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G293" s="43"/>
-      <c r="H293" s="8"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="59"/>
-      <c r="B294" s="45" t="s">
-        <v>804</v>
-      </c>
-      <c r="C294" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D294" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="E294" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F294" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G294" s="43"/>
+      <c r="F294" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G294" s="41"/>
       <c r="H294" s="8"/>
     </row>
-    <row r="295" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A295" s="59"/>
-      <c r="B295" s="45" t="s">
-        <v>805</v>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="68"/>
+      <c r="B295" s="57" t="s">
+        <v>879</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>394</v>
+        <v>880</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>395</v>
+        <v>881</v>
       </c>
       <c r="E295" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F295" s="46" t="s">
+      <c r="F295" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G295" s="41"/>
+      <c r="H295" s="8"/>
+    </row>
+    <row r="296" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="68"/>
+      <c r="B296" s="43" t="s">
+        <v>792</v>
+      </c>
+      <c r="C296" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D296" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E296" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F296" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G296" s="41"/>
+      <c r="H296" s="8"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="68"/>
+      <c r="B297" s="43" t="s">
+        <v>804</v>
+      </c>
+      <c r="C297" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D297" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E297" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F297" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G297" s="41"/>
+      <c r="H297" s="8"/>
+    </row>
+    <row r="298" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A298" s="68"/>
+      <c r="B298" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="C298" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D298" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F298" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G295" s="43"/>
-      <c r="H295" s="8"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="59"/>
-      <c r="B296" s="45" t="s">
+      <c r="G298" s="41"/>
+      <c r="H298" s="8"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="68"/>
+      <c r="B299" s="43" t="s">
         <v>806</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C299" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="D296" s="15" t="s">
+      <c r="D299" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E296" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F296" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G296" s="43"/>
-      <c r="H296" s="8"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="59"/>
-      <c r="B297" s="45" t="s">
+      <c r="E299" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F299" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G299" s="41"/>
+      <c r="H299" s="8"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="68"/>
+      <c r="B300" s="43" t="s">
         <v>807</v>
       </c>
-      <c r="C297" s="14" t="s">
+      <c r="C300" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="D297" s="15" t="s">
+      <c r="D300" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="E297" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F297" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G297" s="43"/>
-      <c r="H297" s="8"/>
-    </row>
-    <row r="298" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A298" s="59"/>
-      <c r="B298" s="45" t="s">
+      <c r="E300" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F300" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G300" s="41"/>
+      <c r="H300" s="8"/>
+    </row>
+    <row r="301" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A301" s="68"/>
+      <c r="B301" s="43" t="s">
         <v>808</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="C301" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="D298" s="15" t="s">
+      <c r="D301" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E298" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F298" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G298" s="43"/>
-      <c r="H298" s="8"/>
-    </row>
-    <row r="299" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A299" s="59"/>
-      <c r="B299" s="45" t="s">
+      <c r="E301" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F301" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G301" s="41"/>
+      <c r="H301" s="8"/>
+    </row>
+    <row r="302" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A302" s="68"/>
+      <c r="B302" s="43" t="s">
         <v>809</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="C302" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="D299" s="15" t="s">
+      <c r="D302" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="E299" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F299" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G299" s="43"/>
-      <c r="H299" s="8"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="59"/>
-      <c r="B300" s="45" t="s">
+      <c r="E302" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F302" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G302" s="41"/>
+      <c r="H302" s="8"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="68"/>
+      <c r="B303" s="43" t="s">
         <v>810</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="C303" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="D300" s="15" t="s">
+      <c r="D303" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="E300" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F300" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G300" s="43"/>
-      <c r="H300" s="8"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="59"/>
-      <c r="B301" s="45" t="s">
+      <c r="E303" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F303" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G303" s="41"/>
+      <c r="H303" s="8"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="68"/>
+      <c r="B304" s="43" t="s">
         <v>811</v>
       </c>
-      <c r="C301" s="14" t="s">
+      <c r="C304" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="D301" s="15" t="s">
+      <c r="D304" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="E301" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F301" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G301" s="43"/>
-      <c r="H301" s="8"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="59"/>
-      <c r="B302" s="45" t="s">
+      <c r="E304" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F304" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G304" s="41"/>
+      <c r="H304" s="8"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="68"/>
+      <c r="B305" s="43" t="s">
         <v>812</v>
       </c>
-      <c r="C302" s="14" t="s">
+      <c r="C305" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="D302" s="15" t="s">
+      <c r="D305" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="E302" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F302" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G302" s="43"/>
-      <c r="H302" s="8"/>
-    </row>
-    <row r="303" spans="1:8" ht="179.25" x14ac:dyDescent="0.25">
-      <c r="A303" s="59"/>
-      <c r="B303" s="45" t="s">
+      <c r="E305" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F305" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G305" s="41"/>
+      <c r="H305" s="8"/>
+    </row>
+    <row r="306" spans="1:8" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A306" s="68"/>
+      <c r="B306" s="43" t="s">
         <v>813</v>
       </c>
-      <c r="C303" s="14" t="s">
+      <c r="C306" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="D303" s="15" t="s">
+      <c r="D306" s="15" t="s">
         <v>409</v>
-      </c>
-      <c r="E303" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="F303" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G303" s="43"/>
-      <c r="H303" s="8"/>
-    </row>
-    <row r="304" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A304" s="59"/>
-      <c r="B304" s="45" t="s">
-        <v>814</v>
-      </c>
-      <c r="C304" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D304" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="F304" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G304" s="43"/>
-      <c r="H304" s="8"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="59"/>
-      <c r="B305" s="45" t="s">
-        <v>815</v>
-      </c>
-      <c r="C305" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D305" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="F305" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G305" s="43"/>
-      <c r="H305" s="8"/>
-    </row>
-    <row r="306" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A306" s="59"/>
-      <c r="B306" s="45" t="s">
-        <v>816</v>
-      </c>
-      <c r="C306" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D306" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="E306" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F306" s="46" t="s">
+      <c r="F306" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G306" s="43"/>
+      <c r="G306" s="41"/>
       <c r="H306" s="8"/>
     </row>
     <row r="307" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A307" s="59"/>
-      <c r="B307" s="45" t="s">
-        <v>817</v>
+      <c r="A307" s="68"/>
+      <c r="B307" s="43" t="s">
+        <v>814</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>248</v>
+        <v>58</v>
       </c>
       <c r="E307" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F307" s="46" t="s">
+      <c r="F307" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G307" s="43"/>
+      <c r="G307" s="41"/>
       <c r="H307" s="8"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="59"/>
-      <c r="B308" s="45" t="s">
-        <v>818</v>
+      <c r="A308" s="68"/>
+      <c r="B308" s="43" t="s">
+        <v>815</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>410</v>
+        <v>59</v>
       </c>
       <c r="D308" s="15" t="s">
-        <v>411</v>
+        <v>60</v>
       </c>
       <c r="E308" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F308" s="46" t="s">
+      <c r="F308" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G308" s="43"/>
+      <c r="G308" s="41"/>
       <c r="H308" s="8"/>
     </row>
-    <row r="309" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A309" s="59"/>
-      <c r="B309" s="45" t="s">
-        <v>819</v>
+    <row r="309" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A309" s="68"/>
+      <c r="B309" s="43" t="s">
+        <v>816</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="E309" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F309" s="46" t="s">
+      <c r="F309" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G309" s="43"/>
+      <c r="G309" s="41"/>
       <c r="H309" s="8"/>
     </row>
-    <row r="310" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A310" s="59"/>
-      <c r="B310" s="45" t="s">
-        <v>820</v>
+    <row r="310" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A310" s="68"/>
+      <c r="B310" s="43" t="s">
+        <v>817</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>412</v>
+        <v>63</v>
       </c>
       <c r="D310" s="15" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="E310" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F310" s="46" t="s">
+      <c r="F310" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G310" s="43"/>
+      <c r="G310" s="41"/>
       <c r="H310" s="8"/>
     </row>
-    <row r="311" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A311" s="59"/>
-      <c r="B311" s="45" t="s">
-        <v>821</v>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="68"/>
+      <c r="B311" s="43" t="s">
+        <v>818</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D311" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E311" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F311" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G311" s="43"/>
+      <c r="F311" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G311" s="41"/>
       <c r="H311" s="8"/>
     </row>
     <row r="312" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A312" s="59"/>
-      <c r="B312" s="45" t="s">
-        <v>822</v>
+      <c r="A312" s="68"/>
+      <c r="B312" s="43" t="s">
+        <v>819</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>416</v>
+        <v>65</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>417</v>
+        <v>193</v>
       </c>
       <c r="E312" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F312" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G312" s="43"/>
+      <c r="F312" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G312" s="41"/>
       <c r="H312" s="8"/>
     </row>
-    <row r="313" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="59"/>
-      <c r="B313" s="45" t="s">
+    <row r="313" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A313" s="68"/>
+      <c r="B313" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D313" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E313" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F313" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G313" s="41"/>
+      <c r="H313" s="8"/>
+    </row>
+    <row r="314" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A314" s="68"/>
+      <c r="B314" s="43" t="s">
+        <v>821</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D314" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="E314" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F314" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G314" s="41"/>
+      <c r="H314" s="8"/>
+    </row>
+    <row r="315" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A315" s="68"/>
+      <c r="B315" s="43" t="s">
+        <v>822</v>
+      </c>
+      <c r="C315" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D315" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E315" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F315" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G315" s="41"/>
+      <c r="H315" s="8"/>
+    </row>
+    <row r="316" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="68"/>
+      <c r="B316" s="43" t="s">
         <v>823</v>
       </c>
-      <c r="C313" s="14" t="s">
+      <c r="C316" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="D313" s="15" t="s">
+      <c r="D316" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="E313" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F313" s="46" t="s">
+      <c r="E316" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F316" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G313" s="44"/>
-      <c r="H313" s="9"/>
-    </row>
-    <row r="314" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A314" s="59"/>
-      <c r="B314" s="45" t="s">
+      <c r="G316" s="42"/>
+      <c r="H316" s="9"/>
+    </row>
+    <row r="317" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="68"/>
+      <c r="B317" s="43" t="s">
         <v>824</v>
       </c>
-      <c r="C314" s="14" t="s">
+      <c r="C317" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="D314" s="15" t="s">
+      <c r="D317" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="E314" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F314" s="46" t="s">
+      <c r="E317" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F317" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G314" s="43"/>
-      <c r="H314" s="8"/>
-    </row>
-    <row r="315" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A315" s="59"/>
-      <c r="B315" s="45" t="s">
+      <c r="G317" s="41"/>
+      <c r="H317" s="8"/>
+    </row>
+    <row r="318" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="68"/>
+      <c r="B318" s="43" t="s">
         <v>825</v>
       </c>
-      <c r="C315" s="14" t="s">
+      <c r="C318" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="D315" s="15" t="s">
+      <c r="D318" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="E315" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F315" s="46" t="s">
+      <c r="E318" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F318" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G315" s="43"/>
-      <c r="H315" s="8"/>
-    </row>
-    <row r="316" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A316" s="59"/>
-      <c r="B316" s="45" t="s">
+      <c r="G318" s="41"/>
+      <c r="H318" s="8"/>
+    </row>
+    <row r="319" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A319" s="68"/>
+      <c r="B319" s="43" t="s">
         <v>826</v>
       </c>
-      <c r="C316" s="14" t="s">
+      <c r="C319" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="D316" s="15" t="s">
+      <c r="D319" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="E316" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F316" s="46" t="s">
+      <c r="E319" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F319" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G316" s="43"/>
-      <c r="H316" s="8"/>
-    </row>
-    <row r="317" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="60"/>
-      <c r="B317" s="54" t="s">
+      <c r="G319" s="41"/>
+      <c r="H319" s="8"/>
+    </row>
+    <row r="320" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="69"/>
+      <c r="B320" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="C317" s="16" t="s">
+      <c r="C320" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="D317" s="17" t="s">
+      <c r="D320" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="E317" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="F317" s="49" t="s">
+      <c r="E320" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F320" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="G317" s="43"/>
-      <c r="H317" s="8"/>
-    </row>
-    <row r="318" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A318" s="58" t="s">
+      <c r="G320" s="41"/>
+      <c r="H320" s="8"/>
+    </row>
+    <row r="321" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A321" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="B318" s="51" t="s">
+      <c r="B321" s="49" t="s">
         <v>828</v>
       </c>
-      <c r="C318" s="20" t="s">
+      <c r="C321" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="D318" s="21" t="s">
+      <c r="D321" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="E318" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="F318" s="53" t="s">
+      <c r="E321" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F321" s="51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A319" s="59"/>
-      <c r="B319" s="45" t="s">
+    <row r="322" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A322" s="68"/>
+      <c r="B322" s="43" t="s">
         <v>829</v>
       </c>
-      <c r="C319" s="22" t="s">
+      <c r="C322" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="D319" s="23" t="s">
+      <c r="D322" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="E319" s="13" t="s">
+      <c r="E322" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F319" s="46" t="s">
+      <c r="F322" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="59"/>
-      <c r="B320" s="45" t="s">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="68"/>
+      <c r="B323" s="43" t="s">
         <v>830</v>
       </c>
-      <c r="C320" s="22" t="s">
+      <c r="C323" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="D320" s="23" t="s">
+      <c r="D323" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="E320" s="13" t="s">
+      <c r="E323" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F320" s="46" t="s">
+      <c r="F323" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="59"/>
-      <c r="B321" s="45" t="s">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="68"/>
+      <c r="B324" s="43" t="s">
         <v>831</v>
       </c>
-      <c r="C321" s="22" t="s">
+      <c r="C324" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="D321" s="23" t="s">
+      <c r="D324" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="E321" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F321" s="46" t="s">
+      <c r="E324" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F324" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="59"/>
-      <c r="B322" s="45" t="s">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="68"/>
+      <c r="B325" s="43" t="s">
         <v>832</v>
       </c>
-      <c r="C322" s="22" t="s">
+      <c r="C325" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="D322" s="23" t="s">
+      <c r="D325" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="E322" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F322" s="46" t="s">
+      <c r="E325" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F325" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A323" s="59"/>
-      <c r="B323" s="45" t="s">
+    <row r="326" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A326" s="68"/>
+      <c r="B326" s="43" t="s">
         <v>833</v>
       </c>
-      <c r="C323" s="22" t="s">
+      <c r="C326" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="D323" s="23" t="s">
+      <c r="D326" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="E323" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F323" s="46" t="s">
+      <c r="E326" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F326" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="59"/>
-      <c r="B324" s="45" t="s">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="68"/>
+      <c r="B327" s="43" t="s">
         <v>834</v>
       </c>
-      <c r="C324" s="22" t="s">
+      <c r="C327" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="D324" s="23" t="s">
+      <c r="D327" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="E324" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F324" s="46" t="s">
+      <c r="E327" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F327" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="59"/>
-      <c r="B325" s="45" t="s">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="68"/>
+      <c r="B328" s="43" t="s">
         <v>835</v>
       </c>
-      <c r="C325" s="22" t="s">
+      <c r="C328" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="D325" s="23" t="s">
+      <c r="D328" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="E325" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F325" s="46" t="s">
+      <c r="E328" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F328" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="60"/>
-      <c r="B326" s="54" t="s">
+    <row r="329" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="69"/>
+      <c r="B329" s="52" t="s">
         <v>836</v>
       </c>
-      <c r="C326" s="24" t="s">
+      <c r="C329" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="D326" s="25" t="s">
+      <c r="D329" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="E326" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="F326" s="49" t="s">
+      <c r="E329" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F329" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A327" s="58" t="s">
+    <row r="330" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A330" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="B327" s="51" t="s">
+      <c r="B330" s="49" t="s">
         <v>837</v>
       </c>
-      <c r="C327" s="26" t="s">
+      <c r="C330" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="D327" s="27" t="s">
+      <c r="D330" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="E327" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="F327" s="53" t="s">
+      <c r="E330" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="F330" s="51" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A328" s="59"/>
-      <c r="B328" s="45" t="s">
+    <row r="331" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A331" s="68"/>
+      <c r="B331" s="43" t="s">
         <v>838</v>
       </c>
-      <c r="C328" s="28" t="s">
+      <c r="C331" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D328" s="29" t="s">
+      <c r="D331" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="E328" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F328" s="46" t="s">
+      <c r="E331" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F331" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A329" s="59"/>
-      <c r="B329" s="45" t="s">
+    <row r="332" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A332" s="68"/>
+      <c r="B332" s="43" t="s">
         <v>839</v>
       </c>
-      <c r="C329" s="28" t="s">
+      <c r="C332" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="D329" s="29" t="s">
+      <c r="D332" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="E329" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F329" s="46" t="s">
+      <c r="E332" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F332" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A330" s="59"/>
-      <c r="B330" s="45" t="s">
+    <row r="333" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A333" s="68"/>
+      <c r="B333" s="43" t="s">
         <v>840</v>
       </c>
-      <c r="C330" s="28" t="s">
+      <c r="C333" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="D330" s="29" t="s">
+      <c r="D333" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="E330" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F330" s="46" t="s">
+      <c r="E333" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F333" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A331" s="59"/>
-      <c r="B331" s="45" t="s">
+    <row r="334" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A334" s="68"/>
+      <c r="B334" s="43" t="s">
         <v>841</v>
       </c>
-      <c r="C331" s="28" t="s">
+      <c r="C334" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="D331" s="29" t="s">
+      <c r="D334" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="E331" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F331" s="46" t="s">
+      <c r="E334" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F334" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="59"/>
-      <c r="B332" s="45" t="s">
+    <row r="335" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A335" s="68"/>
+      <c r="B335" s="43" t="s">
         <v>842</v>
       </c>
-      <c r="C332" s="28" t="s">
+      <c r="C335" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="D332" s="29" t="s">
+      <c r="D335" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="E332" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F332" s="46" t="s">
+      <c r="E335" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F335" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="59"/>
-      <c r="B333" s="45" t="s">
+    <row r="336" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="68"/>
+      <c r="B336" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="C333" s="28" t="s">
+      <c r="C336" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="D333" s="29" t="s">
+      <c r="D336" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="E333" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F333" s="46" t="s">
+      <c r="E336" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F336" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A334" s="59"/>
-      <c r="B334" s="45" t="s">
+    <row r="337" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A337" s="68"/>
+      <c r="B337" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="C334" s="28" t="s">
+      <c r="C337" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="D334" s="29" t="s">
+      <c r="D337" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="E334" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F334" s="46" t="s">
+      <c r="E337" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F337" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A335" s="59"/>
-      <c r="B335" s="45" t="s">
+    <row r="338" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A338" s="68"/>
+      <c r="B338" s="43" t="s">
         <v>845</v>
       </c>
-      <c r="C335" s="28" t="s">
+      <c r="C338" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="D335" s="29" t="s">
+      <c r="D338" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="E335" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F335" s="46" t="s">
+      <c r="E338" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F338" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A336" s="59"/>
-      <c r="B336" s="45" t="s">
+    <row r="339" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A339" s="68"/>
+      <c r="B339" s="43" t="s">
         <v>846</v>
       </c>
-      <c r="C336" s="28" t="s">
+      <c r="C339" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="D336" s="29" t="s">
+      <c r="D339" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="E336" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F336" s="46" t="s">
+      <c r="E339" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F339" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A337" s="59"/>
-      <c r="B337" s="45" t="s">
+    <row r="340" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A340" s="68"/>
+      <c r="B340" s="43" t="s">
         <v>847</v>
       </c>
-      <c r="C337" s="28" t="s">
+      <c r="C340" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="D337" s="29" t="s">
+      <c r="D340" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="E337" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F337" s="46" t="s">
+      <c r="E340" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F340" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A338" s="59"/>
-      <c r="B338" s="45" t="s">
+    <row r="341" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A341" s="68"/>
+      <c r="B341" s="43" t="s">
         <v>848</v>
       </c>
-      <c r="C338" s="28" t="s">
+      <c r="C341" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="D338" s="29" t="s">
+      <c r="D341" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="E338" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F338" s="46" t="s">
+      <c r="E341" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F341" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A339" s="59"/>
-      <c r="B339" s="45" t="s">
+    <row r="342" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A342" s="68"/>
+      <c r="B342" s="43" t="s">
         <v>849</v>
       </c>
-      <c r="C339" s="28" t="s">
+      <c r="C342" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="D339" s="29" t="s">
+      <c r="D342" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="E339" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F339" s="46" t="s">
+      <c r="E342" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F342" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A340" s="59"/>
-      <c r="B340" s="45" t="s">
+    <row r="343" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A343" s="68"/>
+      <c r="B343" s="43" t="s">
         <v>850</v>
       </c>
-      <c r="C340" s="28" t="s">
+      <c r="C343" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="D340" s="29" t="s">
+      <c r="D343" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="E340" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F340" s="46" t="s">
+      <c r="E343" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F343" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A341" s="59"/>
-      <c r="B341" s="45" t="s">
+    <row r="344" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="68"/>
+      <c r="B344" s="43" t="s">
         <v>851</v>
       </c>
-      <c r="C341" s="28" t="s">
+      <c r="C344" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="D341" s="29" t="s">
+      <c r="D344" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="E341" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F341" s="46" t="s">
+      <c r="E344" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F344" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="60"/>
-      <c r="B342" s="54" t="s">
+    <row r="345" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A345" s="73"/>
+      <c r="B345" s="43" t="s">
         <v>852</v>
       </c>
-      <c r="C342" s="30" t="s">
+      <c r="C345" s="74" t="s">
         <v>477</v>
       </c>
-      <c r="D342" s="31" t="s">
+      <c r="D345" s="75" t="s">
         <v>478</v>
       </c>
-      <c r="E342" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="F342" s="49" t="s">
+      <c r="E345" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F345" s="44" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="346" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A346" s="76" t="s">
+        <v>882</v>
+      </c>
+      <c r="B346" s="77" t="s">
+        <v>883</v>
+      </c>
+      <c r="C346" s="78" t="s">
+        <v>885</v>
+      </c>
+      <c r="D346" s="77" t="s">
+        <v>886</v>
+      </c>
+      <c r="E346" s="79" t="s">
+        <v>517</v>
+      </c>
+      <c r="F346" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="76"/>
+      <c r="B347" s="77" t="s">
+        <v>884</v>
+      </c>
+      <c r="C347" s="77" t="s">
+        <v>887</v>
+      </c>
+      <c r="D347" s="77" t="s">
+        <v>888</v>
+      </c>
+      <c r="E347" s="79" t="s">
+        <v>517</v>
+      </c>
+      <c r="F347" s="77" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:F342" xr:uid="{B1769A1F-F4E9-417B-8E3C-1E8D9801B829}"/>
-  <mergeCells count="16">
-    <mergeCell ref="A274:A280"/>
-    <mergeCell ref="A281:A317"/>
-    <mergeCell ref="A318:A326"/>
-    <mergeCell ref="A327:A342"/>
-    <mergeCell ref="A101:A129"/>
-    <mergeCell ref="A130:A146"/>
-    <mergeCell ref="A147:A183"/>
-    <mergeCell ref="A184:A214"/>
-    <mergeCell ref="A215:A253"/>
-    <mergeCell ref="A254:A273"/>
+  <autoFilter ref="E1:F347"/>
+  <mergeCells count="17">
+    <mergeCell ref="A346:A347"/>
     <mergeCell ref="A78:A100"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A46"/>
     <mergeCell ref="A47:A77"/>
+    <mergeCell ref="A276:A282"/>
+    <mergeCell ref="A283:A320"/>
+    <mergeCell ref="A321:A329"/>
+    <mergeCell ref="A330:A345"/>
+    <mergeCell ref="A101:A129"/>
+    <mergeCell ref="A130:A146"/>
+    <mergeCell ref="A147:A183"/>
+    <mergeCell ref="A184:A214"/>
+    <mergeCell ref="A215:A255"/>
+    <mergeCell ref="A256:A275"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E256:E1048576 E1:E253">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"Functional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"UX"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F256:F1048576 F1:F253">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Automated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E254">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Functional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"UX"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F254">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Automated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E255">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
@@ -11198,7 +11800,7 @@
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F255">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
@@ -11208,32 +11810,32 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEE20E51-9FAC-4D86-9C42-DDDFD9107A93}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MyValues!$D$2:$D$18</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{C510D3AB-54CB-4F64-B9C7-F4FDD693F366}">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MyValues!$A$2:$A$10</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H184:H214 H254:H317</xm:sqref>
+          <xm:sqref>H184:H214 H256:H320</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F9E518E-CA05-4F80-AEFB-0BB7CC08603B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MyValues!$D$2:$D$23</xm:f>
           </x14:formula1>
-          <xm:sqref>E7:E342</xm:sqref>
+          <xm:sqref>E7:E347</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F514E35-8BF1-4CE0-98BD-D36F91CE41CC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MyValues!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F342</xm:sqref>
+          <xm:sqref>F2:F347</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11242,7 +11844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11259,10 +11861,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>516</v>
       </c>
     </row>
@@ -11325,4 +11927,18 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rupam_selenium-tests\domibus\Domibus-MSH-selenium-ui-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E401E81D-106C-4FFB-86AE-719373B959FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,14 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RegressionScenarios-4,1U'!$E$1:$F$347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RegressionScenarios-4,1U'!$E$1:$F$352</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="907">
   <si>
     <t>Raw numbers</t>
   </si>
@@ -1577,9 +1584,6 @@
     <t xml:space="preserve">Party detail from Current Pmode is removed </t>
   </si>
   <si>
-    <t>Check impact on other pages when Initiator and responder parties are added/removed from pmode-parties update</t>
-  </si>
-  <si>
     <t>Same is reflected in current pmode.</t>
   </si>
   <si>
@@ -3093,11 +3097,50 @@
   <si>
     <t>Action should be logged as Deleted</t>
   </si>
+  <si>
+    <t>Check impact on other pages when Initiator and responder parties are removed from pmode-parties update</t>
+  </si>
+  <si>
+    <t>PMP-26</t>
+  </si>
+  <si>
+    <t>Check impact on other pages when Initiator and responder parties are added from pmode-parties update</t>
+  </si>
+  <si>
+    <t>Check impact on other pages when initiator and responder parties are removed from Current Pmode page</t>
+  </si>
+  <si>
+    <t>PMP-27</t>
+  </si>
+  <si>
+    <t>PMP-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same is reflected on pmode parties page </t>
+  </si>
+  <si>
+    <t>Same is reflected on TestService page</t>
+  </si>
+  <si>
+    <t>Check impact on other pages when initiator and responder parties are added from Current Pmode page</t>
+  </si>
+  <si>
+    <t>Check impact on other pages when  responder parties are removed from Current Pmode page</t>
+  </si>
+  <si>
+    <t>Check impact on other pages when responder parties are added from Current Pmode page</t>
+  </si>
+  <si>
+    <t>PMP-29</t>
+  </si>
+  <si>
+    <t>PMP-30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4060,8 +4103,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
@@ -4084,72 +4149,60 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="40">
-    <cellStyle name="Accent 1 18" xfId="1"/>
-    <cellStyle name="Accent 1 5" xfId="2"/>
-    <cellStyle name="Accent 17" xfId="3"/>
-    <cellStyle name="Accent 2 19" xfId="4"/>
-    <cellStyle name="Accent 2 6" xfId="5"/>
-    <cellStyle name="Accent 3 20" xfId="6"/>
-    <cellStyle name="Accent 3 7" xfId="7"/>
-    <cellStyle name="Accent 4" xfId="8"/>
-    <cellStyle name="Bad 13" xfId="9"/>
-    <cellStyle name="Bad 2" xfId="10"/>
-    <cellStyle name="Error 16" xfId="11"/>
-    <cellStyle name="Error 8" xfId="12"/>
-    <cellStyle name="Footnote 8" xfId="13"/>
-    <cellStyle name="Footnote 9" xfId="14"/>
-    <cellStyle name="Good 11" xfId="15"/>
-    <cellStyle name="Good 2" xfId="16"/>
-    <cellStyle name="Heading 1 2" xfId="17"/>
-    <cellStyle name="Heading 1 4" xfId="18"/>
-    <cellStyle name="Heading 10" xfId="19"/>
-    <cellStyle name="Heading 2 2" xfId="20"/>
-    <cellStyle name="Heading 2 5" xfId="21"/>
-    <cellStyle name="Heading 3" xfId="22"/>
-    <cellStyle name="Hyperlink 11" xfId="23"/>
-    <cellStyle name="Hyperlink 9" xfId="24"/>
+    <cellStyle name="Accent 1 18" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 17" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 2 19" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Accent 2 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Accent 3 20" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Accent 3 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Bad 13" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Bad 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Error 16" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Error 8" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Footnote 9" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Good 11" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Good 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Heading 1 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Heading 10" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Heading 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Heading 2 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Heading 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Hyperlink 11" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Hyperlink 9" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28"/>
-    <cellStyle name="Neutral 12" xfId="25"/>
-    <cellStyle name="Neutral 2" xfId="26"/>
+    <cellStyle name="Neutral 12" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Neutral 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="27"/>
-    <cellStyle name="Normal 2 2" xfId="39"/>
-    <cellStyle name="Normal 2 3" xfId="38"/>
-    <cellStyle name="Normal 3" xfId="37"/>
-    <cellStyle name="Note 2" xfId="28"/>
-    <cellStyle name="Note 7" xfId="29"/>
-    <cellStyle name="Status 10" xfId="30"/>
-    <cellStyle name="Status 12" xfId="31"/>
-    <cellStyle name="Text 13" xfId="32"/>
-    <cellStyle name="Text 6" xfId="33"/>
-    <cellStyle name="Warning 14" xfId="34"/>
-    <cellStyle name="Warning 15" xfId="35"/>
+    <cellStyle name="Normal 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Note 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Note 7" xfId="29" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Status 10" xfId="30" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Status 12" xfId="31" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Text 13" xfId="32" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Text 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Warning 14" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Warning 15" xfId="35" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4233,22 +4286,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4311,102 +4358,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4431,100 +4392,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4898,35 +4765,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="31.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>520</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
@@ -4936,11 +4803,11 @@
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
@@ -4950,11 +4817,11 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -4964,7 +4831,7 @@
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -4973,30 +4840,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5">
         <f>COUNTA('RegressionScenarios-4,1U'!D:D)-1</f>
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>329</v>
       </c>
       <c r="B7" s="5">
         <f>COUNTIF('RegressionScenarios-4,1U'!F:F,A7)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <f>B7/B$6</f>
-        <v>9.8265895953757232E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.4017094017094016E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>163</v>
       </c>
@@ -5006,10 +4873,10 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:C11" si="0">B8/B$6</f>
-        <v>2.023121387283237E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.9943019943019943E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>44</v>
       </c>
@@ -5019,10 +4886,10 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>0.22254335260115607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.21937321937321938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>124</v>
       </c>
@@ -5032,10 +4899,10 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>2.8901734104046242E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.8490028490028491E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>68</v>
       </c>
@@ -5045,33 +4912,33 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>3.1791907514450865E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.1339031339031341E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5">
         <f>COUNTIF('RegressionScenarios-4,1U'!F:F,A12)</f>
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C12" s="7">
         <f>B12/B$6</f>
-        <v>0.59826589595375723</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.60683760683760679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
@@ -5090,30 +4957,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P347"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A314" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F324" sqref="F324:F325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="144.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="32"/>
-    <col min="6" max="6" width="29.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="18" customWidth="1"/>
-    <col min="8" max="12" width="16.140625" style="18"/>
-    <col min="13" max="16" width="16.140625" style="10"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="144.7265625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="32"/>
+    <col min="6" max="6" width="29.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" style="18" customWidth="1"/>
+    <col min="8" max="12" width="16.1796875" style="18"/>
+    <col min="13" max="16" width="16.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="35"/>
       <c r="B1" s="48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>3</v>
@@ -5122,18 +4989,18 @@
         <v>4</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>7</v>
@@ -5142,16 +5009,16 @@
         <v>8</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="76"/>
       <c r="B3" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>9</v>
@@ -5160,16 +5027,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+    <row r="4" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="76"/>
       <c r="B4" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
@@ -5178,16 +5045,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="76"/>
       <c r="B5" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -5196,16 +5063,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+    <row r="6" spans="1:6" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="77"/>
       <c r="B6" s="52" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
@@ -5214,200 +5081,200 @@
         <v>15</v>
       </c>
       <c r="E6" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>853</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>860</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>861</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="F7" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A8" s="79"/>
+      <c r="B8" s="57" t="s">
+        <v>854</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>862</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>863</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="79"/>
+      <c r="B9" s="57" t="s">
+        <v>855</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>854</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>861</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>862</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="57" t="s">
-        <v>855</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>863</v>
-      </c>
-      <c r="D8" s="56" t="s">
+      <c r="D9" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="79"/>
+      <c r="B10" s="57" t="s">
+        <v>856</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>864</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="57" t="s">
-        <v>856</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="D9" s="56" t="s">
+      <c r="D10" s="56" t="s">
+        <v>865</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A11" s="79"/>
+      <c r="B11" s="57" t="s">
+        <v>857</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>866</v>
+      </c>
+      <c r="D11" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="57" t="s">
-        <v>857</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>865</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>866</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="57" t="s">
+      <c r="E11" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A12" s="79"/>
+      <c r="B12" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C12" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="79"/>
+      <c r="B13" s="57" t="s">
+        <v>874</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>867</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>483</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="57" t="s">
-        <v>859</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>484</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="57" t="s">
+      <c r="E13" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="149" x14ac:dyDescent="0.35">
+      <c r="A14" s="79"/>
+      <c r="B14" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="D13" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>868</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="141" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="57" t="s">
+      <c r="D14" s="56" t="s">
+        <v>869</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="79"/>
+      <c r="B15" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>869</v>
-      </c>
-      <c r="D14" s="56" t="s">
+      <c r="C15" s="55" t="s">
         <v>870</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="57" t="s">
+      <c r="D15" s="56" t="s">
+        <v>871</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="80"/>
+      <c r="B16" s="63" t="s">
         <v>877</v>
       </c>
-      <c r="C15" s="55" t="s">
-        <v>871</v>
-      </c>
-      <c r="D15" s="56" t="s">
+      <c r="C16" s="64" t="s">
         <v>872</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="63" t="s">
-        <v>878</v>
-      </c>
-      <c r="C16" s="64" t="s">
+      <c r="D16" s="64" t="s">
         <v>873</v>
       </c>
-      <c r="D16" s="64" t="s">
-        <v>874</v>
-      </c>
       <c r="E16" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F16" s="65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
@@ -5416,16 +5283,16 @@
         <v>18</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="76"/>
       <c r="B18" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>17</v>
@@ -5434,16 +5301,16 @@
         <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
       <c r="B19" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>20</v>
@@ -5452,16 +5319,16 @@
         <v>21</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="76"/>
       <c r="B20" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -5470,16 +5337,16 @@
         <v>19</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="77"/>
       <c r="B21" s="52" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>22</v>
@@ -5488,18 +5355,18 @@
         <v>23</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F21" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+    <row r="22" spans="1:7" ht="216.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>25</v>
@@ -5508,17 +5375,17 @@
         <v>26</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="76"/>
       <c r="B23" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>27</v>
@@ -5527,17 +5394,17 @@
         <v>28</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
       <c r="B24" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>29</v>
@@ -5546,17 +5413,17 @@
         <v>30</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="76"/>
       <c r="B25" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>31</v>
@@ -5565,17 +5432,17 @@
         <v>32</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A26" s="76"/>
       <c r="B26" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>33</v>
@@ -5584,17 +5451,17 @@
         <v>34</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
+    <row r="27" spans="1:7" ht="230" x14ac:dyDescent="0.35">
+      <c r="A27" s="76"/>
       <c r="B27" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>35</v>
@@ -5603,17 +5470,17 @@
         <v>36</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="76"/>
       <c r="B28" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>37</v>
@@ -5622,17 +5489,17 @@
         <v>34</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F28" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="76"/>
       <c r="B29" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>38</v>
@@ -5641,17 +5508,17 @@
         <v>39</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
+    <row r="30" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="76"/>
       <c r="B30" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>40</v>
@@ -5660,17 +5527,17 @@
         <v>41</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="76"/>
       <c r="B31" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>42</v>
@@ -5679,36 +5546,36 @@
         <v>43</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
+    <row r="32" spans="1:7" ht="95" x14ac:dyDescent="0.35">
+      <c r="A32" s="76"/>
       <c r="B32" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
+    <row r="33" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A33" s="76"/>
       <c r="B33" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>46</v>
@@ -5717,17 +5584,17 @@
         <v>47</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F33" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="34"/>
     </row>
-    <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+    <row r="34" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="76"/>
       <c r="B34" s="43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>48</v>
@@ -5736,17 +5603,17 @@
         <v>49</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F34" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="34"/>
     </row>
-    <row r="35" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
+    <row r="35" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A35" s="76"/>
       <c r="B35" s="43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>50</v>
@@ -5755,17 +5622,17 @@
         <v>51</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F35" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="34"/>
     </row>
-    <row r="36" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
+    <row r="36" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A36" s="76"/>
       <c r="B36" s="43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>52</v>
@@ -5774,36 +5641,36 @@
         <v>53</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="34"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="76"/>
       <c r="B37" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="1:7" ht="306.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
+    <row r="38" spans="1:7" ht="324.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="76"/>
       <c r="B38" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>55</v>
@@ -5812,17 +5679,17 @@
         <v>56</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F38" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="34"/>
     </row>
-    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
+    <row r="39" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="76"/>
       <c r="B39" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>57</v>
@@ -5831,17 +5698,17 @@
         <v>58</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F39" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="34"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="76"/>
       <c r="B40" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>59</v>
@@ -5850,17 +5717,17 @@
         <v>60</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="34"/>
     </row>
-    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
+    <row r="41" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="76"/>
       <c r="B41" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>61</v>
@@ -5869,17 +5736,17 @@
         <v>62</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F41" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="34"/>
     </row>
-    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
+    <row r="42" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="76"/>
       <c r="B42" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>63</v>
@@ -5888,17 +5755,17 @@
         <v>64</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F42" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="34"/>
     </row>
-    <row r="43" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
+    <row r="43" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A43" s="76"/>
       <c r="B43" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>65</v>
@@ -5907,36 +5774,36 @@
         <v>66</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F43" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="34"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="76"/>
       <c r="B44" s="43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F44" s="44" t="s">
         <v>68</v>
       </c>
       <c r="G44" s="34"/>
     </row>
-    <row r="45" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
+    <row r="45" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="76"/>
       <c r="B45" s="43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>69</v>
@@ -5945,17 +5812,17 @@
         <v>70</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F45" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="34"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="77"/>
       <c r="B46" s="52" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>71</v>
@@ -5964,19 +5831,19 @@
         <v>72</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F46" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="34"/>
     </row>
-    <row r="47" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A47" s="67" t="s">
+    <row r="47" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A47" s="75" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>74</v>
@@ -5985,36 +5852,36 @@
         <v>75</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F47" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
+    <row r="48" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A48" s="76"/>
       <c r="B48" s="43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F48" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="40"/>
     </row>
-    <row r="49" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
+    <row r="49" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="76"/>
       <c r="B49" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>77</v>
@@ -6023,17 +5890,17 @@
         <v>78</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F49" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
+    <row r="50" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A50" s="76"/>
       <c r="B50" s="43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>79</v>
@@ -6042,17 +5909,17 @@
         <v>80</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F50" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="40"/>
     </row>
-    <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
+    <row r="51" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="76"/>
       <c r="B51" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>81</v>
@@ -6061,17 +5928,17 @@
         <v>82</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F51" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="40"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="76"/>
       <c r="B52" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>77</v>
@@ -6080,17 +5947,17 @@
         <v>83</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F52" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="40"/>
     </row>
-    <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
+    <row r="53" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A53" s="76"/>
       <c r="B53" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>84</v>
@@ -6099,17 +5966,17 @@
         <v>85</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F53" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="40"/>
     </row>
-    <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
+    <row r="54" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A54" s="76"/>
       <c r="B54" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>86</v>
@@ -6118,17 +5985,17 @@
         <v>87</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F54" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="40"/>
     </row>
-    <row r="55" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+    <row r="55" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="76"/>
       <c r="B55" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>88</v>
@@ -6137,17 +6004,17 @@
         <v>89</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F55" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="40"/>
     </row>
-    <row r="56" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
+    <row r="56" spans="1:7" ht="81.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="76"/>
       <c r="B56" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>90</v>
@@ -6156,17 +6023,17 @@
         <v>91</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F56" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="40"/>
     </row>
-    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="68"/>
+    <row r="57" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="76"/>
       <c r="B57" s="43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>92</v>
@@ -6175,17 +6042,17 @@
         <v>93</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F57" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="40"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="68"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="76"/>
       <c r="B58" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>94</v>
@@ -6194,17 +6061,17 @@
         <v>95</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F58" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="40"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="68"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="76"/>
       <c r="B59" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>77</v>
@@ -6213,17 +6080,17 @@
         <v>83</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F59" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="40"/>
     </row>
-    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="68"/>
+    <row r="60" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="76"/>
       <c r="B60" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>96</v>
@@ -6232,17 +6099,17 @@
         <v>93</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F60" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="40"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="76"/>
       <c r="B61" s="43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>97</v>
@@ -6251,17 +6118,17 @@
         <v>98</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F61" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="40"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="76"/>
       <c r="B62" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>77</v>
@@ -6270,17 +6137,17 @@
         <v>99</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F62" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="40"/>
     </row>
-    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
+    <row r="63" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="76"/>
       <c r="B63" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>100</v>
@@ -6289,17 +6156,17 @@
         <v>101</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F63" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="40"/>
     </row>
-    <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+    <row r="64" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="76"/>
       <c r="B64" s="43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>102</v>
@@ -6308,17 +6175,17 @@
         <v>103</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F64" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
+    <row r="65" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A65" s="76"/>
       <c r="B65" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>104</v>
@@ -6327,17 +6194,17 @@
         <v>105</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F65" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="40"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="76"/>
       <c r="B66" s="43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>106</v>
@@ -6346,17 +6213,17 @@
         <v>107</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F66" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="40"/>
     </row>
-    <row r="67" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
+    <row r="67" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A67" s="76"/>
       <c r="B67" s="43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>108</v>
@@ -6365,17 +6232,17 @@
         <v>109</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F67" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G67" s="40"/>
     </row>
-    <row r="68" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
+    <row r="68" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A68" s="76"/>
       <c r="B68" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>110</v>
@@ -6384,17 +6251,17 @@
         <v>111</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F68" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="40"/>
     </row>
-    <row r="69" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
+    <row r="69" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="76"/>
       <c r="B69" s="43" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>112</v>
@@ -6403,17 +6270,17 @@
         <v>113</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F69" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G69" s="40"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="68"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="76"/>
       <c r="B70" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>114</v>
@@ -6422,17 +6289,17 @@
         <v>115</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F70" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="40"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="68"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="76"/>
       <c r="B71" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>116</v>
@@ -6441,55 +6308,55 @@
         <v>117</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F71" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="40"/>
     </row>
-    <row r="72" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
+    <row r="72" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A72" s="76"/>
       <c r="B72" s="43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F72" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="40"/>
     </row>
-    <row r="73" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
+    <row r="73" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A73" s="76"/>
       <c r="B73" s="43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>118</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F73" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="40"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="76"/>
       <c r="B74" s="43" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>119</v>
@@ -6498,17 +6365,17 @@
         <v>118</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F74" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="40"/>
     </row>
-    <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
+    <row r="75" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="76"/>
       <c r="B75" s="43" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>120</v>
@@ -6517,17 +6384,17 @@
         <v>121</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F75" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="40"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="76"/>
       <c r="B76" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>122</v>
@@ -6536,17 +6403,17 @@
         <v>123</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F76" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G76" s="40"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="69"/>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="77"/>
       <c r="B77" s="52" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>71</v>
@@ -6555,19 +6422,19 @@
         <v>72</v>
       </c>
       <c r="E77" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F77" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="40"/>
     </row>
-    <row r="78" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="67" t="s">
+    <row r="78" spans="1:7" ht="135.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="75" t="s">
         <v>125</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>126</v>
@@ -6576,17 +6443,17 @@
         <v>127</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F78" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="40"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="76"/>
       <c r="B79" s="43" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>128</v>
@@ -6595,17 +6462,17 @@
         <v>129</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F79" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G79" s="40"/>
     </row>
-    <row r="80" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A80" s="68"/>
+    <row r="80" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A80" s="76"/>
       <c r="B80" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>130</v>
@@ -6614,17 +6481,17 @@
         <v>131</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F80" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="40"/>
     </row>
-    <row r="81" spans="1:7" ht="141" x14ac:dyDescent="0.25">
-      <c r="A81" s="68"/>
+    <row r="81" spans="1:7" ht="149" x14ac:dyDescent="0.35">
+      <c r="A81" s="76"/>
       <c r="B81" s="43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>35</v>
@@ -6633,17 +6500,17 @@
         <v>132</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F81" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G81" s="40"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="76"/>
       <c r="B82" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>133</v>
@@ -6652,17 +6519,17 @@
         <v>131</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F82" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G82" s="40"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="76"/>
       <c r="B83" s="43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>134</v>
@@ -6671,17 +6538,17 @@
         <v>39</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F83" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G83" s="40"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="76"/>
       <c r="B84" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>135</v>
@@ -6690,17 +6557,17 @@
         <v>136</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F84" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G84" s="40"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="76"/>
       <c r="B85" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>137</v>
@@ -6709,17 +6576,17 @@
         <v>138</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F85" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G85" s="40"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="76"/>
       <c r="B86" s="43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>139</v>
@@ -6728,17 +6595,17 @@
         <v>140</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F86" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="40"/>
     </row>
-    <row r="87" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
+    <row r="87" spans="1:7" ht="135.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="76"/>
       <c r="B87" s="43" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>55</v>
@@ -6747,17 +6614,17 @@
         <v>141</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F87" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="40"/>
     </row>
-    <row r="88" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
+    <row r="88" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="76"/>
       <c r="B88" s="43" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>57</v>
@@ -6766,17 +6633,17 @@
         <v>58</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F88" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="40"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="68"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="76"/>
       <c r="B89" s="43" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>59</v>
@@ -6785,17 +6652,17 @@
         <v>60</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F89" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="40"/>
     </row>
-    <row r="90" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="68"/>
+    <row r="90" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="76"/>
       <c r="B90" s="43" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>61</v>
@@ -6804,17 +6671,17 @@
         <v>142</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F90" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="40"/>
     </row>
-    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="68"/>
+    <row r="91" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="76"/>
       <c r="B91" s="43" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>63</v>
@@ -6823,17 +6690,17 @@
         <v>143</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F91" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="40"/>
     </row>
-    <row r="92" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
+    <row r="92" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A92" s="76"/>
       <c r="B92" s="43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>65</v>
@@ -6842,17 +6709,17 @@
         <v>144</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F92" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="40"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="76"/>
       <c r="B93" s="43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>145</v>
@@ -6861,55 +6728,55 @@
         <v>146</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F93" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="40"/>
     </row>
-    <row r="94" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
+    <row r="94" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="76"/>
       <c r="B94" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F94" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G94" s="40"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="76"/>
       <c r="B95" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F95" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G95" s="40"/>
     </row>
-    <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="68"/>
+    <row r="96" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="76"/>
       <c r="B96" s="43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>148</v>
@@ -6918,17 +6785,17 @@
         <v>149</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F96" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G96" s="40"/>
     </row>
-    <row r="97" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="68"/>
+    <row r="97" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="76"/>
       <c r="B97" s="43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>150</v>
@@ -6937,17 +6804,17 @@
         <v>151</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F97" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G97" s="41"/>
     </row>
-    <row r="98" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A98" s="68"/>
+    <row r="98" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A98" s="76"/>
       <c r="B98" s="43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>152</v>
@@ -6956,17 +6823,17 @@
         <v>153</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F98" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G98" s="41"/>
     </row>
-    <row r="99" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="68"/>
+    <row r="99" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="76"/>
       <c r="B99" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>69</v>
@@ -6975,17 +6842,17 @@
         <v>70</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F99" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G99" s="41"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="69"/>
+    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="77"/>
       <c r="B100" s="52" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>71</v>
@@ -6994,19 +6861,19 @@
         <v>72</v>
       </c>
       <c r="E100" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F100" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="1:7" ht="268.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="67" t="s">
+    <row r="101" spans="1:7" ht="284" x14ac:dyDescent="0.35">
+      <c r="A101" s="75" t="s">
         <v>154</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>155</v>
@@ -7015,17 +6882,17 @@
         <v>156</v>
       </c>
       <c r="E101" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F101" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="41"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="68"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="76"/>
       <c r="B102" s="43" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>31</v>
@@ -7034,17 +6901,17 @@
         <v>157</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F102" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="41"/>
     </row>
-    <row r="103" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A103" s="68"/>
+    <row r="103" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A103" s="76"/>
       <c r="B103" s="43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>158</v>
@@ -7053,17 +6920,17 @@
         <v>34</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F103" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="41"/>
     </row>
-    <row r="104" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="76"/>
       <c r="B104" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>38</v>
@@ -7072,17 +6939,17 @@
         <v>39</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F104" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="76"/>
       <c r="B105" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>135</v>
@@ -7091,17 +6958,17 @@
         <v>41</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F105" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="76"/>
       <c r="B106" s="43" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>42</v>
@@ -7110,17 +6977,17 @@
         <v>43</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F106" s="44" t="s">
         <v>329</v>
       </c>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
+    <row r="107" spans="1:7" ht="81.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="76"/>
       <c r="B107" s="43" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>159</v>
@@ -7129,17 +6996,17 @@
         <v>160</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F107" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
+    <row r="108" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="76"/>
       <c r="B108" s="43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>161</v>
@@ -7148,17 +7015,17 @@
         <v>162</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F108" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="68"/>
+    <row r="109" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="76"/>
       <c r="B109" s="43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>48</v>
@@ -7167,17 +7034,17 @@
         <v>49</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F109" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A110" s="68"/>
+    <row r="110" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A110" s="76"/>
       <c r="B110" s="43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>50</v>
@@ -7186,17 +7053,17 @@
         <v>51</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F110" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="68"/>
+    <row r="111" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A111" s="76"/>
       <c r="B111" s="43" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>52</v>
@@ -7205,17 +7072,17 @@
         <v>53</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F111" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="68"/>
+    <row r="112" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="76"/>
       <c r="B112" s="43" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>164</v>
@@ -7224,17 +7091,17 @@
         <v>165</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F112" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="76"/>
       <c r="B113" s="43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>42</v>
@@ -7243,17 +7110,17 @@
         <v>54</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F113" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
+    <row r="114" spans="1:7" ht="135.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="76"/>
       <c r="B114" s="43" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>55</v>
@@ -7262,17 +7129,17 @@
         <v>166</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F114" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
+    <row r="115" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="76"/>
       <c r="B115" s="43" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>57</v>
@@ -7281,17 +7148,17 @@
         <v>58</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F115" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="68"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="76"/>
       <c r="B116" s="43" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>59</v>
@@ -7300,17 +7167,17 @@
         <v>60</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F116" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="68"/>
+    <row r="117" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="76"/>
       <c r="B117" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>61</v>
@@ -7319,17 +7186,17 @@
         <v>167</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F117" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="68"/>
+    <row r="118" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="76"/>
       <c r="B118" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>63</v>
@@ -7338,17 +7205,17 @@
         <v>64</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F118" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A119" s="68"/>
+    <row r="119" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A119" s="76"/>
       <c r="B119" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>65</v>
@@ -7357,17 +7224,17 @@
         <v>168</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F119" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="68"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="76"/>
       <c r="B120" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>145</v>
@@ -7376,36 +7243,36 @@
         <v>169</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F120" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="68"/>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="76"/>
       <c r="B121" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F121" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="68"/>
+    <row r="122" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="76"/>
       <c r="B122" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>170</v>
@@ -7414,17 +7281,17 @@
         <v>171</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F122" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G122" s="41"/>
     </row>
-    <row r="123" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A123" s="68"/>
+    <row r="123" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A123" s="76"/>
       <c r="B123" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>172</v>
@@ -7433,17 +7300,17 @@
         <v>173</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F123" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G123" s="41"/>
     </row>
-    <row r="124" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
+    <row r="124" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A124" s="76"/>
       <c r="B124" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>174</v>
@@ -7452,17 +7319,17 @@
         <v>175</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F124" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G124" s="41"/>
     </row>
-    <row r="125" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A125" s="68"/>
+    <row r="125" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A125" s="76"/>
       <c r="B125" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>176</v>
@@ -7471,17 +7338,17 @@
         <v>177</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F125" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G125" s="41"/>
     </row>
-    <row r="126" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A126" s="68"/>
+    <row r="126" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A126" s="76"/>
       <c r="B126" s="43" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>178</v>
@@ -7490,17 +7357,17 @@
         <v>177</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F126" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G126" s="41"/>
     </row>
-    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="68"/>
+    <row r="127" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="76"/>
       <c r="B127" s="43" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>179</v>
@@ -7509,17 +7376,17 @@
         <v>180</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F127" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G127" s="41"/>
     </row>
-    <row r="128" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="68"/>
+    <row r="128" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="76"/>
       <c r="B128" s="43" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>69</v>
@@ -7528,17 +7395,17 @@
         <v>70</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F128" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G128" s="41"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="69"/>
+    <row r="129" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="77"/>
       <c r="B129" s="52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>71</v>
@@ -7547,19 +7414,19 @@
         <v>72</v>
       </c>
       <c r="E129" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F129" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G129" s="41"/>
     </row>
-    <row r="130" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A130" s="67" t="s">
+    <row r="130" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="75" t="s">
         <v>181</v>
       </c>
       <c r="B130" s="49" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>182</v>
@@ -7568,17 +7435,17 @@
         <v>183</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F130" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G130" s="41"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="68"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="76"/>
       <c r="B131" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>184</v>
@@ -7587,17 +7454,17 @@
         <v>185</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F131" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G131" s="41"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="68"/>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="76"/>
       <c r="B132" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C132" s="14" t="s">
         <v>186</v>
@@ -7606,17 +7473,17 @@
         <v>187</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F132" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G132" s="41"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="68"/>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="76"/>
       <c r="B133" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>188</v>
@@ -7625,17 +7492,17 @@
         <v>189</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F133" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G133" s="41"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="76"/>
       <c r="B134" s="43" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>190</v>
@@ -7644,17 +7511,17 @@
         <v>191</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F134" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G134" s="41"/>
     </row>
-    <row r="135" spans="1:7" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
+    <row r="135" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="76"/>
       <c r="B135" s="43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>55</v>
@@ -7663,17 +7530,17 @@
         <v>192</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F135" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G135" s="41"/>
     </row>
-    <row r="136" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="68"/>
+    <row r="136" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="76"/>
       <c r="B136" s="43" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>57</v>
@@ -7682,17 +7549,17 @@
         <v>58</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F136" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G136" s="41"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="68"/>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="76"/>
       <c r="B137" s="43" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>59</v>
@@ -7701,17 +7568,17 @@
         <v>60</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F137" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G137" s="41"/>
     </row>
-    <row r="138" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="68"/>
+    <row r="138" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="76"/>
       <c r="B138" s="43" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>61</v>
@@ -7720,17 +7587,17 @@
         <v>167</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F138" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G138" s="41"/>
     </row>
-    <row r="139" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="68"/>
+    <row r="139" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="76"/>
       <c r="B139" s="43" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>63</v>
@@ -7739,17 +7606,17 @@
         <v>64</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F139" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G139" s="41"/>
     </row>
-    <row r="140" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A140" s="68"/>
+    <row r="140" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A140" s="76"/>
       <c r="B140" s="43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>65</v>
@@ -7758,36 +7625,36 @@
         <v>193</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F140" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G140" s="41"/>
     </row>
-    <row r="141" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="68"/>
+    <row r="141" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="76"/>
       <c r="B141" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F141" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G141" s="41"/>
     </row>
-    <row r="142" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="68"/>
+    <row r="142" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="76"/>
       <c r="B142" s="43" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>195</v>
@@ -7796,17 +7663,17 @@
         <v>196</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F142" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G142" s="41"/>
     </row>
-    <row r="143" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
+    <row r="143" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="76"/>
       <c r="B143" s="43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>197</v>
@@ -7815,17 +7682,17 @@
         <v>198</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F143" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G143" s="41"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="76"/>
       <c r="B144" s="43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>199</v>
@@ -7834,17 +7701,17 @@
         <v>200</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F144" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G144" s="41"/>
     </row>
-    <row r="145" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
+    <row r="145" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="76"/>
       <c r="B145" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>69</v>
@@ -7853,17 +7720,17 @@
         <v>70</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F145" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G145" s="41"/>
     </row>
-    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="69"/>
+    <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="77"/>
       <c r="B146" s="52" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>71</v>
@@ -7872,19 +7739,19 @@
         <v>201</v>
       </c>
       <c r="E146" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F146" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G146" s="41"/>
     </row>
-    <row r="147" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="67" t="s">
+    <row r="147" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="75" t="s">
         <v>202</v>
       </c>
       <c r="B147" s="49" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>203</v>
@@ -7893,17 +7760,17 @@
         <v>204</v>
       </c>
       <c r="E147" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F147" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G147" s="41"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="68"/>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="76"/>
       <c r="B148" s="43" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>205</v>
@@ -7912,17 +7779,17 @@
         <v>206</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F148" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G148" s="41"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="68"/>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="76"/>
       <c r="B149" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>207</v>
@@ -7931,17 +7798,17 @@
         <v>208</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F149" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G149" s="41"/>
     </row>
-    <row r="150" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="68"/>
+    <row r="150" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="76"/>
       <c r="B150" s="43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>209</v>
@@ -7950,17 +7817,17 @@
         <v>210</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F150" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G150" s="41"/>
     </row>
-    <row r="151" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="68"/>
+    <row r="151" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="76"/>
       <c r="B151" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>211</v>
@@ -7969,17 +7836,17 @@
         <v>212</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F151" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G151" s="41"/>
     </row>
-    <row r="152" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A152" s="68"/>
+    <row r="152" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A152" s="76"/>
       <c r="B152" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>213</v>
@@ -7988,17 +7855,17 @@
         <v>214</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F152" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G152" s="41"/>
     </row>
-    <row r="153" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="68"/>
+    <row r="153" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="76"/>
       <c r="B153" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>215</v>
@@ -8007,17 +7874,17 @@
         <v>216</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F153" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G153" s="41"/>
     </row>
-    <row r="154" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="68"/>
+    <row r="154" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="76"/>
       <c r="B154" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>217</v>
@@ -8026,55 +7893,55 @@
         <v>218</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F154" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G154" s="41"/>
     </row>
-    <row r="155" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="68"/>
+    <row r="155" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="76"/>
       <c r="B155" s="43" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>219</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F155" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="68"/>
+    <row r="156" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="76"/>
       <c r="B156" s="43" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F156" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="68"/>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="76"/>
       <c r="B157" s="43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C157" s="19" t="s">
         <v>221</v>
@@ -8083,17 +7950,17 @@
         <v>222</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F157" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="68"/>
+    <row r="158" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="76"/>
       <c r="B158" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>223</v>
@@ -8102,17 +7969,17 @@
         <v>224</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F158" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G158" s="41"/>
     </row>
-    <row r="159" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="68"/>
+    <row r="159" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="76"/>
       <c r="B159" s="43" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C159" s="14" t="s">
         <v>225</v>
@@ -8121,17 +7988,17 @@
         <v>226</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F159" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G159" s="41"/>
     </row>
-    <row r="160" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A160" s="68"/>
+    <row r="160" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A160" s="76"/>
       <c r="B160" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>227</v>
@@ -8140,17 +8007,17 @@
         <v>228</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F160" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G160" s="41"/>
     </row>
-    <row r="161" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="68"/>
+    <row r="161" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="76"/>
       <c r="B161" s="43" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>229</v>
@@ -8159,17 +8026,17 @@
         <v>230</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F161" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G161" s="41"/>
     </row>
-    <row r="162" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="68"/>
+    <row r="162" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="76"/>
       <c r="B162" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>231</v>
@@ -8178,17 +8045,17 @@
         <v>232</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F162" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G162" s="41"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="68"/>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="76"/>
       <c r="B163" s="43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>233</v>
@@ -8197,17 +8064,17 @@
         <v>234</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F163" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G163" s="41"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="68"/>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="76"/>
       <c r="B164" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>235</v>
@@ -8216,17 +8083,17 @@
         <v>236</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F164" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G164" s="41"/>
     </row>
-    <row r="165" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="68"/>
+    <row r="165" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="76"/>
       <c r="B165" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C165" s="14" t="s">
         <v>237</v>
@@ -8235,17 +8102,17 @@
         <v>238</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F165" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="68"/>
+    <row r="166" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="76"/>
       <c r="B166" s="43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>239</v>
@@ -8254,17 +8121,17 @@
         <v>238</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F166" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G166" s="41"/>
     </row>
-    <row r="167" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A167" s="68"/>
+    <row r="167" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="76"/>
       <c r="B167" s="43" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>240</v>
@@ -8273,17 +8140,17 @@
         <v>238</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F167" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G167" s="41"/>
     </row>
-    <row r="168" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A168" s="68"/>
+    <row r="168" spans="1:7" ht="41" x14ac:dyDescent="0.35">
+      <c r="A168" s="76"/>
       <c r="B168" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>241</v>
@@ -8292,17 +8159,17 @@
         <v>238</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F168" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G168" s="41"/>
     </row>
-    <row r="169" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="68"/>
+    <row r="169" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="76"/>
       <c r="B169" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>242</v>
@@ -8311,17 +8178,17 @@
         <v>243</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F169" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G169" s="41"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="68"/>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="76"/>
       <c r="B170" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>244</v>
@@ -8330,17 +8197,17 @@
         <v>245</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F170" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G170" s="41"/>
     </row>
-    <row r="171" spans="1:7" ht="141" x14ac:dyDescent="0.25">
-      <c r="A171" s="68"/>
+    <row r="171" spans="1:7" ht="149" x14ac:dyDescent="0.35">
+      <c r="A171" s="76"/>
       <c r="B171" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>55</v>
@@ -8349,17 +8216,17 @@
         <v>246</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F171" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G171" s="41"/>
     </row>
-    <row r="172" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="68"/>
+    <row r="172" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="76"/>
       <c r="B172" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>57</v>
@@ -8368,17 +8235,17 @@
         <v>58</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F172" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G172" s="41"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="68"/>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="76"/>
       <c r="B173" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>59</v>
@@ -8387,17 +8254,17 @@
         <v>60</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F173" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G173" s="41"/>
     </row>
-    <row r="174" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="68"/>
+    <row r="174" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="76"/>
       <c r="B174" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>61</v>
@@ -8406,17 +8273,17 @@
         <v>247</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F174" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G174" s="41"/>
     </row>
-    <row r="175" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="68"/>
+    <row r="175" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="76"/>
       <c r="B175" s="43" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>63</v>
@@ -8425,17 +8292,17 @@
         <v>248</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F175" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G175" s="41"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="68"/>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="76"/>
       <c r="B176" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>249</v>
@@ -8444,17 +8311,17 @@
         <v>250</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F176" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G176" s="41"/>
     </row>
-    <row r="177" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A177" s="68"/>
+    <row r="177" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A177" s="76"/>
       <c r="B177" s="43" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>65</v>
@@ -8463,17 +8330,17 @@
         <v>193</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F177" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G177" s="41"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="68"/>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="76"/>
       <c r="B178" s="43" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C178" s="14" t="s">
         <v>251</v>
@@ -8482,17 +8349,17 @@
         <v>252</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F178" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G178" s="41"/>
     </row>
-    <row r="179" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="68"/>
+    <row r="179" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="76"/>
       <c r="B179" s="43" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>253</v>
@@ -8501,17 +8368,17 @@
         <v>254</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F179" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="68"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="76"/>
       <c r="B180" s="43" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>255</v>
@@ -8520,17 +8387,17 @@
         <v>254</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F180" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G180" s="41"/>
     </row>
-    <row r="181" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A181" s="68"/>
+    <row r="181" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A181" s="76"/>
       <c r="B181" s="43" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>256</v>
@@ -8539,17 +8406,17 @@
         <v>254</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F181" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G181" s="41"/>
     </row>
-    <row r="182" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A182" s="68"/>
+    <row r="182" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="76"/>
       <c r="B182" s="43" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C182" s="14" t="s">
         <v>69</v>
@@ -8558,17 +8425,17 @@
         <v>70</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F182" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G182" s="41"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="69"/>
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="77"/>
       <c r="B183" s="52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>71</v>
@@ -8577,28 +8444,28 @@
         <v>201</v>
       </c>
       <c r="E183" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F183" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G183" s="41"/>
     </row>
-    <row r="184" spans="1:8" ht="230.25" x14ac:dyDescent="0.25">
-      <c r="A184" s="67" t="s">
+    <row r="184" spans="1:8" ht="243.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="75" t="s">
         <v>257</v>
       </c>
       <c r="B184" s="49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>258</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E184" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F184" s="51" t="s">
         <v>5</v>
@@ -8606,10 +8473,10 @@
       <c r="G184" s="41"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="68"/>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="76"/>
       <c r="B185" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C185" s="19" t="s">
         <v>259</v>
@@ -8618,7 +8485,7 @@
         <v>206</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F185" s="44" t="s">
         <v>5</v>
@@ -8626,10 +8493,10 @@
       <c r="G185" s="41"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A186" s="68"/>
+    <row r="186" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A186" s="76"/>
       <c r="B186" s="43" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C186" s="19" t="s">
         <v>209</v>
@@ -8638,7 +8505,7 @@
         <v>260</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F186" s="44" t="s">
         <v>5</v>
@@ -8646,10 +8513,10 @@
       <c r="G186" s="41"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="68"/>
+    <row r="187" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="76"/>
       <c r="B187" s="43" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C187" s="19" t="s">
         <v>211</v>
@@ -8658,7 +8525,7 @@
         <v>212</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F187" s="44" t="s">
         <v>5</v>
@@ -8666,10 +8533,10 @@
       <c r="G187" s="41"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A188" s="68"/>
+    <row r="188" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A188" s="76"/>
       <c r="B188" s="43" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C188" s="19" t="s">
         <v>213</v>
@@ -8678,7 +8545,7 @@
         <v>214</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F188" s="44" t="s">
         <v>5</v>
@@ -8686,10 +8553,10 @@
       <c r="G188" s="41"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="68"/>
+    <row r="189" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="76"/>
       <c r="B189" s="43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>215</v>
@@ -8698,7 +8565,7 @@
         <v>216</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F189" s="44" t="s">
         <v>5</v>
@@ -8706,10 +8573,10 @@
       <c r="G189" s="41"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="68"/>
+    <row r="190" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A190" s="76"/>
       <c r="B190" s="43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C190" s="19" t="s">
         <v>217</v>
@@ -8718,7 +8585,7 @@
         <v>218</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F190" s="44" t="s">
         <v>5</v>
@@ -8726,19 +8593,19 @@
       <c r="G190" s="41"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="68"/>
+    <row r="191" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="76"/>
       <c r="B191" s="43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C191" s="19" t="s">
         <v>219</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F191" s="44" t="s">
         <v>5</v>
@@ -8746,19 +8613,19 @@
       <c r="G191" s="41"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="68"/>
+    <row r="192" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="76"/>
       <c r="B192" s="43" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F192" s="44" t="s">
         <v>5</v>
@@ -8766,10 +8633,10 @@
       <c r="G192" s="41"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="68"/>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" s="76"/>
       <c r="B193" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C193" s="19" t="s">
         <v>221</v>
@@ -8778,7 +8645,7 @@
         <v>222</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F193" s="44" t="s">
         <v>5</v>
@@ -8786,10 +8653,10 @@
       <c r="G193" s="41"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="68"/>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194" s="76"/>
       <c r="B194" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C194" s="19" t="s">
         <v>261</v>
@@ -8798,7 +8665,7 @@
         <v>262</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F194" s="44" t="s">
         <v>5</v>
@@ -8806,10 +8673,10 @@
       <c r="G194" s="41"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A195" s="68"/>
+    <row r="195" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A195" s="76"/>
       <c r="B195" s="43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C195" s="14" t="s">
         <v>227</v>
@@ -8818,7 +8685,7 @@
         <v>228</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F195" s="44" t="s">
         <v>5</v>
@@ -8826,10 +8693,10 @@
       <c r="G195" s="41"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="68"/>
+    <row r="196" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="76"/>
       <c r="B196" s="43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>263</v>
@@ -8838,7 +8705,7 @@
         <v>264</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F196" s="44" t="s">
         <v>5</v>
@@ -8846,10 +8713,10 @@
       <c r="G196" s="41"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="68"/>
+    <row r="197" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="76"/>
       <c r="B197" s="43" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C197" s="14" t="s">
         <v>265</v>
@@ -8858,7 +8725,7 @@
         <v>266</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F197" s="44" t="s">
         <v>5</v>
@@ -8866,10 +8733,10 @@
       <c r="G197" s="41"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="68"/>
+    <row r="198" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="76"/>
       <c r="B198" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>231</v>
@@ -8878,7 +8745,7 @@
         <v>232</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F198" s="44" t="s">
         <v>5</v>
@@ -8886,10 +8753,10 @@
       <c r="G198" s="41"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="68"/>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199" s="76"/>
       <c r="B199" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C199" s="14" t="s">
         <v>233</v>
@@ -8898,7 +8765,7 @@
         <v>267</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F199" s="44" t="s">
         <v>5</v>
@@ -8906,10 +8773,10 @@
       <c r="G199" s="41"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="68"/>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="76"/>
       <c r="B200" s="43" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>235</v>
@@ -8918,7 +8785,7 @@
         <v>268</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F200" s="44" t="s">
         <v>44</v>
@@ -8926,10 +8793,10 @@
       <c r="G200" s="41"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="68"/>
+    <row r="201" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="76"/>
       <c r="B201" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>269</v>
@@ -8938,7 +8805,7 @@
         <v>270</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F201" s="44" t="s">
         <v>5</v>
@@ -8946,10 +8813,10 @@
       <c r="G201" s="41"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A202" s="68"/>
+    <row r="202" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A202" s="76"/>
       <c r="B202" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C202" s="14" t="s">
         <v>271</v>
@@ -8958,7 +8825,7 @@
         <v>270</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F202" s="44" t="s">
         <v>5</v>
@@ -8966,10 +8833,10 @@
       <c r="G202" s="41"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A203" s="68"/>
+    <row r="203" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A203" s="76"/>
       <c r="B203" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C203" s="14" t="s">
         <v>272</v>
@@ -8978,7 +8845,7 @@
         <v>270</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F203" s="44" t="s">
         <v>5</v>
@@ -8986,10 +8853,10 @@
       <c r="G203" s="41"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="68"/>
+    <row r="204" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A204" s="76"/>
       <c r="B204" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C204" s="14" t="s">
         <v>273</v>
@@ -8998,7 +8865,7 @@
         <v>274</v>
       </c>
       <c r="E204" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F204" s="44" t="s">
         <v>5</v>
@@ -9006,10 +8873,10 @@
       <c r="G204" s="41"/>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A205" s="68"/>
+    <row r="205" spans="1:8" ht="95" x14ac:dyDescent="0.35">
+      <c r="A205" s="76"/>
       <c r="B205" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>275</v>
@@ -9018,7 +8885,7 @@
         <v>276</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F205" s="44" t="s">
         <v>5</v>
@@ -9026,10 +8893,10 @@
       <c r="G205" s="41"/>
       <c r="H205" s="8"/>
     </row>
-    <row r="206" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="68"/>
+    <row r="206" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A206" s="76"/>
       <c r="B206" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C206" s="14" t="s">
         <v>57</v>
@@ -9038,7 +8905,7 @@
         <v>58</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F206" s="44" t="s">
         <v>5</v>
@@ -9046,10 +8913,10 @@
       <c r="G206" s="41"/>
       <c r="H206" s="8"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="68"/>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207" s="76"/>
       <c r="B207" s="43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C207" s="14" t="s">
         <v>59</v>
@@ -9058,7 +8925,7 @@
         <v>60</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F207" s="44" t="s">
         <v>5</v>
@@ -9066,10 +8933,10 @@
       <c r="G207" s="41"/>
       <c r="H207" s="8"/>
     </row>
-    <row r="208" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A208" s="68"/>
+    <row r="208" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="76"/>
       <c r="B208" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C208" s="14" t="s">
         <v>61</v>
@@ -9078,7 +8945,7 @@
         <v>247</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F208" s="44" t="s">
         <v>5</v>
@@ -9086,10 +8953,10 @@
       <c r="G208" s="41"/>
       <c r="H208" s="8"/>
     </row>
-    <row r="209" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="68"/>
+    <row r="209" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="76"/>
       <c r="B209" s="43" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C209" s="14" t="s">
         <v>63</v>
@@ -9098,7 +8965,7 @@
         <v>248</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F209" s="44" t="s">
         <v>5</v>
@@ -9106,10 +8973,10 @@
       <c r="G209" s="41"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="68"/>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210" s="76"/>
       <c r="B210" s="43" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C210" s="14" t="s">
         <v>249</v>
@@ -9118,7 +8985,7 @@
         <v>277</v>
       </c>
       <c r="E210" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F210" s="44" t="s">
         <v>44</v>
@@ -9126,10 +8993,10 @@
       <c r="G210" s="41"/>
       <c r="H210" s="8"/>
     </row>
-    <row r="211" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A211" s="68"/>
+    <row r="211" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A211" s="76"/>
       <c r="B211" s="43" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C211" s="14" t="s">
         <v>65</v>
@@ -9138,7 +9005,7 @@
         <v>193</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F211" s="44" t="s">
         <v>5</v>
@@ -9146,10 +9013,10 @@
       <c r="G211" s="41"/>
       <c r="H211" s="8"/>
     </row>
-    <row r="212" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="68"/>
+    <row r="212" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A212" s="76"/>
       <c r="B212" s="43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C212" s="14" t="s">
         <v>69</v>
@@ -9158,7 +9025,7 @@
         <v>70</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F212" s="44" t="s">
         <v>44</v>
@@ -9166,10 +9033,10 @@
       <c r="G212" s="41"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="68"/>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213" s="76"/>
       <c r="B213" s="43" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C213" s="14" t="s">
         <v>71</v>
@@ -9178,7 +9045,7 @@
         <v>278</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F213" s="44" t="s">
         <v>44</v>
@@ -9186,10 +9053,10 @@
       <c r="G213" s="41"/>
       <c r="H213" s="8"/>
     </row>
-    <row r="214" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="69"/>
+    <row r="214" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="77"/>
       <c r="B214" s="52" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C214" s="16" t="s">
         <v>279</v>
@@ -9198,7 +9065,7 @@
         <v>280</v>
       </c>
       <c r="E214" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F214" s="47" t="s">
         <v>5</v>
@@ -9206,30 +9073,30 @@
       <c r="G214" s="41"/>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="67" t="s">
+    <row r="215" spans="1:8" ht="82" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="75" t="s">
         <v>281</v>
       </c>
       <c r="B215" s="49" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>282</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E215" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F215" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="68"/>
+    <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="76"/>
       <c r="B216" s="43" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>283</v>
@@ -9238,16 +9105,16 @@
         <v>284</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F216" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="68"/>
+    <row r="217" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="76"/>
       <c r="B217" s="43" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>33</v>
@@ -9256,16 +9123,16 @@
         <v>285</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F217" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="68"/>
+    <row r="218" spans="1:8" ht="82" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="76"/>
       <c r="B218" s="43" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>35</v>
@@ -9274,16 +9141,16 @@
         <v>286</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F218" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="68"/>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219" s="76"/>
       <c r="B219" s="43" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>287</v>
@@ -9292,16 +9159,16 @@
         <v>285</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F219" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="68"/>
+    <row r="220" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="76"/>
       <c r="B220" s="43" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>288</v>
@@ -9310,16 +9177,16 @@
         <v>39</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F220" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="68"/>
+    <row r="221" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="76"/>
       <c r="B221" s="43" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>135</v>
@@ -9328,16 +9195,16 @@
         <v>289</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F221" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="68"/>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222" s="76"/>
       <c r="B222" s="43" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>137</v>
@@ -9346,16 +9213,16 @@
         <v>290</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F222" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="68"/>
+    <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="76"/>
       <c r="B223" s="43" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C223" s="14" t="s">
         <v>291</v>
@@ -9364,16 +9231,16 @@
         <v>292</v>
       </c>
       <c r="E223" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F223" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="68"/>
+    <row r="224" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="76"/>
       <c r="B224" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C224" s="14" t="s">
         <v>293</v>
@@ -9382,16 +9249,16 @@
         <v>294</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F224" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="68"/>
+    <row r="225" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="76"/>
       <c r="B225" s="43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C225" s="14" t="s">
         <v>295</v>
@@ -9400,16 +9267,16 @@
         <v>296</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F225" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A226" s="68"/>
+    <row r="226" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A226" s="76"/>
       <c r="B226" s="43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C226" s="14" t="s">
         <v>297</v>
@@ -9418,16 +9285,16 @@
         <v>298</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F226" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A227" s="68"/>
+    <row r="227" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A227" s="76"/>
       <c r="B227" s="43" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C227" s="14" t="s">
         <v>299</v>
@@ -9436,16 +9303,16 @@
         <v>300</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F227" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A228" s="68"/>
+    <row r="228" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="76"/>
       <c r="B228" s="43" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C228" s="14" t="s">
         <v>301</v>
@@ -9454,16 +9321,16 @@
         <v>296</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F228" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A229" s="68"/>
+    <row r="229" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A229" s="76"/>
       <c r="B229" s="43" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C229" s="14" t="s">
         <v>302</v>
@@ -9472,16 +9339,16 @@
         <v>303</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F229" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="68"/>
+    <row r="230" spans="1:6" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="76"/>
       <c r="B230" s="43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C230" s="14" t="s">
         <v>304</v>
@@ -9490,16 +9357,16 @@
         <v>305</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F230" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A231" s="68"/>
+    <row r="231" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A231" s="76"/>
       <c r="B231" s="43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C231" s="14" t="s">
         <v>306</v>
@@ -9508,16 +9375,16 @@
         <v>296</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F231" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A232" s="68"/>
+    <row r="232" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="76"/>
       <c r="B232" s="43" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C232" s="14" t="s">
         <v>307</v>
@@ -9526,16 +9393,16 @@
         <v>308</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F232" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A233" s="68"/>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="76"/>
       <c r="B233" s="43" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C233" s="14" t="s">
         <v>309</v>
@@ -9544,16 +9411,16 @@
         <v>310</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F233" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A234" s="68"/>
+    <row r="234" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A234" s="76"/>
       <c r="B234" s="43" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C234" s="14" t="s">
         <v>311</v>
@@ -9562,16 +9429,16 @@
         <v>312</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F234" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="68"/>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="76"/>
       <c r="B235" s="43" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C235" s="14" t="s">
         <v>313</v>
@@ -9580,16 +9447,16 @@
         <v>314</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F235" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A236" s="68"/>
+    <row r="236" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="76"/>
       <c r="B236" s="43" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C236" s="14" t="s">
         <v>315</v>
@@ -9598,52 +9465,52 @@
         <v>296</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F236" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A237" s="68"/>
+    <row r="237" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="76"/>
       <c r="B237" s="43" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C237" s="14" t="s">
         <v>316</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F237" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="68"/>
+    <row r="238" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="76"/>
       <c r="B238" s="43" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C238" s="14" t="s">
         <v>317</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F238" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="68"/>
+    <row r="239" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="76"/>
       <c r="B239" s="43" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C239" s="14" t="s">
         <v>318</v>
@@ -9652,16 +9519,16 @@
         <v>319</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F239" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="68"/>
+    <row r="240" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="76"/>
       <c r="B240" s="43" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C240" s="14" t="s">
         <v>320</v>
@@ -9670,34 +9537,34 @@
         <v>296</v>
       </c>
       <c r="E240" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F240" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="68"/>
+    <row r="241" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A241" s="76"/>
       <c r="B241" s="43" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>296</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F241" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A242" s="68"/>
+    <row r="242" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A242" s="76"/>
       <c r="B242" s="43" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C242" s="14" t="s">
         <v>321</v>
@@ -9706,16 +9573,16 @@
         <v>296</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F242" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="68"/>
+    <row r="243" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="76"/>
       <c r="B243" s="43" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>322</v>
@@ -9724,16 +9591,16 @@
         <v>323</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F243" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="68"/>
+    <row r="244" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="76"/>
       <c r="B244" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C244" s="14" t="s">
         <v>324</v>
@@ -9742,34 +9609,34 @@
         <v>310</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F244" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="68"/>
+    <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="76"/>
       <c r="B245" s="43" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C245" s="14" t="s">
         <v>325</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F245" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="68"/>
+    <row r="246" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A246" s="76"/>
       <c r="B246" s="43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C246" s="14" t="s">
         <v>55</v>
@@ -9778,16 +9645,16 @@
         <v>326</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F246" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A247" s="68"/>
+    <row r="247" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A247" s="76"/>
       <c r="B247" s="43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>57</v>
@@ -9796,16 +9663,16 @@
         <v>58</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F247" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="68"/>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248" s="76"/>
       <c r="B248" s="43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C248" s="14" t="s">
         <v>59</v>
@@ -9814,16 +9681,16 @@
         <v>60</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F248" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="68"/>
+    <row r="249" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A249" s="76"/>
       <c r="B249" s="43" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C249" s="14" t="s">
         <v>61</v>
@@ -9832,16 +9699,16 @@
         <v>247</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F249" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A250" s="68"/>
+    <row r="250" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A250" s="76"/>
       <c r="B250" s="43" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C250" s="14" t="s">
         <v>63</v>
@@ -9850,117 +9717,117 @@
         <v>248</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F250" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="68"/>
+    <row r="251" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A251" s="76"/>
       <c r="B251" s="43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C251" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F251" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A252" s="68"/>
+    <row r="252" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A252" s="76"/>
       <c r="B252" s="43" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C252" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F252" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="73"/>
+    <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="81"/>
       <c r="B253" s="52" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C253" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E253" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F253" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="73"/>
+    <row r="254" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="81"/>
       <c r="B254" s="57" t="s">
+        <v>888</v>
+      </c>
+      <c r="C254" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="D254" s="72" t="s">
+        <v>891</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F254" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="77"/>
+      <c r="B255" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="C254" s="80" t="s">
-        <v>891</v>
-      </c>
-      <c r="D254" s="81" t="s">
+      <c r="C255" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="E254" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F254" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="69"/>
-      <c r="B255" s="18" t="s">
-        <v>890</v>
-      </c>
-      <c r="C255" s="18" t="s">
+      <c r="D255" s="18" t="s">
         <v>893</v>
       </c>
-      <c r="D255" s="18" t="s">
-        <v>894</v>
-      </c>
       <c r="E255" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F255" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="67" t="s">
+    <row r="256" spans="1:8" ht="216.5" x14ac:dyDescent="0.35">
+      <c r="A256" s="75" t="s">
         <v>327</v>
       </c>
       <c r="B256" s="49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>328</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E256" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F256" s="51" t="s">
         <v>329</v>
@@ -9968,10 +9835,10 @@
       <c r="G256" s="41"/>
       <c r="H256" s="8"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="68"/>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257" s="76"/>
       <c r="B257" s="43" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C257" s="14" t="s">
         <v>330</v>
@@ -9980,7 +9847,7 @@
         <v>331</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F257" s="44" t="s">
         <v>329</v>
@@ -9988,19 +9855,19 @@
       <c r="G257" s="41"/>
       <c r="H257" s="8"/>
     </row>
-    <row r="258" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A258" s="68"/>
+    <row r="258" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A258" s="76"/>
       <c r="B258" s="43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D258" s="15" t="s">
         <v>331</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F258" s="44" t="s">
         <v>329</v>
@@ -10008,10 +9875,10 @@
       <c r="G258" s="41"/>
       <c r="H258" s="8"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="68"/>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259" s="76"/>
       <c r="B259" s="43" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C259" s="14" t="s">
         <v>332</v>
@@ -10020,7 +9887,7 @@
         <v>284</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F259" s="44" t="s">
         <v>329</v>
@@ -10028,10 +9895,10 @@
       <c r="G259" s="41"/>
       <c r="H259" s="8"/>
     </row>
-    <row r="260" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A260" s="68"/>
+    <row r="260" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A260" s="76"/>
       <c r="B260" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C260" s="14" t="s">
         <v>333</v>
@@ -10040,7 +9907,7 @@
         <v>334</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F260" s="44" t="s">
         <v>329</v>
@@ -10048,10 +9915,10 @@
       <c r="G260" s="41"/>
       <c r="H260" s="8"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="68"/>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261" s="76"/>
       <c r="B261" s="43" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C261" s="14" t="s">
         <v>335</v>
@@ -10060,7 +9927,7 @@
         <v>334</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F261" s="44" t="s">
         <v>329</v>
@@ -10068,10 +9935,10 @@
       <c r="G261" s="41"/>
       <c r="H261" s="8"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="68"/>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262" s="76"/>
       <c r="B262" s="43" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C262" s="14" t="s">
         <v>336</v>
@@ -10080,7 +9947,7 @@
         <v>39</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F262" s="44" t="s">
         <v>329</v>
@@ -10088,10 +9955,10 @@
       <c r="G262" s="41"/>
       <c r="H262" s="8"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="68"/>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263" s="76"/>
       <c r="B263" s="43" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C263" s="14" t="s">
         <v>135</v>
@@ -10100,7 +9967,7 @@
         <v>337</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F263" s="44" t="s">
         <v>329</v>
@@ -10108,10 +9975,10 @@
       <c r="G263" s="41"/>
       <c r="H263" s="8"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="68"/>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264" s="76"/>
       <c r="B264" s="43" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C264" s="14" t="s">
         <v>137</v>
@@ -10120,7 +9987,7 @@
         <v>338</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F264" s="44" t="s">
         <v>329</v>
@@ -10128,10 +9995,10 @@
       <c r="G264" s="41"/>
       <c r="H264" s="8"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="68"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265" s="76"/>
       <c r="B265" s="43" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C265" s="14" t="s">
         <v>339</v>
@@ -10140,7 +10007,7 @@
         <v>340</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F265" s="44" t="s">
         <v>329</v>
@@ -10148,10 +10015,10 @@
       <c r="G265" s="41"/>
       <c r="H265" s="8"/>
     </row>
-    <row r="266" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A266" s="68"/>
+    <row r="266" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="76"/>
       <c r="B266" s="43" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C266" s="14" t="s">
         <v>341</v>
@@ -10160,7 +10027,7 @@
         <v>342</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F266" s="44" t="s">
         <v>329</v>
@@ -10168,10 +10035,10 @@
       <c r="G266" s="41"/>
       <c r="H266" s="8"/>
     </row>
-    <row r="267" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A267" s="68"/>
+    <row r="267" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A267" s="76"/>
       <c r="B267" s="43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C267" s="14" t="s">
         <v>343</v>
@@ -10180,7 +10047,7 @@
         <v>344</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F267" s="44" t="s">
         <v>329</v>
@@ -10188,10 +10055,10 @@
       <c r="G267" s="41"/>
       <c r="H267" s="8"/>
     </row>
-    <row r="268" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A268" s="68"/>
+    <row r="268" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A268" s="76"/>
       <c r="B268" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C268" s="14" t="s">
         <v>345</v>
@@ -10200,7 +10067,7 @@
         <v>346</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F268" s="44" t="s">
         <v>329</v>
@@ -10208,10 +10075,10 @@
       <c r="G268" s="41"/>
       <c r="H268" s="8"/>
     </row>
-    <row r="269" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A269" s="68"/>
+    <row r="269" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A269" s="76"/>
       <c r="B269" s="43" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C269" s="14" t="s">
         <v>347</v>
@@ -10220,7 +10087,7 @@
         <v>348</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F269" s="44" t="s">
         <v>329</v>
@@ -10228,10 +10095,10 @@
       <c r="G269" s="41"/>
       <c r="H269" s="8"/>
     </row>
-    <row r="270" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A270" s="68"/>
+    <row r="270" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A270" s="76"/>
       <c r="B270" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C270" s="14" t="s">
         <v>349</v>
@@ -10240,7 +10107,7 @@
         <v>350</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F270" s="44" t="s">
         <v>329</v>
@@ -10248,10 +10115,10 @@
       <c r="G270" s="41"/>
       <c r="H270" s="8"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="68"/>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A271" s="76"/>
       <c r="B271" s="43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C271" s="14" t="s">
         <v>351</v>
@@ -10260,7 +10127,7 @@
         <v>350</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F271" s="44" t="s">
         <v>329</v>
@@ -10268,10 +10135,10 @@
       <c r="G271" s="41"/>
       <c r="H271" s="8"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="68"/>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A272" s="76"/>
       <c r="B272" s="43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C272" s="14" t="s">
         <v>352</v>
@@ -10280,7 +10147,7 @@
         <v>353</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F272" s="44" t="s">
         <v>329</v>
@@ -10288,10 +10155,10 @@
       <c r="G272" s="41"/>
       <c r="H272" s="8"/>
     </row>
-    <row r="273" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A273" s="68"/>
+    <row r="273" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A273" s="76"/>
       <c r="B273" s="43" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C273" s="14" t="s">
         <v>354</v>
@@ -10300,7 +10167,7 @@
         <v>355</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F273" s="44" t="s">
         <v>329</v>
@@ -10308,10 +10175,10 @@
       <c r="G273" s="41"/>
       <c r="H273" s="8"/>
     </row>
-    <row r="274" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="68"/>
+    <row r="274" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A274" s="76"/>
       <c r="B274" s="43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C274" s="14" t="s">
         <v>69</v>
@@ -10320,7 +10187,7 @@
         <v>70</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F274" s="44" t="s">
         <v>44</v>
@@ -10328,19 +10195,19 @@
       <c r="G274" s="41"/>
       <c r="H274" s="8"/>
     </row>
-    <row r="275" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="69"/>
+    <row r="275" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A275" s="77"/>
       <c r="B275" s="52" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C275" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E275" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F275" s="47" t="s">
         <v>44</v>
@@ -10348,21 +10215,21 @@
       <c r="G275" s="41"/>
       <c r="H275" s="8"/>
     </row>
-    <row r="276" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A276" s="67" t="s">
+    <row r="276" spans="1:8" ht="68" x14ac:dyDescent="0.35">
+      <c r="A276" s="75" t="s">
         <v>356</v>
       </c>
       <c r="B276" s="49" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>357</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E276" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F276" s="51" t="s">
         <v>5</v>
@@ -10370,10 +10237,10 @@
       <c r="G276" s="41"/>
       <c r="H276" s="8"/>
     </row>
-    <row r="277" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A277" s="68"/>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277" s="76"/>
       <c r="B277" s="43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C277" s="14" t="s">
         <v>358</v>
@@ -10382,7 +10249,7 @@
         <v>359</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F277" s="44" t="s">
         <v>5</v>
@@ -10390,10 +10257,10 @@
       <c r="G277" s="41"/>
       <c r="H277" s="8"/>
     </row>
-    <row r="278" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A278" s="68"/>
+    <row r="278" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A278" s="76"/>
       <c r="B278" s="43" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C278" s="14" t="s">
         <v>360</v>
@@ -10402,7 +10269,7 @@
         <v>361</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F278" s="44" t="s">
         <v>5</v>
@@ -10410,10 +10277,10 @@
       <c r="G278" s="41"/>
       <c r="H278" s="8"/>
     </row>
-    <row r="279" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A279" s="68"/>
+    <row r="279" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A279" s="76"/>
       <c r="B279" s="43" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C279" s="14" t="s">
         <v>362</v>
@@ -10422,7 +10289,7 @@
         <v>363</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F279" s="44" t="s">
         <v>68</v>
@@ -10430,19 +10297,19 @@
       <c r="G279" s="41"/>
       <c r="H279" s="8"/>
     </row>
-    <row r="280" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="68"/>
+    <row r="280" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A280" s="76"/>
       <c r="B280" s="43" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C280" s="14" t="s">
         <v>364</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F280" s="44" t="s">
         <v>68</v>
@@ -10450,10 +10317,10 @@
       <c r="G280" s="41"/>
       <c r="H280" s="8"/>
     </row>
-    <row r="281" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A281" s="68"/>
+    <row r="281" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A281" s="76"/>
       <c r="B281" s="43" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C281" s="14" t="s">
         <v>365</v>
@@ -10462,7 +10329,7 @@
         <v>366</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F281" s="44" t="s">
         <v>68</v>
@@ -10470,10 +10337,10 @@
       <c r="G281" s="41"/>
       <c r="H281" s="8"/>
     </row>
-    <row r="282" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="69"/>
+    <row r="282" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A282" s="77"/>
       <c r="B282" s="52" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C282" s="16" t="s">
         <v>362</v>
@@ -10482,7 +10349,7 @@
         <v>363</v>
       </c>
       <c r="E282" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F282" s="47" t="s">
         <v>68</v>
@@ -10490,12 +10357,12 @@
       <c r="G282" s="41"/>
       <c r="H282" s="8"/>
     </row>
-    <row r="283" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A283" s="67" t="s">
+    <row r="283" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="75" t="s">
         <v>367</v>
       </c>
       <c r="B283" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>368</v>
@@ -10504,7 +10371,7 @@
         <v>369</v>
       </c>
       <c r="E283" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F283" s="51" t="s">
         <v>5</v>
@@ -10512,19 +10379,19 @@
       <c r="G283" s="41"/>
       <c r="H283" s="8"/>
     </row>
-    <row r="284" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A284" s="68"/>
+    <row r="284" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A284" s="76"/>
       <c r="B284" s="43" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C284" s="14" t="s">
         <v>370</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E284" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F284" s="44" t="s">
         <v>124</v>
@@ -10532,10 +10399,10 @@
       <c r="G284" s="41"/>
       <c r="H284" s="8"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="68"/>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A285" s="76"/>
       <c r="B285" s="43" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C285" s="14" t="s">
         <v>371</v>
@@ -10544,7 +10411,7 @@
         <v>372</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F285" s="44" t="s">
         <v>124</v>
@@ -10552,10 +10419,10 @@
       <c r="G285" s="41"/>
       <c r="H285" s="8"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="68"/>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A286" s="76"/>
       <c r="B286" s="43" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C286" s="14" t="s">
         <v>373</v>
@@ -10564,7 +10431,7 @@
         <v>374</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F286" s="44" t="s">
         <v>124</v>
@@ -10572,10 +10439,10 @@
       <c r="G286" s="41"/>
       <c r="H286" s="8"/>
     </row>
-    <row r="287" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A287" s="68"/>
+    <row r="287" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A287" s="76"/>
       <c r="B287" s="43" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C287" s="14" t="s">
         <v>375</v>
@@ -10584,7 +10451,7 @@
         <v>374</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F287" s="44" t="s">
         <v>5</v>
@@ -10592,10 +10459,10 @@
       <c r="G287" s="41"/>
       <c r="H287" s="8"/>
     </row>
-    <row r="288" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A288" s="68"/>
+    <row r="288" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A288" s="76"/>
       <c r="B288" s="43" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C288" s="14" t="s">
         <v>376</v>
@@ -10604,7 +10471,7 @@
         <v>377</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F288" s="44" t="s">
         <v>5</v>
@@ -10612,10 +10479,10 @@
       <c r="G288" s="41"/>
       <c r="H288" s="8"/>
     </row>
-    <row r="289" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="68"/>
+    <row r="289" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A289" s="76"/>
       <c r="B289" s="43" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C289" s="14" t="s">
         <v>378</v>
@@ -10624,7 +10491,7 @@
         <v>379</v>
       </c>
       <c r="E289" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F289" s="44" t="s">
         <v>5</v>
@@ -10632,10 +10499,10 @@
       <c r="G289" s="41"/>
       <c r="H289" s="8"/>
     </row>
-    <row r="290" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A290" s="68"/>
+    <row r="290" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A290" s="76"/>
       <c r="B290" s="43" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C290" s="14" t="s">
         <v>380</v>
@@ -10644,7 +10511,7 @@
         <v>381</v>
       </c>
       <c r="E290" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F290" s="44" t="s">
         <v>5</v>
@@ -10652,10 +10519,10 @@
       <c r="G290" s="41"/>
       <c r="H290" s="8"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="68"/>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A291" s="76"/>
       <c r="B291" s="43" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C291" s="14" t="s">
         <v>382</v>
@@ -10664,7 +10531,7 @@
         <v>383</v>
       </c>
       <c r="E291" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F291" s="44" t="s">
         <v>5</v>
@@ -10672,10 +10539,10 @@
       <c r="G291" s="41"/>
       <c r="H291" s="8"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="68"/>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A292" s="76"/>
       <c r="B292" s="43" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C292" s="14" t="s">
         <v>384</v>
@@ -10684,7 +10551,7 @@
         <v>385</v>
       </c>
       <c r="E292" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F292" s="44" t="s">
         <v>5</v>
@@ -10692,10 +10559,10 @@
       <c r="G292" s="41"/>
       <c r="H292" s="8"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="68"/>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A293" s="76"/>
       <c r="B293" s="43" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C293" s="14" t="s">
         <v>386</v>
@@ -10704,7 +10571,7 @@
         <v>387</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F293" s="44" t="s">
         <v>5</v>
@@ -10712,10 +10579,10 @@
       <c r="G293" s="41"/>
       <c r="H293" s="8"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="68"/>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A294" s="76"/>
       <c r="B294" s="43" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C294" s="14" t="s">
         <v>388</v>
@@ -10724,7 +10591,7 @@
         <v>389</v>
       </c>
       <c r="E294" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F294" s="44" t="s">
         <v>5</v>
@@ -10732,19 +10599,19 @@
       <c r="G294" s="41"/>
       <c r="H294" s="8"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="68"/>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A295" s="76"/>
       <c r="B295" s="57" t="s">
+        <v>878</v>
+      </c>
+      <c r="C295" s="14" t="s">
         <v>879</v>
       </c>
-      <c r="C295" s="14" t="s">
+      <c r="D295" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="D295" s="15" t="s">
-        <v>881</v>
-      </c>
       <c r="E295" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F295" s="44" t="s">
         <v>5</v>
@@ -10752,10 +10619,10 @@
       <c r="G295" s="41"/>
       <c r="H295" s="8"/>
     </row>
-    <row r="296" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="68"/>
+    <row r="296" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A296" s="76"/>
       <c r="B296" s="43" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C296" s="14" t="s">
         <v>390</v>
@@ -10764,7 +10631,7 @@
         <v>391</v>
       </c>
       <c r="E296" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F296" s="44" t="s">
         <v>5</v>
@@ -10772,10 +10639,10 @@
       <c r="G296" s="41"/>
       <c r="H296" s="8"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="68"/>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A297" s="76"/>
       <c r="B297" s="43" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C297" s="14" t="s">
         <v>392</v>
@@ -10784,7 +10651,7 @@
         <v>393</v>
       </c>
       <c r="E297" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F297" s="44" t="s">
         <v>5</v>
@@ -10792,10 +10659,10 @@
       <c r="G297" s="41"/>
       <c r="H297" s="8"/>
     </row>
-    <row r="298" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A298" s="68"/>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A298" s="76"/>
       <c r="B298" s="43" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C298" s="14" t="s">
         <v>394</v>
@@ -10804,7 +10671,7 @@
         <v>395</v>
       </c>
       <c r="E298" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F298" s="44" t="s">
         <v>44</v>
@@ -10812,10 +10679,10 @@
       <c r="G298" s="41"/>
       <c r="H298" s="8"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="68"/>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A299" s="76"/>
       <c r="B299" s="43" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C299" s="14" t="s">
         <v>396</v>
@@ -10824,7 +10691,7 @@
         <v>397</v>
       </c>
       <c r="E299" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F299" s="44" t="s">
         <v>5</v>
@@ -10832,10 +10699,10 @@
       <c r="G299" s="41"/>
       <c r="H299" s="8"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="68"/>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A300" s="76"/>
       <c r="B300" s="43" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C300" s="14" t="s">
         <v>398</v>
@@ -10844,7 +10711,7 @@
         <v>399</v>
       </c>
       <c r="E300" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F300" s="44" t="s">
         <v>5</v>
@@ -10852,19 +10719,19 @@
       <c r="G300" s="41"/>
       <c r="H300" s="8"/>
     </row>
-    <row r="301" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A301" s="68"/>
+    <row r="301" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A301" s="76"/>
       <c r="B301" s="43" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C301" s="14" t="s">
         <v>400</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E301" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F301" s="44" t="s">
         <v>5</v>
@@ -10872,19 +10739,19 @@
       <c r="G301" s="41"/>
       <c r="H301" s="8"/>
     </row>
-    <row r="302" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A302" s="68"/>
+    <row r="302" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A302" s="76"/>
       <c r="B302" s="43" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C302" s="14" t="s">
         <v>401</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E302" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F302" s="44" t="s">
         <v>5</v>
@@ -10892,10 +10759,10 @@
       <c r="G302" s="41"/>
       <c r="H302" s="8"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="68"/>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A303" s="76"/>
       <c r="B303" s="43" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C303" s="14" t="s">
         <v>402</v>
@@ -10904,7 +10771,7 @@
         <v>403</v>
       </c>
       <c r="E303" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F303" s="44" t="s">
         <v>5</v>
@@ -10912,10 +10779,10 @@
       <c r="G303" s="41"/>
       <c r="H303" s="8"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="68"/>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A304" s="76"/>
       <c r="B304" s="43" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C304" s="14" t="s">
         <v>404</v>
@@ -10924,7 +10791,7 @@
         <v>405</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F304" s="44" t="s">
         <v>5</v>
@@ -10932,10 +10799,10 @@
       <c r="G304" s="41"/>
       <c r="H304" s="8"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="68"/>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A305" s="76"/>
       <c r="B305" s="43" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C305" s="14" t="s">
         <v>406</v>
@@ -10944,7 +10811,7 @@
         <v>407</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F305" s="44" t="s">
         <v>5</v>
@@ -10952,10 +10819,10 @@
       <c r="G305" s="41"/>
       <c r="H305" s="8"/>
     </row>
-    <row r="306" spans="1:8" ht="179.25" x14ac:dyDescent="0.25">
-      <c r="A306" s="68"/>
+    <row r="306" spans="1:8" ht="189.5" x14ac:dyDescent="0.35">
+      <c r="A306" s="76"/>
       <c r="B306" s="43" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C306" s="14" t="s">
         <v>408</v>
@@ -10964,7 +10831,7 @@
         <v>409</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F306" s="44" t="s">
         <v>44</v>
@@ -10972,10 +10839,10 @@
       <c r="G306" s="41"/>
       <c r="H306" s="8"/>
     </row>
-    <row r="307" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A307" s="68"/>
+    <row r="307" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A307" s="76"/>
       <c r="B307" s="43" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C307" s="14" t="s">
         <v>57</v>
@@ -10984,7 +10851,7 @@
         <v>58</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F307" s="44" t="s">
         <v>44</v>
@@ -10992,10 +10859,10 @@
       <c r="G307" s="41"/>
       <c r="H307" s="8"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="68"/>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A308" s="76"/>
       <c r="B308" s="43" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C308" s="14" t="s">
         <v>59</v>
@@ -11004,7 +10871,7 @@
         <v>60</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F308" s="44" t="s">
         <v>44</v>
@@ -11012,10 +10879,10 @@
       <c r="G308" s="41"/>
       <c r="H308" s="8"/>
     </row>
-    <row r="309" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A309" s="68"/>
+    <row r="309" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A309" s="76"/>
       <c r="B309" s="43" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C309" s="14" t="s">
         <v>61</v>
@@ -11024,7 +10891,7 @@
         <v>247</v>
       </c>
       <c r="E309" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F309" s="44" t="s">
         <v>44</v>
@@ -11032,10 +10899,10 @@
       <c r="G309" s="41"/>
       <c r="H309" s="8"/>
     </row>
-    <row r="310" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A310" s="68"/>
+    <row r="310" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A310" s="76"/>
       <c r="B310" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C310" s="14" t="s">
         <v>63</v>
@@ -11044,7 +10911,7 @@
         <v>248</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F310" s="44" t="s">
         <v>44</v>
@@ -11052,10 +10919,10 @@
       <c r="G310" s="41"/>
       <c r="H310" s="8"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="68"/>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A311" s="76"/>
       <c r="B311" s="43" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C311" s="14" t="s">
         <v>410</v>
@@ -11064,7 +10931,7 @@
         <v>411</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F311" s="44" t="s">
         <v>44</v>
@@ -11072,10 +10939,10 @@
       <c r="G311" s="41"/>
       <c r="H311" s="8"/>
     </row>
-    <row r="312" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A312" s="68"/>
+    <row r="312" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A312" s="76"/>
       <c r="B312" s="43" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C312" s="14" t="s">
         <v>65</v>
@@ -11084,7 +10951,7 @@
         <v>193</v>
       </c>
       <c r="E312" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F312" s="44" t="s">
         <v>44</v>
@@ -11092,10 +10959,10 @@
       <c r="G312" s="41"/>
       <c r="H312" s="8"/>
     </row>
-    <row r="313" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A313" s="68"/>
+    <row r="313" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A313" s="76"/>
       <c r="B313" s="43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C313" s="14" t="s">
         <v>412</v>
@@ -11104,7 +10971,7 @@
         <v>413</v>
       </c>
       <c r="E313" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F313" s="44" t="s">
         <v>44</v>
@@ -11112,10 +10979,10 @@
       <c r="G313" s="41"/>
       <c r="H313" s="8"/>
     </row>
-    <row r="314" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A314" s="68"/>
+    <row r="314" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A314" s="76"/>
       <c r="B314" s="43" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>414</v>
@@ -11124,7 +10991,7 @@
         <v>415</v>
       </c>
       <c r="E314" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F314" s="44" t="s">
         <v>5</v>
@@ -11132,10 +10999,10 @@
       <c r="G314" s="41"/>
       <c r="H314" s="8"/>
     </row>
-    <row r="315" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A315" s="68"/>
+    <row r="315" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A315" s="76"/>
       <c r="B315" s="43" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C315" s="14" t="s">
         <v>416</v>
@@ -11144,7 +11011,7 @@
         <v>417</v>
       </c>
       <c r="E315" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F315" s="44" t="s">
         <v>5</v>
@@ -11152,10 +11019,10 @@
       <c r="G315" s="41"/>
       <c r="H315" s="8"/>
     </row>
-    <row r="316" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A316" s="68"/>
+    <row r="316" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A316" s="76"/>
       <c r="B316" s="43" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>418</v>
@@ -11164,7 +11031,7 @@
         <v>419</v>
       </c>
       <c r="E316" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F316" s="44" t="s">
         <v>329</v>
@@ -11172,10 +11039,10 @@
       <c r="G316" s="42"/>
       <c r="H316" s="9"/>
     </row>
-    <row r="317" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="68"/>
+    <row r="317" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A317" s="76"/>
       <c r="B317" s="43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C317" s="14" t="s">
         <v>420</v>
@@ -11184,7 +11051,7 @@
         <v>421</v>
       </c>
       <c r="E317" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F317" s="44" t="s">
         <v>329</v>
@@ -11192,10 +11059,10 @@
       <c r="G317" s="41"/>
       <c r="H317" s="8"/>
     </row>
-    <row r="318" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A318" s="68"/>
+    <row r="318" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A318" s="76"/>
       <c r="B318" s="43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C318" s="14" t="s">
         <v>422</v>
@@ -11204,18 +11071,18 @@
         <v>423</v>
       </c>
       <c r="E318" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F318" s="44" t="s">
-        <v>329</v>
+        <v>5</v>
       </c>
       <c r="G318" s="41"/>
       <c r="H318" s="8"/>
     </row>
-    <row r="319" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A319" s="68"/>
+    <row r="319" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A319" s="76"/>
       <c r="B319" s="43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C319" s="14" t="s">
         <v>424</v>
@@ -11224,154 +11091,164 @@
         <v>425</v>
       </c>
       <c r="E319" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F319" s="44" t="s">
-        <v>329</v>
+        <v>5</v>
       </c>
       <c r="G319" s="41"/>
       <c r="H319" s="8"/>
     </row>
-    <row r="320" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="69"/>
-      <c r="B320" s="52" t="s">
-        <v>827</v>
+    <row r="320" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A320" s="81"/>
+      <c r="B320" s="57" t="s">
+        <v>826</v>
       </c>
       <c r="C320" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="D320" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="D320" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="E320" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="F320" s="47" t="s">
-        <v>329</v>
+      <c r="E320" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F320" s="44" t="s">
+        <v>5</v>
       </c>
       <c r="G320" s="41"/>
       <c r="H320" s="8"/>
     </row>
-    <row r="321" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A321" s="67" t="s">
+    <row r="321" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A321" s="81"/>
+      <c r="B321" s="57" t="s">
+        <v>895</v>
+      </c>
+      <c r="C321" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="D321" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="E321" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F321" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G321" s="41"/>
+      <c r="H321" s="8"/>
+    </row>
+    <row r="322" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A322" s="81"/>
+      <c r="B322" s="57" t="s">
+        <v>898</v>
+      </c>
+      <c r="C322" s="71" t="s">
+        <v>897</v>
+      </c>
+      <c r="D322" s="72" t="s">
+        <v>900</v>
+      </c>
+      <c r="E322" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F322" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G322" s="41"/>
+      <c r="H322" s="8"/>
+    </row>
+    <row r="323" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A323" s="81"/>
+      <c r="B323" s="57" t="s">
+        <v>899</v>
+      </c>
+      <c r="C323" s="71" t="s">
+        <v>903</v>
+      </c>
+      <c r="D323" s="72" t="s">
+        <v>901</v>
+      </c>
+      <c r="E323" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F323" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G323" s="41"/>
+      <c r="H323" s="8"/>
+    </row>
+    <row r="324" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A324" s="81"/>
+      <c r="B324" s="57" t="s">
+        <v>905</v>
+      </c>
+      <c r="C324" s="71" t="s">
+        <v>902</v>
+      </c>
+      <c r="D324" s="72" t="s">
+        <v>900</v>
+      </c>
+      <c r="E324" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F324" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G324" s="41"/>
+      <c r="H324" s="8"/>
+    </row>
+    <row r="325" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A325" s="77"/>
+      <c r="B325" s="52" t="s">
+        <v>906</v>
+      </c>
+      <c r="C325" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="D325" s="72" t="s">
+        <v>901</v>
+      </c>
+      <c r="E325" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F325" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G325" s="41"/>
+      <c r="H325" s="8"/>
+    </row>
+    <row r="326" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A326" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="B326" s="49" t="s">
+        <v>827</v>
+      </c>
+      <c r="C326" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="B321" s="49" t="s">
+      <c r="D326" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="E326" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="F326" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="41" x14ac:dyDescent="0.35">
+      <c r="A327" s="76"/>
+      <c r="B327" s="43" t="s">
         <v>828</v>
       </c>
-      <c r="C321" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="D321" s="21" t="s">
+      <c r="C327" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="E321" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="F321" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A322" s="68"/>
-      <c r="B322" s="43" t="s">
-        <v>829</v>
-      </c>
-      <c r="C322" s="22" t="s">
+      <c r="D327" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="D322" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="E322" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="F322" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="68"/>
-      <c r="B323" s="43" t="s">
-        <v>830</v>
-      </c>
-      <c r="C323" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="D323" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="E323" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="F323" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="68"/>
-      <c r="B324" s="43" t="s">
-        <v>831</v>
-      </c>
-      <c r="C324" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="D324" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F324" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="68"/>
-      <c r="B325" s="43" t="s">
-        <v>832</v>
-      </c>
-      <c r="C325" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="D325" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F325" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A326" s="68"/>
-      <c r="B326" s="43" t="s">
-        <v>833</v>
-      </c>
-      <c r="C326" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="D326" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="E326" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F326" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="68"/>
-      <c r="B327" s="43" t="s">
-        <v>834</v>
-      </c>
-      <c r="C327" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="D327" s="23" t="s">
-        <v>441</v>
       </c>
       <c r="E327" s="13" t="s">
         <v>517</v>
@@ -11380,16 +11257,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="68"/>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A328" s="76"/>
       <c r="B328" s="43" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D328" s="23" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E328" s="13" t="s">
         <v>517</v>
@@ -11398,356 +11275,447 @@
         <v>44</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="69"/>
-      <c r="B329" s="52" t="s">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A329" s="76"/>
+      <c r="B329" s="43" t="s">
+        <v>830</v>
+      </c>
+      <c r="C329" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D329" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E329" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F329" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A330" s="76"/>
+      <c r="B330" s="43" t="s">
+        <v>831</v>
+      </c>
+      <c r="C330" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D330" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E330" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F330" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A331" s="76"/>
+      <c r="B331" s="43" t="s">
+        <v>832</v>
+      </c>
+      <c r="C331" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D331" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="E331" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F331" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A332" s="76"/>
+      <c r="B332" s="43" t="s">
+        <v>833</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D332" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E332" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F332" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A333" s="76"/>
+      <c r="B333" s="43" t="s">
+        <v>834</v>
+      </c>
+      <c r="C333" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D333" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="E333" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F333" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A334" s="77"/>
+      <c r="B334" s="52" t="s">
+        <v>835</v>
+      </c>
+      <c r="C334" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="D334" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E334" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="F334" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="68" x14ac:dyDescent="0.35">
+      <c r="A335" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="B335" s="49" t="s">
         <v>836</v>
       </c>
-      <c r="C329" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="D329" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="E329" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="F329" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A330" s="67" t="s">
+      <c r="C335" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="B330" s="49" t="s">
+      <c r="D335" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E335" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="F335" s="51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="68" x14ac:dyDescent="0.35">
+      <c r="A336" s="76"/>
+      <c r="B336" s="43" t="s">
         <v>837</v>
       </c>
-      <c r="C330" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="D330" s="27" t="s">
+      <c r="C336" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="E330" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="F330" s="51" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A331" s="68"/>
-      <c r="B331" s="43" t="s">
-        <v>838</v>
-      </c>
-      <c r="C331" s="28" t="s">
+      <c r="D336" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="D331" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="E331" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F331" s="44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A332" s="68"/>
-      <c r="B332" s="43" t="s">
-        <v>839</v>
-      </c>
-      <c r="C332" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="D332" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E332" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F332" s="44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A333" s="68"/>
-      <c r="B333" s="43" t="s">
-        <v>840</v>
-      </c>
-      <c r="C333" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="D333" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="E333" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F333" s="44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A334" s="68"/>
-      <c r="B334" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="C334" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="D334" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="E334" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F334" s="44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="68"/>
-      <c r="B335" s="43" t="s">
-        <v>842</v>
-      </c>
-      <c r="C335" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="D335" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="E335" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F335" s="44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A336" s="68"/>
-      <c r="B336" s="43" t="s">
-        <v>843</v>
-      </c>
-      <c r="C336" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="D336" s="29" t="s">
-        <v>460</v>
-      </c>
       <c r="E336" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F336" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A337" s="68"/>
+    <row r="337" spans="1:6" ht="68" x14ac:dyDescent="0.35">
+      <c r="A337" s="76"/>
       <c r="B337" s="43" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F337" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A338" s="68"/>
+    <row r="338" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A338" s="76"/>
       <c r="B338" s="43" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C338" s="28" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D338" s="29" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F338" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A339" s="68"/>
+    <row r="339" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A339" s="76"/>
       <c r="B339" s="43" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C339" s="28" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D339" s="29" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F339" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A340" s="68"/>
+    <row r="340" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A340" s="76"/>
       <c r="B340" s="43" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C340" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D340" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="E340" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F340" s="44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="A341" s="76"/>
+      <c r="B341" s="43" t="s">
+        <v>842</v>
+      </c>
+      <c r="C341" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D341" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="E341" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F341" s="44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A342" s="76"/>
+      <c r="B342" s="43" t="s">
+        <v>843</v>
+      </c>
+      <c r="C342" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D342" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="E342" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F342" s="44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A343" s="76"/>
+      <c r="B343" s="43" t="s">
+        <v>844</v>
+      </c>
+      <c r="C343" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D343" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="E343" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F343" s="44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A344" s="76"/>
+      <c r="B344" s="43" t="s">
+        <v>845</v>
+      </c>
+      <c r="C344" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D344" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="E344" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F344" s="44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="81.5" x14ac:dyDescent="0.35">
+      <c r="A345" s="76"/>
+      <c r="B345" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="C345" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D345" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="D340" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="E340" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F340" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A341" s="68"/>
-      <c r="B341" s="43" t="s">
-        <v>848</v>
-      </c>
-      <c r="C341" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="D341" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="E341" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F341" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A342" s="68"/>
-      <c r="B342" s="43" t="s">
-        <v>849</v>
-      </c>
-      <c r="C342" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="D342" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="E342" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F342" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A343" s="68"/>
-      <c r="B343" s="43" t="s">
-        <v>850</v>
-      </c>
-      <c r="C343" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D343" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="E343" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F343" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A344" s="68"/>
-      <c r="B344" s="43" t="s">
-        <v>851</v>
-      </c>
-      <c r="C344" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D344" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="E344" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F344" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A345" s="73"/>
-      <c r="B345" s="43" t="s">
-        <v>852</v>
-      </c>
-      <c r="C345" s="74" t="s">
-        <v>477</v>
-      </c>
-      <c r="D345" s="75" t="s">
-        <v>478</v>
-      </c>
       <c r="E345" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F345" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A346" s="76" t="s">
+    <row r="346" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A346" s="76"/>
+      <c r="B346" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="C346" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D346" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="E346" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F346" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A347" s="76"/>
+      <c r="B347" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="C347" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="D347" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E347" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F347" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A348" s="76"/>
+      <c r="B348" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="C348" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D348" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="E348" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F348" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A349" s="76"/>
+      <c r="B349" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="C349" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D349" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="E349" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F349" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+      <c r="A350" s="81"/>
+      <c r="B350" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="C350" s="66" t="s">
+        <v>476</v>
+      </c>
+      <c r="D350" s="67" t="s">
+        <v>477</v>
+      </c>
+      <c r="E350" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F350" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A351" s="74" t="s">
+        <v>881</v>
+      </c>
+      <c r="B351" s="68" t="s">
         <v>882</v>
       </c>
-      <c r="B346" s="77" t="s">
+      <c r="C351" s="69" t="s">
+        <v>884</v>
+      </c>
+      <c r="D351" s="68" t="s">
+        <v>885</v>
+      </c>
+      <c r="E351" s="70" t="s">
+        <v>516</v>
+      </c>
+      <c r="F351" s="68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" s="74"/>
+      <c r="B352" s="68" t="s">
         <v>883</v>
       </c>
-      <c r="C346" s="78" t="s">
-        <v>885</v>
-      </c>
-      <c r="D346" s="77" t="s">
+      <c r="C352" s="68" t="s">
         <v>886</v>
       </c>
-      <c r="E346" s="79" t="s">
-        <v>517</v>
-      </c>
-      <c r="F346" s="77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="76"/>
-      <c r="B347" s="77" t="s">
-        <v>884</v>
-      </c>
-      <c r="C347" s="77" t="s">
+      <c r="D352" s="68" t="s">
         <v>887</v>
       </c>
-      <c r="D347" s="77" t="s">
-        <v>888</v>
-      </c>
-      <c r="E347" s="79" t="s">
-        <v>517</v>
-      </c>
-      <c r="F347" s="77" t="s">
+      <c r="E352" s="70" t="s">
+        <v>516</v>
+      </c>
+      <c r="F352" s="68" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F347"/>
+  <autoFilter ref="E1:F352" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="A256:A275"/>
+    <mergeCell ref="A351:A352"/>
     <mergeCell ref="A78:A100"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A16"/>
@@ -11755,52 +11723,111 @@
     <mergeCell ref="A22:A46"/>
     <mergeCell ref="A47:A77"/>
     <mergeCell ref="A276:A282"/>
-    <mergeCell ref="A283:A320"/>
-    <mergeCell ref="A321:A329"/>
-    <mergeCell ref="A330:A345"/>
+    <mergeCell ref="A283:A325"/>
+    <mergeCell ref="A326:A334"/>
+    <mergeCell ref="A335:A350"/>
     <mergeCell ref="A101:A129"/>
     <mergeCell ref="A130:A146"/>
     <mergeCell ref="A147:A183"/>
     <mergeCell ref="A184:A214"/>
     <mergeCell ref="A215:A255"/>
-    <mergeCell ref="A256:A275"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
-  <conditionalFormatting sqref="E256:E1048576 E1:E253">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="E256:E320 E1:E253 E326:E1048576">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F256:F1048576 F1:F253">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="F256:F320 F1:F253 F326:F1048576">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F254">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E255">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F255">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Automated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E321">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"Functional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"UX"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F321">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Automated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E322">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"Functional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"UX"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F322">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Automated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E323">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Functional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"UX"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F323">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Automated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E324">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Functional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"UX"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E325">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Functional"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"UX"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F324:F325">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
@@ -11810,32 +11837,32 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>MyValues!$D$2:$D$18</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>MyValues!$A$2:$A$10</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H184:H214 H256:H320</xm:sqref>
+          <xm:sqref>H184:H214 H256:H325</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>MyValues!$D$2:$D$23</xm:f>
           </x14:formula1>
-          <xm:sqref>E7:E347</xm:sqref>
+          <xm:sqref>E7:E352</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>MyValues!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F347</xm:sqref>
+          <xm:sqref>F2:F352</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11844,79 +11871,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.7109375" style="18" customWidth="1"/>
-    <col min="1026" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="32.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.7265625" style="18" customWidth="1"/>
+    <col min="1026" max="16384" width="9.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>163</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -11930,14 +11957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rupam_selenium-tests\domibus\Domibus-MSH-selenium-ui-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E401E81D-106C-4FFB-86AE-719373B959FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F8ACCE-F4DA-4A41-A522-35BC9CD235B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -3119,9 +3119,6 @@
     <t xml:space="preserve">Same is reflected on pmode parties page </t>
   </si>
   <si>
-    <t>Same is reflected on TestService page</t>
-  </si>
-  <si>
     <t>Check impact on other pages when initiator and responder parties are added from Current Pmode page</t>
   </si>
   <si>
@@ -3135,6 +3132,9 @@
   </si>
   <si>
     <t>PMP-30</t>
+  </si>
+  <si>
+    <t>Same is reflected on TestService page under Responder party field</t>
   </si>
 </sst>
 </file>
@@ -4775,7 +4775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4960,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P352"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="F324" sqref="F324:F325"/>
+    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11165,10 +11165,10 @@
         <v>899</v>
       </c>
       <c r="C323" s="71" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D323" s="72" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="E323" s="13" t="s">
         <v>516</v>
@@ -11182,10 +11182,10 @@
     <row r="324" spans="1:8" ht="41" x14ac:dyDescent="0.35">
       <c r="A324" s="81"/>
       <c r="B324" s="57" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C324" s="71" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D324" s="72" t="s">
         <v>900</v>
@@ -11202,13 +11202,13 @@
     <row r="325" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="77"/>
       <c r="B325" s="52" t="s">
+        <v>905</v>
+      </c>
+      <c r="C325" s="71" t="s">
+        <v>903</v>
+      </c>
+      <c r="D325" s="72" t="s">
         <v>906</v>
-      </c>
-      <c r="C325" s="71" t="s">
-        <v>904</v>
-      </c>
-      <c r="D325" s="72" t="s">
-        <v>901</v>
       </c>
       <c r="E325" s="13" t="s">
         <v>516</v>

--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rupam_selenium-tests\domibus\Domibus-MSH-selenium-ui-tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F8ACCE-F4DA-4A41-A522-35BC9CD235B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -19,9 +13,9 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RegressionScenarios-4,1U'!$E$1:$F$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RegressionScenarios-4,1U'!$E$1:$F$350</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="905">
   <si>
     <t>Raw numbers</t>
   </si>
@@ -1557,34 +1551,13 @@
 On click user can download pmode </t>
   </si>
   <si>
-    <t>Check impact on other pages when new pmode party is added on Pmode-current</t>
-  </si>
-  <si>
     <t>Configuration according to new Pmode file is shown on below pages
 1.Pmode-Parties
 2.Pmode-Archive
 3.Test Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Check impact on other pages when pmode party is removed from Pmode-current </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pmode party name is removed from Pmode-parties &amp; Test service-Receiver party id </t>
-  </si>
-  <si>
-    <t>Check impact after addtion on new pmode party on Pmode-parties page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pmode party name starts appearing on Current  Pmode &amp; Test Service-Receiver party id </t>
-  </si>
-  <si>
-    <t>Check impact after removal of  party from pmode-parties page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Party detail from Current Pmode is removed </t>
-  </si>
-  <si>
-    <t>Same is reflected in current pmode.</t>
   </si>
   <si>
     <t>Logging</t>
@@ -3116,31 +3089,46 @@
     <t>PMP-28</t>
   </si>
   <si>
-    <t xml:space="preserve">Same is reflected on pmode parties page </t>
-  </si>
-  <si>
     <t>Check impact on other pages when initiator and responder parties are added from Current Pmode page</t>
   </si>
   <si>
-    <t>Check impact on other pages when  responder parties are removed from Current Pmode page</t>
-  </si>
-  <si>
-    <t>Check impact on other pages when responder parties are added from Current Pmode page</t>
-  </si>
-  <si>
-    <t>PMP-29</t>
-  </si>
-  <si>
-    <t>PMP-30</t>
-  </si>
-  <si>
-    <t>Same is reflected on TestService page under Responder party field</t>
+    <t>Same is reflected on pmode parties page and Test service page (only for responder)</t>
+  </si>
+  <si>
+    <t>Same is reflected on pmode parties page and on TestService page under Responder party field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pmode party name starts appearing on Current  Pmode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pmode party name is removed from Pmode-parties </t>
+  </si>
+  <si>
+    <t>Currently it is failing due to bug on it</t>
+  </si>
+  <si>
+    <t>Check impact on other pages when new pmode party is added on Pmode-current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check impact on other pages when pmode party is removed from Pmode-current </t>
+  </si>
+  <si>
+    <t>Check impact after addtion on new pmode party on Pmode-parties page</t>
+  </si>
+  <si>
+    <t>Check impact after removal of  party from pmode-parties page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same is reflected in current pmode and Test service page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same is reflected in current pmode.and Test service page </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3532,7 +3520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -3909,6 +3897,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3952,7 +3977,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4125,17 +4150,20 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
@@ -4146,53 +4174,53 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="40">
-    <cellStyle name="Accent 1 18" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Accent 17" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent 2 19" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Accent 2 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Accent 3 20" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Accent 3 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Accent 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Bad 13" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Bad 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Error 16" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Error 8" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Footnote 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Footnote 9" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Good 11" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Good 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Heading 1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Heading 1 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Heading 10" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Heading 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Heading 2 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Heading 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Hyperlink 11" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Hyperlink 9" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Accent 1 18" xfId="1"/>
+    <cellStyle name="Accent 1 5" xfId="2"/>
+    <cellStyle name="Accent 17" xfId="3"/>
+    <cellStyle name="Accent 2 19" xfId="4"/>
+    <cellStyle name="Accent 2 6" xfId="5"/>
+    <cellStyle name="Accent 3 20" xfId="6"/>
+    <cellStyle name="Accent 3 7" xfId="7"/>
+    <cellStyle name="Accent 4" xfId="8"/>
+    <cellStyle name="Bad 13" xfId="9"/>
+    <cellStyle name="Bad 2" xfId="10"/>
+    <cellStyle name="Error 16" xfId="11"/>
+    <cellStyle name="Error 8" xfId="12"/>
+    <cellStyle name="Footnote 8" xfId="13"/>
+    <cellStyle name="Footnote 9" xfId="14"/>
+    <cellStyle name="Good 11" xfId="15"/>
+    <cellStyle name="Good 2" xfId="16"/>
+    <cellStyle name="Heading 1 2" xfId="17"/>
+    <cellStyle name="Heading 1 4" xfId="18"/>
+    <cellStyle name="Heading 10" xfId="19"/>
+    <cellStyle name="Heading 2 2" xfId="20"/>
+    <cellStyle name="Heading 2 5" xfId="21"/>
+    <cellStyle name="Heading 3" xfId="22"/>
+    <cellStyle name="Hyperlink 11" xfId="23"/>
+    <cellStyle name="Hyperlink 9" xfId="24"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28"/>
-    <cellStyle name="Neutral 12" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Neutral 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Neutral 12" xfId="25"/>
+    <cellStyle name="Neutral 2" xfId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Normal 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Normal 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 3" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Note 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Note 7" xfId="29" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Status 10" xfId="30" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Status 12" xfId="31" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Text 13" xfId="32" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Text 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Warning 14" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Warning 15" xfId="35" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 2" xfId="27"/>
+    <cellStyle name="Normal 2 2" xfId="39"/>
+    <cellStyle name="Normal 2 3" xfId="38"/>
+    <cellStyle name="Normal 3" xfId="37"/>
+    <cellStyle name="Note 2" xfId="28"/>
+    <cellStyle name="Note 7" xfId="29"/>
+    <cellStyle name="Status 10" xfId="30"/>
+    <cellStyle name="Status 12" xfId="31"/>
+    <cellStyle name="Text 13" xfId="32"/>
+    <cellStyle name="Text 6" xfId="33"/>
+    <cellStyle name="Warning 14" xfId="34"/>
+    <cellStyle name="Warning 15" xfId="35"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4200,54 +4228,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4765,31 +4745,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -4803,7 +4783,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="73"/>
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
@@ -4817,7 +4797,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73"/>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -4831,7 +4811,7 @@
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -4840,30 +4820,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5">
         <f>COUNTA('RegressionScenarios-4,1U'!D:D)-1</f>
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>329</v>
       </c>
       <c r="B7" s="5">
         <f>COUNTIF('RegressionScenarios-4,1U'!F:F,A7)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
         <f>B7/B$6</f>
-        <v>9.4017094017094016E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>8.5959885386819479E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>163</v>
       </c>
@@ -4873,10 +4853,10 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:C11" si="0">B8/B$6</f>
-        <v>1.9943019943019943E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.0057306590257881E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>44</v>
       </c>
@@ -4886,10 +4866,10 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>0.21937321937321938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.22063037249283668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>124</v>
       </c>
@@ -4899,10 +4879,10 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>2.8490028490028491E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.865329512893983E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>68</v>
       </c>
@@ -4912,33 +4892,33 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>3.1339031339031341E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.151862464183381E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5">
         <f>COUNTIF('RegressionScenarios-4,1U'!F:F,A12)</f>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C12" s="7">
         <f>B12/B$6</f>
-        <v>0.60683760683760679</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.61318051575931232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
@@ -4957,30 +4937,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P352"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D323" sqref="D323"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D318" sqref="D318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="144.7265625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" style="32"/>
-    <col min="6" max="6" width="29.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" style="18" customWidth="1"/>
-    <col min="8" max="12" width="16.1796875" style="18"/>
-    <col min="13" max="16" width="16.1796875" style="10"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="144.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="32"/>
+    <col min="6" max="6" width="29.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="18" customWidth="1"/>
+    <col min="8" max="12" width="16.140625" style="18"/>
+    <col min="13" max="16" width="16.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="48" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>3</v>
@@ -4989,18 +4969,18 @@
         <v>4</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>7</v>
@@ -5009,16 +4989,16 @@
         <v>8</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="76"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
       <c r="B3" s="43" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>9</v>
@@ -5027,16 +5007,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="75"/>
+      <c r="B4" s="43" t="s">
         <v>516</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="76"/>
-      <c r="B4" s="43" t="s">
-        <v>523</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>11</v>
@@ -5045,16 +5025,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="76"/>
+    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
       <c r="B5" s="43" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -5063,16 +5043,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77"/>
       <c r="B6" s="52" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
@@ -5081,200 +5061,200 @@
         <v>15</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="78" t="s">
-        <v>479</v>
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>472</v>
       </c>
       <c r="B7" s="58" t="s">
+        <v>846</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>853</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="D7" s="60" t="s">
+        <v>854</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
+      <c r="B8" s="57" t="s">
+        <v>847</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>855</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>856</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="80"/>
+      <c r="B9" s="57" t="s">
+        <v>848</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="80"/>
+      <c r="B10" s="57" t="s">
+        <v>849</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>857</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>858</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
+      <c r="B11" s="57" t="s">
+        <v>850</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>859</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A12" s="80"/>
+      <c r="B12" s="57" t="s">
+        <v>851</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>477</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
+      <c r="B13" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>478</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>860</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="E13" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="141" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
+      <c r="B14" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>861</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A8" s="79"/>
-      <c r="B8" s="57" t="s">
-        <v>854</v>
-      </c>
-      <c r="C8" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>862</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="E14" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
+      <c r="B15" s="57" t="s">
+        <v>869</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>863</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
-      <c r="B9" s="57" t="s">
-        <v>855</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>481</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
-      <c r="B10" s="57" t="s">
-        <v>856</v>
-      </c>
-      <c r="C10" s="55" t="s">
+      <c r="D15" s="56" t="s">
         <v>864</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="E15" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="81"/>
+      <c r="B16" s="63" t="s">
+        <v>870</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>865</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
-      <c r="B11" s="57" t="s">
-        <v>857</v>
-      </c>
-      <c r="C11" s="55" t="s">
+      <c r="D16" s="64" t="s">
         <v>866</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>482</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
-      <c r="B12" s="57" t="s">
-        <v>858</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>484</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="79"/>
-      <c r="B13" s="57" t="s">
-        <v>874</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>485</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>867</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="149" x14ac:dyDescent="0.35">
-      <c r="A14" s="79"/>
-      <c r="B14" s="57" t="s">
-        <v>875</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>868</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>869</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="79"/>
-      <c r="B15" s="57" t="s">
-        <v>876</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>870</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>871</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="80"/>
-      <c r="B16" s="63" t="s">
-        <v>877</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>872</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>873</v>
-      </c>
       <c r="E16" s="46" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F16" s="65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
@@ -5283,16 +5263,16 @@
         <v>18</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
       <c r="B18" s="43" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>17</v>
@@ -5301,16 +5281,16 @@
         <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="76"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="75"/>
       <c r="B19" s="43" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>20</v>
@@ -5319,16 +5299,16 @@
         <v>21</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="76"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
       <c r="B20" s="43" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -5337,16 +5317,16 @@
         <v>19</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77"/>
       <c r="B21" s="52" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>22</v>
@@ -5355,18 +5335,18 @@
         <v>23</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F21" s="54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="216.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="75" t="s">
+    <row r="22" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>25</v>
@@ -5375,17 +5355,17 @@
         <v>26</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="76"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="75"/>
       <c r="B23" s="43" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>27</v>
@@ -5394,17 +5374,17 @@
         <v>28</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
       <c r="B24" s="43" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>29</v>
@@ -5413,17 +5393,17 @@
         <v>30</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="76"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="75"/>
       <c r="B25" s="43" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>31</v>
@@ -5432,17 +5412,17 @@
         <v>32</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A26" s="76"/>
+    <row r="26" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="75"/>
       <c r="B26" s="43" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>33</v>
@@ -5451,17 +5431,17 @@
         <v>34</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="230" x14ac:dyDescent="0.35">
-      <c r="A27" s="76"/>
+    <row r="27" spans="1:7" ht="217.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="75"/>
       <c r="B27" s="43" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>35</v>
@@ -5470,17 +5450,17 @@
         <v>36</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="76"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="75"/>
       <c r="B28" s="43" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>37</v>
@@ -5489,17 +5469,17 @@
         <v>34</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F28" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="76"/>
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="75"/>
       <c r="B29" s="43" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>38</v>
@@ -5508,17 +5488,17 @@
         <v>39</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F29" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="76"/>
+    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="75"/>
       <c r="B30" s="43" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>40</v>
@@ -5527,17 +5507,17 @@
         <v>41</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="76"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="75"/>
       <c r="B31" s="43" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>42</v>
@@ -5546,36 +5526,36 @@
         <v>43</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="1:7" ht="95" x14ac:dyDescent="0.35">
-      <c r="A32" s="76"/>
+    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
       <c r="B32" s="43" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A33" s="76"/>
+    <row r="33" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A33" s="75"/>
       <c r="B33" s="43" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>46</v>
@@ -5584,17 +5564,17 @@
         <v>47</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F33" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="34"/>
     </row>
-    <row r="34" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="76"/>
+    <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="75"/>
       <c r="B34" s="43" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>48</v>
@@ -5603,17 +5583,17 @@
         <v>49</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F34" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="34"/>
     </row>
-    <row r="35" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A35" s="76"/>
+    <row r="35" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A35" s="75"/>
       <c r="B35" s="43" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>50</v>
@@ -5622,17 +5602,17 @@
         <v>51</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F35" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="34"/>
     </row>
-    <row r="36" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A36" s="76"/>
+    <row r="36" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="75"/>
       <c r="B36" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>52</v>
@@ -5641,36 +5621,36 @@
         <v>53</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="34"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="76"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="75"/>
       <c r="B37" s="43" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="1:7" ht="324.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="76"/>
+    <row r="38" spans="1:7" ht="306.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="75"/>
       <c r="B38" s="43" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>55</v>
@@ -5679,17 +5659,17 @@
         <v>56</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F38" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="34"/>
     </row>
-    <row r="39" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="76"/>
+    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="75"/>
       <c r="B39" s="43" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>57</v>
@@ -5698,17 +5678,17 @@
         <v>58</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F39" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="34"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="76"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="75"/>
       <c r="B40" s="43" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>59</v>
@@ -5717,17 +5697,17 @@
         <v>60</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G40" s="34"/>
     </row>
-    <row r="41" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="76"/>
+    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="75"/>
       <c r="B41" s="43" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>61</v>
@@ -5736,17 +5716,17 @@
         <v>62</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F41" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="34"/>
     </row>
-    <row r="42" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="76"/>
+    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="75"/>
       <c r="B42" s="43" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>63</v>
@@ -5755,17 +5735,17 @@
         <v>64</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F42" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="34"/>
     </row>
-    <row r="43" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A43" s="76"/>
+    <row r="43" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
       <c r="B43" s="43" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>65</v>
@@ -5774,36 +5754,36 @@
         <v>66</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F43" s="45" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="34"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="76"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="75"/>
       <c r="B44" s="43" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F44" s="44" t="s">
         <v>68</v>
       </c>
       <c r="G44" s="34"/>
     </row>
-    <row r="45" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="76"/>
+    <row r="45" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="75"/>
       <c r="B45" s="43" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>69</v>
@@ -5812,17 +5792,17 @@
         <v>70</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F45" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="34"/>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="77"/>
       <c r="B46" s="52" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>71</v>
@@ -5831,19 +5811,19 @@
         <v>72</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F46" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="34"/>
     </row>
-    <row r="47" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A47" s="75" t="s">
+    <row r="47" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A47" s="74" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>74</v>
@@ -5852,36 +5832,36 @@
         <v>75</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F47" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A48" s="76"/>
+    <row r="48" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A48" s="75"/>
       <c r="B48" s="43" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F48" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="40"/>
     </row>
-    <row r="49" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="76"/>
+    <row r="49" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="75"/>
       <c r="B49" s="43" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>77</v>
@@ -5890,17 +5870,17 @@
         <v>78</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F49" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A50" s="76"/>
+    <row r="50" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A50" s="75"/>
       <c r="B50" s="43" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>79</v>
@@ -5909,17 +5889,17 @@
         <v>80</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F50" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G50" s="40"/>
     </row>
-    <row r="51" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="76"/>
+    <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="75"/>
       <c r="B51" s="43" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>81</v>
@@ -5928,17 +5908,17 @@
         <v>82</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F51" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G51" s="40"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="76"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="75"/>
       <c r="B52" s="43" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>77</v>
@@ -5947,17 +5927,17 @@
         <v>83</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F52" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="40"/>
     </row>
-    <row r="53" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A53" s="76"/>
+    <row r="53" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A53" s="75"/>
       <c r="B53" s="43" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>84</v>
@@ -5966,17 +5946,17 @@
         <v>85</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F53" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G53" s="40"/>
     </row>
-    <row r="54" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A54" s="76"/>
+    <row r="54" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A54" s="75"/>
       <c r="B54" s="43" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>86</v>
@@ -5985,17 +5965,17 @@
         <v>87</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F54" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="40"/>
     </row>
-    <row r="55" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="76"/>
+    <row r="55" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="75"/>
       <c r="B55" s="43" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>88</v>
@@ -6004,17 +5984,17 @@
         <v>89</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F55" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="40"/>
     </row>
-    <row r="56" spans="1:7" ht="81.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="76"/>
+    <row r="56" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="75"/>
       <c r="B56" s="43" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>90</v>
@@ -6023,17 +6003,17 @@
         <v>91</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F56" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="40"/>
     </row>
-    <row r="57" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="76"/>
+    <row r="57" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="75"/>
       <c r="B57" s="43" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>92</v>
@@ -6042,17 +6022,17 @@
         <v>93</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F57" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="40"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="76"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="75"/>
       <c r="B58" s="43" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>94</v>
@@ -6061,17 +6041,17 @@
         <v>95</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F58" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="40"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="76"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="75"/>
       <c r="B59" s="43" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>77</v>
@@ -6080,17 +6060,17 @@
         <v>83</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F59" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="40"/>
     </row>
-    <row r="60" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="76"/>
+    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="75"/>
       <c r="B60" s="43" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>96</v>
@@ -6099,17 +6079,17 @@
         <v>93</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F60" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="40"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="76"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="75"/>
       <c r="B61" s="43" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>97</v>
@@ -6118,17 +6098,17 @@
         <v>98</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F61" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="40"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="76"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="75"/>
       <c r="B62" s="43" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>77</v>
@@ -6137,17 +6117,17 @@
         <v>99</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F62" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="40"/>
     </row>
-    <row r="63" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="76"/>
+    <row r="63" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="75"/>
       <c r="B63" s="43" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>100</v>
@@ -6156,17 +6136,17 @@
         <v>101</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F63" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="40"/>
     </row>
-    <row r="64" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="76"/>
+    <row r="64" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="75"/>
       <c r="B64" s="43" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>102</v>
@@ -6175,17 +6155,17 @@
         <v>103</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F64" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A65" s="76"/>
+    <row r="65" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A65" s="75"/>
       <c r="B65" s="43" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>104</v>
@@ -6194,17 +6174,17 @@
         <v>105</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F65" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="40"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="76"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="75"/>
       <c r="B66" s="43" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>106</v>
@@ -6213,17 +6193,17 @@
         <v>107</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F66" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="40"/>
     </row>
-    <row r="67" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A67" s="76"/>
+    <row r="67" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A67" s="75"/>
       <c r="B67" s="43" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>108</v>
@@ -6232,17 +6212,17 @@
         <v>109</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F67" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G67" s="40"/>
     </row>
-    <row r="68" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A68" s="76"/>
+    <row r="68" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A68" s="75"/>
       <c r="B68" s="43" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>110</v>
@@ -6251,17 +6231,17 @@
         <v>111</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F68" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="40"/>
     </row>
-    <row r="69" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="76"/>
+    <row r="69" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="75"/>
       <c r="B69" s="43" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>112</v>
@@ -6270,17 +6250,17 @@
         <v>113</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F69" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G69" s="40"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="76"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="75"/>
       <c r="B70" s="43" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>114</v>
@@ -6289,17 +6269,17 @@
         <v>115</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F70" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="40"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="76"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="75"/>
       <c r="B71" s="43" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>116</v>
@@ -6308,55 +6288,55 @@
         <v>117</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F71" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="40"/>
     </row>
-    <row r="72" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A72" s="76"/>
+    <row r="72" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A72" s="75"/>
       <c r="B72" s="43" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F72" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="40"/>
     </row>
-    <row r="73" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A73" s="76"/>
+    <row r="73" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A73" s="75"/>
       <c r="B73" s="43" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>118</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F73" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="40"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="76"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="75"/>
       <c r="B74" s="43" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>119</v>
@@ -6365,17 +6345,17 @@
         <v>118</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F74" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="40"/>
     </row>
-    <row r="75" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="76"/>
+    <row r="75" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="75"/>
       <c r="B75" s="43" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>120</v>
@@ -6384,17 +6364,17 @@
         <v>121</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F75" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="40"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="76"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="75"/>
       <c r="B76" s="43" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>122</v>
@@ -6403,17 +6383,17 @@
         <v>123</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F76" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G76" s="40"/>
     </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="77"/>
       <c r="B77" s="52" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>71</v>
@@ -6422,19 +6402,19 @@
         <v>72</v>
       </c>
       <c r="E77" s="46" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F77" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="40"/>
     </row>
-    <row r="78" spans="1:7" ht="135.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="75" t="s">
+    <row r="78" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="74" t="s">
         <v>125</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>126</v>
@@ -6443,17 +6423,17 @@
         <v>127</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F78" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="40"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="76"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="75"/>
       <c r="B79" s="43" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>128</v>
@@ -6462,17 +6442,17 @@
         <v>129</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F79" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G79" s="40"/>
     </row>
-    <row r="80" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A80" s="76"/>
+    <row r="80" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A80" s="75"/>
       <c r="B80" s="43" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>130</v>
@@ -6481,17 +6461,17 @@
         <v>131</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F80" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="40"/>
     </row>
-    <row r="81" spans="1:7" ht="149" x14ac:dyDescent="0.35">
-      <c r="A81" s="76"/>
+    <row r="81" spans="1:7" ht="141" x14ac:dyDescent="0.25">
+      <c r="A81" s="75"/>
       <c r="B81" s="43" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>35</v>
@@ -6500,17 +6480,17 @@
         <v>132</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F81" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G81" s="40"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="76"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="75"/>
       <c r="B82" s="43" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>133</v>
@@ -6519,17 +6499,17 @@
         <v>131</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F82" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G82" s="40"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="76"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="75"/>
       <c r="B83" s="43" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>134</v>
@@ -6538,17 +6518,17 @@
         <v>39</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F83" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G83" s="40"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="76"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="75"/>
       <c r="B84" s="43" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>135</v>
@@ -6557,17 +6537,17 @@
         <v>136</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F84" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G84" s="40"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="76"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="75"/>
       <c r="B85" s="43" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>137</v>
@@ -6576,17 +6556,17 @@
         <v>138</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F85" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G85" s="40"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="76"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="75"/>
       <c r="B86" s="43" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>139</v>
@@ -6595,17 +6575,17 @@
         <v>140</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F86" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="40"/>
     </row>
-    <row r="87" spans="1:7" ht="135.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="76"/>
+    <row r="87" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="75"/>
       <c r="B87" s="43" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>55</v>
@@ -6614,17 +6594,17 @@
         <v>141</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F87" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="40"/>
     </row>
-    <row r="88" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="76"/>
+    <row r="88" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="75"/>
       <c r="B88" s="43" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>57</v>
@@ -6633,17 +6613,17 @@
         <v>58</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F88" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="40"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="76"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="75"/>
       <c r="B89" s="43" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>59</v>
@@ -6652,17 +6632,17 @@
         <v>60</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F89" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="40"/>
     </row>
-    <row r="90" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="76"/>
+    <row r="90" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="75"/>
       <c r="B90" s="43" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>61</v>
@@ -6671,17 +6651,17 @@
         <v>142</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F90" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="40"/>
     </row>
-    <row r="91" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="76"/>
+    <row r="91" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="75"/>
       <c r="B91" s="43" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>63</v>
@@ -6690,17 +6670,17 @@
         <v>143</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F91" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="40"/>
     </row>
-    <row r="92" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A92" s="76"/>
+    <row r="92" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A92" s="75"/>
       <c r="B92" s="43" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>65</v>
@@ -6709,17 +6689,17 @@
         <v>144</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F92" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="40"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="76"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="75"/>
       <c r="B93" s="43" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>145</v>
@@ -6728,55 +6708,55 @@
         <v>146</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F93" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="40"/>
     </row>
-    <row r="94" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="76"/>
+    <row r="94" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="75"/>
       <c r="B94" s="43" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F94" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G94" s="40"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="76"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="75"/>
       <c r="B95" s="43" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F95" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G95" s="40"/>
     </row>
-    <row r="96" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="76"/>
+    <row r="96" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="75"/>
       <c r="B96" s="43" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>148</v>
@@ -6785,17 +6765,17 @@
         <v>149</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F96" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G96" s="40"/>
     </row>
-    <row r="97" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="76"/>
+    <row r="97" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="75"/>
       <c r="B97" s="43" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>150</v>
@@ -6804,17 +6784,17 @@
         <v>151</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F97" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G97" s="41"/>
     </row>
-    <row r="98" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A98" s="76"/>
+    <row r="98" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A98" s="75"/>
       <c r="B98" s="43" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>152</v>
@@ -6823,17 +6803,17 @@
         <v>153</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F98" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G98" s="41"/>
     </row>
-    <row r="99" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="76"/>
+    <row r="99" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="75"/>
       <c r="B99" s="43" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>69</v>
@@ -6842,17 +6822,17 @@
         <v>70</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F99" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G99" s="41"/>
     </row>
-    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="77"/>
       <c r="B100" s="52" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>71</v>
@@ -6861,19 +6841,19 @@
         <v>72</v>
       </c>
       <c r="E100" s="46" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F100" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="1:7" ht="284" x14ac:dyDescent="0.35">
-      <c r="A101" s="75" t="s">
+    <row r="101" spans="1:7" ht="268.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="74" t="s">
         <v>154</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>155</v>
@@ -6882,17 +6862,17 @@
         <v>156</v>
       </c>
       <c r="E101" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F101" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G101" s="41"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="76"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="75"/>
       <c r="B102" s="43" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>31</v>
@@ -6901,17 +6881,17 @@
         <v>157</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F102" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="41"/>
     </row>
-    <row r="103" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A103" s="76"/>
+    <row r="103" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A103" s="75"/>
       <c r="B103" s="43" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>158</v>
@@ -6920,17 +6900,17 @@
         <v>34</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F103" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G103" s="41"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="76"/>
+    <row r="104" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="75"/>
       <c r="B104" s="43" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>38</v>
@@ -6939,17 +6919,17 @@
         <v>39</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F104" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="76"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="75"/>
       <c r="B105" s="43" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>135</v>
@@ -6958,17 +6938,17 @@
         <v>41</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F105" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="76"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="75"/>
       <c r="B106" s="43" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>42</v>
@@ -6977,17 +6957,17 @@
         <v>43</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F106" s="44" t="s">
         <v>329</v>
       </c>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="1:7" ht="81.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="76"/>
+    <row r="107" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="75"/>
       <c r="B107" s="43" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>159</v>
@@ -6996,17 +6976,17 @@
         <v>160</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F107" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="76"/>
+    <row r="108" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="75"/>
       <c r="B108" s="43" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C108" s="14" t="s">
         <v>161</v>
@@ -7015,17 +6995,17 @@
         <v>162</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F108" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="76"/>
+    <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="75"/>
       <c r="B109" s="43" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>48</v>
@@ -7034,17 +7014,17 @@
         <v>49</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F109" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A110" s="76"/>
+    <row r="110" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A110" s="75"/>
       <c r="B110" s="43" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>50</v>
@@ -7053,17 +7033,17 @@
         <v>51</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F110" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A111" s="76"/>
+    <row r="111" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="75"/>
       <c r="B111" s="43" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>52</v>
@@ -7072,17 +7052,17 @@
         <v>53</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F111" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="76"/>
+    <row r="112" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="75"/>
       <c r="B112" s="43" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>164</v>
@@ -7091,17 +7071,17 @@
         <v>165</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F112" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="76"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="75"/>
       <c r="B113" s="43" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>42</v>
@@ -7110,17 +7090,17 @@
         <v>54</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F113" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="1:7" ht="135.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="76"/>
+    <row r="114" spans="1:7" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A114" s="75"/>
       <c r="B114" s="43" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>55</v>
@@ -7129,17 +7109,17 @@
         <v>166</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F114" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="76"/>
+    <row r="115" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="75"/>
       <c r="B115" s="43" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>57</v>
@@ -7148,17 +7128,17 @@
         <v>58</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F115" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="76"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="75"/>
       <c r="B116" s="43" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>59</v>
@@ -7167,17 +7147,17 @@
         <v>60</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F116" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="76"/>
+    <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="75"/>
       <c r="B117" s="43" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>61</v>
@@ -7186,17 +7166,17 @@
         <v>167</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F117" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="76"/>
+    <row r="118" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A118" s="75"/>
       <c r="B118" s="43" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>63</v>
@@ -7205,17 +7185,17 @@
         <v>64</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F118" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A119" s="76"/>
+    <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A119" s="75"/>
       <c r="B119" s="43" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>65</v>
@@ -7224,17 +7204,17 @@
         <v>168</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F119" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="76"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="75"/>
       <c r="B120" s="43" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>145</v>
@@ -7243,36 +7223,36 @@
         <v>169</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F120" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="76"/>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="75"/>
       <c r="B121" s="43" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F121" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="76"/>
+    <row r="122" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A122" s="75"/>
       <c r="B122" s="43" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C122" s="14" t="s">
         <v>170</v>
@@ -7281,17 +7261,17 @@
         <v>171</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F122" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G122" s="41"/>
     </row>
-    <row r="123" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A123" s="76"/>
+    <row r="123" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A123" s="75"/>
       <c r="B123" s="43" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>172</v>
@@ -7300,17 +7280,17 @@
         <v>173</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F123" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G123" s="41"/>
     </row>
-    <row r="124" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A124" s="76"/>
+    <row r="124" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A124" s="75"/>
       <c r="B124" s="43" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>174</v>
@@ -7319,17 +7299,17 @@
         <v>175</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F124" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G124" s="41"/>
     </row>
-    <row r="125" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A125" s="76"/>
+    <row r="125" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A125" s="75"/>
       <c r="B125" s="43" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C125" s="14" t="s">
         <v>176</v>
@@ -7338,17 +7318,17 @@
         <v>177</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F125" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G125" s="41"/>
     </row>
-    <row r="126" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A126" s="76"/>
+    <row r="126" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A126" s="75"/>
       <c r="B126" s="43" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>178</v>
@@ -7357,17 +7337,17 @@
         <v>177</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F126" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G126" s="41"/>
     </row>
-    <row r="127" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="76"/>
+    <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="75"/>
       <c r="B127" s="43" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>179</v>
@@ -7376,17 +7356,17 @@
         <v>180</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F127" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G127" s="41"/>
     </row>
-    <row r="128" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="76"/>
+    <row r="128" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="75"/>
       <c r="B128" s="43" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>69</v>
@@ -7395,17 +7375,17 @@
         <v>70</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F128" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G128" s="41"/>
     </row>
-    <row r="129" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="77"/>
       <c r="B129" s="52" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>71</v>
@@ -7414,19 +7394,19 @@
         <v>72</v>
       </c>
       <c r="E129" s="46" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F129" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G129" s="41"/>
     </row>
-    <row r="130" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="75" t="s">
+    <row r="130" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="74" t="s">
         <v>181</v>
       </c>
       <c r="B130" s="49" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>182</v>
@@ -7435,17 +7415,17 @@
         <v>183</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F130" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G130" s="41"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="76"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="75"/>
       <c r="B131" s="43" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>184</v>
@@ -7454,17 +7434,17 @@
         <v>185</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F131" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G131" s="41"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="76"/>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="75"/>
       <c r="B132" s="43" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C132" s="14" t="s">
         <v>186</v>
@@ -7473,17 +7453,17 @@
         <v>187</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F132" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G132" s="41"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="76"/>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="75"/>
       <c r="B133" s="43" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>188</v>
@@ -7492,17 +7472,17 @@
         <v>189</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F133" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G133" s="41"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="76"/>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="75"/>
       <c r="B134" s="43" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>190</v>
@@ -7511,17 +7491,17 @@
         <v>191</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F134" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G134" s="41"/>
     </row>
-    <row r="135" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="76"/>
+    <row r="135" spans="1:7" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="75"/>
       <c r="B135" s="43" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>55</v>
@@ -7530,17 +7510,17 @@
         <v>192</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F135" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G135" s="41"/>
     </row>
-    <row r="136" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="76"/>
+    <row r="136" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="75"/>
       <c r="B136" s="43" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>57</v>
@@ -7549,17 +7529,17 @@
         <v>58</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F136" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G136" s="41"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="76"/>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="75"/>
       <c r="B137" s="43" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>59</v>
@@ -7568,17 +7548,17 @@
         <v>60</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F137" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G137" s="41"/>
     </row>
-    <row r="138" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="76"/>
+    <row r="138" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A138" s="75"/>
       <c r="B138" s="43" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>61</v>
@@ -7587,17 +7567,17 @@
         <v>167</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F138" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G138" s="41"/>
     </row>
-    <row r="139" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="76"/>
+    <row r="139" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A139" s="75"/>
       <c r="B139" s="43" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>63</v>
@@ -7606,17 +7586,17 @@
         <v>64</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F139" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G139" s="41"/>
     </row>
-    <row r="140" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A140" s="76"/>
+    <row r="140" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A140" s="75"/>
       <c r="B140" s="43" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>65</v>
@@ -7625,36 +7605,36 @@
         <v>193</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F140" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G140" s="41"/>
     </row>
-    <row r="141" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="76"/>
+    <row r="141" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A141" s="75"/>
       <c r="B141" s="43" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F141" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G141" s="41"/>
     </row>
-    <row r="142" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="76"/>
+    <row r="142" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="75"/>
       <c r="B142" s="43" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>195</v>
@@ -7663,17 +7643,17 @@
         <v>196</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F142" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G142" s="41"/>
     </row>
-    <row r="143" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="76"/>
+    <row r="143" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A143" s="75"/>
       <c r="B143" s="43" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>197</v>
@@ -7682,17 +7662,17 @@
         <v>198</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F143" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G143" s="41"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="76"/>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="75"/>
       <c r="B144" s="43" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>199</v>
@@ -7701,17 +7681,17 @@
         <v>200</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F144" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G144" s="41"/>
     </row>
-    <row r="145" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="76"/>
+    <row r="145" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A145" s="75"/>
       <c r="B145" s="43" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>69</v>
@@ -7720,17 +7700,17 @@
         <v>70</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F145" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G145" s="41"/>
     </row>
-    <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="77"/>
       <c r="B146" s="52" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>71</v>
@@ -7739,19 +7719,19 @@
         <v>201</v>
       </c>
       <c r="E146" s="46" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F146" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G146" s="41"/>
     </row>
-    <row r="147" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="75" t="s">
+    <row r="147" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="74" t="s">
         <v>202</v>
       </c>
       <c r="B147" s="49" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>203</v>
@@ -7760,17 +7740,17 @@
         <v>204</v>
       </c>
       <c r="E147" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F147" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G147" s="41"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="76"/>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="75"/>
       <c r="B148" s="43" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>205</v>
@@ -7779,17 +7759,17 @@
         <v>206</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F148" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G148" s="41"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="76"/>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="75"/>
       <c r="B149" s="43" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>207</v>
@@ -7798,17 +7778,17 @@
         <v>208</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F149" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G149" s="41"/>
     </row>
-    <row r="150" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="76"/>
+    <row r="150" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="75"/>
       <c r="B150" s="43" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>209</v>
@@ -7817,17 +7797,17 @@
         <v>210</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F150" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G150" s="41"/>
     </row>
-    <row r="151" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="76"/>
+    <row r="151" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="75"/>
       <c r="B151" s="43" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>211</v>
@@ -7836,17 +7816,17 @@
         <v>212</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F151" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G151" s="41"/>
     </row>
-    <row r="152" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A152" s="76"/>
+    <row r="152" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A152" s="75"/>
       <c r="B152" s="43" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>213</v>
@@ -7855,17 +7835,17 @@
         <v>214</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F152" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G152" s="41"/>
     </row>
-    <row r="153" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="76"/>
+    <row r="153" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="75"/>
       <c r="B153" s="43" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>215</v>
@@ -7874,17 +7854,17 @@
         <v>216</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F153" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G153" s="41"/>
     </row>
-    <row r="154" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="76"/>
+    <row r="154" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="75"/>
       <c r="B154" s="43" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>217</v>
@@ -7893,55 +7873,55 @@
         <v>218</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F154" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G154" s="41"/>
     </row>
-    <row r="155" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="76"/>
+    <row r="155" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="75"/>
       <c r="B155" s="43" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>219</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F155" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:7" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="76"/>
+    <row r="156" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="75"/>
       <c r="B156" s="43" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F156" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="76"/>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="75"/>
       <c r="B157" s="43" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C157" s="19" t="s">
         <v>221</v>
@@ -7950,17 +7930,17 @@
         <v>222</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F157" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="76"/>
+    <row r="158" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A158" s="75"/>
       <c r="B158" s="43" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>223</v>
@@ -7969,17 +7949,17 @@
         <v>224</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F158" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G158" s="41"/>
     </row>
-    <row r="159" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="76"/>
+    <row r="159" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A159" s="75"/>
       <c r="B159" s="43" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C159" s="14" t="s">
         <v>225</v>
@@ -7988,17 +7968,17 @@
         <v>226</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F159" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G159" s="41"/>
     </row>
-    <row r="160" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A160" s="76"/>
+    <row r="160" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A160" s="75"/>
       <c r="B160" s="43" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>227</v>
@@ -8007,17 +7987,17 @@
         <v>228</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F160" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G160" s="41"/>
     </row>
-    <row r="161" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="76"/>
+    <row r="161" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="75"/>
       <c r="B161" s="43" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>229</v>
@@ -8026,17 +8006,17 @@
         <v>230</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F161" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G161" s="41"/>
     </row>
-    <row r="162" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="76"/>
+    <row r="162" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="75"/>
       <c r="B162" s="43" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>231</v>
@@ -8045,17 +8025,17 @@
         <v>232</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F162" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G162" s="41"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="76"/>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="75"/>
       <c r="B163" s="43" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>233</v>
@@ -8064,17 +8044,17 @@
         <v>234</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F163" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G163" s="41"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="76"/>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="75"/>
       <c r="B164" s="43" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>235</v>
@@ -8083,17 +8063,17 @@
         <v>236</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F164" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G164" s="41"/>
     </row>
-    <row r="165" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="76"/>
+    <row r="165" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A165" s="75"/>
       <c r="B165" s="43" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C165" s="14" t="s">
         <v>237</v>
@@ -8102,17 +8082,17 @@
         <v>238</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F165" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="76"/>
+    <row r="166" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A166" s="75"/>
       <c r="B166" s="43" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>239</v>
@@ -8121,17 +8101,17 @@
         <v>238</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F166" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G166" s="41"/>
     </row>
-    <row r="167" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="76"/>
+    <row r="167" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A167" s="75"/>
       <c r="B167" s="43" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>240</v>
@@ -8140,17 +8120,17 @@
         <v>238</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F167" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G167" s="41"/>
     </row>
-    <row r="168" spans="1:7" ht="41" x14ac:dyDescent="0.35">
-      <c r="A168" s="76"/>
+    <row r="168" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A168" s="75"/>
       <c r="B168" s="43" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>241</v>
@@ -8159,17 +8139,17 @@
         <v>238</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F168" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G168" s="41"/>
     </row>
-    <row r="169" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A169" s="76"/>
+    <row r="169" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A169" s="75"/>
       <c r="B169" s="43" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>242</v>
@@ -8178,17 +8158,17 @@
         <v>243</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F169" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G169" s="41"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="76"/>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="75"/>
       <c r="B170" s="43" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>244</v>
@@ -8197,17 +8177,17 @@
         <v>245</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F170" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G170" s="41"/>
     </row>
-    <row r="171" spans="1:7" ht="149" x14ac:dyDescent="0.35">
-      <c r="A171" s="76"/>
+    <row r="171" spans="1:7" ht="141" x14ac:dyDescent="0.25">
+      <c r="A171" s="75"/>
       <c r="B171" s="43" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>55</v>
@@ -8216,17 +8196,17 @@
         <v>246</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F171" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G171" s="41"/>
     </row>
-    <row r="172" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="76"/>
+    <row r="172" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A172" s="75"/>
       <c r="B172" s="43" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>57</v>
@@ -8235,17 +8215,17 @@
         <v>58</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F172" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G172" s="41"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="76"/>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="75"/>
       <c r="B173" s="43" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>59</v>
@@ -8254,17 +8234,17 @@
         <v>60</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F173" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G173" s="41"/>
     </row>
-    <row r="174" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="76"/>
+    <row r="174" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A174" s="75"/>
       <c r="B174" s="43" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>61</v>
@@ -8273,17 +8253,17 @@
         <v>247</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F174" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G174" s="41"/>
     </row>
-    <row r="175" spans="1:7" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="76"/>
+    <row r="175" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A175" s="75"/>
       <c r="B175" s="43" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>63</v>
@@ -8292,17 +8272,17 @@
         <v>248</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F175" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G175" s="41"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="76"/>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="75"/>
       <c r="B176" s="43" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>249</v>
@@ -8311,17 +8291,17 @@
         <v>250</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F176" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G176" s="41"/>
     </row>
-    <row r="177" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A177" s="76"/>
+    <row r="177" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A177" s="75"/>
       <c r="B177" s="43" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>65</v>
@@ -8330,17 +8310,17 @@
         <v>193</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F177" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G177" s="41"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="76"/>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="75"/>
       <c r="B178" s="43" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C178" s="14" t="s">
         <v>251</v>
@@ -8349,17 +8329,17 @@
         <v>252</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F178" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G178" s="41"/>
     </row>
-    <row r="179" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="76"/>
+    <row r="179" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A179" s="75"/>
       <c r="B179" s="43" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>253</v>
@@ -8368,17 +8348,17 @@
         <v>254</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F179" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="76"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="75"/>
       <c r="B180" s="43" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>255</v>
@@ -8387,17 +8367,17 @@
         <v>254</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F180" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G180" s="41"/>
     </row>
-    <row r="181" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A181" s="76"/>
+    <row r="181" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A181" s="75"/>
       <c r="B181" s="43" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>256</v>
@@ -8406,17 +8386,17 @@
         <v>254</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F181" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G181" s="41"/>
     </row>
-    <row r="182" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="76"/>
+    <row r="182" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A182" s="75"/>
       <c r="B182" s="43" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C182" s="14" t="s">
         <v>69</v>
@@ -8425,17 +8405,17 @@
         <v>70</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F182" s="44" t="s">
         <v>44</v>
       </c>
       <c r="G182" s="41"/>
     </row>
-    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="77"/>
       <c r="B183" s="52" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>71</v>
@@ -8444,28 +8424,28 @@
         <v>201</v>
       </c>
       <c r="E183" s="46" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F183" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G183" s="41"/>
     </row>
-    <row r="184" spans="1:8" ht="243.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="75" t="s">
+    <row r="184" spans="1:8" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="A184" s="74" t="s">
         <v>257</v>
       </c>
       <c r="B184" s="49" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>258</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E184" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F184" s="51" t="s">
         <v>5</v>
@@ -8473,10 +8453,10 @@
       <c r="G184" s="41"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="76"/>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="75"/>
       <c r="B185" s="43" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C185" s="19" t="s">
         <v>259</v>
@@ -8485,7 +8465,7 @@
         <v>206</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F185" s="44" t="s">
         <v>5</v>
@@ -8493,10 +8473,10 @@
       <c r="G185" s="41"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A186" s="76"/>
+    <row r="186" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A186" s="75"/>
       <c r="B186" s="43" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C186" s="19" t="s">
         <v>209</v>
@@ -8505,7 +8485,7 @@
         <v>260</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F186" s="44" t="s">
         <v>5</v>
@@ -8513,10 +8493,10 @@
       <c r="G186" s="41"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="76"/>
+    <row r="187" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="75"/>
       <c r="B187" s="43" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C187" s="19" t="s">
         <v>211</v>
@@ -8525,7 +8505,7 @@
         <v>212</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F187" s="44" t="s">
         <v>5</v>
@@ -8533,10 +8513,10 @@
       <c r="G187" s="41"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A188" s="76"/>
+    <row r="188" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A188" s="75"/>
       <c r="B188" s="43" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C188" s="19" t="s">
         <v>213</v>
@@ -8545,7 +8525,7 @@
         <v>214</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F188" s="44" t="s">
         <v>5</v>
@@ -8553,10 +8533,10 @@
       <c r="G188" s="41"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A189" s="76"/>
+    <row r="189" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="75"/>
       <c r="B189" s="43" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>215</v>
@@ -8565,7 +8545,7 @@
         <v>216</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F189" s="44" t="s">
         <v>5</v>
@@ -8573,10 +8553,10 @@
       <c r="G189" s="41"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="76"/>
+    <row r="190" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="75"/>
       <c r="B190" s="43" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C190" s="19" t="s">
         <v>217</v>
@@ -8585,7 +8565,7 @@
         <v>218</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F190" s="44" t="s">
         <v>5</v>
@@ -8593,19 +8573,19 @@
       <c r="G190" s="41"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="76"/>
+    <row r="191" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="75"/>
       <c r="B191" s="43" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C191" s="19" t="s">
         <v>219</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F191" s="44" t="s">
         <v>5</v>
@@ -8613,19 +8593,19 @@
       <c r="G191" s="41"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="76"/>
+    <row r="192" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="75"/>
       <c r="B192" s="43" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F192" s="44" t="s">
         <v>5</v>
@@ -8633,10 +8613,10 @@
       <c r="G192" s="41"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="76"/>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="75"/>
       <c r="B193" s="43" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C193" s="19" t="s">
         <v>221</v>
@@ -8645,7 +8625,7 @@
         <v>222</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F193" s="44" t="s">
         <v>5</v>
@@ -8653,10 +8633,10 @@
       <c r="G193" s="41"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="76"/>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="75"/>
       <c r="B194" s="43" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C194" s="19" t="s">
         <v>261</v>
@@ -8665,7 +8645,7 @@
         <v>262</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F194" s="44" t="s">
         <v>5</v>
@@ -8673,10 +8653,10 @@
       <c r="G194" s="41"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A195" s="76"/>
+    <row r="195" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A195" s="75"/>
       <c r="B195" s="43" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C195" s="14" t="s">
         <v>227</v>
@@ -8685,7 +8665,7 @@
         <v>228</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F195" s="44" t="s">
         <v>5</v>
@@ -8693,10 +8673,10 @@
       <c r="G195" s="41"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="76"/>
+    <row r="196" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A196" s="75"/>
       <c r="B196" s="43" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>263</v>
@@ -8705,7 +8685,7 @@
         <v>264</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F196" s="44" t="s">
         <v>5</v>
@@ -8713,10 +8693,10 @@
       <c r="G196" s="41"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="76"/>
+    <row r="197" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A197" s="75"/>
       <c r="B197" s="43" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C197" s="14" t="s">
         <v>265</v>
@@ -8725,7 +8705,7 @@
         <v>266</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F197" s="44" t="s">
         <v>5</v>
@@ -8733,10 +8713,10 @@
       <c r="G197" s="41"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="76"/>
+    <row r="198" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="75"/>
       <c r="B198" s="43" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>231</v>
@@ -8745,7 +8725,7 @@
         <v>232</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F198" s="44" t="s">
         <v>5</v>
@@ -8753,10 +8733,10 @@
       <c r="G198" s="41"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="76"/>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="75"/>
       <c r="B199" s="43" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C199" s="14" t="s">
         <v>233</v>
@@ -8765,7 +8745,7 @@
         <v>267</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F199" s="44" t="s">
         <v>5</v>
@@ -8773,10 +8753,10 @@
       <c r="G199" s="41"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="76"/>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="75"/>
       <c r="B200" s="43" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>235</v>
@@ -8785,7 +8765,7 @@
         <v>268</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F200" s="44" t="s">
         <v>44</v>
@@ -8793,10 +8773,10 @@
       <c r="G200" s="41"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="76"/>
+    <row r="201" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A201" s="75"/>
       <c r="B201" s="43" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>269</v>
@@ -8805,7 +8785,7 @@
         <v>270</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F201" s="44" t="s">
         <v>5</v>
@@ -8813,10 +8793,10 @@
       <c r="G201" s="41"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A202" s="76"/>
+    <row r="202" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A202" s="75"/>
       <c r="B202" s="43" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C202" s="14" t="s">
         <v>271</v>
@@ -8825,7 +8805,7 @@
         <v>270</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F202" s="44" t="s">
         <v>5</v>
@@ -8833,10 +8813,10 @@
       <c r="G202" s="41"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A203" s="76"/>
+    <row r="203" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A203" s="75"/>
       <c r="B203" s="43" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C203" s="14" t="s">
         <v>272</v>
@@ -8845,7 +8825,7 @@
         <v>270</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F203" s="44" t="s">
         <v>5</v>
@@ -8853,10 +8833,10 @@
       <c r="G203" s="41"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A204" s="76"/>
+    <row r="204" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="75"/>
       <c r="B204" s="43" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C204" s="14" t="s">
         <v>273</v>
@@ -8865,7 +8845,7 @@
         <v>274</v>
       </c>
       <c r="E204" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F204" s="44" t="s">
         <v>5</v>
@@ -8873,10 +8853,10 @@
       <c r="G204" s="41"/>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="1:8" ht="95" x14ac:dyDescent="0.35">
-      <c r="A205" s="76"/>
+    <row r="205" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A205" s="75"/>
       <c r="B205" s="43" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>275</v>
@@ -8885,7 +8865,7 @@
         <v>276</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F205" s="44" t="s">
         <v>5</v>
@@ -8893,10 +8873,10 @@
       <c r="G205" s="41"/>
       <c r="H205" s="8"/>
     </row>
-    <row r="206" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A206" s="76"/>
+    <row r="206" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A206" s="75"/>
       <c r="B206" s="43" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C206" s="14" t="s">
         <v>57</v>
@@ -8905,7 +8885,7 @@
         <v>58</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F206" s="44" t="s">
         <v>5</v>
@@ -8913,10 +8893,10 @@
       <c r="G206" s="41"/>
       <c r="H206" s="8"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="76"/>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="75"/>
       <c r="B207" s="43" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C207" s="14" t="s">
         <v>59</v>
@@ -8925,7 +8905,7 @@
         <v>60</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F207" s="44" t="s">
         <v>5</v>
@@ -8933,10 +8913,10 @@
       <c r="G207" s="41"/>
       <c r="H207" s="8"/>
     </row>
-    <row r="208" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A208" s="76"/>
+    <row r="208" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A208" s="75"/>
       <c r="B208" s="43" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C208" s="14" t="s">
         <v>61</v>
@@ -8945,7 +8925,7 @@
         <v>247</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F208" s="44" t="s">
         <v>5</v>
@@ -8953,10 +8933,10 @@
       <c r="G208" s="41"/>
       <c r="H208" s="8"/>
     </row>
-    <row r="209" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A209" s="76"/>
+    <row r="209" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A209" s="75"/>
       <c r="B209" s="43" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C209" s="14" t="s">
         <v>63</v>
@@ -8965,7 +8945,7 @@
         <v>248</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F209" s="44" t="s">
         <v>5</v>
@@ -8973,10 +8953,10 @@
       <c r="G209" s="41"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="76"/>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="75"/>
       <c r="B210" s="43" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C210" s="14" t="s">
         <v>249</v>
@@ -8985,7 +8965,7 @@
         <v>277</v>
       </c>
       <c r="E210" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F210" s="44" t="s">
         <v>44</v>
@@ -8993,10 +8973,10 @@
       <c r="G210" s="41"/>
       <c r="H210" s="8"/>
     </row>
-    <row r="211" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A211" s="76"/>
+    <row r="211" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A211" s="75"/>
       <c r="B211" s="43" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C211" s="14" t="s">
         <v>65</v>
@@ -9005,7 +8985,7 @@
         <v>193</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F211" s="44" t="s">
         <v>5</v>
@@ -9013,10 +8993,10 @@
       <c r="G211" s="41"/>
       <c r="H211" s="8"/>
     </row>
-    <row r="212" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="76"/>
+    <row r="212" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A212" s="75"/>
       <c r="B212" s="43" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C212" s="14" t="s">
         <v>69</v>
@@ -9025,7 +9005,7 @@
         <v>70</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F212" s="44" t="s">
         <v>44</v>
@@ -9033,10 +9013,10 @@
       <c r="G212" s="41"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="76"/>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="75"/>
       <c r="B213" s="43" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C213" s="14" t="s">
         <v>71</v>
@@ -9045,7 +9025,7 @@
         <v>278</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F213" s="44" t="s">
         <v>44</v>
@@ -9053,10 +9033,10 @@
       <c r="G213" s="41"/>
       <c r="H213" s="8"/>
     </row>
-    <row r="214" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="77"/>
       <c r="B214" s="52" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C214" s="16" t="s">
         <v>279</v>
@@ -9065,7 +9045,7 @@
         <v>280</v>
       </c>
       <c r="E214" s="46" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F214" s="47" t="s">
         <v>5</v>
@@ -9073,30 +9053,30 @@
       <c r="G214" s="41"/>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="1:8" ht="82" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="75" t="s">
+    <row r="215" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="74" t="s">
         <v>281</v>
       </c>
       <c r="B215" s="49" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>282</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E215" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F215" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="76"/>
+    <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="75"/>
       <c r="B216" s="43" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>283</v>
@@ -9105,16 +9085,16 @@
         <v>284</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F216" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="76"/>
+    <row r="217" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="75"/>
       <c r="B217" s="43" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>33</v>
@@ -9123,16 +9103,16 @@
         <v>285</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F217" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="82" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="76"/>
+    <row r="218" spans="1:8" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="75"/>
       <c r="B218" s="43" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>35</v>
@@ -9141,16 +9121,16 @@
         <v>286</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F218" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="76"/>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="75"/>
       <c r="B219" s="43" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>287</v>
@@ -9159,16 +9139,16 @@
         <v>285</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F219" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="76"/>
+    <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="75"/>
       <c r="B220" s="43" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>288</v>
@@ -9177,16 +9157,16 @@
         <v>39</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F220" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="76"/>
+    <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="75"/>
       <c r="B221" s="43" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>135</v>
@@ -9195,16 +9175,16 @@
         <v>289</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F221" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="76"/>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="75"/>
       <c r="B222" s="43" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>137</v>
@@ -9213,16 +9193,16 @@
         <v>290</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F222" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="76"/>
+    <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="75"/>
       <c r="B223" s="43" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C223" s="14" t="s">
         <v>291</v>
@@ -9231,16 +9211,16 @@
         <v>292</v>
       </c>
       <c r="E223" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F223" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A224" s="76"/>
+    <row r="224" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A224" s="75"/>
       <c r="B224" s="43" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C224" s="14" t="s">
         <v>293</v>
@@ -9249,16 +9229,16 @@
         <v>294</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F224" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A225" s="76"/>
+    <row r="225" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A225" s="75"/>
       <c r="B225" s="43" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C225" s="14" t="s">
         <v>295</v>
@@ -9267,16 +9247,16 @@
         <v>296</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F225" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A226" s="76"/>
+    <row r="226" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A226" s="75"/>
       <c r="B226" s="43" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C226" s="14" t="s">
         <v>297</v>
@@ -9285,16 +9265,16 @@
         <v>298</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F226" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A227" s="76"/>
+    <row r="227" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A227" s="75"/>
       <c r="B227" s="43" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C227" s="14" t="s">
         <v>299</v>
@@ -9303,16 +9283,16 @@
         <v>300</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F227" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A228" s="76"/>
+    <row r="228" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A228" s="75"/>
       <c r="B228" s="43" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C228" s="14" t="s">
         <v>301</v>
@@ -9321,16 +9301,16 @@
         <v>296</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F228" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A229" s="76"/>
+    <row r="229" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A229" s="75"/>
       <c r="B229" s="43" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C229" s="14" t="s">
         <v>302</v>
@@ -9339,16 +9319,16 @@
         <v>303</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F229" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="76"/>
+    <row r="230" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="75"/>
       <c r="B230" s="43" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C230" s="14" t="s">
         <v>304</v>
@@ -9357,16 +9337,16 @@
         <v>305</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F230" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A231" s="76"/>
+    <row r="231" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A231" s="75"/>
       <c r="B231" s="43" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C231" s="14" t="s">
         <v>306</v>
@@ -9375,16 +9355,16 @@
         <v>296</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F231" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="76"/>
+    <row r="232" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A232" s="75"/>
       <c r="B232" s="43" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C232" s="14" t="s">
         <v>307</v>
@@ -9393,16 +9373,16 @@
         <v>308</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F232" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" s="76"/>
+    <row r="233" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A233" s="75"/>
       <c r="B233" s="43" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C233" s="14" t="s">
         <v>309</v>
@@ -9411,16 +9391,16 @@
         <v>310</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F233" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A234" s="76"/>
+    <row r="234" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A234" s="75"/>
       <c r="B234" s="43" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C234" s="14" t="s">
         <v>311</v>
@@ -9429,16 +9409,16 @@
         <v>312</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F234" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A235" s="76"/>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="75"/>
       <c r="B235" s="43" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C235" s="14" t="s">
         <v>313</v>
@@ -9447,16 +9427,16 @@
         <v>314</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F235" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="76"/>
+    <row r="236" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A236" s="75"/>
       <c r="B236" s="43" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C236" s="14" t="s">
         <v>315</v>
@@ -9465,52 +9445,52 @@
         <v>296</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F236" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A237" s="76"/>
+    <row r="237" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A237" s="75"/>
       <c r="B237" s="43" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C237" s="14" t="s">
         <v>316</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F237" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A238" s="76"/>
+    <row r="238" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A238" s="75"/>
       <c r="B238" s="43" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C238" s="14" t="s">
         <v>317</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F238" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A239" s="76"/>
+    <row r="239" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="75"/>
       <c r="B239" s="43" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C239" s="14" t="s">
         <v>318</v>
@@ -9519,16 +9499,16 @@
         <v>319</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F239" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="76"/>
+    <row r="240" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="75"/>
       <c r="B240" s="43" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C240" s="14" t="s">
         <v>320</v>
@@ -9537,34 +9517,34 @@
         <v>296</v>
       </c>
       <c r="E240" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F240" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A241" s="76"/>
+    <row r="241" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A241" s="75"/>
       <c r="B241" s="43" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>296</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F241" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A242" s="76"/>
+    <row r="242" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A242" s="75"/>
       <c r="B242" s="43" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C242" s="14" t="s">
         <v>321</v>
@@ -9573,16 +9553,16 @@
         <v>296</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F242" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="76"/>
+    <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="75"/>
       <c r="B243" s="43" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>322</v>
@@ -9591,16 +9571,16 @@
         <v>323</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F243" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="76"/>
+    <row r="244" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="75"/>
       <c r="B244" s="43" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C244" s="14" t="s">
         <v>324</v>
@@ -9609,34 +9589,34 @@
         <v>310</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F244" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="76"/>
+    <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="75"/>
       <c r="B245" s="43" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C245" s="14" t="s">
         <v>325</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F245" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A246" s="76"/>
+    <row r="246" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="75"/>
       <c r="B246" s="43" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C246" s="14" t="s">
         <v>55</v>
@@ -9645,16 +9625,16 @@
         <v>326</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F246" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A247" s="76"/>
+    <row r="247" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A247" s="75"/>
       <c r="B247" s="43" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>57</v>
@@ -9663,16 +9643,16 @@
         <v>58</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F247" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A248" s="76"/>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="75"/>
       <c r="B248" s="43" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C248" s="14" t="s">
         <v>59</v>
@@ -9681,16 +9661,16 @@
         <v>60</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F248" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A249" s="76"/>
+    <row r="249" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A249" s="75"/>
       <c r="B249" s="43" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C249" s="14" t="s">
         <v>61</v>
@@ -9699,16 +9679,16 @@
         <v>247</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F249" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A250" s="76"/>
+    <row r="250" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A250" s="75"/>
       <c r="B250" s="43" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C250" s="14" t="s">
         <v>63</v>
@@ -9717,117 +9697,117 @@
         <v>248</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F250" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A251" s="76"/>
+    <row r="251" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A251" s="75"/>
       <c r="B251" s="43" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C251" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F251" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A252" s="76"/>
+    <row r="252" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A252" s="75"/>
       <c r="B252" s="43" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C252" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F252" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="81"/>
+    <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="76"/>
       <c r="B253" s="52" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C253" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E253" s="46" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F253" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="81"/>
+    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="76"/>
       <c r="B254" s="57" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C254" s="71" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D254" s="72" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F254" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="77"/>
       <c r="B255" s="18" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="D255" s="18" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F255" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="216.5" x14ac:dyDescent="0.35">
-      <c r="A256" s="75" t="s">
+    <row r="256" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="74" t="s">
         <v>327</v>
       </c>
       <c r="B256" s="49" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>328</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E256" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F256" s="51" t="s">
         <v>329</v>
@@ -9835,10 +9815,10 @@
       <c r="G256" s="41"/>
       <c r="H256" s="8"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A257" s="76"/>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="75"/>
       <c r="B257" s="43" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C257" s="14" t="s">
         <v>330</v>
@@ -9847,7 +9827,7 @@
         <v>331</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F257" s="44" t="s">
         <v>329</v>
@@ -9855,19 +9835,19 @@
       <c r="G257" s="41"/>
       <c r="H257" s="8"/>
     </row>
-    <row r="258" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A258" s="76"/>
+    <row r="258" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A258" s="75"/>
       <c r="B258" s="43" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D258" s="15" t="s">
         <v>331</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F258" s="44" t="s">
         <v>329</v>
@@ -9875,10 +9855,10 @@
       <c r="G258" s="41"/>
       <c r="H258" s="8"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A259" s="76"/>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="75"/>
       <c r="B259" s="43" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C259" s="14" t="s">
         <v>332</v>
@@ -9887,7 +9867,7 @@
         <v>284</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F259" s="44" t="s">
         <v>329</v>
@@ -9895,10 +9875,10 @@
       <c r="G259" s="41"/>
       <c r="H259" s="8"/>
     </row>
-    <row r="260" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A260" s="76"/>
+    <row r="260" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A260" s="75"/>
       <c r="B260" s="43" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C260" s="14" t="s">
         <v>333</v>
@@ -9907,7 +9887,7 @@
         <v>334</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F260" s="44" t="s">
         <v>329</v>
@@ -9915,10 +9895,10 @@
       <c r="G260" s="41"/>
       <c r="H260" s="8"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A261" s="76"/>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="75"/>
       <c r="B261" s="43" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C261" s="14" t="s">
         <v>335</v>
@@ -9927,7 +9907,7 @@
         <v>334</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F261" s="44" t="s">
         <v>329</v>
@@ -9935,10 +9915,10 @@
       <c r="G261" s="41"/>
       <c r="H261" s="8"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A262" s="76"/>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="75"/>
       <c r="B262" s="43" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C262" s="14" t="s">
         <v>336</v>
@@ -9947,7 +9927,7 @@
         <v>39</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F262" s="44" t="s">
         <v>329</v>
@@ -9955,10 +9935,10 @@
       <c r="G262" s="41"/>
       <c r="H262" s="8"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A263" s="76"/>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="75"/>
       <c r="B263" s="43" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C263" s="14" t="s">
         <v>135</v>
@@ -9967,7 +9947,7 @@
         <v>337</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F263" s="44" t="s">
         <v>329</v>
@@ -9975,10 +9955,10 @@
       <c r="G263" s="41"/>
       <c r="H263" s="8"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A264" s="76"/>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="75"/>
       <c r="B264" s="43" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C264" s="14" t="s">
         <v>137</v>
@@ -9987,7 +9967,7 @@
         <v>338</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F264" s="44" t="s">
         <v>329</v>
@@ -9995,10 +9975,10 @@
       <c r="G264" s="41"/>
       <c r="H264" s="8"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A265" s="76"/>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="75"/>
       <c r="B265" s="43" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C265" s="14" t="s">
         <v>339</v>
@@ -10007,7 +9987,7 @@
         <v>340</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F265" s="44" t="s">
         <v>329</v>
@@ -10015,10 +9995,10 @@
       <c r="G265" s="41"/>
       <c r="H265" s="8"/>
     </row>
-    <row r="266" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A266" s="76"/>
+    <row r="266" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A266" s="75"/>
       <c r="B266" s="43" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C266" s="14" t="s">
         <v>341</v>
@@ -10027,7 +10007,7 @@
         <v>342</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F266" s="44" t="s">
         <v>329</v>
@@ -10035,10 +10015,10 @@
       <c r="G266" s="41"/>
       <c r="H266" s="8"/>
     </row>
-    <row r="267" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A267" s="76"/>
+    <row r="267" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A267" s="75"/>
       <c r="B267" s="43" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C267" s="14" t="s">
         <v>343</v>
@@ -10047,7 +10027,7 @@
         <v>344</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F267" s="44" t="s">
         <v>329</v>
@@ -10055,10 +10035,10 @@
       <c r="G267" s="41"/>
       <c r="H267" s="8"/>
     </row>
-    <row r="268" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A268" s="76"/>
+    <row r="268" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A268" s="75"/>
       <c r="B268" s="43" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C268" s="14" t="s">
         <v>345</v>
@@ -10067,7 +10047,7 @@
         <v>346</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F268" s="44" t="s">
         <v>329</v>
@@ -10075,10 +10055,10 @@
       <c r="G268" s="41"/>
       <c r="H268" s="8"/>
     </row>
-    <row r="269" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A269" s="76"/>
+    <row r="269" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A269" s="75"/>
       <c r="B269" s="43" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C269" s="14" t="s">
         <v>347</v>
@@ -10087,7 +10067,7 @@
         <v>348</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F269" s="44" t="s">
         <v>329</v>
@@ -10095,10 +10075,10 @@
       <c r="G269" s="41"/>
       <c r="H269" s="8"/>
     </row>
-    <row r="270" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A270" s="76"/>
+    <row r="270" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A270" s="75"/>
       <c r="B270" s="43" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C270" s="14" t="s">
         <v>349</v>
@@ -10107,7 +10087,7 @@
         <v>350</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F270" s="44" t="s">
         <v>329</v>
@@ -10115,10 +10095,10 @@
       <c r="G270" s="41"/>
       <c r="H270" s="8"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A271" s="76"/>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="75"/>
       <c r="B271" s="43" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C271" s="14" t="s">
         <v>351</v>
@@ -10127,7 +10107,7 @@
         <v>350</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F271" s="44" t="s">
         <v>329</v>
@@ -10135,10 +10115,10 @@
       <c r="G271" s="41"/>
       <c r="H271" s="8"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A272" s="76"/>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="75"/>
       <c r="B272" s="43" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C272" s="14" t="s">
         <v>352</v>
@@ -10147,7 +10127,7 @@
         <v>353</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F272" s="44" t="s">
         <v>329</v>
@@ -10155,10 +10135,10 @@
       <c r="G272" s="41"/>
       <c r="H272" s="8"/>
     </row>
-    <row r="273" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A273" s="76"/>
+    <row r="273" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A273" s="75"/>
       <c r="B273" s="43" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C273" s="14" t="s">
         <v>354</v>
@@ -10167,7 +10147,7 @@
         <v>355</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F273" s="44" t="s">
         <v>329</v>
@@ -10175,10 +10155,10 @@
       <c r="G273" s="41"/>
       <c r="H273" s="8"/>
     </row>
-    <row r="274" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A274" s="76"/>
+    <row r="274" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A274" s="75"/>
       <c r="B274" s="43" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C274" s="14" t="s">
         <v>69</v>
@@ -10187,7 +10167,7 @@
         <v>70</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F274" s="44" t="s">
         <v>44</v>
@@ -10195,19 +10175,19 @@
       <c r="G274" s="41"/>
       <c r="H274" s="8"/>
     </row>
-    <row r="275" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="77"/>
       <c r="B275" s="52" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C275" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E275" s="46" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F275" s="47" t="s">
         <v>44</v>
@@ -10215,21 +10195,21 @@
       <c r="G275" s="41"/>
       <c r="H275" s="8"/>
     </row>
-    <row r="276" spans="1:8" ht="68" x14ac:dyDescent="0.35">
-      <c r="A276" s="75" t="s">
+    <row r="276" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A276" s="74" t="s">
         <v>356</v>
       </c>
       <c r="B276" s="49" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>357</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E276" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F276" s="51" t="s">
         <v>5</v>
@@ -10237,10 +10217,10 @@
       <c r="G276" s="41"/>
       <c r="H276" s="8"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A277" s="76"/>
+    <row r="277" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A277" s="75"/>
       <c r="B277" s="43" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C277" s="14" t="s">
         <v>358</v>
@@ -10249,7 +10229,7 @@
         <v>359</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F277" s="44" t="s">
         <v>5</v>
@@ -10257,10 +10237,10 @@
       <c r="G277" s="41"/>
       <c r="H277" s="8"/>
     </row>
-    <row r="278" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A278" s="76"/>
+    <row r="278" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A278" s="75"/>
       <c r="B278" s="43" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C278" s="14" t="s">
         <v>360</v>
@@ -10269,7 +10249,7 @@
         <v>361</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F278" s="44" t="s">
         <v>5</v>
@@ -10277,10 +10257,10 @@
       <c r="G278" s="41"/>
       <c r="H278" s="8"/>
     </row>
-    <row r="279" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A279" s="76"/>
+    <row r="279" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A279" s="75"/>
       <c r="B279" s="43" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C279" s="14" t="s">
         <v>362</v>
@@ -10289,7 +10269,7 @@
         <v>363</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F279" s="44" t="s">
         <v>68</v>
@@ -10297,19 +10277,19 @@
       <c r="G279" s="41"/>
       <c r="H279" s="8"/>
     </row>
-    <row r="280" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="76"/>
+    <row r="280" spans="1:8" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="75"/>
       <c r="B280" s="43" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C280" s="14" t="s">
         <v>364</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F280" s="44" t="s">
         <v>68</v>
@@ -10317,10 +10297,10 @@
       <c r="G280" s="41"/>
       <c r="H280" s="8"/>
     </row>
-    <row r="281" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A281" s="76"/>
+    <row r="281" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A281" s="75"/>
       <c r="B281" s="43" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C281" s="14" t="s">
         <v>365</v>
@@ -10329,7 +10309,7 @@
         <v>366</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F281" s="44" t="s">
         <v>68</v>
@@ -10337,10 +10317,10 @@
       <c r="G281" s="41"/>
       <c r="H281" s="8"/>
     </row>
-    <row r="282" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="77"/>
       <c r="B282" s="52" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C282" s="16" t="s">
         <v>362</v>
@@ -10349,7 +10329,7 @@
         <v>363</v>
       </c>
       <c r="E282" s="46" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F282" s="47" t="s">
         <v>68</v>
@@ -10357,12 +10337,12 @@
       <c r="G282" s="41"/>
       <c r="H282" s="8"/>
     </row>
-    <row r="283" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A283" s="75" t="s">
+    <row r="283" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A283" s="74" t="s">
         <v>367</v>
       </c>
       <c r="B283" s="49" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>368</v>
@@ -10371,7 +10351,7 @@
         <v>369</v>
       </c>
       <c r="E283" s="50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F283" s="51" t="s">
         <v>5</v>
@@ -10379,19 +10359,19 @@
       <c r="G283" s="41"/>
       <c r="H283" s="8"/>
     </row>
-    <row r="284" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A284" s="76"/>
+    <row r="284" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A284" s="75"/>
       <c r="B284" s="43" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C284" s="14" t="s">
         <v>370</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E284" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F284" s="44" t="s">
         <v>124</v>
@@ -10399,10 +10379,10 @@
       <c r="G284" s="41"/>
       <c r="H284" s="8"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A285" s="76"/>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="75"/>
       <c r="B285" s="43" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C285" s="14" t="s">
         <v>371</v>
@@ -10411,7 +10391,7 @@
         <v>372</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F285" s="44" t="s">
         <v>124</v>
@@ -10419,10 +10399,10 @@
       <c r="G285" s="41"/>
       <c r="H285" s="8"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A286" s="76"/>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="75"/>
       <c r="B286" s="43" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C286" s="14" t="s">
         <v>373</v>
@@ -10431,7 +10411,7 @@
         <v>374</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F286" s="44" t="s">
         <v>124</v>
@@ -10439,10 +10419,10 @@
       <c r="G286" s="41"/>
       <c r="H286" s="8"/>
     </row>
-    <row r="287" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A287" s="76"/>
+    <row r="287" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A287" s="75"/>
       <c r="B287" s="43" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C287" s="14" t="s">
         <v>375</v>
@@ -10451,7 +10431,7 @@
         <v>374</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F287" s="44" t="s">
         <v>5</v>
@@ -10459,10 +10439,10 @@
       <c r="G287" s="41"/>
       <c r="H287" s="8"/>
     </row>
-    <row r="288" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A288" s="76"/>
+    <row r="288" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A288" s="75"/>
       <c r="B288" s="43" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C288" s="14" t="s">
         <v>376</v>
@@ -10471,7 +10451,7 @@
         <v>377</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F288" s="44" t="s">
         <v>5</v>
@@ -10479,10 +10459,10 @@
       <c r="G288" s="41"/>
       <c r="H288" s="8"/>
     </row>
-    <row r="289" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A289" s="76"/>
+    <row r="289" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="75"/>
       <c r="B289" s="43" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C289" s="14" t="s">
         <v>378</v>
@@ -10491,7 +10471,7 @@
         <v>379</v>
       </c>
       <c r="E289" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F289" s="44" t="s">
         <v>5</v>
@@ -10499,10 +10479,10 @@
       <c r="G289" s="41"/>
       <c r="H289" s="8"/>
     </row>
-    <row r="290" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A290" s="76"/>
+    <row r="290" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A290" s="75"/>
       <c r="B290" s="43" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C290" s="14" t="s">
         <v>380</v>
@@ -10511,7 +10491,7 @@
         <v>381</v>
       </c>
       <c r="E290" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F290" s="44" t="s">
         <v>5</v>
@@ -10519,10 +10499,10 @@
       <c r="G290" s="41"/>
       <c r="H290" s="8"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A291" s="76"/>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="75"/>
       <c r="B291" s="43" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C291" s="14" t="s">
         <v>382</v>
@@ -10531,7 +10511,7 @@
         <v>383</v>
       </c>
       <c r="E291" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F291" s="44" t="s">
         <v>5</v>
@@ -10539,10 +10519,10 @@
       <c r="G291" s="41"/>
       <c r="H291" s="8"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A292" s="76"/>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="75"/>
       <c r="B292" s="43" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C292" s="14" t="s">
         <v>384</v>
@@ -10551,7 +10531,7 @@
         <v>385</v>
       </c>
       <c r="E292" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F292" s="44" t="s">
         <v>5</v>
@@ -10559,10 +10539,10 @@
       <c r="G292" s="41"/>
       <c r="H292" s="8"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A293" s="76"/>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="75"/>
       <c r="B293" s="43" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C293" s="14" t="s">
         <v>386</v>
@@ -10571,7 +10551,7 @@
         <v>387</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F293" s="44" t="s">
         <v>5</v>
@@ -10579,10 +10559,10 @@
       <c r="G293" s="41"/>
       <c r="H293" s="8"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A294" s="76"/>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="75"/>
       <c r="B294" s="43" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C294" s="14" t="s">
         <v>388</v>
@@ -10591,7 +10571,7 @@
         <v>389</v>
       </c>
       <c r="E294" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F294" s="44" t="s">
         <v>5</v>
@@ -10599,19 +10579,19 @@
       <c r="G294" s="41"/>
       <c r="H294" s="8"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A295" s="76"/>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="75"/>
       <c r="B295" s="57" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="E295" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F295" s="44" t="s">
         <v>5</v>
@@ -10619,10 +10599,10 @@
       <c r="G295" s="41"/>
       <c r="H295" s="8"/>
     </row>
-    <row r="296" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A296" s="76"/>
+    <row r="296" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="75"/>
       <c r="B296" s="43" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C296" s="14" t="s">
         <v>390</v>
@@ -10631,7 +10611,7 @@
         <v>391</v>
       </c>
       <c r="E296" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F296" s="44" t="s">
         <v>5</v>
@@ -10639,10 +10619,10 @@
       <c r="G296" s="41"/>
       <c r="H296" s="8"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A297" s="76"/>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="75"/>
       <c r="B297" s="43" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C297" s="14" t="s">
         <v>392</v>
@@ -10651,7 +10631,7 @@
         <v>393</v>
       </c>
       <c r="E297" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F297" s="44" t="s">
         <v>5</v>
@@ -10659,10 +10639,10 @@
       <c r="G297" s="41"/>
       <c r="H297" s="8"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A298" s="76"/>
+    <row r="298" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A298" s="75"/>
       <c r="B298" s="43" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C298" s="14" t="s">
         <v>394</v>
@@ -10671,7 +10651,7 @@
         <v>395</v>
       </c>
       <c r="E298" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F298" s="44" t="s">
         <v>44</v>
@@ -10679,10 +10659,10 @@
       <c r="G298" s="41"/>
       <c r="H298" s="8"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A299" s="76"/>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="75"/>
       <c r="B299" s="43" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C299" s="14" t="s">
         <v>396</v>
@@ -10691,7 +10671,7 @@
         <v>397</v>
       </c>
       <c r="E299" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F299" s="44" t="s">
         <v>5</v>
@@ -10699,10 +10679,10 @@
       <c r="G299" s="41"/>
       <c r="H299" s="8"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A300" s="76"/>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="75"/>
       <c r="B300" s="43" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C300" s="14" t="s">
         <v>398</v>
@@ -10711,7 +10691,7 @@
         <v>399</v>
       </c>
       <c r="E300" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F300" s="44" t="s">
         <v>5</v>
@@ -10719,19 +10699,19 @@
       <c r="G300" s="41"/>
       <c r="H300" s="8"/>
     </row>
-    <row r="301" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A301" s="76"/>
+    <row r="301" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A301" s="75"/>
       <c r="B301" s="43" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C301" s="14" t="s">
         <v>400</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E301" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F301" s="44" t="s">
         <v>5</v>
@@ -10739,19 +10719,19 @@
       <c r="G301" s="41"/>
       <c r="H301" s="8"/>
     </row>
-    <row r="302" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A302" s="76"/>
+    <row r="302" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A302" s="75"/>
       <c r="B302" s="43" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C302" s="14" t="s">
         <v>401</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E302" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F302" s="44" t="s">
         <v>5</v>
@@ -10759,10 +10739,10 @@
       <c r="G302" s="41"/>
       <c r="H302" s="8"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A303" s="76"/>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="75"/>
       <c r="B303" s="43" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C303" s="14" t="s">
         <v>402</v>
@@ -10771,7 +10751,7 @@
         <v>403</v>
       </c>
       <c r="E303" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F303" s="44" t="s">
         <v>5</v>
@@ -10779,10 +10759,10 @@
       <c r="G303" s="41"/>
       <c r="H303" s="8"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A304" s="76"/>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="75"/>
       <c r="B304" s="43" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C304" s="14" t="s">
         <v>404</v>
@@ -10791,7 +10771,7 @@
         <v>405</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F304" s="44" t="s">
         <v>5</v>
@@ -10799,10 +10779,10 @@
       <c r="G304" s="41"/>
       <c r="H304" s="8"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A305" s="76"/>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="75"/>
       <c r="B305" s="43" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C305" s="14" t="s">
         <v>406</v>
@@ -10811,7 +10791,7 @@
         <v>407</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F305" s="44" t="s">
         <v>5</v>
@@ -10819,10 +10799,10 @@
       <c r="G305" s="41"/>
       <c r="H305" s="8"/>
     </row>
-    <row r="306" spans="1:8" ht="189.5" x14ac:dyDescent="0.35">
-      <c r="A306" s="76"/>
+    <row r="306" spans="1:8" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A306" s="75"/>
       <c r="B306" s="43" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C306" s="14" t="s">
         <v>408</v>
@@ -10831,7 +10811,7 @@
         <v>409</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F306" s="44" t="s">
         <v>44</v>
@@ -10839,10 +10819,10 @@
       <c r="G306" s="41"/>
       <c r="H306" s="8"/>
     </row>
-    <row r="307" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A307" s="76"/>
+    <row r="307" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A307" s="75"/>
       <c r="B307" s="43" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C307" s="14" t="s">
         <v>57</v>
@@ -10851,7 +10831,7 @@
         <v>58</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F307" s="44" t="s">
         <v>44</v>
@@ -10859,10 +10839,10 @@
       <c r="G307" s="41"/>
       <c r="H307" s="8"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A308" s="76"/>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="75"/>
       <c r="B308" s="43" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C308" s="14" t="s">
         <v>59</v>
@@ -10871,7 +10851,7 @@
         <v>60</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F308" s="44" t="s">
         <v>44</v>
@@ -10879,10 +10859,10 @@
       <c r="G308" s="41"/>
       <c r="H308" s="8"/>
     </row>
-    <row r="309" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A309" s="76"/>
+    <row r="309" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A309" s="75"/>
       <c r="B309" s="43" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C309" s="14" t="s">
         <v>61</v>
@@ -10891,7 +10871,7 @@
         <v>247</v>
       </c>
       <c r="E309" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F309" s="44" t="s">
         <v>44</v>
@@ -10899,10 +10879,10 @@
       <c r="G309" s="41"/>
       <c r="H309" s="8"/>
     </row>
-    <row r="310" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A310" s="76"/>
+    <row r="310" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A310" s="75"/>
       <c r="B310" s="43" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C310" s="14" t="s">
         <v>63</v>
@@ -10911,7 +10891,7 @@
         <v>248</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F310" s="44" t="s">
         <v>44</v>
@@ -10919,10 +10899,10 @@
       <c r="G310" s="41"/>
       <c r="H310" s="8"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A311" s="76"/>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="75"/>
       <c r="B311" s="43" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C311" s="14" t="s">
         <v>410</v>
@@ -10931,7 +10911,7 @@
         <v>411</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F311" s="44" t="s">
         <v>44</v>
@@ -10939,10 +10919,10 @@
       <c r="G311" s="41"/>
       <c r="H311" s="8"/>
     </row>
-    <row r="312" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A312" s="76"/>
+    <row r="312" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A312" s="75"/>
       <c r="B312" s="43" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C312" s="14" t="s">
         <v>65</v>
@@ -10951,7 +10931,7 @@
         <v>193</v>
       </c>
       <c r="E312" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F312" s="44" t="s">
         <v>44</v>
@@ -10959,10 +10939,10 @@
       <c r="G312" s="41"/>
       <c r="H312" s="8"/>
     </row>
-    <row r="313" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A313" s="76"/>
+    <row r="313" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A313" s="75"/>
       <c r="B313" s="43" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C313" s="14" t="s">
         <v>412</v>
@@ -10971,7 +10951,7 @@
         <v>413</v>
       </c>
       <c r="E313" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F313" s="44" t="s">
         <v>44</v>
@@ -10979,10 +10959,10 @@
       <c r="G313" s="41"/>
       <c r="H313" s="8"/>
     </row>
-    <row r="314" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A314" s="76"/>
+    <row r="314" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A314" s="75"/>
       <c r="B314" s="43" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>414</v>
@@ -10991,7 +10971,7 @@
         <v>415</v>
       </c>
       <c r="E314" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F314" s="44" t="s">
         <v>5</v>
@@ -10999,10 +10979,10 @@
       <c r="G314" s="41"/>
       <c r="H314" s="8"/>
     </row>
-    <row r="315" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A315" s="76"/>
+    <row r="315" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A315" s="75"/>
       <c r="B315" s="43" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C315" s="14" t="s">
         <v>416</v>
@@ -11011,7 +10991,7 @@
         <v>417</v>
       </c>
       <c r="E315" s="13" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F315" s="44" t="s">
         <v>5</v>
@@ -11019,19 +10999,19 @@
       <c r="G315" s="41"/>
       <c r="H315" s="8"/>
     </row>
-    <row r="316" spans="1:8" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A316" s="76"/>
-      <c r="B316" s="43" t="s">
-        <v>822</v>
+    <row r="316" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="75"/>
+      <c r="B316" s="82" t="s">
+        <v>815</v>
       </c>
       <c r="C316" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="D316" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="D316" s="15" t="s">
-        <v>419</v>
-      </c>
       <c r="E316" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F316" s="44" t="s">
         <v>329</v>
@@ -11039,39 +11019,39 @@
       <c r="G316" s="42"/>
       <c r="H316" s="9"/>
     </row>
-    <row r="317" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A317" s="76"/>
-      <c r="B317" s="43" t="s">
-        <v>823</v>
+    <row r="317" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="75"/>
+      <c r="B317" s="83" t="s">
+        <v>816</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>420</v>
+        <v>900</v>
       </c>
       <c r="D317" s="15" t="s">
-        <v>421</v>
+        <v>897</v>
       </c>
       <c r="E317" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F317" s="44" t="s">
-        <v>329</v>
+        <v>5</v>
       </c>
       <c r="G317" s="41"/>
       <c r="H317" s="8"/>
     </row>
-    <row r="318" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A318" s="76"/>
-      <c r="B318" s="43" t="s">
-        <v>824</v>
+    <row r="318" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="75"/>
+      <c r="B318" s="83" t="s">
+        <v>817</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>422</v>
+        <v>901</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>423</v>
+        <v>896</v>
       </c>
       <c r="E318" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F318" s="44" t="s">
         <v>5</v>
@@ -11079,19 +11059,19 @@
       <c r="G318" s="41"/>
       <c r="H318" s="8"/>
     </row>
-    <row r="319" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A319" s="76"/>
-      <c r="B319" s="43" t="s">
-        <v>825</v>
+    <row r="319" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A319" s="75"/>
+      <c r="B319" s="83" t="s">
+        <v>818</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>424</v>
+        <v>902</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E319" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F319" s="44" t="s">
         <v>5</v>
@@ -11099,19 +11079,19 @@
       <c r="G319" s="41"/>
       <c r="H319" s="8"/>
     </row>
-    <row r="320" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A320" s="81"/>
-      <c r="B320" s="57" t="s">
-        <v>826</v>
+    <row r="320" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="76"/>
+      <c r="B320" s="83" t="s">
+        <v>819</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>426</v>
+        <v>903</v>
       </c>
       <c r="E320" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F320" s="44" t="s">
         <v>5</v>
@@ -11119,19 +11099,19 @@
       <c r="G320" s="41"/>
       <c r="H320" s="8"/>
     </row>
-    <row r="321" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A321" s="81"/>
-      <c r="B321" s="57" t="s">
-        <v>895</v>
+    <row r="321" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="76"/>
+      <c r="B321" s="83" t="s">
+        <v>888</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>426</v>
+        <v>904</v>
       </c>
       <c r="E321" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F321" s="44" t="s">
         <v>5</v>
@@ -11139,19 +11119,19 @@
       <c r="G321" s="41"/>
       <c r="H321" s="8"/>
     </row>
-    <row r="322" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A322" s="81"/>
-      <c r="B322" s="57" t="s">
-        <v>898</v>
+    <row r="322" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A322" s="76"/>
+      <c r="B322" s="83" t="s">
+        <v>891</v>
       </c>
       <c r="C322" s="71" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="D322" s="72" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E322" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F322" s="44" t="s">
         <v>5</v>
@@ -11159,563 +11139,528 @@
       <c r="G322" s="41"/>
       <c r="H322" s="8"/>
     </row>
-    <row r="323" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A323" s="81"/>
-      <c r="B323" s="57" t="s">
-        <v>899</v>
+    <row r="323" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="76"/>
+      <c r="B323" s="84" t="s">
+        <v>892</v>
       </c>
       <c r="C323" s="71" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="D323" s="72" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="E323" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F323" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G323" s="41"/>
       <c r="H323" s="8"/>
-    </row>
-    <row r="324" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A324" s="81"/>
-      <c r="B324" s="57" t="s">
-        <v>904</v>
-      </c>
-      <c r="C324" s="71" t="s">
-        <v>901</v>
-      </c>
-      <c r="D324" s="72" t="s">
-        <v>900</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F324" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="G324" s="41"/>
-      <c r="H324" s="8"/>
-    </row>
-    <row r="325" spans="1:8" ht="41.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A325" s="77"/>
-      <c r="B325" s="52" t="s">
-        <v>905</v>
-      </c>
-      <c r="C325" s="71" t="s">
-        <v>903</v>
-      </c>
-      <c r="D325" s="72" t="s">
-        <v>906</v>
+      <c r="I323" s="18" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A324" s="74" t="s">
+        <v>420</v>
+      </c>
+      <c r="B324" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="C324" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D324" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="E324" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="F324" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A325" s="75"/>
+      <c r="B325" s="43" t="s">
+        <v>821</v>
+      </c>
+      <c r="C325" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D325" s="23" t="s">
+        <v>424</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F325" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="G325" s="41"/>
-      <c r="H325" s="8"/>
-    </row>
-    <row r="326" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A326" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="75"/>
+      <c r="B326" s="43" t="s">
+        <v>822</v>
+      </c>
+      <c r="C326" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D326" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E326" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F326" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="75"/>
+      <c r="B327" s="43" t="s">
+        <v>823</v>
+      </c>
+      <c r="C327" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B326" s="49" t="s">
-        <v>827</v>
-      </c>
-      <c r="C326" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D326" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="E326" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="F326" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" ht="41" x14ac:dyDescent="0.35">
-      <c r="A327" s="76"/>
-      <c r="B327" s="43" t="s">
-        <v>828</v>
-      </c>
-      <c r="C327" s="22" t="s">
-        <v>430</v>
-      </c>
       <c r="D327" s="23" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="E327" s="13" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F327" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A328" s="76"/>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="75"/>
       <c r="B328" s="43" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D328" s="23" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E328" s="13" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F328" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A329" s="76"/>
+    <row r="329" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A329" s="75"/>
       <c r="B329" s="43" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D329" s="23" t="s">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="E329" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F329" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A330" s="76"/>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="75"/>
       <c r="B330" s="43" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D330" s="23" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E330" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F330" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A331" s="76"/>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="75"/>
       <c r="B331" s="43" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D331" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E331" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F331" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A332" s="76"/>
-      <c r="B332" s="43" t="s">
-        <v>833</v>
-      </c>
-      <c r="C332" s="22" t="s">
+    <row r="332" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="77"/>
+      <c r="B332" s="52" t="s">
+        <v>828</v>
+      </c>
+      <c r="C332" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D332" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="E332" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="F332" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A333" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="B333" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="C333" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="D332" s="23" t="s">
+      <c r="D333" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="E332" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F332" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A333" s="76"/>
-      <c r="B333" s="43" t="s">
-        <v>834</v>
-      </c>
-      <c r="C333" s="22" t="s">
+      <c r="E333" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="F333" s="51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A334" s="75"/>
+      <c r="B334" s="43" t="s">
+        <v>830</v>
+      </c>
+      <c r="C334" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="D333" s="23" t="s">
+      <c r="D334" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="E333" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F333" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A334" s="77"/>
-      <c r="B334" s="52" t="s">
-        <v>835</v>
-      </c>
-      <c r="C334" s="24" t="s">
+      <c r="E334" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F334" s="44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A335" s="75"/>
+      <c r="B335" s="43" t="s">
+        <v>831</v>
+      </c>
+      <c r="C335" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D334" s="25" t="s">
+      <c r="D335" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="E334" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="F334" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" ht="68" x14ac:dyDescent="0.35">
-      <c r="A335" s="75" t="s">
+      <c r="E335" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F335" s="44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A336" s="75"/>
+      <c r="B336" s="43" t="s">
+        <v>832</v>
+      </c>
+      <c r="C336" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="B335" s="49" t="s">
-        <v>836</v>
-      </c>
-      <c r="C335" s="26" t="s">
+      <c r="D336" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="D335" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="E335" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="F335" s="51" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" ht="68" x14ac:dyDescent="0.35">
-      <c r="A336" s="76"/>
-      <c r="B336" s="43" t="s">
-        <v>837</v>
-      </c>
-      <c r="C336" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="D336" s="29" t="s">
-        <v>449</v>
-      </c>
       <c r="E336" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F336" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="68" x14ac:dyDescent="0.35">
-      <c r="A337" s="76"/>
+    <row r="337" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A337" s="75"/>
       <c r="B337" s="43" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F337" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A338" s="76"/>
+    <row r="338" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A338" s="75"/>
       <c r="B338" s="43" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C338" s="28" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D338" s="29" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F338" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A339" s="76"/>
+    <row r="339" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A339" s="75"/>
       <c r="B339" s="43" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C339" s="28" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D339" s="29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F339" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A340" s="76"/>
+    <row r="340" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A340" s="75"/>
       <c r="B340" s="43" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C340" s="28" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D340" s="29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F340" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="54.5" x14ac:dyDescent="0.35">
-      <c r="A341" s="76"/>
+    <row r="341" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A341" s="75"/>
       <c r="B341" s="43" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C341" s="28" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D341" s="29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F341" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A342" s="76"/>
+    <row r="342" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A342" s="75"/>
       <c r="B342" s="43" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C342" s="28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D342" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F342" s="44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A343" s="76"/>
+    <row r="343" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A343" s="75"/>
       <c r="B343" s="43" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C343" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="D343" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="E343" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F343" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A344" s="75"/>
+      <c r="B344" s="43" t="s">
+        <v>840</v>
+      </c>
+      <c r="C344" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="D344" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D343" s="29" t="s">
+      <c r="E344" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="F344" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A345" s="75"/>
+      <c r="B345" s="43" t="s">
+        <v>841</v>
+      </c>
+      <c r="C345" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="E343" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F343" s="44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A344" s="76"/>
-      <c r="B344" s="43" t="s">
-        <v>845</v>
-      </c>
-      <c r="C344" s="28" t="s">
+      <c r="D345" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="D344" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="E344" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F344" s="44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="81.5" x14ac:dyDescent="0.35">
-      <c r="A345" s="76"/>
-      <c r="B345" s="43" t="s">
-        <v>846</v>
-      </c>
-      <c r="C345" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="D345" s="29" t="s">
-        <v>467</v>
-      </c>
       <c r="E345" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F345" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A346" s="76"/>
+    <row r="346" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A346" s="75"/>
       <c r="B346" s="43" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C346" s="28" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D346" s="29" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F346" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A347" s="76"/>
+    <row r="347" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A347" s="75"/>
       <c r="B347" s="43" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C347" s="28" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D347" s="29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F347" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="41" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A348" s="76"/>
       <c r="B348" s="43" t="s">
-        <v>849</v>
-      </c>
-      <c r="C348" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="D348" s="29" t="s">
-        <v>473</v>
+        <v>844</v>
+      </c>
+      <c r="C348" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="D348" s="67" t="s">
+        <v>470</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F348" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A349" s="76"/>
-      <c r="B349" s="43" t="s">
-        <v>850</v>
-      </c>
-      <c r="C349" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="D349" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="E349" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F349" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" ht="41" x14ac:dyDescent="0.35">
-      <c r="A350" s="81"/>
-      <c r="B350" s="43" t="s">
-        <v>851</v>
-      </c>
-      <c r="C350" s="66" t="s">
-        <v>476</v>
-      </c>
-      <c r="D350" s="67" t="s">
-        <v>477</v>
-      </c>
-      <c r="E350" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F350" s="44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" ht="27.5" x14ac:dyDescent="0.35">
-      <c r="A351" s="74" t="s">
-        <v>881</v>
-      </c>
-      <c r="B351" s="68" t="s">
-        <v>882</v>
-      </c>
-      <c r="C351" s="69" t="s">
-        <v>884</v>
-      </c>
-      <c r="D351" s="68" t="s">
-        <v>885</v>
-      </c>
-      <c r="E351" s="70" t="s">
-        <v>516</v>
-      </c>
-      <c r="F351" s="68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A352" s="74"/>
-      <c r="B352" s="68" t="s">
-        <v>883</v>
-      </c>
-      <c r="C352" s="68" t="s">
-        <v>886</v>
-      </c>
-      <c r="D352" s="68" t="s">
-        <v>887</v>
-      </c>
-      <c r="E352" s="70" t="s">
-        <v>516</v>
-      </c>
-      <c r="F352" s="68" t="s">
+    <row r="349" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A349" s="78" t="s">
+        <v>874</v>
+      </c>
+      <c r="B349" s="68" t="s">
+        <v>875</v>
+      </c>
+      <c r="C349" s="69" t="s">
+        <v>877</v>
+      </c>
+      <c r="D349" s="68" t="s">
+        <v>878</v>
+      </c>
+      <c r="E349" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="F349" s="68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="78"/>
+      <c r="B350" s="68" t="s">
+        <v>876</v>
+      </c>
+      <c r="C350" s="68" t="s">
+        <v>879</v>
+      </c>
+      <c r="D350" s="68" t="s">
+        <v>880</v>
+      </c>
+      <c r="E350" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="F350" s="68" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F352" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="E1:F350"/>
   <mergeCells count="17">
+    <mergeCell ref="A184:A214"/>
+    <mergeCell ref="A215:A255"/>
     <mergeCell ref="A256:A275"/>
-    <mergeCell ref="A351:A352"/>
+    <mergeCell ref="A349:A350"/>
     <mergeCell ref="A78:A100"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A16"/>
@@ -11723,112 +11668,89 @@
     <mergeCell ref="A22:A46"/>
     <mergeCell ref="A47:A77"/>
     <mergeCell ref="A276:A282"/>
-    <mergeCell ref="A283:A325"/>
-    <mergeCell ref="A326:A334"/>
-    <mergeCell ref="A335:A350"/>
+    <mergeCell ref="A283:A323"/>
+    <mergeCell ref="A324:A332"/>
+    <mergeCell ref="A333:A348"/>
     <mergeCell ref="A101:A129"/>
     <mergeCell ref="A130:A146"/>
     <mergeCell ref="A147:A183"/>
-    <mergeCell ref="A184:A214"/>
-    <mergeCell ref="A215:A255"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
-  <conditionalFormatting sqref="E256:E320 E1:E253 E326:E1048576">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+  <conditionalFormatting sqref="E256:E320 E1:E253 E324:E1048576">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F256:F320 F1:F253 F326:F1048576">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+  <conditionalFormatting sqref="F256:F320 F1:F253 F324:F1048576">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F254">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E255">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F255">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E321">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F321">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E322">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F322">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E323">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Functional"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"UX"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F323">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"Automated"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E324">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"Functional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"UX"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E325">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Functional"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"UX"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F324:F325">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11837,32 +11759,32 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MyValues!$D$2:$D$18</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MyValues!$A$2:$A$10</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H184:H214 H256:H325</xm:sqref>
+          <xm:sqref>H184:H214 H256:H323</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MyValues!$D$2:$D$23</xm:f>
           </x14:formula1>
-          <xm:sqref>E7:E352</xm:sqref>
+          <xm:sqref>E7:E350</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MyValues!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F352</xm:sqref>
+          <xm:sqref>F2:F350</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11871,79 +11793,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.7265625" style="18" customWidth="1"/>
-    <col min="1026" max="16384" width="9.1796875" style="18"/>
+    <col min="1" max="1" width="32.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.7109375" style="18" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>163</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -11957,14 +11879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
